--- a/PIUS_Doc_ParticipacaoPublica.xlsx
+++ b/PIUS_Doc_ParticipacaoPublica.xlsx
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">hiperlinks!$A$1:$D$195</definedName>
   </definedNames>
-  <calcPr calcId="125725" iterateCount="117"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -668,7 +668,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6173" uniqueCount="1000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6170" uniqueCount="1000">
   <si>
     <t>DOCUMENTAÇÃO PIUS</t>
   </si>
@@ -6673,6 +6673,12 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6691,6 +6697,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6698,24 +6716,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6743,6 +6743,24 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6761,24 +6779,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -6836,12 +6836,63 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6878,56 +6929,29 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -6940,30 +6964,6 @@
     </xf>
     <xf numFmtId="0" fontId="36" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -8553,10 +8553,10 @@
       </c>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="610"/>
-      <c r="B2" s="611"/>
-      <c r="C2" s="611"/>
-      <c r="D2" s="611"/>
+      <c r="A2" s="598"/>
+      <c r="B2" s="599"/>
+      <c r="C2" s="599"/>
+      <c r="D2" s="599"/>
       <c r="E2" s="548"/>
       <c r="F2" s="58" t="s">
         <v>51</v>
@@ -8598,11 +8598,11 @@
       <c r="T2" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="U2" s="611" t="s">
+      <c r="U2" s="599" t="s">
         <v>57</v>
       </c>
-      <c r="V2" s="611"/>
-      <c r="W2" s="612"/>
+      <c r="V2" s="599"/>
+      <c r="W2" s="606"/>
       <c r="X2" s="61" t="s">
         <v>59</v>
       </c>
@@ -8614,7 +8614,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A3" s="598" t="s">
+      <c r="A3" s="600" t="s">
         <v>358</v>
       </c>
       <c r="B3" s="157" t="s">
@@ -8645,7 +8645,7 @@
       <c r="Z3" s="52"/>
     </row>
     <row r="4" spans="1:26" ht="15">
-      <c r="A4" s="599"/>
+      <c r="A4" s="601"/>
       <c r="B4" s="74"/>
       <c r="C4" s="163" t="s">
         <v>116</v>
@@ -8674,7 +8674,7 @@
       <c r="Z4" s="52"/>
     </row>
     <row r="5" spans="1:26" ht="15">
-      <c r="A5" s="599"/>
+      <c r="A5" s="601"/>
       <c r="B5" s="74"/>
       <c r="D5" s="85" t="s">
         <v>81</v>
@@ -8714,17 +8714,17 @@
         <v>91</v>
       </c>
       <c r="T5" s="73"/>
-      <c r="U5" s="601" t="s">
+      <c r="U5" s="603" t="s">
         <v>91</v>
       </c>
-      <c r="V5" s="602"/>
-      <c r="W5" s="603"/>
+      <c r="V5" s="604"/>
+      <c r="W5" s="605"/>
       <c r="X5" s="73"/>
       <c r="Y5" s="73"/>
       <c r="Z5" s="52"/>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="599"/>
+      <c r="A6" s="601"/>
       <c r="B6" s="73"/>
       <c r="C6" s="164" t="s">
         <v>117</v>
@@ -8754,7 +8754,7 @@
       <c r="Z6" s="52"/>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="599"/>
+      <c r="A7" s="601"/>
       <c r="B7" s="73"/>
       <c r="C7" s="164"/>
       <c r="D7" s="85" t="s">
@@ -8794,17 +8794,17 @@
       </c>
       <c r="S7" s="76"/>
       <c r="T7" s="73"/>
-      <c r="U7" s="601" t="s">
+      <c r="U7" s="603" t="s">
         <v>91</v>
       </c>
-      <c r="V7" s="602"/>
-      <c r="W7" s="603"/>
+      <c r="V7" s="604"/>
+      <c r="W7" s="605"/>
       <c r="X7" s="73"/>
       <c r="Y7" s="73"/>
       <c r="Z7" s="52"/>
     </row>
     <row r="8" spans="1:26" ht="15.75">
-      <c r="A8" s="598" t="s">
+      <c r="A8" s="600" t="s">
         <v>359</v>
       </c>
       <c r="B8" s="157" t="s">
@@ -8836,7 +8836,7 @@
       <c r="Z8" s="172"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A9" s="599"/>
+      <c r="A9" s="601"/>
       <c r="B9" s="73"/>
       <c r="C9" s="166" t="s">
         <v>71</v>
@@ -8874,17 +8874,17 @@
       </c>
       <c r="S9" s="76"/>
       <c r="T9" s="73"/>
-      <c r="U9" s="601" t="s">
+      <c r="U9" s="603" t="s">
         <v>96</v>
       </c>
-      <c r="V9" s="602"/>
-      <c r="W9" s="603"/>
+      <c r="V9" s="604"/>
+      <c r="W9" s="605"/>
       <c r="X9" s="73"/>
       <c r="Y9" s="73"/>
       <c r="Z9" s="52"/>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="599"/>
+      <c r="A10" s="601"/>
       <c r="B10" s="73"/>
       <c r="C10" s="165" t="s">
         <v>3</v>
@@ -8928,17 +8928,17 @@
       </c>
       <c r="S10" s="76"/>
       <c r="T10" s="73"/>
-      <c r="U10" s="601" t="s">
-        <v>63</v>
-      </c>
-      <c r="V10" s="602"/>
-      <c r="W10" s="603"/>
+      <c r="U10" s="603" t="s">
+        <v>63</v>
+      </c>
+      <c r="V10" s="604"/>
+      <c r="W10" s="605"/>
       <c r="X10" s="73"/>
       <c r="Y10" s="73"/>
       <c r="Z10" s="52"/>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="599"/>
+      <c r="A11" s="601"/>
       <c r="B11" s="73"/>
       <c r="C11" s="165" t="s">
         <v>35</v>
@@ -8982,17 +8982,17 @@
       </c>
       <c r="S11" s="76"/>
       <c r="T11" s="73"/>
-      <c r="U11" s="601" t="s">
-        <v>63</v>
-      </c>
-      <c r="V11" s="602"/>
-      <c r="W11" s="603"/>
+      <c r="U11" s="603" t="s">
+        <v>63</v>
+      </c>
+      <c r="V11" s="604"/>
+      <c r="W11" s="605"/>
       <c r="X11" s="73"/>
       <c r="Y11" s="73"/>
       <c r="Z11" s="52"/>
     </row>
     <row r="12" spans="1:26" ht="15.75">
-      <c r="A12" s="599"/>
+      <c r="A12" s="601"/>
       <c r="B12" s="158" t="s">
         <v>127</v>
       </c>
@@ -9022,7 +9022,7 @@
       <c r="Z12" s="52"/>
     </row>
     <row r="13" spans="1:26" ht="15">
-      <c r="A13" s="599"/>
+      <c r="A13" s="601"/>
       <c r="B13" s="74"/>
       <c r="C13" s="165" t="s">
         <v>88</v>
@@ -9052,7 +9052,7 @@
       <c r="Z13" s="52"/>
     </row>
     <row r="14" spans="1:26" ht="15">
-      <c r="A14" s="599"/>
+      <c r="A14" s="601"/>
       <c r="B14" s="74"/>
       <c r="C14" s="165"/>
       <c r="D14" s="53" t="s">
@@ -9098,17 +9098,17 @@
       </c>
       <c r="S14" s="76"/>
       <c r="T14" s="73"/>
-      <c r="U14" s="601" t="s">
-        <v>63</v>
-      </c>
-      <c r="V14" s="602"/>
-      <c r="W14" s="603"/>
+      <c r="U14" s="603" t="s">
+        <v>63</v>
+      </c>
+      <c r="V14" s="604"/>
+      <c r="W14" s="605"/>
       <c r="X14" s="73"/>
       <c r="Y14" s="73"/>
       <c r="Z14" s="52"/>
     </row>
     <row r="15" spans="1:26" ht="15">
-      <c r="A15" s="599"/>
+      <c r="A15" s="601"/>
       <c r="B15" s="74"/>
       <c r="C15" s="163"/>
       <c r="D15" s="53" t="s">
@@ -9156,17 +9156,17 @@
       </c>
       <c r="S15" s="76"/>
       <c r="T15" s="73"/>
-      <c r="U15" s="601" t="s">
-        <v>63</v>
-      </c>
-      <c r="V15" s="602"/>
-      <c r="W15" s="603"/>
+      <c r="U15" s="603" t="s">
+        <v>63</v>
+      </c>
+      <c r="V15" s="604"/>
+      <c r="W15" s="605"/>
       <c r="X15" s="73"/>
       <c r="Y15" s="73"/>
       <c r="Z15" s="52"/>
     </row>
     <row r="16" spans="1:26" ht="15">
-      <c r="A16" s="599"/>
+      <c r="A16" s="601"/>
       <c r="B16" s="74"/>
       <c r="C16" s="163"/>
       <c r="D16" s="53" t="s">
@@ -9206,17 +9206,17 @@
       </c>
       <c r="S16" s="76"/>
       <c r="T16" s="73"/>
-      <c r="U16" s="601" t="s">
-        <v>63</v>
-      </c>
-      <c r="V16" s="602"/>
-      <c r="W16" s="603"/>
+      <c r="U16" s="603" t="s">
+        <v>63</v>
+      </c>
+      <c r="V16" s="604"/>
+      <c r="W16" s="605"/>
       <c r="X16" s="73"/>
       <c r="Y16" s="73"/>
       <c r="Z16" s="52"/>
     </row>
     <row r="17" spans="1:26" ht="15">
-      <c r="A17" s="599"/>
+      <c r="A17" s="601"/>
       <c r="B17" s="74"/>
       <c r="C17" s="163"/>
       <c r="D17" s="53" t="s">
@@ -9250,17 +9250,17 @@
       </c>
       <c r="S17" s="76"/>
       <c r="T17" s="73"/>
-      <c r="U17" s="601" t="s">
-        <v>63</v>
-      </c>
-      <c r="V17" s="602"/>
-      <c r="W17" s="603"/>
+      <c r="U17" s="603" t="s">
+        <v>63</v>
+      </c>
+      <c r="V17" s="604"/>
+      <c r="W17" s="605"/>
       <c r="X17" s="73"/>
       <c r="Y17" s="73"/>
       <c r="Z17" s="52"/>
     </row>
     <row r="18" spans="1:26" ht="15">
-      <c r="A18" s="599"/>
+      <c r="A18" s="601"/>
       <c r="B18" s="74"/>
       <c r="C18" s="165" t="s">
         <v>76</v>
@@ -9290,7 +9290,7 @@
       <c r="Z18" s="52"/>
     </row>
     <row r="19" spans="1:26" ht="15">
-      <c r="A19" s="599"/>
+      <c r="A19" s="601"/>
       <c r="B19" s="74"/>
       <c r="C19" s="165"/>
       <c r="D19" s="53" t="s">
@@ -9330,17 +9330,17 @@
       <c r="R19" s="70"/>
       <c r="S19" s="76"/>
       <c r="T19" s="73"/>
-      <c r="U19" s="601" t="s">
+      <c r="U19" s="603" t="s">
         <v>91</v>
       </c>
-      <c r="V19" s="602"/>
-      <c r="W19" s="603"/>
+      <c r="V19" s="604"/>
+      <c r="W19" s="605"/>
       <c r="X19" s="73"/>
       <c r="Y19" s="73"/>
       <c r="Z19" s="52"/>
     </row>
     <row r="20" spans="1:26" ht="15">
-      <c r="A20" s="599"/>
+      <c r="A20" s="601"/>
       <c r="B20" s="74"/>
       <c r="C20" s="163"/>
       <c r="D20" s="53" t="s">
@@ -9380,17 +9380,17 @@
       <c r="R20" s="70"/>
       <c r="S20" s="76"/>
       <c r="T20" s="73"/>
-      <c r="U20" s="601" t="s">
+      <c r="U20" s="603" t="s">
         <v>91</v>
       </c>
-      <c r="V20" s="602"/>
-      <c r="W20" s="603"/>
+      <c r="V20" s="604"/>
+      <c r="W20" s="605"/>
       <c r="X20" s="73"/>
       <c r="Y20" s="73"/>
       <c r="Z20" s="52"/>
     </row>
     <row r="21" spans="1:26" ht="15">
-      <c r="A21" s="599"/>
+      <c r="A21" s="601"/>
       <c r="B21" s="74"/>
       <c r="C21" s="163"/>
       <c r="D21" s="53" t="s">
@@ -9428,17 +9428,17 @@
       <c r="R21" s="70"/>
       <c r="S21" s="76"/>
       <c r="T21" s="73"/>
-      <c r="U21" s="601" t="s">
+      <c r="U21" s="603" t="s">
         <v>91</v>
       </c>
-      <c r="V21" s="602"/>
-      <c r="W21" s="603"/>
+      <c r="V21" s="604"/>
+      <c r="W21" s="605"/>
       <c r="X21" s="73"/>
       <c r="Y21" s="73"/>
       <c r="Z21" s="52"/>
     </row>
     <row r="22" spans="1:26" ht="15">
-      <c r="A22" s="599"/>
+      <c r="A22" s="601"/>
       <c r="B22" s="74"/>
       <c r="C22" s="41"/>
       <c r="D22" s="53" t="s">
@@ -9478,17 +9478,17 @@
       <c r="R22" s="70"/>
       <c r="S22" s="76"/>
       <c r="T22" s="73"/>
-      <c r="U22" s="601" t="s">
+      <c r="U22" s="603" t="s">
         <v>91</v>
       </c>
-      <c r="V22" s="602"/>
-      <c r="W22" s="603"/>
+      <c r="V22" s="604"/>
+      <c r="W22" s="605"/>
       <c r="X22" s="73"/>
       <c r="Y22" s="73"/>
       <c r="Z22" s="52"/>
     </row>
     <row r="23" spans="1:26" ht="15">
-      <c r="A23" s="599"/>
+      <c r="A23" s="601"/>
       <c r="B23" s="74"/>
       <c r="C23" s="41"/>
       <c r="D23" s="53" t="s">
@@ -9524,17 +9524,17 @@
       <c r="R23" s="70"/>
       <c r="S23" s="76"/>
       <c r="T23" s="73"/>
-      <c r="U23" s="601" t="s">
+      <c r="U23" s="603" t="s">
         <v>91</v>
       </c>
-      <c r="V23" s="602"/>
-      <c r="W23" s="603"/>
+      <c r="V23" s="604"/>
+      <c r="W23" s="605"/>
       <c r="X23" s="73"/>
       <c r="Y23" s="73"/>
       <c r="Z23" s="52"/>
     </row>
     <row r="24" spans="1:26" ht="15">
-      <c r="A24" s="600"/>
+      <c r="A24" s="602"/>
       <c r="B24" s="79"/>
       <c r="C24" s="161"/>
       <c r="D24" s="81"/>
@@ -9554,15 +9554,15 @@
       <c r="R24" s="81"/>
       <c r="S24" s="76"/>
       <c r="T24" s="81"/>
-      <c r="U24" s="604"/>
-      <c r="V24" s="605"/>
-      <c r="W24" s="606"/>
+      <c r="U24" s="610"/>
+      <c r="V24" s="611"/>
+      <c r="W24" s="612"/>
       <c r="X24" s="81"/>
       <c r="Y24" s="81"/>
       <c r="Z24" s="160"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A25" s="598" t="s">
+      <c r="A25" s="600" t="s">
         <v>360</v>
       </c>
       <c r="B25" s="175" t="s">
@@ -9604,7 +9604,7 @@
       <c r="Z25" s="172"/>
     </row>
     <row r="26" spans="1:26" ht="15.75">
-      <c r="A26" s="599"/>
+      <c r="A26" s="601"/>
       <c r="B26" s="158" t="s">
         <v>129</v>
       </c>
@@ -9634,7 +9634,7 @@
       <c r="Z26" s="52"/>
     </row>
     <row r="27" spans="1:26" ht="15">
-      <c r="A27" s="599"/>
+      <c r="A27" s="601"/>
       <c r="B27" s="73"/>
       <c r="C27" s="124" t="s">
         <v>74</v>
@@ -9664,7 +9664,7 @@
       <c r="Z27" s="52"/>
     </row>
     <row r="28" spans="1:26">
-      <c r="A28" s="599"/>
+      <c r="A28" s="601"/>
       <c r="B28" s="73"/>
       <c r="C28" s="124"/>
       <c r="D28" s="73" t="s">
@@ -9694,17 +9694,17 @@
       <c r="R28" s="70"/>
       <c r="S28" s="76"/>
       <c r="T28" s="73"/>
-      <c r="U28" s="601" t="s">
-        <v>63</v>
-      </c>
-      <c r="V28" s="602"/>
-      <c r="W28" s="603"/>
+      <c r="U28" s="603" t="s">
+        <v>63</v>
+      </c>
+      <c r="V28" s="604"/>
+      <c r="W28" s="605"/>
       <c r="X28" s="73"/>
       <c r="Y28" s="73"/>
       <c r="Z28" s="52"/>
     </row>
     <row r="29" spans="1:26">
-      <c r="A29" s="599"/>
+      <c r="A29" s="601"/>
       <c r="B29" s="73"/>
       <c r="C29" s="52"/>
       <c r="D29" s="53" t="s">
@@ -9734,17 +9734,17 @@
       <c r="R29" s="70"/>
       <c r="S29" s="76"/>
       <c r="T29" s="73"/>
-      <c r="U29" s="601" t="s">
-        <v>63</v>
-      </c>
-      <c r="V29" s="602"/>
-      <c r="W29" s="603"/>
+      <c r="U29" s="603" t="s">
+        <v>63</v>
+      </c>
+      <c r="V29" s="604"/>
+      <c r="W29" s="605"/>
       <c r="X29" s="73"/>
       <c r="Y29" s="73"/>
       <c r="Z29" s="52"/>
     </row>
     <row r="30" spans="1:26">
-      <c r="A30" s="599"/>
+      <c r="A30" s="601"/>
       <c r="B30" s="73"/>
       <c r="C30" s="52"/>
       <c r="D30" s="53" t="s">
@@ -9770,15 +9770,15 @@
       <c r="R30" s="70"/>
       <c r="S30" s="76"/>
       <c r="T30" s="73"/>
-      <c r="U30" s="601"/>
-      <c r="V30" s="602"/>
-      <c r="W30" s="603"/>
+      <c r="U30" s="603"/>
+      <c r="V30" s="604"/>
+      <c r="W30" s="605"/>
       <c r="X30" s="73"/>
       <c r="Y30" s="73"/>
       <c r="Z30" s="52"/>
     </row>
     <row r="31" spans="1:26">
-      <c r="A31" s="599"/>
+      <c r="A31" s="601"/>
       <c r="B31" s="73"/>
       <c r="C31" s="52"/>
       <c r="D31" s="53" t="s">
@@ -9804,15 +9804,15 @@
       <c r="R31" s="70"/>
       <c r="S31" s="76"/>
       <c r="T31" s="73"/>
-      <c r="U31" s="601"/>
-      <c r="V31" s="602"/>
-      <c r="W31" s="603"/>
+      <c r="U31" s="603"/>
+      <c r="V31" s="604"/>
+      <c r="W31" s="605"/>
       <c r="X31" s="73"/>
       <c r="Y31" s="73"/>
       <c r="Z31" s="52"/>
     </row>
     <row r="32" spans="1:26" ht="15">
-      <c r="A32" s="599"/>
+      <c r="A32" s="601"/>
       <c r="B32" s="73"/>
       <c r="C32" s="124" t="s">
         <v>76</v>
@@ -9842,7 +9842,7 @@
       <c r="Z32" s="52"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A33" s="599"/>
+      <c r="A33" s="601"/>
       <c r="B33" s="73"/>
       <c r="C33" s="124"/>
       <c r="D33" s="73" t="s">
@@ -9884,7 +9884,7 @@
       <c r="Z33" s="52"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A34" s="599"/>
+      <c r="A34" s="601"/>
       <c r="B34" s="73"/>
       <c r="C34" s="52"/>
       <c r="D34" s="53" t="s">
@@ -9926,7 +9926,7 @@
       <c r="Z34" s="52"/>
     </row>
     <row r="35" spans="1:26">
-      <c r="A35" s="599"/>
+      <c r="A35" s="601"/>
       <c r="B35" s="73"/>
       <c r="C35" s="52"/>
       <c r="D35" s="53" t="s">
@@ -9966,7 +9966,7 @@
       <c r="Z35" s="52"/>
     </row>
     <row r="36" spans="1:26" ht="15">
-      <c r="A36" s="599"/>
+      <c r="A36" s="601"/>
       <c r="B36" s="73"/>
       <c r="C36" s="46"/>
       <c r="D36" s="53" t="s">
@@ -10008,7 +10008,7 @@
       <c r="Z36" s="52"/>
     </row>
     <row r="37" spans="1:26">
-      <c r="A37" s="600"/>
+      <c r="A37" s="602"/>
       <c r="B37" s="73"/>
       <c r="C37" s="52"/>
       <c r="D37" s="53" t="s">
@@ -10554,16 +10554,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="U16:W16"/>
-    <mergeCell ref="U17:W17"/>
-    <mergeCell ref="U19:W19"/>
-    <mergeCell ref="U20:W20"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="U5:W5"/>
-    <mergeCell ref="U7:W7"/>
     <mergeCell ref="U21:W21"/>
     <mergeCell ref="U22:W22"/>
     <mergeCell ref="U23:W23"/>
@@ -10580,6 +10570,16 @@
     <mergeCell ref="U11:W11"/>
     <mergeCell ref="U14:W14"/>
     <mergeCell ref="U15:W15"/>
+    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="U17:W17"/>
+    <mergeCell ref="U19:W19"/>
+    <mergeCell ref="U20:W20"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="U7:W7"/>
   </mergeCells>
   <conditionalFormatting sqref="F12:G22 F25:R38 F23:R23 H24:N24 F10:G10 H8:R8 H10:R22 F7:R7 F5:R5">
     <cfRule type="cellIs" dxfId="33" priority="13" operator="equal">
@@ -15379,6 +15379,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="CO4:CY4"/>
     <mergeCell ref="CZ4:DH4"/>
     <mergeCell ref="DI4:DM4"/>
     <mergeCell ref="DN4:DP4"/>
@@ -15395,7 +15396,6 @@
     <mergeCell ref="BC4:BL4"/>
     <mergeCell ref="DV4:EI4"/>
     <mergeCell ref="BM4:CN4"/>
-    <mergeCell ref="CO4:CY4"/>
   </mergeCells>
   <conditionalFormatting sqref="B11:C13">
     <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="Projeto">
@@ -15471,14 +15471,14 @@
     </row>
     <row r="3" spans="5:20" ht="15.75" thickBot="1">
       <c r="F3" s="33"/>
-      <c r="G3" s="653" t="s">
+      <c r="G3" s="654" t="s">
         <v>115</v>
       </c>
-      <c r="H3" s="654"/>
-      <c r="J3" s="653" t="s">
+      <c r="H3" s="655"/>
+      <c r="J3" s="654" t="s">
         <v>115</v>
       </c>
-      <c r="K3" s="654"/>
+      <c r="K3" s="655"/>
       <c r="S3" t="s">
         <v>154</v>
       </c>
@@ -15520,11 +15520,11 @@
       </c>
       <c r="M5" s="106"/>
       <c r="N5" s="118"/>
-      <c r="O5" s="671" t="s">
+      <c r="O5" s="662" t="s">
         <v>132</v>
       </c>
-      <c r="P5" s="671"/>
-      <c r="Q5" s="672"/>
+      <c r="P5" s="662"/>
+      <c r="Q5" s="663"/>
     </row>
     <row r="6" spans="5:20" ht="15.75" customHeight="1">
       <c r="E6" s="179"/>
@@ -15534,7 +15534,7 @@
       <c r="G6" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="655" t="s">
+      <c r="H6" s="672" t="s">
         <v>141</v>
       </c>
       <c r="I6">
@@ -15543,16 +15543,16 @@
       <c r="J6" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="678" t="s">
+      <c r="K6" s="656" t="s">
         <v>14</v>
       </c>
       <c r="M6" s="106"/>
       <c r="N6" s="118"/>
       <c r="O6" s="57"/>
-      <c r="P6" s="669" t="s">
+      <c r="P6" s="666" t="s">
         <v>116</v>
       </c>
-      <c r="Q6" s="670"/>
+      <c r="Q6" s="667"/>
       <c r="S6" s="195">
         <v>1</v>
       </c>
@@ -15568,14 +15568,14 @@
       <c r="G7" s="182" t="s">
         <v>142</v>
       </c>
-      <c r="H7" s="656"/>
+      <c r="H7" s="673"/>
       <c r="I7">
         <v>2</v>
       </c>
       <c r="J7" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="679"/>
+      <c r="K7" s="657"/>
       <c r="M7" s="113"/>
       <c r="N7" s="119"/>
       <c r="O7" s="57"/>
@@ -15596,18 +15596,18 @@
       <c r="G8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="657"/>
+      <c r="H8" s="674"/>
       <c r="J8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="680"/>
+      <c r="K8" s="658"/>
       <c r="M8" s="113"/>
       <c r="N8" s="119"/>
       <c r="O8" s="76"/>
-      <c r="P8" s="667" t="s">
+      <c r="P8" s="668" t="s">
         <v>117</v>
       </c>
-      <c r="Q8" s="668"/>
+      <c r="Q8" s="669"/>
       <c r="S8" s="206" t="s">
         <v>148</v>
       </c>
@@ -15735,7 +15735,7 @@
       <c r="G14" s="185" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="658" t="s">
+      <c r="H14" s="675" t="s">
         <v>145</v>
       </c>
       <c r="I14">
@@ -15744,7 +15744,7 @@
       <c r="J14" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="681" t="s">
+      <c r="K14" s="659" t="s">
         <v>19</v>
       </c>
       <c r="M14" s="114"/>
@@ -15765,21 +15765,21 @@
       <c r="G15" s="186" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="659"/>
+      <c r="H15" s="676"/>
       <c r="I15">
         <v>5</v>
       </c>
       <c r="J15" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="682"/>
+      <c r="K15" s="660"/>
       <c r="M15" s="106"/>
       <c r="N15" s="119"/>
-      <c r="O15" s="671" t="s">
+      <c r="O15" s="662" t="s">
         <v>133</v>
       </c>
-      <c r="P15" s="671"/>
-      <c r="Q15" s="672"/>
+      <c r="P15" s="662"/>
+      <c r="Q15" s="663"/>
       <c r="S15" s="206"/>
       <c r="T15" s="208" t="s">
         <v>75</v>
@@ -15793,23 +15793,23 @@
       <c r="G16" s="186" t="s">
         <v>146</v>
       </c>
-      <c r="H16" s="660"/>
+      <c r="H16" s="677"/>
       <c r="I16">
         <v>6</v>
       </c>
       <c r="J16" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="K16" s="682"/>
+      <c r="K16" s="660"/>
       <c r="M16" s="114" t="s">
         <v>122</v>
       </c>
       <c r="N16" s="119"/>
       <c r="O16" s="76"/>
-      <c r="P16" s="673" t="s">
+      <c r="P16" s="670" t="s">
         <v>71</v>
       </c>
-      <c r="Q16" s="674"/>
+      <c r="Q16" s="671"/>
       <c r="S16" s="206"/>
       <c r="T16" s="208" t="s">
         <v>73</v>
@@ -15823,7 +15823,7 @@
       <c r="G17" s="187" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="661" t="s">
+      <c r="H17" s="678" t="s">
         <v>24</v>
       </c>
       <c r="I17">
@@ -15832,16 +15832,16 @@
       <c r="J17" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="683"/>
+      <c r="K17" s="661"/>
       <c r="M17" s="114" t="s">
         <v>121</v>
       </c>
       <c r="N17" s="120"/>
       <c r="O17" s="76"/>
-      <c r="P17" s="673" t="s">
+      <c r="P17" s="670" t="s">
         <v>3</v>
       </c>
-      <c r="Q17" s="674"/>
+      <c r="Q17" s="671"/>
       <c r="S17" s="206"/>
       <c r="T17" s="208" t="s">
         <v>119</v>
@@ -15853,20 +15853,20 @@
       <c r="G18" s="188" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="662"/>
+      <c r="H18" s="679"/>
       <c r="J18" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="K18" s="678" t="s">
+      <c r="K18" s="656" t="s">
         <v>24</v>
       </c>
       <c r="M18" s="106"/>
       <c r="N18" s="120"/>
       <c r="O18" s="76"/>
-      <c r="P18" s="673" t="s">
+      <c r="P18" s="670" t="s">
         <v>35</v>
       </c>
-      <c r="Q18" s="674"/>
+      <c r="Q18" s="671"/>
       <c r="S18" s="206" t="s">
         <v>162</v>
       </c>
@@ -15880,11 +15880,11 @@
       <c r="G19" s="188" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="662"/>
+      <c r="H19" s="679"/>
       <c r="J19" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="K19" s="679"/>
+      <c r="K19" s="657"/>
       <c r="M19" s="106"/>
       <c r="N19" s="118"/>
       <c r="O19" s="76"/>
@@ -15901,18 +15901,18 @@
       <c r="G20" s="189" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="663"/>
+      <c r="H20" s="680"/>
       <c r="J20" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="K20" s="680"/>
+      <c r="K20" s="658"/>
       <c r="M20" s="106"/>
       <c r="N20" s="120"/>
-      <c r="O20" s="671" t="s">
+      <c r="O20" s="662" t="s">
         <v>134</v>
       </c>
-      <c r="P20" s="671"/>
-      <c r="Q20" s="672"/>
+      <c r="P20" s="662"/>
+      <c r="Q20" s="663"/>
       <c r="S20" s="206"/>
       <c r="T20" s="208" t="s">
         <v>77</v>
@@ -15941,10 +15941,10 @@
       <c r="M21" s="106"/>
       <c r="N21" s="119"/>
       <c r="O21" s="57"/>
-      <c r="P21" s="669" t="s">
+      <c r="P21" s="666" t="s">
         <v>88</v>
       </c>
-      <c r="Q21" s="670"/>
+      <c r="Q21" s="667"/>
       <c r="S21" s="206"/>
       <c r="T21" s="208" t="s">
         <v>78</v>
@@ -15956,7 +15956,7 @@
       <c r="G22" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="664" t="s">
+      <c r="H22" s="681" t="s">
         <v>30</v>
       </c>
       <c r="J22" s="145"/>
@@ -15981,7 +15981,7 @@
       <c r="G23" s="193" t="s">
         <v>149</v>
       </c>
-      <c r="H23" s="665"/>
+      <c r="H23" s="682"/>
       <c r="J23" s="145"/>
       <c r="K23" s="149"/>
       <c r="M23" s="113"/>
@@ -16002,9 +16002,9 @@
       <c r="G24" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="H24" s="666"/>
+      <c r="H24" s="683"/>
       <c r="J24" s="146"/>
-      <c r="K24" s="677"/>
+      <c r="K24" s="653"/>
       <c r="M24" s="113"/>
       <c r="N24" s="119"/>
       <c r="O24" s="57"/>
@@ -16029,7 +16029,7 @@
         <v>152</v>
       </c>
       <c r="J25" s="147"/>
-      <c r="K25" s="677"/>
+      <c r="K25" s="653"/>
       <c r="M25" s="113"/>
       <c r="N25" s="119"/>
       <c r="O25" s="57"/>
@@ -16047,14 +16047,14 @@
         <v>12</v>
       </c>
       <c r="J26" s="147"/>
-      <c r="K26" s="677"/>
+      <c r="K26" s="653"/>
       <c r="M26" s="113"/>
       <c r="N26" s="119"/>
       <c r="O26" s="57"/>
-      <c r="P26" s="669" t="s">
+      <c r="P26" s="666" t="s">
         <v>76</v>
       </c>
-      <c r="Q26" s="670"/>
+      <c r="Q26" s="667"/>
       <c r="S26" s="196">
         <v>3</v>
       </c>
@@ -16226,11 +16226,11 @@
       <c r="K36" s="148"/>
       <c r="M36" s="113"/>
       <c r="N36" s="119"/>
-      <c r="O36" s="675" t="s">
+      <c r="O36" s="664" t="s">
         <v>135</v>
       </c>
-      <c r="P36" s="675"/>
-      <c r="Q36" s="676"/>
+      <c r="P36" s="664"/>
+      <c r="Q36" s="665"/>
       <c r="S36" s="196">
         <v>7</v>
       </c>
@@ -16244,10 +16244,10 @@
       <c r="M37" s="113"/>
       <c r="N37" s="119"/>
       <c r="O37" s="109"/>
-      <c r="P37" s="669" t="s">
+      <c r="P37" s="666" t="s">
         <v>98</v>
       </c>
-      <c r="Q37" s="670"/>
+      <c r="Q37" s="667"/>
       <c r="T37" s="205" t="s">
         <v>23</v>
       </c>
@@ -16315,20 +16315,20 @@
         <v>19</v>
       </c>
       <c r="N43" s="120"/>
-      <c r="O43" s="671" t="s">
+      <c r="O43" s="662" t="s">
         <v>136</v>
       </c>
-      <c r="P43" s="671"/>
-      <c r="Q43" s="672"/>
+      <c r="P43" s="662"/>
+      <c r="Q43" s="663"/>
     </row>
     <row r="44" spans="6:20" ht="15.75" customHeight="1">
       <c r="M44" s="113"/>
       <c r="N44" s="119"/>
       <c r="O44" s="76"/>
-      <c r="P44" s="669" t="s">
+      <c r="P44" s="666" t="s">
         <v>74</v>
       </c>
-      <c r="Q44" s="670"/>
+      <c r="Q44" s="667"/>
     </row>
     <row r="45" spans="6:20" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="M45" s="106"/>
@@ -16370,10 +16370,10 @@
       <c r="M49" s="113"/>
       <c r="N49" s="119"/>
       <c r="O49" s="76"/>
-      <c r="P49" s="669" t="s">
+      <c r="P49" s="666" t="s">
         <v>76</v>
       </c>
-      <c r="Q49" s="670"/>
+      <c r="Q49" s="667"/>
     </row>
     <row r="50" spans="11:18" ht="15.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="M50" s="113"/>
@@ -16451,11 +16451,11 @@
         <v>3</v>
       </c>
       <c r="N58" s="126"/>
-      <c r="O58" s="671" t="s">
+      <c r="O58" s="662" t="s">
         <v>137</v>
       </c>
-      <c r="P58" s="671"/>
-      <c r="Q58" s="672"/>
+      <c r="P58" s="662"/>
+      <c r="Q58" s="663"/>
     </row>
     <row r="59" spans="11:18" ht="15.75" customHeight="1">
       <c r="M59" s="111"/>
@@ -16469,11 +16469,11 @@
         <v>62</v>
       </c>
       <c r="N60" s="123"/>
-      <c r="O60" s="671" t="s">
+      <c r="O60" s="662" t="s">
         <v>138</v>
       </c>
-      <c r="P60" s="671"/>
-      <c r="Q60" s="672"/>
+      <c r="P60" s="662"/>
+      <c r="Q60" s="663"/>
       <c r="R60" s="110"/>
     </row>
     <row r="61" spans="11:18" ht="18">
@@ -16531,21 +16531,11 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="K24:K26"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="K14:K17"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="O36:Q36"/>
-    <mergeCell ref="O43:Q43"/>
-    <mergeCell ref="O58:Q58"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="O60:Q60"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="H22:H24"/>
     <mergeCell ref="P8:Q8"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="O5:Q5"/>
@@ -16553,11 +16543,21 @@
     <mergeCell ref="P18:Q18"/>
     <mergeCell ref="O15:Q15"/>
     <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="H17:H20"/>
-    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="O60:Q60"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="O36:Q36"/>
+    <mergeCell ref="O43:Q43"/>
+    <mergeCell ref="O58:Q58"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="K14:K17"/>
+    <mergeCell ref="K18:K20"/>
   </mergeCells>
   <conditionalFormatting sqref="Q50:Q57 O60:O61 Q7 P37 Q45:Q48 Q22:Q25 Q19 Q38:Q41 P42 P44:P57 P21:P35 Q27:Q35 P6:P14 Q9:Q14 O5:O58 N20:N36 M22:M36 M16:M17 P17:P19 Q17 N7:N18 M7:M14">
     <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
@@ -16750,10 +16750,10 @@
         <v>167</v>
       </c>
       <c r="C2" s="241"/>
-      <c r="D2" s="688" t="s">
+      <c r="D2" s="684" t="s">
         <v>166</v>
       </c>
-      <c r="E2" s="689"/>
+      <c r="E2" s="685"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="15.75">
@@ -17732,18 +17732,18 @@
       <c r="F48" s="1"/>
     </row>
     <row r="49" spans="1:146" ht="39.75" thickBot="1">
-      <c r="A49" s="690" t="s">
+      <c r="A49" s="686" t="s">
         <v>197</v>
       </c>
-      <c r="B49" s="691"/>
-      <c r="C49" s="691"/>
-      <c r="D49" s="691"/>
-      <c r="E49" s="691"/>
-      <c r="F49" s="691"/>
-      <c r="G49" s="691"/>
-      <c r="H49" s="691"/>
-      <c r="I49" s="691"/>
-      <c r="J49" s="692"/>
+      <c r="B49" s="687"/>
+      <c r="C49" s="687"/>
+      <c r="D49" s="687"/>
+      <c r="E49" s="687"/>
+      <c r="F49" s="687"/>
+      <c r="G49" s="687"/>
+      <c r="H49" s="687"/>
+      <c r="I49" s="687"/>
+      <c r="J49" s="688"/>
       <c r="K49" s="644" t="s">
         <v>198</v>
       </c>
@@ -17886,16 +17886,16 @@
       <c r="EP49" s="259"/>
     </row>
     <row r="50" spans="1:146" ht="31.5">
-      <c r="A50" s="693" t="s">
+      <c r="A50" s="689" t="s">
         <v>200</v>
       </c>
-      <c r="B50" s="694"/>
-      <c r="C50" s="694"/>
-      <c r="D50" s="694"/>
-      <c r="E50" s="694"/>
-      <c r="F50" s="694"/>
-      <c r="G50" s="694"/>
-      <c r="H50" s="695"/>
+      <c r="B50" s="690"/>
+      <c r="C50" s="690"/>
+      <c r="D50" s="690"/>
+      <c r="E50" s="690"/>
+      <c r="F50" s="690"/>
+      <c r="G50" s="690"/>
+      <c r="H50" s="691"/>
       <c r="I50" s="638" t="s">
         <v>201</v>
       </c>
@@ -18066,8 +18066,8 @@
         <v>214</v>
       </c>
       <c r="B51" s="263"/>
-      <c r="C51" s="684"/>
-      <c r="D51" s="685"/>
+      <c r="C51" s="692"/>
+      <c r="D51" s="693"/>
       <c r="E51" s="263"/>
       <c r="F51" s="263"/>
       <c r="G51" s="263"/>
@@ -18282,10 +18282,10 @@
       <c r="B52" s="268" t="s">
         <v>218</v>
       </c>
-      <c r="C52" s="684" t="s">
+      <c r="C52" s="692" t="s">
         <v>218</v>
       </c>
-      <c r="D52" s="685"/>
+      <c r="D52" s="693"/>
       <c r="E52" s="268" t="s">
         <v>218</v>
       </c>
@@ -18574,10 +18574,10 @@
       <c r="B53" s="285" t="s">
         <v>220</v>
       </c>
-      <c r="C53" s="686" t="s">
+      <c r="C53" s="694" t="s">
         <v>221</v>
       </c>
-      <c r="D53" s="687"/>
+      <c r="D53" s="695"/>
       <c r="E53" s="285" t="s">
         <v>222</v>
       </c>
@@ -19224,6 +19224,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="DR50:DV50"/>
+    <mergeCell ref="DW50:EJ50"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C53:D53"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="A49:J49"/>
     <mergeCell ref="K49:DN49"/>
@@ -19240,11 +19245,6 @@
     <mergeCell ref="DA50:DI50"/>
     <mergeCell ref="DJ50:DN50"/>
     <mergeCell ref="DO50:DQ50"/>
-    <mergeCell ref="DR50:DV50"/>
-    <mergeCell ref="DW50:EJ50"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C53:D53"/>
   </mergeCells>
   <conditionalFormatting sqref="E34:E39 B26:C30 E29:E32 E15:E20 E10:E13">
     <cfRule type="cellIs" dxfId="6" priority="21" operator="equal">
@@ -19323,10 +19323,10 @@
       </c>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="610"/>
-      <c r="B2" s="611"/>
-      <c r="C2" s="611"/>
-      <c r="D2" s="611"/>
+      <c r="A2" s="598"/>
+      <c r="B2" s="599"/>
+      <c r="C2" s="599"/>
+      <c r="D2" s="599"/>
       <c r="E2" s="58" t="s">
         <v>51</v>
       </c>
@@ -19351,11 +19351,11 @@
       <c r="M2" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="N2" s="611" t="s">
+      <c r="N2" s="599" t="s">
         <v>57</v>
       </c>
-      <c r="O2" s="611"/>
-      <c r="P2" s="612"/>
+      <c r="O2" s="599"/>
+      <c r="P2" s="606"/>
       <c r="Q2" s="61" t="s">
         <v>59</v>
       </c>
@@ -19367,7 +19367,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A3" s="598" t="s">
+      <c r="A3" s="600" t="s">
         <v>358</v>
       </c>
       <c r="B3" s="157" t="s">
@@ -19391,7 +19391,7 @@
       <c r="S3" s="52"/>
     </row>
     <row r="4" spans="1:19" ht="15">
-      <c r="A4" s="599"/>
+      <c r="A4" s="601"/>
       <c r="B4" s="74"/>
       <c r="C4" s="163" t="s">
         <v>116</v>
@@ -19413,7 +19413,7 @@
       <c r="S4" s="52"/>
     </row>
     <row r="5" spans="1:19" ht="15">
-      <c r="A5" s="599"/>
+      <c r="A5" s="601"/>
       <c r="B5" s="74"/>
       <c r="D5" s="85" t="s">
         <v>81</v>
@@ -19440,17 +19440,17 @@
         <v>91</v>
       </c>
       <c r="M5" s="73"/>
-      <c r="N5" s="601" t="s">
+      <c r="N5" s="603" t="s">
         <v>91</v>
       </c>
-      <c r="O5" s="602"/>
-      <c r="P5" s="603"/>
+      <c r="O5" s="604"/>
+      <c r="P5" s="605"/>
       <c r="Q5" s="73"/>
       <c r="R5" s="73"/>
       <c r="S5" s="52"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="599"/>
+      <c r="A6" s="601"/>
       <c r="B6" s="73"/>
       <c r="C6" s="164" t="s">
         <v>117</v>
@@ -19473,7 +19473,7 @@
       <c r="S6" s="52"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="599"/>
+      <c r="A7" s="601"/>
       <c r="B7" s="73"/>
       <c r="C7" s="164"/>
       <c r="D7" s="85" t="s">
@@ -19502,17 +19502,17 @@
       </c>
       <c r="L7" s="76"/>
       <c r="M7" s="73"/>
-      <c r="N7" s="601" t="s">
+      <c r="N7" s="603" t="s">
         <v>91</v>
       </c>
-      <c r="O7" s="602"/>
-      <c r="P7" s="603"/>
+      <c r="O7" s="604"/>
+      <c r="P7" s="605"/>
       <c r="Q7" s="73"/>
       <c r="R7" s="73"/>
       <c r="S7" s="52"/>
     </row>
     <row r="8" spans="1:19" ht="15.75">
-      <c r="A8" s="598" t="s">
+      <c r="A8" s="600" t="s">
         <v>359</v>
       </c>
       <c r="B8" s="157" t="s">
@@ -19537,7 +19537,7 @@
       <c r="S8" s="172"/>
     </row>
     <row r="9" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A9" s="599"/>
+      <c r="A9" s="601"/>
       <c r="B9" s="73"/>
       <c r="C9" s="166" t="s">
         <v>71</v>
@@ -19566,17 +19566,17 @@
       </c>
       <c r="L9" s="76"/>
       <c r="M9" s="73"/>
-      <c r="N9" s="601" t="s">
+      <c r="N9" s="603" t="s">
         <v>96</v>
       </c>
-      <c r="O9" s="602"/>
-      <c r="P9" s="603"/>
+      <c r="O9" s="604"/>
+      <c r="P9" s="605"/>
       <c r="Q9" s="73"/>
       <c r="R9" s="73"/>
       <c r="S9" s="52"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="599"/>
+      <c r="A10" s="601"/>
       <c r="B10" s="73"/>
       <c r="C10" s="165" t="s">
         <v>3</v>
@@ -19605,17 +19605,17 @@
       </c>
       <c r="L10" s="76"/>
       <c r="M10" s="73"/>
-      <c r="N10" s="601" t="s">
-        <v>63</v>
-      </c>
-      <c r="O10" s="602"/>
-      <c r="P10" s="603"/>
+      <c r="N10" s="603" t="s">
+        <v>63</v>
+      </c>
+      <c r="O10" s="604"/>
+      <c r="P10" s="605"/>
       <c r="Q10" s="73"/>
       <c r="R10" s="73"/>
       <c r="S10" s="52"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="599"/>
+      <c r="A11" s="601"/>
       <c r="B11" s="73"/>
       <c r="C11" s="165" t="s">
         <v>35</v>
@@ -19644,17 +19644,17 @@
       </c>
       <c r="L11" s="76"/>
       <c r="M11" s="73"/>
-      <c r="N11" s="601" t="s">
-        <v>63</v>
-      </c>
-      <c r="O11" s="602"/>
-      <c r="P11" s="603"/>
+      <c r="N11" s="603" t="s">
+        <v>63</v>
+      </c>
+      <c r="O11" s="604"/>
+      <c r="P11" s="605"/>
       <c r="Q11" s="73"/>
       <c r="R11" s="73"/>
       <c r="S11" s="52"/>
     </row>
     <row r="12" spans="1:19" ht="15.75">
-      <c r="A12" s="599"/>
+      <c r="A12" s="601"/>
       <c r="B12" s="158" t="s">
         <v>127</v>
       </c>
@@ -19677,7 +19677,7 @@
       <c r="S12" s="52"/>
     </row>
     <row r="13" spans="1:19" ht="15">
-      <c r="A13" s="599"/>
+      <c r="A13" s="601"/>
       <c r="B13" s="74"/>
       <c r="C13" s="165" t="s">
         <v>88</v>
@@ -19700,7 +19700,7 @@
       <c r="S13" s="52"/>
     </row>
     <row r="14" spans="1:19" ht="15">
-      <c r="A14" s="599"/>
+      <c r="A14" s="601"/>
       <c r="B14" s="74"/>
       <c r="C14" s="165"/>
       <c r="D14" s="53" t="s">
@@ -19729,17 +19729,17 @@
       </c>
       <c r="L14" s="76"/>
       <c r="M14" s="73"/>
-      <c r="N14" s="601" t="s">
-        <v>63</v>
-      </c>
-      <c r="O14" s="602"/>
-      <c r="P14" s="603"/>
+      <c r="N14" s="603" t="s">
+        <v>63</v>
+      </c>
+      <c r="O14" s="604"/>
+      <c r="P14" s="605"/>
       <c r="Q14" s="73"/>
       <c r="R14" s="73"/>
       <c r="S14" s="52"/>
     </row>
     <row r="15" spans="1:19" ht="15">
-      <c r="A15" s="599"/>
+      <c r="A15" s="601"/>
       <c r="B15" s="74"/>
       <c r="C15" s="163"/>
       <c r="D15" s="53" t="s">
@@ -19768,17 +19768,17 @@
       </c>
       <c r="L15" s="76"/>
       <c r="M15" s="73"/>
-      <c r="N15" s="601" t="s">
-        <v>63</v>
-      </c>
-      <c r="O15" s="602"/>
-      <c r="P15" s="603"/>
+      <c r="N15" s="603" t="s">
+        <v>63</v>
+      </c>
+      <c r="O15" s="604"/>
+      <c r="P15" s="605"/>
       <c r="Q15" s="73"/>
       <c r="R15" s="73"/>
       <c r="S15" s="52"/>
     </row>
     <row r="16" spans="1:19" ht="15">
-      <c r="A16" s="599"/>
+      <c r="A16" s="601"/>
       <c r="B16" s="74"/>
       <c r="C16" s="163"/>
       <c r="D16" s="53" t="s">
@@ -19803,17 +19803,17 @@
       </c>
       <c r="L16" s="76"/>
       <c r="M16" s="73"/>
-      <c r="N16" s="601" t="s">
-        <v>63</v>
-      </c>
-      <c r="O16" s="602"/>
-      <c r="P16" s="603"/>
+      <c r="N16" s="603" t="s">
+        <v>63</v>
+      </c>
+      <c r="O16" s="604"/>
+      <c r="P16" s="605"/>
       <c r="Q16" s="73"/>
       <c r="R16" s="73"/>
       <c r="S16" s="52"/>
     </row>
     <row r="17" spans="1:19" ht="15">
-      <c r="A17" s="599"/>
+      <c r="A17" s="601"/>
       <c r="B17" s="74"/>
       <c r="C17" s="163"/>
       <c r="D17" s="53" t="s">
@@ -19838,17 +19838,17 @@
       </c>
       <c r="L17" s="76"/>
       <c r="M17" s="73"/>
-      <c r="N17" s="601" t="s">
-        <v>63</v>
-      </c>
-      <c r="O17" s="602"/>
-      <c r="P17" s="603"/>
+      <c r="N17" s="603" t="s">
+        <v>63</v>
+      </c>
+      <c r="O17" s="604"/>
+      <c r="P17" s="605"/>
       <c r="Q17" s="73"/>
       <c r="R17" s="73"/>
       <c r="S17" s="52"/>
     </row>
     <row r="18" spans="1:19" ht="15">
-      <c r="A18" s="599"/>
+      <c r="A18" s="601"/>
       <c r="B18" s="74"/>
       <c r="C18" s="165" t="s">
         <v>76</v>
@@ -19871,7 +19871,7 @@
       <c r="S18" s="52"/>
     </row>
     <row r="19" spans="1:19" ht="15">
-      <c r="A19" s="599"/>
+      <c r="A19" s="601"/>
       <c r="B19" s="74"/>
       <c r="C19" s="165"/>
       <c r="D19" s="53" t="s">
@@ -19896,17 +19896,17 @@
       <c r="K19" s="70"/>
       <c r="L19" s="76"/>
       <c r="M19" s="73"/>
-      <c r="N19" s="601" t="s">
+      <c r="N19" s="603" t="s">
         <v>91</v>
       </c>
-      <c r="O19" s="602"/>
-      <c r="P19" s="603"/>
+      <c r="O19" s="604"/>
+      <c r="P19" s="605"/>
       <c r="Q19" s="73"/>
       <c r="R19" s="73"/>
       <c r="S19" s="52"/>
     </row>
     <row r="20" spans="1:19" ht="15">
-      <c r="A20" s="599"/>
+      <c r="A20" s="601"/>
       <c r="B20" s="74"/>
       <c r="C20" s="163"/>
       <c r="D20" s="53" t="s">
@@ -19931,17 +19931,17 @@
       <c r="K20" s="70"/>
       <c r="L20" s="76"/>
       <c r="M20" s="73"/>
-      <c r="N20" s="601" t="s">
+      <c r="N20" s="603" t="s">
         <v>91</v>
       </c>
-      <c r="O20" s="602"/>
-      <c r="P20" s="603"/>
+      <c r="O20" s="604"/>
+      <c r="P20" s="605"/>
       <c r="Q20" s="73"/>
       <c r="R20" s="73"/>
       <c r="S20" s="52"/>
     </row>
     <row r="21" spans="1:19" ht="15">
-      <c r="A21" s="599"/>
+      <c r="A21" s="601"/>
       <c r="B21" s="74"/>
       <c r="C21" s="163"/>
       <c r="D21" s="53" t="s">
@@ -19966,17 +19966,17 @@
       <c r="K21" s="70"/>
       <c r="L21" s="76"/>
       <c r="M21" s="73"/>
-      <c r="N21" s="601" t="s">
+      <c r="N21" s="603" t="s">
         <v>91</v>
       </c>
-      <c r="O21" s="602"/>
-      <c r="P21" s="603"/>
+      <c r="O21" s="604"/>
+      <c r="P21" s="605"/>
       <c r="Q21" s="73"/>
       <c r="R21" s="73"/>
       <c r="S21" s="52"/>
     </row>
     <row r="22" spans="1:19" ht="15">
-      <c r="A22" s="599"/>
+      <c r="A22" s="601"/>
       <c r="B22" s="74"/>
       <c r="C22" s="41"/>
       <c r="D22" s="53" t="s">
@@ -20001,17 +20001,17 @@
       <c r="K22" s="70"/>
       <c r="L22" s="76"/>
       <c r="M22" s="73"/>
-      <c r="N22" s="601" t="s">
+      <c r="N22" s="603" t="s">
         <v>91</v>
       </c>
-      <c r="O22" s="602"/>
-      <c r="P22" s="603"/>
+      <c r="O22" s="604"/>
+      <c r="P22" s="605"/>
       <c r="Q22" s="73"/>
       <c r="R22" s="73"/>
       <c r="S22" s="52"/>
     </row>
     <row r="23" spans="1:19" ht="15">
-      <c r="A23" s="599"/>
+      <c r="A23" s="601"/>
       <c r="B23" s="74"/>
       <c r="C23" s="41"/>
       <c r="D23" s="53" t="s">
@@ -20036,17 +20036,17 @@
       <c r="K23" s="70"/>
       <c r="L23" s="76"/>
       <c r="M23" s="73"/>
-      <c r="N23" s="601" t="s">
+      <c r="N23" s="603" t="s">
         <v>91</v>
       </c>
-      <c r="O23" s="602"/>
-      <c r="P23" s="603"/>
+      <c r="O23" s="604"/>
+      <c r="P23" s="605"/>
       <c r="Q23" s="73"/>
       <c r="R23" s="73"/>
       <c r="S23" s="52"/>
     </row>
     <row r="24" spans="1:19" ht="15">
-      <c r="A24" s="600"/>
+      <c r="A24" s="602"/>
       <c r="B24" s="79"/>
       <c r="C24" s="161"/>
       <c r="D24" s="81" t="s">
@@ -20071,17 +20071,17 @@
       <c r="K24" s="81"/>
       <c r="L24" s="76"/>
       <c r="M24" s="81"/>
-      <c r="N24" s="604" t="s">
+      <c r="N24" s="610" t="s">
         <v>91</v>
       </c>
-      <c r="O24" s="605"/>
-      <c r="P24" s="606"/>
+      <c r="O24" s="611"/>
+      <c r="P24" s="612"/>
       <c r="Q24" s="81"/>
       <c r="R24" s="81"/>
       <c r="S24" s="160"/>
     </row>
     <row r="25" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A25" s="598" t="s">
+      <c r="A25" s="600" t="s">
         <v>360</v>
       </c>
       <c r="B25" s="175" t="s">
@@ -20116,7 +20116,7 @@
       <c r="S25" s="172"/>
     </row>
     <row r="26" spans="1:19" ht="15.75">
-      <c r="A26" s="599"/>
+      <c r="A26" s="601"/>
       <c r="B26" s="158" t="s">
         <v>129</v>
       </c>
@@ -20139,7 +20139,7 @@
       <c r="S26" s="52"/>
     </row>
     <row r="27" spans="1:19" ht="15">
-      <c r="A27" s="599"/>
+      <c r="A27" s="601"/>
       <c r="B27" s="73"/>
       <c r="C27" s="124" t="s">
         <v>74</v>
@@ -20162,7 +20162,7 @@
       <c r="S27" s="52"/>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="599"/>
+      <c r="A28" s="601"/>
       <c r="B28" s="73"/>
       <c r="C28" s="124"/>
       <c r="D28" s="73" t="s">
@@ -20181,17 +20181,17 @@
       <c r="K28" s="70"/>
       <c r="L28" s="76"/>
       <c r="M28" s="73"/>
-      <c r="N28" s="601" t="s">
-        <v>63</v>
-      </c>
-      <c r="O28" s="602"/>
-      <c r="P28" s="603"/>
+      <c r="N28" s="603" t="s">
+        <v>63</v>
+      </c>
+      <c r="O28" s="604"/>
+      <c r="P28" s="605"/>
       <c r="Q28" s="73"/>
       <c r="R28" s="73"/>
       <c r="S28" s="52"/>
     </row>
     <row r="29" spans="1:19">
-      <c r="A29" s="599"/>
+      <c r="A29" s="601"/>
       <c r="B29" s="73"/>
       <c r="C29" s="52"/>
       <c r="D29" s="53" t="s">
@@ -20212,17 +20212,17 @@
       <c r="K29" s="70"/>
       <c r="L29" s="76"/>
       <c r="M29" s="73"/>
-      <c r="N29" s="601" t="s">
-        <v>63</v>
-      </c>
-      <c r="O29" s="602"/>
-      <c r="P29" s="603"/>
+      <c r="N29" s="603" t="s">
+        <v>63</v>
+      </c>
+      <c r="O29" s="604"/>
+      <c r="P29" s="605"/>
       <c r="Q29" s="73"/>
       <c r="R29" s="73"/>
       <c r="S29" s="52"/>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" s="599"/>
+      <c r="A30" s="601"/>
       <c r="B30" s="73"/>
       <c r="C30" s="52"/>
       <c r="D30" s="53" t="s">
@@ -20239,15 +20239,15 @@
       <c r="K30" s="70"/>
       <c r="L30" s="76"/>
       <c r="M30" s="73"/>
-      <c r="N30" s="601"/>
-      <c r="O30" s="602"/>
-      <c r="P30" s="603"/>
+      <c r="N30" s="603"/>
+      <c r="O30" s="604"/>
+      <c r="P30" s="605"/>
       <c r="Q30" s="73"/>
       <c r="R30" s="73"/>
       <c r="S30" s="52"/>
     </row>
     <row r="31" spans="1:19">
-      <c r="A31" s="599"/>
+      <c r="A31" s="601"/>
       <c r="B31" s="73"/>
       <c r="C31" s="52"/>
       <c r="D31" s="53" t="s">
@@ -20264,15 +20264,15 @@
       <c r="K31" s="70"/>
       <c r="L31" s="76"/>
       <c r="M31" s="73"/>
-      <c r="N31" s="601"/>
-      <c r="O31" s="602"/>
-      <c r="P31" s="603"/>
+      <c r="N31" s="603"/>
+      <c r="O31" s="604"/>
+      <c r="P31" s="605"/>
       <c r="Q31" s="73"/>
       <c r="R31" s="73"/>
       <c r="S31" s="52"/>
     </row>
     <row r="32" spans="1:19" ht="15">
-      <c r="A32" s="599"/>
+      <c r="A32" s="601"/>
       <c r="B32" s="73"/>
       <c r="C32" s="124" t="s">
         <v>76</v>
@@ -20295,7 +20295,7 @@
       <c r="S32" s="52"/>
     </row>
     <row r="33" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A33" s="599"/>
+      <c r="A33" s="601"/>
       <c r="B33" s="73"/>
       <c r="C33" s="124"/>
       <c r="D33" s="73" t="s">
@@ -20326,7 +20326,7 @@
       <c r="S33" s="52"/>
     </row>
     <row r="34" spans="1:19">
-      <c r="A34" s="599"/>
+      <c r="A34" s="601"/>
       <c r="B34" s="73"/>
       <c r="C34" s="52"/>
       <c r="D34" s="53" t="s">
@@ -20357,7 +20357,7 @@
       <c r="S34" s="52"/>
     </row>
     <row r="35" spans="1:19">
-      <c r="A35" s="599"/>
+      <c r="A35" s="601"/>
       <c r="B35" s="73"/>
       <c r="C35" s="52"/>
       <c r="D35" s="53" t="s">
@@ -20388,7 +20388,7 @@
       <c r="S35" s="52"/>
     </row>
     <row r="36" spans="1:19" ht="15">
-      <c r="A36" s="599"/>
+      <c r="A36" s="601"/>
       <c r="B36" s="73"/>
       <c r="C36" s="46"/>
       <c r="D36" s="53" t="s">
@@ -20419,7 +20419,7 @@
       <c r="S36" s="52"/>
     </row>
     <row r="37" spans="1:19">
-      <c r="A37" s="600"/>
+      <c r="A37" s="602"/>
       <c r="B37" s="73"/>
       <c r="C37" s="52"/>
       <c r="D37" s="53" t="s">
@@ -20679,6 +20679,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A24"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="N28:P28"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A25:A37"/>
     <mergeCell ref="N20:P20"/>
@@ -20695,16 +20705,6 @@
     <mergeCell ref="N17:P17"/>
     <mergeCell ref="N31:P31"/>
     <mergeCell ref="N21:P21"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A24"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="N28:P28"/>
   </mergeCells>
   <conditionalFormatting sqref="E12:E22 E25:K38 E23:K23 F24:H24 E10 F8:K8 F10:K22 E7:K7 E5:K5">
     <cfRule type="cellIs" dxfId="77" priority="17" operator="equal">
@@ -24402,7 +24402,7 @@
       <c r="FA11" s="320"/>
     </row>
     <row r="12" spans="1:157" ht="15.75" customHeight="1">
-      <c r="A12" s="599" t="s">
+      <c r="A12" s="601" t="s">
         <v>358</v>
       </c>
       <c r="B12" s="426" t="s">
@@ -24564,7 +24564,7 @@
       <c r="EZ12" s="160"/>
     </row>
     <row r="13" spans="1:157" ht="15" customHeight="1">
-      <c r="A13" s="599"/>
+      <c r="A13" s="601"/>
       <c r="B13" s="74"/>
       <c r="C13" s="163" t="s">
         <v>116</v>
@@ -24635,7 +24635,7 @@
       <c r="BO13" s="353"/>
     </row>
     <row r="14" spans="1:157" ht="15" customHeight="1">
-      <c r="A14" s="599"/>
+      <c r="A14" s="601"/>
       <c r="B14" s="74"/>
       <c r="D14" s="85" t="s">
         <v>81</v>
@@ -25101,7 +25101,7 @@
       </c>
     </row>
     <row r="15" spans="1:157" ht="15" customHeight="1">
-      <c r="A15" s="599"/>
+      <c r="A15" s="601"/>
       <c r="B15" s="73"/>
       <c r="C15" s="164" t="s">
         <v>117</v>
@@ -25172,7 +25172,7 @@
       <c r="BO15" s="353"/>
     </row>
     <row r="16" spans="1:157">
-      <c r="A16" s="599"/>
+      <c r="A16" s="601"/>
       <c r="B16" s="73"/>
       <c r="C16" s="164"/>
       <c r="D16" s="85" t="s">
@@ -25639,7 +25639,7 @@
       </c>
     </row>
     <row r="17" spans="1:157" ht="15.75">
-      <c r="A17" s="598" t="s">
+      <c r="A17" s="600" t="s">
         <v>359</v>
       </c>
       <c r="B17" s="157" t="s">
@@ -25712,7 +25712,7 @@
       <c r="BO17" s="353"/>
     </row>
     <row r="18" spans="1:157" ht="15.75" customHeight="1">
-      <c r="A18" s="599"/>
+      <c r="A18" s="601"/>
       <c r="B18" s="73"/>
       <c r="C18" s="166" t="s">
         <v>71</v>
@@ -26179,7 +26179,7 @@
       </c>
     </row>
     <row r="19" spans="1:157">
-      <c r="A19" s="599"/>
+      <c r="A19" s="601"/>
       <c r="B19" s="73"/>
       <c r="C19" s="165" t="s">
         <v>3</v>
@@ -26646,7 +26646,7 @@
       </c>
     </row>
     <row r="20" spans="1:157">
-      <c r="A20" s="599"/>
+      <c r="A20" s="601"/>
       <c r="B20" s="73"/>
       <c r="C20" s="165" t="s">
         <v>35</v>
@@ -27113,7 +27113,7 @@
       </c>
     </row>
     <row r="21" spans="1:157" ht="15.75">
-      <c r="A21" s="599"/>
+      <c r="A21" s="601"/>
       <c r="B21" s="158" t="s">
         <v>127</v>
       </c>
@@ -27184,7 +27184,7 @@
       <c r="BO21" s="353"/>
     </row>
     <row r="22" spans="1:157" ht="15">
-      <c r="A22" s="599"/>
+      <c r="A22" s="601"/>
       <c r="B22" s="74"/>
       <c r="C22" s="165" t="s">
         <v>88</v>
@@ -27255,7 +27255,7 @@
       <c r="BO22" s="353"/>
     </row>
     <row r="23" spans="1:157" ht="15">
-      <c r="A23" s="599"/>
+      <c r="A23" s="601"/>
       <c r="B23" s="74"/>
       <c r="C23" s="165"/>
       <c r="D23" s="53" t="s">
@@ -27722,7 +27722,7 @@
       </c>
     </row>
     <row r="24" spans="1:157" ht="15">
-      <c r="A24" s="599"/>
+      <c r="A24" s="601"/>
       <c r="B24" s="74"/>
       <c r="C24" s="163"/>
       <c r="D24" s="53" t="s">
@@ -28189,7 +28189,7 @@
       </c>
     </row>
     <row r="25" spans="1:157" ht="15">
-      <c r="A25" s="599"/>
+      <c r="A25" s="601"/>
       <c r="B25" s="74"/>
       <c r="C25" s="163"/>
       <c r="D25" s="53" t="s">
@@ -28656,7 +28656,7 @@
       </c>
     </row>
     <row r="26" spans="1:157" ht="15">
-      <c r="A26" s="599"/>
+      <c r="A26" s="601"/>
       <c r="B26" s="74"/>
       <c r="C26" s="163"/>
       <c r="D26" s="53" t="s">
@@ -29123,7 +29123,7 @@
       </c>
     </row>
     <row r="27" spans="1:157" ht="15">
-      <c r="A27" s="599"/>
+      <c r="A27" s="601"/>
       <c r="B27" s="74"/>
       <c r="C27" s="165" t="s">
         <v>76</v>
@@ -29194,7 +29194,7 @@
       <c r="BO27" s="353"/>
     </row>
     <row r="28" spans="1:157" ht="15">
-      <c r="A28" s="599"/>
+      <c r="A28" s="601"/>
       <c r="B28" s="74"/>
       <c r="C28" s="165"/>
       <c r="D28" s="53" t="s">
@@ -29661,7 +29661,7 @@
       </c>
     </row>
     <row r="29" spans="1:157" ht="15">
-      <c r="A29" s="599"/>
+      <c r="A29" s="601"/>
       <c r="B29" s="74"/>
       <c r="C29" s="163"/>
       <c r="D29" s="53" t="s">
@@ -29753,7 +29753,7 @@
       <c r="BO29" s="353"/>
     </row>
     <row r="30" spans="1:157" ht="15">
-      <c r="A30" s="599"/>
+      <c r="A30" s="601"/>
       <c r="B30" s="74"/>
       <c r="C30" s="163"/>
       <c r="D30" s="53" t="s">
@@ -29845,7 +29845,7 @@
       <c r="BO30" s="353"/>
     </row>
     <row r="31" spans="1:157" ht="15">
-      <c r="A31" s="599"/>
+      <c r="A31" s="601"/>
       <c r="B31" s="74"/>
       <c r="C31" s="41"/>
       <c r="D31" s="53" t="s">
@@ -29937,7 +29937,7 @@
       <c r="BO31" s="353"/>
     </row>
     <row r="32" spans="1:157" ht="15">
-      <c r="A32" s="599"/>
+      <c r="A32" s="601"/>
       <c r="B32" s="74"/>
       <c r="C32" s="41"/>
       <c r="D32" s="53" t="s">
@@ -30405,7 +30405,7 @@
       <c r="FA32" s="353"/>
     </row>
     <row r="33" spans="1:156" ht="15">
-      <c r="A33" s="600"/>
+      <c r="A33" s="602"/>
       <c r="B33" s="79"/>
       <c r="C33" s="161"/>
       <c r="D33" s="81"/>
@@ -30870,7 +30870,7 @@
       </c>
     </row>
     <row r="34" spans="1:156" ht="15.75" customHeight="1">
-      <c r="A34" s="598" t="s">
+      <c r="A34" s="600" t="s">
         <v>360</v>
       </c>
       <c r="B34" s="175" t="s">
@@ -31341,7 +31341,7 @@
       </c>
     </row>
     <row r="35" spans="1:156" ht="15.75">
-      <c r="A35" s="599"/>
+      <c r="A35" s="601"/>
       <c r="B35" s="158" t="s">
         <v>129</v>
       </c>
@@ -31412,7 +31412,7 @@
       <c r="BO35" s="353"/>
     </row>
     <row r="36" spans="1:156" ht="15">
-      <c r="A36" s="599"/>
+      <c r="A36" s="601"/>
       <c r="B36" s="73"/>
       <c r="C36" s="124" t="s">
         <v>74</v>
@@ -31483,7 +31483,7 @@
       <c r="BO36" s="353"/>
     </row>
     <row r="37" spans="1:156">
-      <c r="A37" s="599"/>
+      <c r="A37" s="601"/>
       <c r="B37" s="73"/>
       <c r="C37" s="124"/>
       <c r="D37" s="73" t="s">
@@ -31950,7 +31950,7 @@
       </c>
     </row>
     <row r="38" spans="1:156">
-      <c r="A38" s="599"/>
+      <c r="A38" s="601"/>
       <c r="B38" s="73"/>
       <c r="C38" s="52"/>
       <c r="D38" s="53" t="s">
@@ -32043,7 +32043,7 @@
       </c>
     </row>
     <row r="39" spans="1:156">
-      <c r="A39" s="599"/>
+      <c r="A39" s="601"/>
       <c r="B39" s="73"/>
       <c r="C39" s="52"/>
       <c r="D39" s="53" t="s">
@@ -32510,7 +32510,7 @@
       </c>
     </row>
     <row r="40" spans="1:156">
-      <c r="A40" s="599"/>
+      <c r="A40" s="601"/>
       <c r="B40" s="73"/>
       <c r="C40" s="52"/>
       <c r="D40" s="53" t="s">
@@ -32977,7 +32977,7 @@
       </c>
     </row>
     <row r="41" spans="1:156" ht="15">
-      <c r="A41" s="599"/>
+      <c r="A41" s="601"/>
       <c r="B41" s="73"/>
       <c r="C41" s="124" t="s">
         <v>76</v>
@@ -33048,7 +33048,7 @@
       <c r="BO41" s="353"/>
     </row>
     <row r="42" spans="1:156" ht="15.75" customHeight="1">
-      <c r="A42" s="599"/>
+      <c r="A42" s="601"/>
       <c r="B42" s="73"/>
       <c r="C42" s="124"/>
       <c r="D42" s="73" t="s">
@@ -33515,7 +33515,7 @@
       </c>
     </row>
     <row r="43" spans="1:156">
-      <c r="A43" s="599"/>
+      <c r="A43" s="601"/>
       <c r="B43" s="73"/>
       <c r="C43" s="52"/>
       <c r="D43" s="53" t="s">
@@ -33982,7 +33982,7 @@
       </c>
     </row>
     <row r="44" spans="1:156">
-      <c r="A44" s="599"/>
+      <c r="A44" s="601"/>
       <c r="B44" s="73"/>
       <c r="C44" s="52"/>
       <c r="D44" s="53" t="s">
@@ -34078,7 +34078,7 @@
       </c>
     </row>
     <row r="45" spans="1:156" ht="15">
-      <c r="A45" s="599"/>
+      <c r="A45" s="601"/>
       <c r="B45" s="73"/>
       <c r="C45" s="46"/>
       <c r="D45" s="53" t="s">
@@ -34174,7 +34174,7 @@
       </c>
     </row>
     <row r="46" spans="1:156">
-      <c r="A46" s="600"/>
+      <c r="A46" s="602"/>
       <c r="B46" s="73"/>
       <c r="C46" s="52"/>
       <c r="D46" s="53" t="s">
@@ -42287,13 +42287,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:H209"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C191" sqref="C191"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -42301,7 +42301,7 @@
     <col min="1" max="1" width="10.42578125" style="34" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" style="34" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.7109375" style="34" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="583" customWidth="1"/>
+    <col min="4" max="4" width="139" style="583" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="34"/>
     <col min="6" max="6" width="3.28515625" style="34" customWidth="1"/>
     <col min="7" max="7" width="25.85546875" style="34" customWidth="1"/>
@@ -42330,7 +42330,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="2" spans="1:8" s="552" customFormat="1">
       <c r="A2" s="550">
         <v>1</v>
       </c>
@@ -42352,7 +42352,7 @@
         <v>http://minutapiuriobranco.gestaourbana.prefeitura.sp.gov.br/wp-content/uploads/2016/04/PIU_RioBranco_ConsultaPublica_V03.pdf</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="3" spans="1:8" s="552" customFormat="1">
       <c r="A3" s="553">
         <v>1</v>
       </c>
@@ -42372,7 +42372,7 @@
         <v>http://minutapiuriobranco.gestaourbana.prefeitura.sp.gov.br/wp-content/uploads/2016/04/PIU_RioBranco_ConsultaPublica_ANEXOI_reduzido.pdf</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="4" spans="1:8" s="552" customFormat="1">
       <c r="A4" s="553">
         <v>1</v>
       </c>
@@ -42416,7 +42416,7 @@
         <v>http://minutapiuriobranco.gestaourbana.prefeitura.sp.gov.br/</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="6" spans="1:8" s="552" customFormat="1">
       <c r="A6" s="553">
         <v>1</v>
       </c>
@@ -42435,7 +42435,7 @@
         <v>http://gestaourbana.prefeitura.sp.gov.br/wp-content/uploads/2016/03/Contribui%C3%A7%C3%B5es.pdf</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="7" spans="1:8" s="552" customFormat="1">
       <c r="A7" s="553">
         <v>2</v>
       </c>
@@ -42454,7 +42454,7 @@
         <v>http://gestaourbana.prefeitura.sp.gov.br/wp-content/uploads/2016/03/01_-MIP_PIU_Vila-Leopoldina-Villa-Lobos_motiva%C3%A7%C3%A3o.pdf</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="8" spans="1:8" s="552" customFormat="1">
       <c r="A8" s="553">
         <v>2</v>
       </c>
@@ -42473,7 +42473,7 @@
         <v>http://minuta.gestaourbana.prefeitura.sp.gov.br/piu-leopoldina/wp-content/uploads/2016/08/02_MIP_PIU_Vila_Leopoldina-Villa-Lobos_diagnostico_e_programa.pdf</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="9" spans="1:8" s="552" customFormat="1">
       <c r="A9" s="553">
         <v>2</v>
       </c>
@@ -42492,7 +42492,7 @@
         <v>http://minuta.gestaourbana.prefeitura.sp.gov.br/piu-leopoldina/wp-content/uploads/2016/08/03_MIP_PIU_Vila_Leopoldina-Villa-Lobos_mapas.pdf</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="10" spans="1:8" s="552" customFormat="1">
       <c r="A10" s="553">
         <v>2</v>
       </c>
@@ -42530,7 +42530,7 @@
         <v>http://minuta.gestaourbana.prefeitura.sp.gov.br/piu-leopoldina/</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="12" spans="1:8" s="552" customFormat="1">
       <c r="A12" s="553">
         <v>2</v>
       </c>
@@ -42549,7 +42549,7 @@
         <v>http://gestaourbana.prefeitura.sp.gov.br/wp-content/uploads/2016/03/PIU-Leopoldina.pdf</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="13" spans="1:8" s="552" customFormat="1">
       <c r="A13" s="553">
         <v>2</v>
       </c>
@@ -42568,7 +42568,7 @@
         <v>print DOSP</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="14" spans="1:8" s="552" customFormat="1">
       <c r="A14" s="553">
         <v>2</v>
       </c>
@@ -42587,7 +42587,7 @@
         <v>http://gestaourbana.prefeitura.sp.gov.br/wp-content/uploads/2016/03/PIU_VL_AudienciaPublica_01_11_SPURB-2.pdf</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="15" spans="1:8" s="552" customFormat="1">
       <c r="A15" s="553">
         <v>2</v>
       </c>
@@ -42606,7 +42606,7 @@
         <v>http://gestaourbana.prefeitura.sp.gov.br/wp-content/uploads/2016/03/PIU_VL_AudienciaPublica_01_11_Proponente.pdf</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="16" spans="1:8" s="552" customFormat="1">
       <c r="A16" s="553">
         <v>2</v>
       </c>
@@ -42625,7 +42625,7 @@
         <v>http://gestaourbana.prefeitura.sp.gov.br/wp-content/uploads/2016/03/Lista-de-Presen%C3%A7a-Sem-contato.pdf</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="17" spans="1:8" s="552" customFormat="1">
       <c r="A17" s="553">
         <v>2</v>
       </c>
@@ -42660,7 +42660,7 @@
       <c r="G18" s="170"/>
       <c r="H18" s="563"/>
     </row>
-    <row r="19" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="19" spans="1:8" s="552" customFormat="1">
       <c r="A19" s="553">
         <v>2</v>
       </c>
@@ -42676,7 +42676,7 @@
       <c r="G19" s="170"/>
       <c r="H19" s="563"/>
     </row>
-    <row r="20" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="20" spans="1:8" s="552" customFormat="1">
       <c r="A20" s="553">
         <v>2</v>
       </c>
@@ -42692,7 +42692,7 @@
       <c r="G20" s="170"/>
       <c r="H20" s="563"/>
     </row>
-    <row r="21" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="21" spans="1:8" s="552" customFormat="1">
       <c r="A21" s="553">
         <v>2</v>
       </c>
@@ -42708,7 +42708,7 @@
       <c r="G21" s="170"/>
       <c r="H21" s="563"/>
     </row>
-    <row r="22" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="22" spans="1:8" s="552" customFormat="1">
       <c r="A22" s="553">
         <v>2</v>
       </c>
@@ -42724,7 +42724,7 @@
       <c r="G22" s="170"/>
       <c r="H22" s="563"/>
     </row>
-    <row r="23" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="23" spans="1:8" s="552" customFormat="1">
       <c r="A23" s="553">
         <v>2</v>
       </c>
@@ -42740,7 +42740,7 @@
       <c r="G23" s="170"/>
       <c r="H23" s="563"/>
     </row>
-    <row r="24" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="24" spans="1:8" s="552" customFormat="1">
       <c r="A24" s="553">
         <v>2</v>
       </c>
@@ -42756,7 +42756,7 @@
       <c r="G24" s="170"/>
       <c r="H24" s="563"/>
     </row>
-    <row r="25" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="25" spans="1:8" s="552" customFormat="1">
       <c r="A25" s="553">
         <v>2</v>
       </c>
@@ -42772,7 +42772,7 @@
       <c r="G25" s="170"/>
       <c r="H25" s="563"/>
     </row>
-    <row r="26" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="26" spans="1:8" s="552" customFormat="1">
       <c r="A26" s="559">
         <v>3</v>
       </c>
@@ -42789,7 +42789,7 @@
       <c r="G26" s="170"/>
       <c r="H26" s="564"/>
     </row>
-    <row r="27" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="27" spans="1:8" s="552" customFormat="1">
       <c r="A27" s="559">
         <v>3</v>
       </c>
@@ -42806,7 +42806,7 @@
       <c r="G27" s="170"/>
       <c r="H27" s="564"/>
     </row>
-    <row r="28" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="28" spans="1:8" s="552" customFormat="1">
       <c r="A28" s="559">
         <v>3</v>
       </c>
@@ -42823,7 +42823,7 @@
       <c r="G28" s="170"/>
       <c r="H28" s="564"/>
     </row>
-    <row r="29" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="29" spans="1:8" s="552" customFormat="1">
       <c r="A29" s="559">
         <v>3</v>
       </c>
@@ -42840,7 +42840,7 @@
       <c r="G29" s="170"/>
       <c r="H29" s="564"/>
     </row>
-    <row r="30" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="30" spans="1:8" s="552" customFormat="1">
       <c r="A30" s="559">
         <v>3</v>
       </c>
@@ -42857,7 +42857,7 @@
       <c r="G30" s="170"/>
       <c r="H30" s="564"/>
     </row>
-    <row r="31" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="31" spans="1:8" s="552" customFormat="1">
       <c r="A31" s="559">
         <v>3</v>
       </c>
@@ -42874,7 +42874,7 @@
       <c r="G31" s="170"/>
       <c r="H31" s="564"/>
     </row>
-    <row r="32" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="32" spans="1:8" s="552" customFormat="1">
       <c r="A32" s="559">
         <v>3</v>
       </c>
@@ -42891,7 +42891,7 @@
       <c r="G32" s="170"/>
       <c r="H32" s="564"/>
     </row>
-    <row r="33" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="33" spans="1:8" s="552" customFormat="1">
       <c r="A33" s="559">
         <v>3</v>
       </c>
@@ -42908,7 +42908,7 @@
       <c r="G33" s="170"/>
       <c r="H33" s="564"/>
     </row>
-    <row r="34" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="34" spans="1:8" s="552" customFormat="1">
       <c r="A34" s="559">
         <v>3</v>
       </c>
@@ -42925,7 +42925,7 @@
       <c r="G34" s="170"/>
       <c r="H34" s="564"/>
     </row>
-    <row r="35" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="35" spans="1:8" s="552" customFormat="1">
       <c r="A35" s="559">
         <v>3</v>
       </c>
@@ -42942,7 +42942,7 @@
       <c r="G35" s="170"/>
       <c r="H35" s="564"/>
     </row>
-    <row r="36" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="36" spans="1:8" s="552" customFormat="1">
       <c r="A36" s="559">
         <v>3</v>
       </c>
@@ -42959,7 +42959,7 @@
       <c r="G36" s="170"/>
       <c r="H36" s="564"/>
     </row>
-    <row r="37" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="37" spans="1:8" s="552" customFormat="1">
       <c r="A37" s="559">
         <v>3</v>
       </c>
@@ -42976,7 +42976,7 @@
       <c r="G37" s="170"/>
       <c r="H37" s="564"/>
     </row>
-    <row r="38" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="38" spans="1:8" s="552" customFormat="1">
       <c r="A38" s="559">
         <v>3</v>
       </c>
@@ -42993,7 +42993,7 @@
       <c r="G38" s="170"/>
       <c r="H38" s="564"/>
     </row>
-    <row r="39" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="39" spans="1:8" s="552" customFormat="1">
       <c r="A39" s="559">
         <v>3</v>
       </c>
@@ -43010,7 +43010,7 @@
       <c r="G39" s="170"/>
       <c r="H39" s="564"/>
     </row>
-    <row r="40" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="40" spans="1:8" s="552" customFormat="1">
       <c r="A40" s="559">
         <v>3</v>
       </c>
@@ -43027,7 +43027,7 @@
       <c r="G40" s="170"/>
       <c r="H40" s="564"/>
     </row>
-    <row r="41" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="41" spans="1:8" s="552" customFormat="1">
       <c r="A41" s="559">
         <v>3</v>
       </c>
@@ -43044,7 +43044,7 @@
       <c r="G41" s="170"/>
       <c r="H41" s="564"/>
     </row>
-    <row r="42" spans="1:8" s="552" customFormat="1" ht="25.5" hidden="1">
+    <row r="42" spans="1:8" s="552" customFormat="1" ht="25.5">
       <c r="A42" s="559">
         <v>3</v>
       </c>
@@ -43061,7 +43061,7 @@
       <c r="G42" s="170"/>
       <c r="H42" s="564"/>
     </row>
-    <row r="43" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="43" spans="1:8" s="552" customFormat="1">
       <c r="A43" s="559">
         <v>3</v>
       </c>
@@ -43078,7 +43078,7 @@
       <c r="G43" s="170"/>
       <c r="H43" s="564"/>
     </row>
-    <row r="44" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="44" spans="1:8" s="552" customFormat="1">
       <c r="A44" s="559">
         <v>3</v>
       </c>
@@ -43095,7 +43095,7 @@
       <c r="G44" s="170"/>
       <c r="H44" s="564"/>
     </row>
-    <row r="45" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="45" spans="1:8" s="552" customFormat="1">
       <c r="A45" s="559">
         <v>3</v>
       </c>
@@ -43112,7 +43112,7 @@
       <c r="G45" s="170"/>
       <c r="H45" s="564"/>
     </row>
-    <row r="46" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="46" spans="1:8" s="552" customFormat="1">
       <c r="A46" s="559">
         <v>3</v>
       </c>
@@ -43129,7 +43129,7 @@
       <c r="G46" s="170"/>
       <c r="H46" s="564"/>
     </row>
-    <row r="47" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="47" spans="1:8" s="552" customFormat="1">
       <c r="A47" s="559">
         <v>3</v>
       </c>
@@ -43146,7 +43146,7 @@
       <c r="G47" s="170"/>
       <c r="H47" s="564"/>
     </row>
-    <row r="48" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="48" spans="1:8" s="552" customFormat="1">
       <c r="A48" s="559">
         <v>3</v>
       </c>
@@ -43163,7 +43163,7 @@
       <c r="G48" s="170"/>
       <c r="H48" s="564"/>
     </row>
-    <row r="49" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="49" spans="1:8" s="552" customFormat="1">
       <c r="A49" s="559">
         <v>3</v>
       </c>
@@ -43180,7 +43180,7 @@
       <c r="G49" s="170"/>
       <c r="H49" s="564"/>
     </row>
-    <row r="50" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="50" spans="1:8" s="552" customFormat="1">
       <c r="A50" s="559"/>
       <c r="B50" s="559">
         <v>1</v>
@@ -43195,7 +43195,7 @@
       <c r="G50" s="170"/>
       <c r="H50" s="564"/>
     </row>
-    <row r="51" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="51" spans="1:8" s="552" customFormat="1">
       <c r="A51" s="559">
         <v>3</v>
       </c>
@@ -43212,7 +43212,7 @@
       <c r="G51" s="170"/>
       <c r="H51" s="564"/>
     </row>
-    <row r="52" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="52" spans="1:8" s="552" customFormat="1">
       <c r="A52" s="559">
         <v>3</v>
       </c>
@@ -43229,7 +43229,7 @@
       <c r="G52" s="170"/>
       <c r="H52" s="564"/>
     </row>
-    <row r="53" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="53" spans="1:8" s="552" customFormat="1">
       <c r="A53" s="559">
         <v>3</v>
       </c>
@@ -43246,7 +43246,7 @@
       <c r="G53" s="170"/>
       <c r="H53" s="564"/>
     </row>
-    <row r="54" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="54" spans="1:8" s="552" customFormat="1">
       <c r="A54" s="559">
         <v>3</v>
       </c>
@@ -43263,7 +43263,7 @@
       <c r="G54" s="170"/>
       <c r="H54" s="564"/>
     </row>
-    <row r="55" spans="1:8" s="552" customFormat="1" ht="25.5" hidden="1">
+    <row r="55" spans="1:8" s="552" customFormat="1" ht="25.5">
       <c r="A55" s="559">
         <v>3</v>
       </c>
@@ -43280,7 +43280,7 @@
       <c r="G55" s="170"/>
       <c r="H55" s="564"/>
     </row>
-    <row r="56" spans="1:8" s="552" customFormat="1" ht="25.5" hidden="1">
+    <row r="56" spans="1:8" s="552" customFormat="1" ht="25.5">
       <c r="A56" s="559">
         <v>3</v>
       </c>
@@ -43297,7 +43297,7 @@
       <c r="G56" s="170"/>
       <c r="H56" s="564"/>
     </row>
-    <row r="57" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="57" spans="1:8" s="552" customFormat="1">
       <c r="A57" s="559">
         <v>3</v>
       </c>
@@ -43314,7 +43314,7 @@
       <c r="G57" s="170"/>
       <c r="H57" s="564"/>
     </row>
-    <row r="58" spans="1:8" s="552" customFormat="1" ht="25.5" hidden="1">
+    <row r="58" spans="1:8" s="552" customFormat="1" ht="25.5">
       <c r="A58" s="559">
         <v>3</v>
       </c>
@@ -43331,7 +43331,7 @@
       <c r="G58" s="170"/>
       <c r="H58" s="564"/>
     </row>
-    <row r="59" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="59" spans="1:8" s="552" customFormat="1">
       <c r="A59" s="559">
         <v>3</v>
       </c>
@@ -43348,7 +43348,7 @@
       <c r="G59" s="170"/>
       <c r="H59" s="564"/>
     </row>
-    <row r="60" spans="1:8" s="552" customFormat="1" ht="25.5" hidden="1">
+    <row r="60" spans="1:8" s="552" customFormat="1" ht="25.5">
       <c r="A60" s="559">
         <v>3</v>
       </c>
@@ -43365,7 +43365,7 @@
       <c r="G60" s="170"/>
       <c r="H60" s="564"/>
     </row>
-    <row r="61" spans="1:8" s="552" customFormat="1" ht="38.25" hidden="1">
+    <row r="61" spans="1:8" s="552" customFormat="1" ht="38.25">
       <c r="A61" s="559">
         <v>3</v>
       </c>
@@ -43382,7 +43382,7 @@
       <c r="G61" s="170"/>
       <c r="H61" s="564"/>
     </row>
-    <row r="62" spans="1:8" s="552" customFormat="1" ht="38.25" hidden="1">
+    <row r="62" spans="1:8" s="552" customFormat="1" ht="38.25">
       <c r="A62" s="559">
         <v>3</v>
       </c>
@@ -43399,7 +43399,7 @@
       <c r="G62" s="170"/>
       <c r="H62" s="564"/>
     </row>
-    <row r="63" spans="1:8" s="552" customFormat="1" ht="25.5" hidden="1">
+    <row r="63" spans="1:8" s="552" customFormat="1" ht="25.5">
       <c r="A63" s="559">
         <v>3</v>
       </c>
@@ -43416,7 +43416,7 @@
       <c r="G63" s="170"/>
       <c r="H63" s="564"/>
     </row>
-    <row r="64" spans="1:8" s="552" customFormat="1" ht="25.5" hidden="1">
+    <row r="64" spans="1:8" s="552" customFormat="1" ht="25.5">
       <c r="A64" s="559">
         <v>3</v>
       </c>
@@ -43433,7 +43433,7 @@
       <c r="G64" s="170"/>
       <c r="H64" s="564"/>
     </row>
-    <row r="65" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="65" spans="1:8" s="552" customFormat="1">
       <c r="A65" s="559">
         <v>3</v>
       </c>
@@ -43450,7 +43450,7 @@
       <c r="G65" s="170"/>
       <c r="H65" s="564"/>
     </row>
-    <row r="66" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="66" spans="1:8" s="552" customFormat="1">
       <c r="A66" s="559">
         <v>3</v>
       </c>
@@ -43467,7 +43467,7 @@
       <c r="G66" s="170"/>
       <c r="H66" s="564"/>
     </row>
-    <row r="67" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="67" spans="1:8" s="552" customFormat="1">
       <c r="A67" s="559">
         <v>3</v>
       </c>
@@ -43484,7 +43484,7 @@
       <c r="G67" s="170"/>
       <c r="H67" s="564"/>
     </row>
-    <row r="68" spans="1:8" s="552" customFormat="1" ht="25.5" hidden="1">
+    <row r="68" spans="1:8" s="552" customFormat="1" ht="25.5">
       <c r="A68" s="559">
         <v>3</v>
       </c>
@@ -43501,7 +43501,7 @@
       <c r="G68" s="170"/>
       <c r="H68" s="564"/>
     </row>
-    <row r="69" spans="1:8" s="552" customFormat="1" ht="25.5" hidden="1">
+    <row r="69" spans="1:8" s="552" customFormat="1" ht="25.5">
       <c r="A69" s="559">
         <v>3</v>
       </c>
@@ -43518,7 +43518,7 @@
       <c r="G69" s="170"/>
       <c r="H69" s="564"/>
     </row>
-    <row r="70" spans="1:8" s="552" customFormat="1" ht="25.5" hidden="1">
+    <row r="70" spans="1:8" s="552" customFormat="1" ht="25.5">
       <c r="A70" s="559">
         <v>3</v>
       </c>
@@ -43535,7 +43535,7 @@
       <c r="G70" s="170"/>
       <c r="H70" s="564"/>
     </row>
-    <row r="71" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="71" spans="1:8" s="552" customFormat="1">
       <c r="A71" s="559">
         <v>3</v>
       </c>
@@ -43552,7 +43552,7 @@
       <c r="G71" s="170"/>
       <c r="H71" s="564"/>
     </row>
-    <row r="72" spans="1:8" s="552" customFormat="1" ht="25.5" hidden="1">
+    <row r="72" spans="1:8" s="552" customFormat="1" ht="25.5">
       <c r="A72" s="559">
         <v>3</v>
       </c>
@@ -43569,7 +43569,7 @@
       <c r="G72" s="170"/>
       <c r="H72" s="564"/>
     </row>
-    <row r="73" spans="1:8" s="552" customFormat="1" ht="25.5" hidden="1">
+    <row r="73" spans="1:8" s="552" customFormat="1" ht="25.5">
       <c r="A73" s="559">
         <v>3</v>
       </c>
@@ -43586,12 +43586,12 @@
       <c r="G73" s="170"/>
       <c r="H73" s="564"/>
     </row>
-    <row r="74" spans="1:8" s="552" customFormat="1" ht="25.5" hidden="1">
+    <row r="74" spans="1:8" s="552" customFormat="1" ht="25.5">
       <c r="A74" s="557">
         <v>3</v>
       </c>
-      <c r="B74" s="557" t="s">
-        <v>353</v>
+      <c r="B74" s="557">
+        <v>0</v>
       </c>
       <c r="C74" s="574" t="s">
         <v>827</v>
@@ -43602,12 +43602,12 @@
       <c r="G74" s="170"/>
       <c r="H74" s="564"/>
     </row>
-    <row r="75" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="75" spans="1:8" s="552" customFormat="1">
       <c r="A75" s="557">
         <v>3</v>
       </c>
-      <c r="B75" s="557" t="s">
-        <v>41</v>
+      <c r="B75" s="557">
+        <v>0</v>
       </c>
       <c r="C75" s="574" t="s">
         <v>828</v>
@@ -43618,12 +43618,12 @@
       <c r="G75" s="170"/>
       <c r="H75" s="564"/>
     </row>
-    <row r="76" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="76" spans="1:8" s="552" customFormat="1">
       <c r="A76" s="557">
         <v>3</v>
       </c>
-      <c r="B76" s="557" t="s">
-        <v>41</v>
+      <c r="B76" s="557">
+        <v>0</v>
       </c>
       <c r="C76" s="574" t="s">
         <v>829</v>
@@ -43634,7 +43634,7 @@
       <c r="G76" s="170"/>
       <c r="H76" s="564"/>
     </row>
-    <row r="77" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="77" spans="1:8" s="552" customFormat="1">
       <c r="A77" s="559">
         <v>3</v>
       </c>
@@ -43650,7 +43650,7 @@
       <c r="G77" s="170"/>
       <c r="H77" s="564"/>
     </row>
-    <row r="78" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="78" spans="1:8" s="552" customFormat="1">
       <c r="A78" s="559">
         <v>3</v>
       </c>
@@ -43666,7 +43666,7 @@
       <c r="G78" s="170"/>
       <c r="H78" s="564"/>
     </row>
-    <row r="79" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="79" spans="1:8" s="552" customFormat="1">
       <c r="A79" s="559">
         <v>3</v>
       </c>
@@ -43682,7 +43682,7 @@
       <c r="G79" s="170"/>
       <c r="H79" s="564"/>
     </row>
-    <row r="80" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="80" spans="1:8" s="552" customFormat="1">
       <c r="A80" s="559">
         <v>3</v>
       </c>
@@ -43698,7 +43698,7 @@
       <c r="G80" s="170"/>
       <c r="H80" s="564"/>
     </row>
-    <row r="81" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="81" spans="1:8" s="552" customFormat="1">
       <c r="A81" s="553">
         <v>3</v>
       </c>
@@ -43714,7 +43714,7 @@
       <c r="G81" s="170"/>
       <c r="H81" s="563"/>
     </row>
-    <row r="82" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="82" spans="1:8" s="552" customFormat="1">
       <c r="A82" s="553">
         <v>3</v>
       </c>
@@ -43730,7 +43730,7 @@
       <c r="G82" s="170"/>
       <c r="H82" s="563"/>
     </row>
-    <row r="83" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="83" spans="1:8" s="552" customFormat="1">
       <c r="A83" s="553">
         <v>3</v>
       </c>
@@ -43746,7 +43746,7 @@
       <c r="G83" s="170"/>
       <c r="H83" s="563"/>
     </row>
-    <row r="84" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="84" spans="1:8" s="552" customFormat="1">
       <c r="A84" s="553">
         <v>3</v>
       </c>
@@ -43762,7 +43762,7 @@
       <c r="G84" s="170"/>
       <c r="H84" s="563"/>
     </row>
-    <row r="85" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="85" spans="1:8" s="552" customFormat="1">
       <c r="A85" s="553">
         <v>3</v>
       </c>
@@ -43778,7 +43778,7 @@
       <c r="G85" s="170"/>
       <c r="H85" s="563"/>
     </row>
-    <row r="86" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="86" spans="1:8" s="552" customFormat="1">
       <c r="A86" s="553">
         <v>3</v>
       </c>
@@ -43794,7 +43794,7 @@
       <c r="G86" s="170"/>
       <c r="H86" s="563"/>
     </row>
-    <row r="87" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="87" spans="1:8" s="552" customFormat="1">
       <c r="A87" s="553">
         <v>3</v>
       </c>
@@ -43810,7 +43810,7 @@
       <c r="G87" s="170"/>
       <c r="H87" s="563"/>
     </row>
-    <row r="88" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="88" spans="1:8" s="552" customFormat="1">
       <c r="A88" s="553">
         <v>3</v>
       </c>
@@ -43826,7 +43826,7 @@
       <c r="G88" s="170"/>
       <c r="H88" s="563"/>
     </row>
-    <row r="89" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="89" spans="1:8" s="552" customFormat="1">
       <c r="A89" s="553">
         <v>3</v>
       </c>
@@ -43842,7 +43842,7 @@
       <c r="G89" s="170"/>
       <c r="H89" s="563"/>
     </row>
-    <row r="90" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="90" spans="1:8" s="552" customFormat="1">
       <c r="A90" s="553">
         <v>3</v>
       </c>
@@ -43858,7 +43858,7 @@
       <c r="G90" s="170"/>
       <c r="H90" s="563"/>
     </row>
-    <row r="91" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="91" spans="1:8" s="552" customFormat="1">
       <c r="A91" s="553">
         <v>3</v>
       </c>
@@ -43874,7 +43874,7 @@
       <c r="G91" s="170"/>
       <c r="H91" s="563"/>
     </row>
-    <row r="92" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="92" spans="1:8" s="552" customFormat="1">
       <c r="A92" s="553">
         <v>3</v>
       </c>
@@ -43890,7 +43890,7 @@
       <c r="G92" s="170"/>
       <c r="H92" s="563"/>
     </row>
-    <row r="93" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="93" spans="1:8" s="552" customFormat="1">
       <c r="A93" s="553">
         <v>3</v>
       </c>
@@ -43906,7 +43906,7 @@
       <c r="G93" s="170"/>
       <c r="H93" s="563"/>
     </row>
-    <row r="94" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="94" spans="1:8" s="552" customFormat="1">
       <c r="A94" s="553">
         <v>3</v>
       </c>
@@ -43922,7 +43922,7 @@
       <c r="G94" s="170"/>
       <c r="H94" s="563"/>
     </row>
-    <row r="95" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="95" spans="1:8" s="552" customFormat="1">
       <c r="A95" s="553">
         <v>3</v>
       </c>
@@ -43938,7 +43938,7 @@
       <c r="G95" s="170"/>
       <c r="H95" s="563"/>
     </row>
-    <row r="96" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="96" spans="1:8" s="552" customFormat="1">
       <c r="A96" s="553">
         <v>3</v>
       </c>
@@ -43954,7 +43954,7 @@
       <c r="G96" s="170"/>
       <c r="H96" s="563"/>
     </row>
-    <row r="97" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="97" spans="1:8" s="552" customFormat="1">
       <c r="A97" s="553">
         <v>3</v>
       </c>
@@ -43970,7 +43970,7 @@
       <c r="G97" s="170"/>
       <c r="H97" s="563"/>
     </row>
-    <row r="98" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="98" spans="1:8" s="552" customFormat="1">
       <c r="A98" s="553">
         <v>3</v>
       </c>
@@ -43986,7 +43986,7 @@
       <c r="G98" s="170"/>
       <c r="H98" s="563"/>
     </row>
-    <row r="99" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="99" spans="1:8" s="552" customFormat="1">
       <c r="A99" s="559">
         <v>3</v>
       </c>
@@ -44002,7 +44002,7 @@
       <c r="G99" s="170"/>
       <c r="H99" s="564"/>
     </row>
-    <row r="100" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="100" spans="1:8" s="552" customFormat="1">
       <c r="A100" s="559">
         <v>3</v>
       </c>
@@ -44018,7 +44018,7 @@
       <c r="G100" s="170"/>
       <c r="H100" s="564"/>
     </row>
-    <row r="101" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="101" spans="1:8" s="552" customFormat="1">
       <c r="A101" s="559">
         <v>3</v>
       </c>
@@ -44034,7 +44034,7 @@
       <c r="G101" s="170"/>
       <c r="H101" s="564"/>
     </row>
-    <row r="102" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="102" spans="1:8" s="552" customFormat="1">
       <c r="A102" s="559">
         <v>3</v>
       </c>
@@ -44050,7 +44050,7 @@
       <c r="G102" s="170"/>
       <c r="H102" s="564"/>
     </row>
-    <row r="103" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="103" spans="1:8" s="552" customFormat="1">
       <c r="A103" s="553">
         <v>4</v>
       </c>
@@ -44069,7 +44069,7 @@
         <v>http://gestaourbana.prefeitura.sp.gov.br/wp-content/uploads/2016/03/PIU_NESP_REQUERIMENTO-1.pdf</v>
       </c>
     </row>
-    <row r="104" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="104" spans="1:8" s="552" customFormat="1">
       <c r="A104" s="553">
         <v>4</v>
       </c>
@@ -44088,7 +44088,7 @@
         <v>http://gestaourbana.prefeitura.sp.gov.br/wp-content/uploads/2016/03/PIU_NESP_DIAGN%C3%93STICO-1.pdf</v>
       </c>
     </row>
-    <row r="105" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="105" spans="1:8" s="552" customFormat="1">
       <c r="A105" s="553">
         <v>4</v>
       </c>
@@ -44107,7 +44107,7 @@
         <v>http://gestaourbana.prefeitura.sp.gov.br/wp-content/uploads/2016/03/PIU_NESP_PER%C3%8DMETRO-1.pdf</v>
       </c>
     </row>
-    <row r="106" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="106" spans="1:8" s="552" customFormat="1">
       <c r="A106" s="553">
         <v>4</v>
       </c>
@@ -44145,7 +44145,7 @@
         <v>http://minuta.gestaourbana.prefeitura.sp.gov.br/piunesp/</v>
       </c>
     </row>
-    <row r="108" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="108" spans="1:8" s="552" customFormat="1">
       <c r="A108" s="553">
         <v>4</v>
       </c>
@@ -44164,7 +44164,7 @@
         <v>print DOSP</v>
       </c>
     </row>
-    <row r="109" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="109" spans="1:8" s="552" customFormat="1">
       <c r="A109" s="553">
         <v>4</v>
       </c>
@@ -44183,7 +44183,7 @@
         <v>http://gestaourbana.prefeitura.sp.gov.br/wp-content/uploads/2016/03/NESP_apresentacao_2016_08_27.pdf</v>
       </c>
     </row>
-    <row r="110" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="110" spans="1:8" s="552" customFormat="1">
       <c r="A110" s="553">
         <v>4</v>
       </c>
@@ -44202,7 +44202,7 @@
         <v>http://gestaourbana.prefeitura.sp.gov.br/wp-content/uploads/2016/03/NESP_lista_presenca_2016_08_27-3.pdf</v>
       </c>
     </row>
-    <row r="111" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="111" spans="1:8" s="552" customFormat="1">
       <c r="A111" s="553">
         <v>4</v>
       </c>
@@ -44221,7 +44221,7 @@
         <v>http://gestaourbana.prefeitura.sp.gov.br/wp-content/uploads/2016/03/NESP_ata_2016_08_27.pdf</v>
       </c>
     </row>
-    <row r="112" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="112" spans="1:8" s="552" customFormat="1">
       <c r="A112" s="553">
         <v>4</v>
       </c>
@@ -44240,7 +44240,7 @@
         <v>http://gestaourbana.prefeitura.sp.gov.br/wp-content/uploads/2016/03/NESP_contribuicoes_2016_08_27.pdf</v>
       </c>
     </row>
-    <row r="113" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="113" spans="1:8" s="552" customFormat="1">
       <c r="A113" s="553">
         <v>4</v>
       </c>
@@ -44259,7 +44259,7 @@
         <v>print DOSP</v>
       </c>
     </row>
-    <row r="114" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="114" spans="1:8" s="552" customFormat="1">
       <c r="A114" s="553">
         <v>4</v>
       </c>
@@ -44278,7 +44278,7 @@
         <v>http://gestaourbana.prefeitura.sp.gov.br/wp-content/uploads/2016/03/NESP_apresentacao_2016_08_27.pdf</v>
       </c>
     </row>
-    <row r="115" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="115" spans="1:8" s="552" customFormat="1">
       <c r="A115" s="553">
         <v>4</v>
       </c>
@@ -44297,7 +44297,7 @@
         <v>http://gestaourbana.prefeitura.sp.gov.br/wp-content/uploads/2016/03/NESP_ata_2016_08_27.pdf</v>
       </c>
     </row>
-    <row r="116" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="116" spans="1:8" s="552" customFormat="1">
       <c r="A116" s="553">
         <v>4</v>
       </c>
@@ -44316,7 +44316,7 @@
         <v>http://gestaourbana.prefeitura.sp.gov.br/wp-content/uploads/2016/03/PIU-NESP-Relat%C3%B3rio-Final_161215_reduzido.pdf</v>
       </c>
     </row>
-    <row r="117" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="117" spans="1:8" s="552" customFormat="1">
       <c r="A117" s="553">
         <v>4</v>
       </c>
@@ -44335,7 +44335,7 @@
         <v xml:space="preserve">http://gestaourbana.prefeitura.sp.gov.br/wp-content/uploads/2016/12/DECRETO-N%C2%BA-57569.pdf </v>
       </c>
     </row>
-    <row r="118" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="118" spans="1:8" s="552" customFormat="1">
       <c r="A118" s="553">
         <v>4</v>
       </c>
@@ -44354,7 +44354,7 @@
         <v>http://gestaourbana.prefeitura.sp.gov.br/wp-content/uploads/2016/12/mapa-e-quadros.pdf</v>
       </c>
     </row>
-    <row r="119" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="119" spans="1:8" s="552" customFormat="1">
       <c r="A119" s="553">
         <v>5</v>
       </c>
@@ -44370,7 +44370,7 @@
       <c r="G119" s="170"/>
       <c r="H119" s="565"/>
     </row>
-    <row r="120" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="120" spans="1:8" s="552" customFormat="1">
       <c r="A120" s="553">
         <v>5</v>
       </c>
@@ -44386,7 +44386,7 @@
       <c r="G120" s="170"/>
       <c r="H120" s="565"/>
     </row>
-    <row r="121" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="121" spans="1:8" s="552" customFormat="1">
       <c r="A121" s="553">
         <v>5</v>
       </c>
@@ -44402,7 +44402,7 @@
       <c r="G121" s="170"/>
       <c r="H121" s="566"/>
     </row>
-    <row r="122" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="122" spans="1:8" s="552" customFormat="1">
       <c r="A122" s="553">
         <v>5</v>
       </c>
@@ -44418,7 +44418,7 @@
       <c r="G122" s="170"/>
       <c r="H122" s="566"/>
     </row>
-    <row r="123" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="123" spans="1:8" s="552" customFormat="1">
       <c r="A123" s="553">
         <v>5</v>
       </c>
@@ -44434,7 +44434,7 @@
       <c r="G123" s="170"/>
       <c r="H123" s="566"/>
     </row>
-    <row r="124" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="124" spans="1:8" s="552" customFormat="1">
       <c r="A124" s="553">
         <v>5</v>
       </c>
@@ -44450,7 +44450,7 @@
       <c r="G124" s="170"/>
       <c r="H124" s="566"/>
     </row>
-    <row r="125" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="125" spans="1:8" s="552" customFormat="1">
       <c r="A125" s="553">
         <v>5</v>
       </c>
@@ -44466,7 +44466,7 @@
       <c r="G125" s="170"/>
       <c r="H125" s="566"/>
     </row>
-    <row r="126" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="126" spans="1:8" s="552" customFormat="1">
       <c r="A126" s="553">
         <v>5</v>
       </c>
@@ -44482,7 +44482,7 @@
       <c r="G126" s="170"/>
       <c r="H126" s="566"/>
     </row>
-    <row r="127" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="127" spans="1:8" s="552" customFormat="1">
       <c r="A127" s="553">
         <v>5</v>
       </c>
@@ -44498,7 +44498,7 @@
       <c r="G127" s="170"/>
       <c r="H127" s="566"/>
     </row>
-    <row r="128" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="128" spans="1:8" s="552" customFormat="1">
       <c r="A128" s="553">
         <v>5</v>
       </c>
@@ -44514,7 +44514,7 @@
       <c r="G128" s="170"/>
       <c r="H128" s="566"/>
     </row>
-    <row r="129" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="129" spans="1:8" s="552" customFormat="1">
       <c r="A129" s="553">
         <v>5</v>
       </c>
@@ -44530,7 +44530,7 @@
       <c r="G129" s="170"/>
       <c r="H129" s="566"/>
     </row>
-    <row r="130" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="130" spans="1:8" s="552" customFormat="1">
       <c r="A130" s="553">
         <v>5</v>
       </c>
@@ -44546,7 +44546,7 @@
       <c r="G130" s="170"/>
       <c r="H130" s="566"/>
     </row>
-    <row r="131" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="131" spans="1:8" s="552" customFormat="1">
       <c r="A131" s="553">
         <v>5</v>
       </c>
@@ -44562,7 +44562,7 @@
       <c r="G131" s="170"/>
       <c r="H131" s="566"/>
     </row>
-    <row r="132" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="132" spans="1:8" s="552" customFormat="1">
       <c r="A132" s="553">
         <v>5</v>
       </c>
@@ -44578,7 +44578,7 @@
       <c r="G132" s="170"/>
       <c r="H132" s="566"/>
     </row>
-    <row r="133" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="133" spans="1:8" s="552" customFormat="1">
       <c r="A133" s="553">
         <v>5</v>
       </c>
@@ -44594,7 +44594,7 @@
       <c r="G133" s="170"/>
       <c r="H133" s="566"/>
     </row>
-    <row r="134" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="134" spans="1:8" s="552" customFormat="1">
       <c r="A134" s="553">
         <v>5</v>
       </c>
@@ -44610,7 +44610,7 @@
       <c r="G134" s="170"/>
       <c r="H134" s="566"/>
     </row>
-    <row r="135" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="135" spans="1:8" s="552" customFormat="1">
       <c r="A135" s="553">
         <v>5</v>
       </c>
@@ -44626,7 +44626,7 @@
       <c r="G135" s="170"/>
       <c r="H135" s="566"/>
     </row>
-    <row r="136" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="136" spans="1:8" s="552" customFormat="1">
       <c r="A136" s="553">
         <v>5</v>
       </c>
@@ -44642,7 +44642,7 @@
       <c r="G136" s="170"/>
       <c r="H136" s="566"/>
     </row>
-    <row r="137" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="137" spans="1:8" s="552" customFormat="1">
       <c r="A137" s="553">
         <v>5</v>
       </c>
@@ -44658,7 +44658,7 @@
       <c r="G137" s="170"/>
       <c r="H137" s="566"/>
     </row>
-    <row r="138" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="138" spans="1:8" s="552" customFormat="1">
       <c r="A138" s="553">
         <v>5</v>
       </c>
@@ -44674,7 +44674,7 @@
       <c r="G138" s="170"/>
       <c r="H138" s="566"/>
     </row>
-    <row r="139" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="139" spans="1:8" s="552" customFormat="1">
       <c r="A139" s="553">
         <v>5</v>
       </c>
@@ -44690,7 +44690,7 @@
       <c r="G139" s="170"/>
       <c r="H139" s="566"/>
     </row>
-    <row r="140" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="140" spans="1:8" s="552" customFormat="1">
       <c r="A140" s="553">
         <v>5</v>
       </c>
@@ -44720,7 +44720,7 @@
       </c>
       <c r="H141" s="567"/>
     </row>
-    <row r="142" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="142" spans="1:8" s="552" customFormat="1">
       <c r="A142" s="553">
         <v>5</v>
       </c>
@@ -44735,7 +44735,7 @@
       </c>
       <c r="H142" s="567"/>
     </row>
-    <row r="143" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="143" spans="1:8" s="552" customFormat="1">
       <c r="A143" s="553">
         <v>5</v>
       </c>
@@ -44750,7 +44750,7 @@
       </c>
       <c r="H143" s="567"/>
     </row>
-    <row r="144" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="144" spans="1:8" s="552" customFormat="1">
       <c r="A144" s="553">
         <v>5</v>
       </c>
@@ -44765,7 +44765,7 @@
       </c>
       <c r="H144" s="567"/>
     </row>
-    <row r="145" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="145" spans="1:8" s="552" customFormat="1">
       <c r="A145" s="553">
         <v>5</v>
       </c>
@@ -44795,7 +44795,7 @@
       </c>
       <c r="H146" s="567"/>
     </row>
-    <row r="147" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="147" spans="1:8" s="552" customFormat="1">
       <c r="A147" s="553">
         <v>5</v>
       </c>
@@ -44810,7 +44810,7 @@
       </c>
       <c r="H147" s="567"/>
     </row>
-    <row r="148" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="148" spans="1:8" s="552" customFormat="1">
       <c r="A148" s="553">
         <v>5</v>
       </c>
@@ -44825,7 +44825,7 @@
       </c>
       <c r="H148" s="567"/>
     </row>
-    <row r="149" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="149" spans="1:8" s="552" customFormat="1">
       <c r="A149" s="553">
         <v>5</v>
       </c>
@@ -44840,7 +44840,7 @@
       </c>
       <c r="H149" s="567"/>
     </row>
-    <row r="150" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="150" spans="1:8" s="552" customFormat="1">
       <c r="A150" s="553">
         <v>5</v>
       </c>
@@ -44855,7 +44855,7 @@
       </c>
       <c r="H150" s="567"/>
     </row>
-    <row r="151" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="151" spans="1:8" s="552" customFormat="1">
       <c r="A151" s="553">
         <v>5</v>
       </c>
@@ -44870,7 +44870,7 @@
       </c>
       <c r="H151" s="567"/>
     </row>
-    <row r="152" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="152" spans="1:8" s="552" customFormat="1">
       <c r="A152" s="553">
         <v>5</v>
       </c>
@@ -44885,7 +44885,7 @@
       </c>
       <c r="H152" s="567"/>
     </row>
-    <row r="153" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="153" spans="1:8" s="552" customFormat="1">
       <c r="A153" s="553">
         <v>5</v>
       </c>
@@ -44900,7 +44900,7 @@
       </c>
       <c r="H153" s="567"/>
     </row>
-    <row r="154" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="154" spans="1:8" s="552" customFormat="1">
       <c r="A154" s="553">
         <v>5</v>
       </c>
@@ -44915,7 +44915,7 @@
       </c>
       <c r="H154" s="567"/>
     </row>
-    <row r="155" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="155" spans="1:8" s="552" customFormat="1">
       <c r="A155" s="553">
         <v>5</v>
       </c>
@@ -44975,7 +44975,7 @@
       </c>
       <c r="H158" s="567"/>
     </row>
-    <row r="159" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="159" spans="1:8" s="552" customFormat="1">
       <c r="A159" s="553">
         <v>6</v>
       </c>
@@ -44990,7 +44990,7 @@
       </c>
       <c r="H159" s="567"/>
     </row>
-    <row r="160" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="160" spans="1:8" s="552" customFormat="1">
       <c r="A160" s="553">
         <v>6</v>
       </c>
@@ -45065,7 +45065,7 @@
       </c>
       <c r="H164" s="567"/>
     </row>
-    <row r="165" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="165" spans="1:8" s="552" customFormat="1">
       <c r="A165" s="553">
         <v>6</v>
       </c>
@@ -45080,7 +45080,7 @@
       </c>
       <c r="H165" s="567"/>
     </row>
-    <row r="166" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="166" spans="1:8" s="552" customFormat="1">
       <c r="A166" s="553">
         <v>6</v>
       </c>
@@ -45095,7 +45095,7 @@
       </c>
       <c r="H166" s="567"/>
     </row>
-    <row r="167" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="167" spans="1:8" s="552" customFormat="1">
       <c r="A167" s="553">
         <v>6</v>
       </c>
@@ -45110,7 +45110,7 @@
       </c>
       <c r="H167" s="567"/>
     </row>
-    <row r="168" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="168" spans="1:8" s="552" customFormat="1">
       <c r="A168" s="553">
         <v>6</v>
       </c>
@@ -45125,7 +45125,7 @@
       </c>
       <c r="H168" s="567"/>
     </row>
-    <row r="169" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="169" spans="1:8" s="552" customFormat="1">
       <c r="A169" s="553">
         <v>6</v>
       </c>
@@ -45140,7 +45140,7 @@
       </c>
       <c r="H169" s="567"/>
     </row>
-    <row r="170" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="170" spans="1:8" s="552" customFormat="1">
       <c r="A170" s="553">
         <v>6</v>
       </c>
@@ -45155,7 +45155,7 @@
       </c>
       <c r="H170" s="567"/>
     </row>
-    <row r="171" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="171" spans="1:8" s="552" customFormat="1">
       <c r="A171" s="553">
         <v>6</v>
       </c>
@@ -45170,7 +45170,7 @@
       </c>
       <c r="H171" s="567"/>
     </row>
-    <row r="172" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="172" spans="1:8" s="552" customFormat="1">
       <c r="A172" s="553">
         <v>6</v>
       </c>
@@ -45185,7 +45185,7 @@
       </c>
       <c r="H172" s="567"/>
     </row>
-    <row r="173" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="173" spans="1:8" s="552" customFormat="1">
       <c r="A173" s="553">
         <v>6</v>
       </c>
@@ -45200,7 +45200,7 @@
       </c>
       <c r="H173" s="567"/>
     </row>
-    <row r="174" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="174" spans="1:8" s="552" customFormat="1">
       <c r="A174" s="553">
         <v>6</v>
       </c>
@@ -45215,7 +45215,7 @@
       </c>
       <c r="H174" s="567"/>
     </row>
-    <row r="175" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="175" spans="1:8" s="552" customFormat="1">
       <c r="A175" s="553">
         <v>6</v>
       </c>
@@ -45230,7 +45230,7 @@
       </c>
       <c r="H175" s="567"/>
     </row>
-    <row r="176" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="176" spans="1:8" s="552" customFormat="1">
       <c r="A176" s="553">
         <v>6</v>
       </c>
@@ -45245,7 +45245,7 @@
       </c>
       <c r="H176" s="567"/>
     </row>
-    <row r="177" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="177" spans="1:8" s="552" customFormat="1">
       <c r="A177" s="557">
         <v>6</v>
       </c>
@@ -45260,7 +45260,7 @@
       </c>
       <c r="H177" s="567"/>
     </row>
-    <row r="178" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="178" spans="1:8" s="552" customFormat="1">
       <c r="A178" s="553">
         <v>6</v>
       </c>
@@ -45275,7 +45275,7 @@
       </c>
       <c r="H178" s="567"/>
     </row>
-    <row r="179" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="179" spans="1:8" s="552" customFormat="1">
       <c r="A179" s="553">
         <v>6</v>
       </c>
@@ -45290,7 +45290,7 @@
       </c>
       <c r="H179" s="567"/>
     </row>
-    <row r="180" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="180" spans="1:8" s="552" customFormat="1">
       <c r="A180" s="553">
         <v>7</v>
       </c>
@@ -45326,7 +45326,7 @@
         <v>http://minuta.gestaourbana.prefeitura.sp.gov.br/piu-anhembi/</v>
       </c>
     </row>
-    <row r="182" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="182" spans="1:8" s="552" customFormat="1">
       <c r="A182" s="553">
         <v>7</v>
       </c>
@@ -45362,7 +45362,7 @@
         <v>http://gestaourbana.prefeitura.sp.gov.br/estruturacao-territorial/piu/piu-pacaembu/</v>
       </c>
     </row>
-    <row r="184" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="184" spans="1:8" s="552" customFormat="1">
       <c r="A184" s="553">
         <v>8</v>
       </c>
@@ -45380,7 +45380,7 @@
         <v>http://minuta.gestaourbana.prefeitura.sp.gov.br/piu-pacaembu/static/xls/piu-pacaembu_consulta_respostas_2018-02-08.zip</v>
       </c>
     </row>
-    <row r="185" spans="1:8" s="552" customFormat="1" hidden="1">
+    <row r="185" spans="1:8" s="552" customFormat="1">
       <c r="A185" s="553">
         <v>8</v>
       </c>
@@ -45416,7 +45416,7 @@
         <v>http://gestaourbana.prefeitura.sp.gov.br/estruturacao-territorial/piu/piu-pacaembu/</v>
       </c>
     </row>
-    <row r="187" spans="1:8" hidden="1">
+    <row r="187" spans="1:8">
       <c r="A187" s="556">
         <v>9</v>
       </c>
@@ -45430,7 +45430,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="188" spans="1:8" hidden="1">
+    <row r="188" spans="1:8">
       <c r="A188" s="556">
         <v>9</v>
       </c>
@@ -45444,7 +45444,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="189" spans="1:8" hidden="1">
+    <row r="189" spans="1:8">
       <c r="A189" s="556">
         <v>9</v>
       </c>
@@ -45458,7 +45458,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="190" spans="1:8" hidden="1">
+    <row r="190" spans="1:8">
       <c r="A190" s="556">
         <v>9</v>
       </c>
@@ -45486,7 +45486,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="192" spans="1:8" hidden="1">
+    <row r="192" spans="1:8">
       <c r="A192" s="547">
         <v>10</v>
       </c>
@@ -45500,7 +45500,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="193" spans="1:4" hidden="1">
+    <row r="193" spans="1:4">
       <c r="A193" s="547">
         <v>10</v>
       </c>
@@ -45514,7 +45514,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="194" spans="1:4" hidden="1">
+    <row r="194" spans="1:4">
       <c r="A194" s="547">
         <v>10</v>
       </c>
@@ -45604,18 +45604,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D195">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Texto Consulta Pública - Terminal Campo Limpo"/>
-        <filter val="Texto Consulta Pública - Terminal Capelinha"/>
-        <filter val="Texto Consulta Pública - Terminal Princesa Isabel"/>
-        <filter val="Texto da Consulta Pública"/>
-        <filter val="Texto da Consulta Pública - Introdução"/>
-        <filter val="Texto da Consulta Pública - Terminal Campo Limpo"/>
-        <filter val="Texto da Consulta Pública - Terminal Capelinha"/>
-        <filter val="Texto da Consulta Pública - Terminal Princesa Isabel"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="2"/>
   </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="F4:G4"/>
@@ -45763,10 +45752,10 @@
       <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="610"/>
-      <c r="B2" s="611"/>
-      <c r="C2" s="611"/>
-      <c r="D2" s="611"/>
+      <c r="A2" s="598"/>
+      <c r="B2" s="599"/>
+      <c r="C2" s="599"/>
+      <c r="D2" s="599"/>
       <c r="E2" s="58" t="s">
         <v>51</v>
       </c>
@@ -46692,18 +46681,18 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="610"/>
-      <c r="B3" s="611"/>
-      <c r="C3" s="611"/>
-      <c r="D3" s="611"/>
+      <c r="A3" s="598"/>
+      <c r="B3" s="599"/>
+      <c r="C3" s="599"/>
+      <c r="D3" s="599"/>
       <c r="E3" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="610" t="s">
+      <c r="F3" s="598" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="611"/>
-      <c r="H3" s="612"/>
+      <c r="G3" s="599"/>
+      <c r="H3" s="606"/>
       <c r="I3" s="61" t="s">
         <v>59</v>
       </c>
@@ -46739,11 +46728,11 @@
       </c>
       <c r="D5" s="74"/>
       <c r="E5" s="91"/>
-      <c r="F5" s="631" t="s">
+      <c r="F5" s="622" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="632"/>
-      <c r="H5" s="633"/>
+      <c r="G5" s="623"/>
+      <c r="H5" s="624"/>
       <c r="I5" s="91"/>
       <c r="J5" s="65"/>
       <c r="K5" s="65"/>
@@ -46756,11 +46745,11 @@
       </c>
       <c r="D6" s="92"/>
       <c r="E6" s="91"/>
-      <c r="F6" s="631" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="632"/>
-      <c r="H6" s="633"/>
+      <c r="F6" s="622" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="623"/>
+      <c r="H6" s="624"/>
       <c r="I6" s="91"/>
       <c r="J6" s="65"/>
       <c r="K6" s="65"/>
@@ -46773,11 +46762,11 @@
       </c>
       <c r="D7" s="75"/>
       <c r="E7" s="91"/>
-      <c r="F7" s="631" t="s">
+      <c r="F7" s="622" t="s">
         <v>96</v>
       </c>
-      <c r="G7" s="632"/>
-      <c r="H7" s="633"/>
+      <c r="G7" s="623"/>
+      <c r="H7" s="624"/>
       <c r="I7" s="91"/>
       <c r="J7" s="65"/>
       <c r="K7" s="65"/>
@@ -46790,11 +46779,11 @@
       </c>
       <c r="D8" s="75"/>
       <c r="E8" s="91"/>
-      <c r="F8" s="631" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" s="632"/>
-      <c r="H8" s="633"/>
+      <c r="F8" s="622" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="623"/>
+      <c r="H8" s="624"/>
       <c r="I8" s="91"/>
       <c r="J8" s="65"/>
       <c r="K8" s="65"/>
@@ -46807,11 +46796,11 @@
         <v>103</v>
       </c>
       <c r="E9" s="91"/>
-      <c r="F9" s="631" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" s="632"/>
-      <c r="H9" s="633"/>
+      <c r="F9" s="622" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="623"/>
+      <c r="H9" s="624"/>
       <c r="I9" s="91"/>
       <c r="J9" s="65"/>
       <c r="K9" s="65"/>
@@ -46854,11 +46843,11 @@
         <v>100</v>
       </c>
       <c r="E12" s="91"/>
-      <c r="F12" s="631" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="632"/>
-      <c r="H12" s="633"/>
+      <c r="F12" s="622" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="623"/>
+      <c r="H12" s="624"/>
       <c r="I12" s="91"/>
       <c r="J12" s="65"/>
       <c r="K12" s="65"/>
@@ -46871,11 +46860,11 @@
         <v>75</v>
       </c>
       <c r="E13" s="91"/>
-      <c r="F13" s="631" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="632"/>
-      <c r="H13" s="633"/>
+      <c r="F13" s="622" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="623"/>
+      <c r="H13" s="624"/>
       <c r="I13" s="91"/>
       <c r="J13" s="65"/>
       <c r="K13" s="65"/>
@@ -46888,11 +46877,11 @@
         <v>73</v>
       </c>
       <c r="E14" s="91"/>
-      <c r="F14" s="631" t="s">
-        <v>63</v>
-      </c>
-      <c r="G14" s="632"/>
-      <c r="H14" s="633"/>
+      <c r="F14" s="622" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="623"/>
+      <c r="H14" s="624"/>
       <c r="I14" s="91"/>
       <c r="J14" s="65"/>
       <c r="K14" s="65"/>
@@ -46905,11 +46894,11 @@
         <v>101</v>
       </c>
       <c r="E15" s="91"/>
-      <c r="F15" s="631" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="632"/>
-      <c r="H15" s="633"/>
+      <c r="F15" s="622" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="623"/>
+      <c r="H15" s="624"/>
       <c r="I15" s="91"/>
       <c r="J15" s="65"/>
       <c r="K15" s="65"/>
@@ -46937,11 +46926,11 @@
         <v>100</v>
       </c>
       <c r="E17" s="91"/>
-      <c r="F17" s="631" t="s">
+      <c r="F17" s="622" t="s">
         <v>91</v>
       </c>
-      <c r="G17" s="632"/>
-      <c r="H17" s="633"/>
+      <c r="G17" s="623"/>
+      <c r="H17" s="624"/>
       <c r="I17" s="91"/>
       <c r="J17" s="65"/>
       <c r="K17" s="65"/>
@@ -46954,11 +46943,11 @@
         <v>77</v>
       </c>
       <c r="E18" s="91"/>
-      <c r="F18" s="631" t="s">
+      <c r="F18" s="622" t="s">
         <v>91</v>
       </c>
-      <c r="G18" s="632"/>
-      <c r="H18" s="633"/>
+      <c r="G18" s="623"/>
+      <c r="H18" s="624"/>
       <c r="I18" s="91"/>
       <c r="J18" s="65"/>
       <c r="K18" s="65"/>
@@ -46971,11 +46960,11 @@
         <v>78</v>
       </c>
       <c r="E19" s="65"/>
-      <c r="F19" s="628" t="s">
+      <c r="F19" s="625" t="s">
         <v>91</v>
       </c>
-      <c r="G19" s="629"/>
-      <c r="H19" s="630"/>
+      <c r="G19" s="626"/>
+      <c r="H19" s="627"/>
       <c r="I19" s="65"/>
       <c r="J19" s="65"/>
       <c r="K19" s="65"/>
@@ -46988,11 +46977,11 @@
         <v>79</v>
       </c>
       <c r="E20" s="65"/>
-      <c r="F20" s="628" t="s">
+      <c r="F20" s="625" t="s">
         <v>91</v>
       </c>
-      <c r="G20" s="629"/>
-      <c r="H20" s="630"/>
+      <c r="G20" s="626"/>
+      <c r="H20" s="627"/>
       <c r="I20" s="65"/>
       <c r="J20" s="65"/>
       <c r="K20" s="65"/>
@@ -47005,11 +46994,11 @@
         <v>89</v>
       </c>
       <c r="E21" s="66"/>
-      <c r="F21" s="625" t="s">
+      <c r="F21" s="631" t="s">
         <v>91</v>
       </c>
-      <c r="G21" s="626"/>
-      <c r="H21" s="627"/>
+      <c r="G21" s="632"/>
+      <c r="H21" s="633"/>
       <c r="I21" s="66"/>
       <c r="J21" s="66"/>
       <c r="K21" s="66"/>
@@ -47039,11 +47028,11 @@
       </c>
       <c r="D23" s="53"/>
       <c r="E23" s="65"/>
-      <c r="F23" s="628" t="s">
-        <v>63</v>
-      </c>
-      <c r="G23" s="629"/>
-      <c r="H23" s="630"/>
+      <c r="F23" s="625" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="626"/>
+      <c r="H23" s="627"/>
       <c r="I23" s="65"/>
       <c r="J23" s="65"/>
       <c r="K23" s="65"/>
@@ -47056,11 +47045,11 @@
       </c>
       <c r="D24" s="53"/>
       <c r="E24" s="65"/>
-      <c r="F24" s="628" t="s">
+      <c r="F24" s="625" t="s">
         <v>96</v>
       </c>
-      <c r="G24" s="629"/>
-      <c r="H24" s="630"/>
+      <c r="G24" s="626"/>
+      <c r="H24" s="627"/>
       <c r="I24" s="65"/>
       <c r="J24" s="65"/>
       <c r="K24" s="65"/>
@@ -47073,11 +47062,11 @@
         <v>103</v>
       </c>
       <c r="E25" s="65"/>
-      <c r="F25" s="628" t="s">
-        <v>63</v>
-      </c>
-      <c r="G25" s="629"/>
-      <c r="H25" s="630"/>
+      <c r="F25" s="625" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="626"/>
+      <c r="H25" s="627"/>
       <c r="I25" s="65"/>
       <c r="J25" s="65"/>
       <c r="K25" s="65"/>
@@ -47090,11 +47079,11 @@
       </c>
       <c r="D26" s="53"/>
       <c r="E26" s="65"/>
-      <c r="F26" s="628" t="s">
+      <c r="F26" s="625" t="s">
         <v>96</v>
       </c>
-      <c r="G26" s="629"/>
-      <c r="H26" s="630"/>
+      <c r="G26" s="626"/>
+      <c r="H26" s="627"/>
       <c r="I26" s="65"/>
       <c r="J26" s="65"/>
       <c r="K26" s="65"/>
@@ -47107,11 +47096,11 @@
         <v>105</v>
       </c>
       <c r="E27" s="65"/>
-      <c r="F27" s="628" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="629"/>
-      <c r="H27" s="630"/>
+      <c r="F27" s="625" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="626"/>
+      <c r="H27" s="627"/>
       <c r="I27" s="65"/>
       <c r="J27" s="65"/>
       <c r="K27" s="65"/>
@@ -47124,11 +47113,11 @@
       </c>
       <c r="D28" s="100"/>
       <c r="E28" s="65"/>
-      <c r="F28" s="628" t="s">
+      <c r="F28" s="625" t="s">
         <v>64</v>
       </c>
-      <c r="G28" s="629"/>
-      <c r="H28" s="630"/>
+      <c r="G28" s="626"/>
+      <c r="H28" s="627"/>
       <c r="I28" s="65"/>
       <c r="J28" s="65"/>
       <c r="K28" s="65"/>
@@ -47171,11 +47160,11 @@
         <v>100</v>
       </c>
       <c r="E31" s="65"/>
-      <c r="F31" s="628" t="s">
-        <v>63</v>
-      </c>
-      <c r="G31" s="629"/>
-      <c r="H31" s="630"/>
+      <c r="F31" s="625" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31" s="626"/>
+      <c r="H31" s="627"/>
       <c r="I31" s="65"/>
       <c r="J31" s="65"/>
       <c r="K31" s="65"/>
@@ -47188,11 +47177,11 @@
         <v>75</v>
       </c>
       <c r="E32" s="65"/>
-      <c r="F32" s="628" t="s">
-        <v>63</v>
-      </c>
-      <c r="G32" s="629"/>
-      <c r="H32" s="630"/>
+      <c r="F32" s="625" t="s">
+        <v>63</v>
+      </c>
+      <c r="G32" s="626"/>
+      <c r="H32" s="627"/>
       <c r="I32" s="65"/>
       <c r="J32" s="65"/>
       <c r="K32" s="65"/>
@@ -47205,11 +47194,11 @@
         <v>73</v>
       </c>
       <c r="E33" s="65"/>
-      <c r="F33" s="628" t="s">
+      <c r="F33" s="625" t="s">
         <v>64</v>
       </c>
-      <c r="G33" s="629"/>
-      <c r="H33" s="630"/>
+      <c r="G33" s="626"/>
+      <c r="H33" s="627"/>
       <c r="I33" s="65"/>
       <c r="J33" s="65"/>
       <c r="K33" s="65"/>
@@ -47355,9 +47344,9 @@
       <c r="C41" s="73"/>
       <c r="D41" s="53"/>
       <c r="E41" s="66"/>
-      <c r="F41" s="625"/>
-      <c r="G41" s="626"/>
-      <c r="H41" s="627"/>
+      <c r="F41" s="631"/>
+      <c r="G41" s="632"/>
+      <c r="H41" s="633"/>
       <c r="I41" s="66"/>
       <c r="J41" s="66"/>
       <c r="K41" s="66"/>
@@ -47372,9 +47361,9 @@
       <c r="C42" s="83"/>
       <c r="D42" s="55"/>
       <c r="E42" s="66"/>
-      <c r="F42" s="622"/>
-      <c r="G42" s="623"/>
-      <c r="H42" s="624"/>
+      <c r="F42" s="628"/>
+      <c r="G42" s="629"/>
+      <c r="H42" s="630"/>
       <c r="I42" s="66"/>
       <c r="J42" s="66"/>
       <c r="K42" s="66"/>
@@ -47435,6 +47424,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F23:H23"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A22:A41"/>
     <mergeCell ref="A4:A21"/>
@@ -47451,19 +47453,6 @@
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F23:H23"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:D42">
     <cfRule type="cellIs" dxfId="40" priority="5" operator="equal">

--- a/PIUS_Doc_ParticipacaoPublica.xlsx
+++ b/PIUS_Doc_ParticipacaoPublica.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="21840" windowHeight="9795" tabRatio="1000" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="21840" windowHeight="9795" tabRatio="791" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="sumario" sheetId="18" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="organização geral" sheetId="10" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">hiperlinks!$A$1:$D$195</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">hiperlinks!$A$1:$E$195</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -668,7 +668,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6170" uniqueCount="1000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6171" uniqueCount="1001">
   <si>
     <t>DOCUMENTAÇÃO PIUS</t>
   </si>
@@ -3670,6 +3670,9 @@
   </si>
   <si>
     <t>resolver os que estão de vermelho</t>
+  </si>
+  <si>
+    <t>ID_subetapa</t>
   </si>
 </sst>
 </file>
@@ -5120,7 +5123,7 @@
     </xf>
     <xf numFmtId="43" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="696">
+  <cellXfs count="697">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6673,49 +6676,49 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6743,6 +6746,33 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6752,33 +6782,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -6836,15 +6839,81 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6863,71 +6932,17 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6953,18 +6968,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6972,6 +6976,70 @@
     <cellStyle name="Separador de milhares" xfId="2" builtinId="3"/>
   </cellStyles>
   <dxfs count="78">
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6E6A4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -7695,70 +7763,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6E6A4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FFFF0000"/>
       </font>
       <fill>
@@ -8553,10 +8557,10 @@
       </c>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="598"/>
-      <c r="B2" s="599"/>
-      <c r="C2" s="599"/>
-      <c r="D2" s="599"/>
+      <c r="A2" s="610"/>
+      <c r="B2" s="611"/>
+      <c r="C2" s="611"/>
+      <c r="D2" s="611"/>
       <c r="E2" s="548"/>
       <c r="F2" s="58" t="s">
         <v>51</v>
@@ -8598,11 +8602,11 @@
       <c r="T2" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="U2" s="599" t="s">
+      <c r="U2" s="611" t="s">
         <v>57</v>
       </c>
-      <c r="V2" s="599"/>
-      <c r="W2" s="606"/>
+      <c r="V2" s="611"/>
+      <c r="W2" s="612"/>
       <c r="X2" s="61" t="s">
         <v>59</v>
       </c>
@@ -8614,7 +8618,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A3" s="600" t="s">
+      <c r="A3" s="598" t="s">
         <v>358</v>
       </c>
       <c r="B3" s="157" t="s">
@@ -8645,7 +8649,7 @@
       <c r="Z3" s="52"/>
     </row>
     <row r="4" spans="1:26" ht="15">
-      <c r="A4" s="601"/>
+      <c r="A4" s="599"/>
       <c r="B4" s="74"/>
       <c r="C4" s="163" t="s">
         <v>116</v>
@@ -8674,7 +8678,7 @@
       <c r="Z4" s="52"/>
     </row>
     <row r="5" spans="1:26" ht="15">
-      <c r="A5" s="601"/>
+      <c r="A5" s="599"/>
       <c r="B5" s="74"/>
       <c r="D5" s="85" t="s">
         <v>81</v>
@@ -8714,17 +8718,17 @@
         <v>91</v>
       </c>
       <c r="T5" s="73"/>
-      <c r="U5" s="603" t="s">
+      <c r="U5" s="601" t="s">
         <v>91</v>
       </c>
-      <c r="V5" s="604"/>
-      <c r="W5" s="605"/>
+      <c r="V5" s="602"/>
+      <c r="W5" s="603"/>
       <c r="X5" s="73"/>
       <c r="Y5" s="73"/>
       <c r="Z5" s="52"/>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="601"/>
+      <c r="A6" s="599"/>
       <c r="B6" s="73"/>
       <c r="C6" s="164" t="s">
         <v>117</v>
@@ -8754,7 +8758,7 @@
       <c r="Z6" s="52"/>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="601"/>
+      <c r="A7" s="599"/>
       <c r="B7" s="73"/>
       <c r="C7" s="164"/>
       <c r="D7" s="85" t="s">
@@ -8794,17 +8798,17 @@
       </c>
       <c r="S7" s="76"/>
       <c r="T7" s="73"/>
-      <c r="U7" s="603" t="s">
+      <c r="U7" s="601" t="s">
         <v>91</v>
       </c>
-      <c r="V7" s="604"/>
-      <c r="W7" s="605"/>
+      <c r="V7" s="602"/>
+      <c r="W7" s="603"/>
       <c r="X7" s="73"/>
       <c r="Y7" s="73"/>
       <c r="Z7" s="52"/>
     </row>
     <row r="8" spans="1:26" ht="15.75">
-      <c r="A8" s="600" t="s">
+      <c r="A8" s="598" t="s">
         <v>359</v>
       </c>
       <c r="B8" s="157" t="s">
@@ -8836,7 +8840,7 @@
       <c r="Z8" s="172"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A9" s="601"/>
+      <c r="A9" s="599"/>
       <c r="B9" s="73"/>
       <c r="C9" s="166" t="s">
         <v>71</v>
@@ -8874,17 +8878,17 @@
       </c>
       <c r="S9" s="76"/>
       <c r="T9" s="73"/>
-      <c r="U9" s="603" t="s">
+      <c r="U9" s="601" t="s">
         <v>96</v>
       </c>
-      <c r="V9" s="604"/>
-      <c r="W9" s="605"/>
+      <c r="V9" s="602"/>
+      <c r="W9" s="603"/>
       <c r="X9" s="73"/>
       <c r="Y9" s="73"/>
       <c r="Z9" s="52"/>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="601"/>
+      <c r="A10" s="599"/>
       <c r="B10" s="73"/>
       <c r="C10" s="165" t="s">
         <v>3</v>
@@ -8928,17 +8932,17 @@
       </c>
       <c r="S10" s="76"/>
       <c r="T10" s="73"/>
-      <c r="U10" s="603" t="s">
-        <v>63</v>
-      </c>
-      <c r="V10" s="604"/>
-      <c r="W10" s="605"/>
+      <c r="U10" s="601" t="s">
+        <v>63</v>
+      </c>
+      <c r="V10" s="602"/>
+      <c r="W10" s="603"/>
       <c r="X10" s="73"/>
       <c r="Y10" s="73"/>
       <c r="Z10" s="52"/>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="601"/>
+      <c r="A11" s="599"/>
       <c r="B11" s="73"/>
       <c r="C11" s="165" t="s">
         <v>35</v>
@@ -8982,17 +8986,17 @@
       </c>
       <c r="S11" s="76"/>
       <c r="T11" s="73"/>
-      <c r="U11" s="603" t="s">
-        <v>63</v>
-      </c>
-      <c r="V11" s="604"/>
-      <c r="W11" s="605"/>
+      <c r="U11" s="601" t="s">
+        <v>63</v>
+      </c>
+      <c r="V11" s="602"/>
+      <c r="W11" s="603"/>
       <c r="X11" s="73"/>
       <c r="Y11" s="73"/>
       <c r="Z11" s="52"/>
     </row>
     <row r="12" spans="1:26" ht="15.75">
-      <c r="A12" s="601"/>
+      <c r="A12" s="599"/>
       <c r="B12" s="158" t="s">
         <v>127</v>
       </c>
@@ -9022,7 +9026,7 @@
       <c r="Z12" s="52"/>
     </row>
     <row r="13" spans="1:26" ht="15">
-      <c r="A13" s="601"/>
+      <c r="A13" s="599"/>
       <c r="B13" s="74"/>
       <c r="C13" s="165" t="s">
         <v>88</v>
@@ -9052,7 +9056,7 @@
       <c r="Z13" s="52"/>
     </row>
     <row r="14" spans="1:26" ht="15">
-      <c r="A14" s="601"/>
+      <c r="A14" s="599"/>
       <c r="B14" s="74"/>
       <c r="C14" s="165"/>
       <c r="D14" s="53" t="s">
@@ -9098,17 +9102,17 @@
       </c>
       <c r="S14" s="76"/>
       <c r="T14" s="73"/>
-      <c r="U14" s="603" t="s">
-        <v>63</v>
-      </c>
-      <c r="V14" s="604"/>
-      <c r="W14" s="605"/>
+      <c r="U14" s="601" t="s">
+        <v>63</v>
+      </c>
+      <c r="V14" s="602"/>
+      <c r="W14" s="603"/>
       <c r="X14" s="73"/>
       <c r="Y14" s="73"/>
       <c r="Z14" s="52"/>
     </row>
     <row r="15" spans="1:26" ht="15">
-      <c r="A15" s="601"/>
+      <c r="A15" s="599"/>
       <c r="B15" s="74"/>
       <c r="C15" s="163"/>
       <c r="D15" s="53" t="s">
@@ -9156,17 +9160,17 @@
       </c>
       <c r="S15" s="76"/>
       <c r="T15" s="73"/>
-      <c r="U15" s="603" t="s">
-        <v>63</v>
-      </c>
-      <c r="V15" s="604"/>
-      <c r="W15" s="605"/>
+      <c r="U15" s="601" t="s">
+        <v>63</v>
+      </c>
+      <c r="V15" s="602"/>
+      <c r="W15" s="603"/>
       <c r="X15" s="73"/>
       <c r="Y15" s="73"/>
       <c r="Z15" s="52"/>
     </row>
     <row r="16" spans="1:26" ht="15">
-      <c r="A16" s="601"/>
+      <c r="A16" s="599"/>
       <c r="B16" s="74"/>
       <c r="C16" s="163"/>
       <c r="D16" s="53" t="s">
@@ -9206,17 +9210,17 @@
       </c>
       <c r="S16" s="76"/>
       <c r="T16" s="73"/>
-      <c r="U16" s="603" t="s">
-        <v>63</v>
-      </c>
-      <c r="V16" s="604"/>
-      <c r="W16" s="605"/>
+      <c r="U16" s="601" t="s">
+        <v>63</v>
+      </c>
+      <c r="V16" s="602"/>
+      <c r="W16" s="603"/>
       <c r="X16" s="73"/>
       <c r="Y16" s="73"/>
       <c r="Z16" s="52"/>
     </row>
     <row r="17" spans="1:26" ht="15">
-      <c r="A17" s="601"/>
+      <c r="A17" s="599"/>
       <c r="B17" s="74"/>
       <c r="C17" s="163"/>
       <c r="D17" s="53" t="s">
@@ -9250,17 +9254,17 @@
       </c>
       <c r="S17" s="76"/>
       <c r="T17" s="73"/>
-      <c r="U17" s="603" t="s">
-        <v>63</v>
-      </c>
-      <c r="V17" s="604"/>
-      <c r="W17" s="605"/>
+      <c r="U17" s="601" t="s">
+        <v>63</v>
+      </c>
+      <c r="V17" s="602"/>
+      <c r="W17" s="603"/>
       <c r="X17" s="73"/>
       <c r="Y17" s="73"/>
       <c r="Z17" s="52"/>
     </row>
     <row r="18" spans="1:26" ht="15">
-      <c r="A18" s="601"/>
+      <c r="A18" s="599"/>
       <c r="B18" s="74"/>
       <c r="C18" s="165" t="s">
         <v>76</v>
@@ -9290,7 +9294,7 @@
       <c r="Z18" s="52"/>
     </row>
     <row r="19" spans="1:26" ht="15">
-      <c r="A19" s="601"/>
+      <c r="A19" s="599"/>
       <c r="B19" s="74"/>
       <c r="C19" s="165"/>
       <c r="D19" s="53" t="s">
@@ -9330,17 +9334,17 @@
       <c r="R19" s="70"/>
       <c r="S19" s="76"/>
       <c r="T19" s="73"/>
-      <c r="U19" s="603" t="s">
+      <c r="U19" s="601" t="s">
         <v>91</v>
       </c>
-      <c r="V19" s="604"/>
-      <c r="W19" s="605"/>
+      <c r="V19" s="602"/>
+      <c r="W19" s="603"/>
       <c r="X19" s="73"/>
       <c r="Y19" s="73"/>
       <c r="Z19" s="52"/>
     </row>
     <row r="20" spans="1:26" ht="15">
-      <c r="A20" s="601"/>
+      <c r="A20" s="599"/>
       <c r="B20" s="74"/>
       <c r="C20" s="163"/>
       <c r="D20" s="53" t="s">
@@ -9380,17 +9384,17 @@
       <c r="R20" s="70"/>
       <c r="S20" s="76"/>
       <c r="T20" s="73"/>
-      <c r="U20" s="603" t="s">
+      <c r="U20" s="601" t="s">
         <v>91</v>
       </c>
-      <c r="V20" s="604"/>
-      <c r="W20" s="605"/>
+      <c r="V20" s="602"/>
+      <c r="W20" s="603"/>
       <c r="X20" s="73"/>
       <c r="Y20" s="73"/>
       <c r="Z20" s="52"/>
     </row>
     <row r="21" spans="1:26" ht="15">
-      <c r="A21" s="601"/>
+      <c r="A21" s="599"/>
       <c r="B21" s="74"/>
       <c r="C21" s="163"/>
       <c r="D21" s="53" t="s">
@@ -9428,17 +9432,17 @@
       <c r="R21" s="70"/>
       <c r="S21" s="76"/>
       <c r="T21" s="73"/>
-      <c r="U21" s="603" t="s">
+      <c r="U21" s="601" t="s">
         <v>91</v>
       </c>
-      <c r="V21" s="604"/>
-      <c r="W21" s="605"/>
+      <c r="V21" s="602"/>
+      <c r="W21" s="603"/>
       <c r="X21" s="73"/>
       <c r="Y21" s="73"/>
       <c r="Z21" s="52"/>
     </row>
     <row r="22" spans="1:26" ht="15">
-      <c r="A22" s="601"/>
+      <c r="A22" s="599"/>
       <c r="B22" s="74"/>
       <c r="C22" s="41"/>
       <c r="D22" s="53" t="s">
@@ -9478,17 +9482,17 @@
       <c r="R22" s="70"/>
       <c r="S22" s="76"/>
       <c r="T22" s="73"/>
-      <c r="U22" s="603" t="s">
+      <c r="U22" s="601" t="s">
         <v>91</v>
       </c>
-      <c r="V22" s="604"/>
-      <c r="W22" s="605"/>
+      <c r="V22" s="602"/>
+      <c r="W22" s="603"/>
       <c r="X22" s="73"/>
       <c r="Y22" s="73"/>
       <c r="Z22" s="52"/>
     </row>
     <row r="23" spans="1:26" ht="15">
-      <c r="A23" s="601"/>
+      <c r="A23" s="599"/>
       <c r="B23" s="74"/>
       <c r="C23" s="41"/>
       <c r="D23" s="53" t="s">
@@ -9524,17 +9528,17 @@
       <c r="R23" s="70"/>
       <c r="S23" s="76"/>
       <c r="T23" s="73"/>
-      <c r="U23" s="603" t="s">
+      <c r="U23" s="601" t="s">
         <v>91</v>
       </c>
-      <c r="V23" s="604"/>
-      <c r="W23" s="605"/>
+      <c r="V23" s="602"/>
+      <c r="W23" s="603"/>
       <c r="X23" s="73"/>
       <c r="Y23" s="73"/>
       <c r="Z23" s="52"/>
     </row>
     <row r="24" spans="1:26" ht="15">
-      <c r="A24" s="602"/>
+      <c r="A24" s="600"/>
       <c r="B24" s="79"/>
       <c r="C24" s="161"/>
       <c r="D24" s="81"/>
@@ -9554,15 +9558,15 @@
       <c r="R24" s="81"/>
       <c r="S24" s="76"/>
       <c r="T24" s="81"/>
-      <c r="U24" s="610"/>
-      <c r="V24" s="611"/>
-      <c r="W24" s="612"/>
+      <c r="U24" s="604"/>
+      <c r="V24" s="605"/>
+      <c r="W24" s="606"/>
       <c r="X24" s="81"/>
       <c r="Y24" s="81"/>
       <c r="Z24" s="160"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A25" s="600" t="s">
+      <c r="A25" s="598" t="s">
         <v>360</v>
       </c>
       <c r="B25" s="175" t="s">
@@ -9604,7 +9608,7 @@
       <c r="Z25" s="172"/>
     </row>
     <row r="26" spans="1:26" ht="15.75">
-      <c r="A26" s="601"/>
+      <c r="A26" s="599"/>
       <c r="B26" s="158" t="s">
         <v>129</v>
       </c>
@@ -9634,7 +9638,7 @@
       <c r="Z26" s="52"/>
     </row>
     <row r="27" spans="1:26" ht="15">
-      <c r="A27" s="601"/>
+      <c r="A27" s="599"/>
       <c r="B27" s="73"/>
       <c r="C27" s="124" t="s">
         <v>74</v>
@@ -9664,7 +9668,7 @@
       <c r="Z27" s="52"/>
     </row>
     <row r="28" spans="1:26">
-      <c r="A28" s="601"/>
+      <c r="A28" s="599"/>
       <c r="B28" s="73"/>
       <c r="C28" s="124"/>
       <c r="D28" s="73" t="s">
@@ -9694,17 +9698,17 @@
       <c r="R28" s="70"/>
       <c r="S28" s="76"/>
       <c r="T28" s="73"/>
-      <c r="U28" s="603" t="s">
-        <v>63</v>
-      </c>
-      <c r="V28" s="604"/>
-      <c r="W28" s="605"/>
+      <c r="U28" s="601" t="s">
+        <v>63</v>
+      </c>
+      <c r="V28" s="602"/>
+      <c r="W28" s="603"/>
       <c r="X28" s="73"/>
       <c r="Y28" s="73"/>
       <c r="Z28" s="52"/>
     </row>
     <row r="29" spans="1:26">
-      <c r="A29" s="601"/>
+      <c r="A29" s="599"/>
       <c r="B29" s="73"/>
       <c r="C29" s="52"/>
       <c r="D29" s="53" t="s">
@@ -9734,17 +9738,17 @@
       <c r="R29" s="70"/>
       <c r="S29" s="76"/>
       <c r="T29" s="73"/>
-      <c r="U29" s="603" t="s">
-        <v>63</v>
-      </c>
-      <c r="V29" s="604"/>
-      <c r="W29" s="605"/>
+      <c r="U29" s="601" t="s">
+        <v>63</v>
+      </c>
+      <c r="V29" s="602"/>
+      <c r="W29" s="603"/>
       <c r="X29" s="73"/>
       <c r="Y29" s="73"/>
       <c r="Z29" s="52"/>
     </row>
     <row r="30" spans="1:26">
-      <c r="A30" s="601"/>
+      <c r="A30" s="599"/>
       <c r="B30" s="73"/>
       <c r="C30" s="52"/>
       <c r="D30" s="53" t="s">
@@ -9770,15 +9774,15 @@
       <c r="R30" s="70"/>
       <c r="S30" s="76"/>
       <c r="T30" s="73"/>
-      <c r="U30" s="603"/>
-      <c r="V30" s="604"/>
-      <c r="W30" s="605"/>
+      <c r="U30" s="601"/>
+      <c r="V30" s="602"/>
+      <c r="W30" s="603"/>
       <c r="X30" s="73"/>
       <c r="Y30" s="73"/>
       <c r="Z30" s="52"/>
     </row>
     <row r="31" spans="1:26">
-      <c r="A31" s="601"/>
+      <c r="A31" s="599"/>
       <c r="B31" s="73"/>
       <c r="C31" s="52"/>
       <c r="D31" s="53" t="s">
@@ -9804,15 +9808,15 @@
       <c r="R31" s="70"/>
       <c r="S31" s="76"/>
       <c r="T31" s="73"/>
-      <c r="U31" s="603"/>
-      <c r="V31" s="604"/>
-      <c r="W31" s="605"/>
+      <c r="U31" s="601"/>
+      <c r="V31" s="602"/>
+      <c r="W31" s="603"/>
       <c r="X31" s="73"/>
       <c r="Y31" s="73"/>
       <c r="Z31" s="52"/>
     </row>
     <row r="32" spans="1:26" ht="15">
-      <c r="A32" s="601"/>
+      <c r="A32" s="599"/>
       <c r="B32" s="73"/>
       <c r="C32" s="124" t="s">
         <v>76</v>
@@ -9842,7 +9846,7 @@
       <c r="Z32" s="52"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A33" s="601"/>
+      <c r="A33" s="599"/>
       <c r="B33" s="73"/>
       <c r="C33" s="124"/>
       <c r="D33" s="73" t="s">
@@ -9884,7 +9888,7 @@
       <c r="Z33" s="52"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A34" s="601"/>
+      <c r="A34" s="599"/>
       <c r="B34" s="73"/>
       <c r="C34" s="52"/>
       <c r="D34" s="53" t="s">
@@ -9926,7 +9930,7 @@
       <c r="Z34" s="52"/>
     </row>
     <row r="35" spans="1:26">
-      <c r="A35" s="601"/>
+      <c r="A35" s="599"/>
       <c r="B35" s="73"/>
       <c r="C35" s="52"/>
       <c r="D35" s="53" t="s">
@@ -9966,7 +9970,7 @@
       <c r="Z35" s="52"/>
     </row>
     <row r="36" spans="1:26" ht="15">
-      <c r="A36" s="601"/>
+      <c r="A36" s="599"/>
       <c r="B36" s="73"/>
       <c r="C36" s="46"/>
       <c r="D36" s="53" t="s">
@@ -10008,7 +10012,7 @@
       <c r="Z36" s="52"/>
     </row>
     <row r="37" spans="1:26">
-      <c r="A37" s="602"/>
+      <c r="A37" s="600"/>
       <c r="B37" s="73"/>
       <c r="C37" s="52"/>
       <c r="D37" s="53" t="s">
@@ -10554,6 +10558,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="U17:W17"/>
+    <mergeCell ref="U19:W19"/>
+    <mergeCell ref="U20:W20"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="U7:W7"/>
     <mergeCell ref="U21:W21"/>
     <mergeCell ref="U22:W22"/>
     <mergeCell ref="U23:W23"/>
@@ -10570,67 +10584,57 @@
     <mergeCell ref="U11:W11"/>
     <mergeCell ref="U14:W14"/>
     <mergeCell ref="U15:W15"/>
-    <mergeCell ref="U16:W16"/>
-    <mergeCell ref="U17:W17"/>
-    <mergeCell ref="U19:W19"/>
-    <mergeCell ref="U20:W20"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="U5:W5"/>
-    <mergeCell ref="U7:W7"/>
   </mergeCells>
   <conditionalFormatting sqref="F12:G22 F25:R38 F23:R23 H24:N24 F10:G10 H8:R8 H10:R22 F7:R7 F5:R5">
-    <cfRule type="cellIs" dxfId="33" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="13" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:Z57 V1:W8 V12:W13 V18:W18 V33:W57 V20:W24 V26:W27 A1:A3 A8 A25:A57 B1:U57">
-    <cfRule type="cellIs" dxfId="32" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="9" operator="equal">
       <formula>"_"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="10" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="11" operator="equal">
       <formula>"w"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="12" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:Z2 T2:U2">
-    <cfRule type="cellIs" dxfId="28" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="8" operator="equal">
       <formula>"_"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:Z2 T2:U2">
-    <cfRule type="cellIs" dxfId="27" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="7" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:Z2 T2:U2">
-    <cfRule type="cellIs" dxfId="26" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="5" operator="equal">
       <formula>"w"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="6" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1">
-    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
       <formula>"w"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="4" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
       <formula>"_"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15379,11 +15383,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="CO4:CY4"/>
-    <mergeCell ref="CZ4:DH4"/>
-    <mergeCell ref="DI4:DM4"/>
-    <mergeCell ref="DN4:DP4"/>
-    <mergeCell ref="DQ4:DU4"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="J3:DM3"/>
     <mergeCell ref="DN3:EI3"/>
@@ -15396,14 +15395,19 @@
     <mergeCell ref="BC4:BL4"/>
     <mergeCell ref="DV4:EI4"/>
     <mergeCell ref="BM4:CN4"/>
+    <mergeCell ref="CO4:CY4"/>
+    <mergeCell ref="CZ4:DH4"/>
+    <mergeCell ref="DI4:DM4"/>
+    <mergeCell ref="DN4:DP4"/>
+    <mergeCell ref="DQ4:DU4"/>
   </mergeCells>
   <conditionalFormatting sqref="B11:C13">
-    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",B11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:C13">
-    <cfRule type="containsText" dxfId="19" priority="2" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="23" priority="2" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",B12)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15471,14 +15475,14 @@
     </row>
     <row r="3" spans="5:20" ht="15.75" thickBot="1">
       <c r="F3" s="33"/>
-      <c r="G3" s="654" t="s">
+      <c r="G3" s="653" t="s">
         <v>115</v>
       </c>
-      <c r="H3" s="655"/>
-      <c r="J3" s="654" t="s">
+      <c r="H3" s="654"/>
+      <c r="J3" s="653" t="s">
         <v>115</v>
       </c>
-      <c r="K3" s="655"/>
+      <c r="K3" s="654"/>
       <c r="S3" t="s">
         <v>154</v>
       </c>
@@ -15520,11 +15524,11 @@
       </c>
       <c r="M5" s="106"/>
       <c r="N5" s="118"/>
-      <c r="O5" s="662" t="s">
+      <c r="O5" s="671" t="s">
         <v>132</v>
       </c>
-      <c r="P5" s="662"/>
-      <c r="Q5" s="663"/>
+      <c r="P5" s="671"/>
+      <c r="Q5" s="672"/>
     </row>
     <row r="6" spans="5:20" ht="15.75" customHeight="1">
       <c r="E6" s="179"/>
@@ -15534,7 +15538,7 @@
       <c r="G6" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="672" t="s">
+      <c r="H6" s="655" t="s">
         <v>141</v>
       </c>
       <c r="I6">
@@ -15543,16 +15547,16 @@
       <c r="J6" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="656" t="s">
+      <c r="K6" s="678" t="s">
         <v>14</v>
       </c>
       <c r="M6" s="106"/>
       <c r="N6" s="118"/>
       <c r="O6" s="57"/>
-      <c r="P6" s="666" t="s">
+      <c r="P6" s="669" t="s">
         <v>116</v>
       </c>
-      <c r="Q6" s="667"/>
+      <c r="Q6" s="670"/>
       <c r="S6" s="195">
         <v>1</v>
       </c>
@@ -15568,14 +15572,14 @@
       <c r="G7" s="182" t="s">
         <v>142</v>
       </c>
-      <c r="H7" s="673"/>
+      <c r="H7" s="656"/>
       <c r="I7">
         <v>2</v>
       </c>
       <c r="J7" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="657"/>
+      <c r="K7" s="679"/>
       <c r="M7" s="113"/>
       <c r="N7" s="119"/>
       <c r="O7" s="57"/>
@@ -15596,18 +15600,18 @@
       <c r="G8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="674"/>
+      <c r="H8" s="657"/>
       <c r="J8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="658"/>
+      <c r="K8" s="680"/>
       <c r="M8" s="113"/>
       <c r="N8" s="119"/>
       <c r="O8" s="76"/>
-      <c r="P8" s="668" t="s">
+      <c r="P8" s="667" t="s">
         <v>117</v>
       </c>
-      <c r="Q8" s="669"/>
+      <c r="Q8" s="668"/>
       <c r="S8" s="206" t="s">
         <v>148</v>
       </c>
@@ -15735,7 +15739,7 @@
       <c r="G14" s="185" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="675" t="s">
+      <c r="H14" s="658" t="s">
         <v>145</v>
       </c>
       <c r="I14">
@@ -15744,7 +15748,7 @@
       <c r="J14" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="659" t="s">
+      <c r="K14" s="681" t="s">
         <v>19</v>
       </c>
       <c r="M14" s="114"/>
@@ -15765,21 +15769,21 @@
       <c r="G15" s="186" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="676"/>
+      <c r="H15" s="659"/>
       <c r="I15">
         <v>5</v>
       </c>
       <c r="J15" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="660"/>
+      <c r="K15" s="682"/>
       <c r="M15" s="106"/>
       <c r="N15" s="119"/>
-      <c r="O15" s="662" t="s">
+      <c r="O15" s="671" t="s">
         <v>133</v>
       </c>
-      <c r="P15" s="662"/>
-      <c r="Q15" s="663"/>
+      <c r="P15" s="671"/>
+      <c r="Q15" s="672"/>
       <c r="S15" s="206"/>
       <c r="T15" s="208" t="s">
         <v>75</v>
@@ -15793,23 +15797,23 @@
       <c r="G16" s="186" t="s">
         <v>146</v>
       </c>
-      <c r="H16" s="677"/>
+      <c r="H16" s="660"/>
       <c r="I16">
         <v>6</v>
       </c>
       <c r="J16" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="K16" s="660"/>
+      <c r="K16" s="682"/>
       <c r="M16" s="114" t="s">
         <v>122</v>
       </c>
       <c r="N16" s="119"/>
       <c r="O16" s="76"/>
-      <c r="P16" s="670" t="s">
+      <c r="P16" s="673" t="s">
         <v>71</v>
       </c>
-      <c r="Q16" s="671"/>
+      <c r="Q16" s="674"/>
       <c r="S16" s="206"/>
       <c r="T16" s="208" t="s">
         <v>73</v>
@@ -15823,7 +15827,7 @@
       <c r="G17" s="187" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="678" t="s">
+      <c r="H17" s="661" t="s">
         <v>24</v>
       </c>
       <c r="I17">
@@ -15832,16 +15836,16 @@
       <c r="J17" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="661"/>
+      <c r="K17" s="683"/>
       <c r="M17" s="114" t="s">
         <v>121</v>
       </c>
       <c r="N17" s="120"/>
       <c r="O17" s="76"/>
-      <c r="P17" s="670" t="s">
+      <c r="P17" s="673" t="s">
         <v>3</v>
       </c>
-      <c r="Q17" s="671"/>
+      <c r="Q17" s="674"/>
       <c r="S17" s="206"/>
       <c r="T17" s="208" t="s">
         <v>119</v>
@@ -15853,20 +15857,20 @@
       <c r="G18" s="188" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="679"/>
+      <c r="H18" s="662"/>
       <c r="J18" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="K18" s="656" t="s">
+      <c r="K18" s="678" t="s">
         <v>24</v>
       </c>
       <c r="M18" s="106"/>
       <c r="N18" s="120"/>
       <c r="O18" s="76"/>
-      <c r="P18" s="670" t="s">
+      <c r="P18" s="673" t="s">
         <v>35</v>
       </c>
-      <c r="Q18" s="671"/>
+      <c r="Q18" s="674"/>
       <c r="S18" s="206" t="s">
         <v>162</v>
       </c>
@@ -15880,11 +15884,11 @@
       <c r="G19" s="188" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="679"/>
+      <c r="H19" s="662"/>
       <c r="J19" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="K19" s="657"/>
+      <c r="K19" s="679"/>
       <c r="M19" s="106"/>
       <c r="N19" s="118"/>
       <c r="O19" s="76"/>
@@ -15901,18 +15905,18 @@
       <c r="G20" s="189" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="680"/>
+      <c r="H20" s="663"/>
       <c r="J20" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="K20" s="658"/>
+      <c r="K20" s="680"/>
       <c r="M20" s="106"/>
       <c r="N20" s="120"/>
-      <c r="O20" s="662" t="s">
+      <c r="O20" s="671" t="s">
         <v>134</v>
       </c>
-      <c r="P20" s="662"/>
-      <c r="Q20" s="663"/>
+      <c r="P20" s="671"/>
+      <c r="Q20" s="672"/>
       <c r="S20" s="206"/>
       <c r="T20" s="208" t="s">
         <v>77</v>
@@ -15941,10 +15945,10 @@
       <c r="M21" s="106"/>
       <c r="N21" s="119"/>
       <c r="O21" s="57"/>
-      <c r="P21" s="666" t="s">
+      <c r="P21" s="669" t="s">
         <v>88</v>
       </c>
-      <c r="Q21" s="667"/>
+      <c r="Q21" s="670"/>
       <c r="S21" s="206"/>
       <c r="T21" s="208" t="s">
         <v>78</v>
@@ -15956,7 +15960,7 @@
       <c r="G22" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="681" t="s">
+      <c r="H22" s="664" t="s">
         <v>30</v>
       </c>
       <c r="J22" s="145"/>
@@ -15981,7 +15985,7 @@
       <c r="G23" s="193" t="s">
         <v>149</v>
       </c>
-      <c r="H23" s="682"/>
+      <c r="H23" s="665"/>
       <c r="J23" s="145"/>
       <c r="K23" s="149"/>
       <c r="M23" s="113"/>
@@ -16002,9 +16006,9 @@
       <c r="G24" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="H24" s="683"/>
+      <c r="H24" s="666"/>
       <c r="J24" s="146"/>
-      <c r="K24" s="653"/>
+      <c r="K24" s="677"/>
       <c r="M24" s="113"/>
       <c r="N24" s="119"/>
       <c r="O24" s="57"/>
@@ -16029,7 +16033,7 @@
         <v>152</v>
       </c>
       <c r="J25" s="147"/>
-      <c r="K25" s="653"/>
+      <c r="K25" s="677"/>
       <c r="M25" s="113"/>
       <c r="N25" s="119"/>
       <c r="O25" s="57"/>
@@ -16047,14 +16051,14 @@
         <v>12</v>
       </c>
       <c r="J26" s="147"/>
-      <c r="K26" s="653"/>
+      <c r="K26" s="677"/>
       <c r="M26" s="113"/>
       <c r="N26" s="119"/>
       <c r="O26" s="57"/>
-      <c r="P26" s="666" t="s">
+      <c r="P26" s="669" t="s">
         <v>76</v>
       </c>
-      <c r="Q26" s="667"/>
+      <c r="Q26" s="670"/>
       <c r="S26" s="196">
         <v>3</v>
       </c>
@@ -16226,11 +16230,11 @@
       <c r="K36" s="148"/>
       <c r="M36" s="113"/>
       <c r="N36" s="119"/>
-      <c r="O36" s="664" t="s">
+      <c r="O36" s="675" t="s">
         <v>135</v>
       </c>
-      <c r="P36" s="664"/>
-      <c r="Q36" s="665"/>
+      <c r="P36" s="675"/>
+      <c r="Q36" s="676"/>
       <c r="S36" s="196">
         <v>7</v>
       </c>
@@ -16244,10 +16248,10 @@
       <c r="M37" s="113"/>
       <c r="N37" s="119"/>
       <c r="O37" s="109"/>
-      <c r="P37" s="666" t="s">
+      <c r="P37" s="669" t="s">
         <v>98</v>
       </c>
-      <c r="Q37" s="667"/>
+      <c r="Q37" s="670"/>
       <c r="T37" s="205" t="s">
         <v>23</v>
       </c>
@@ -16315,20 +16319,20 @@
         <v>19</v>
       </c>
       <c r="N43" s="120"/>
-      <c r="O43" s="662" t="s">
+      <c r="O43" s="671" t="s">
         <v>136</v>
       </c>
-      <c r="P43" s="662"/>
-      <c r="Q43" s="663"/>
+      <c r="P43" s="671"/>
+      <c r="Q43" s="672"/>
     </row>
     <row r="44" spans="6:20" ht="15.75" customHeight="1">
       <c r="M44" s="113"/>
       <c r="N44" s="119"/>
       <c r="O44" s="76"/>
-      <c r="P44" s="666" t="s">
+      <c r="P44" s="669" t="s">
         <v>74</v>
       </c>
-      <c r="Q44" s="667"/>
+      <c r="Q44" s="670"/>
     </row>
     <row r="45" spans="6:20" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="M45" s="106"/>
@@ -16370,10 +16374,10 @@
       <c r="M49" s="113"/>
       <c r="N49" s="119"/>
       <c r="O49" s="76"/>
-      <c r="P49" s="666" t="s">
+      <c r="P49" s="669" t="s">
         <v>76</v>
       </c>
-      <c r="Q49" s="667"/>
+      <c r="Q49" s="670"/>
     </row>
     <row r="50" spans="11:18" ht="15.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="M50" s="113"/>
@@ -16451,11 +16455,11 @@
         <v>3</v>
       </c>
       <c r="N58" s="126"/>
-      <c r="O58" s="662" t="s">
+      <c r="O58" s="671" t="s">
         <v>137</v>
       </c>
-      <c r="P58" s="662"/>
-      <c r="Q58" s="663"/>
+      <c r="P58" s="671"/>
+      <c r="Q58" s="672"/>
     </row>
     <row r="59" spans="11:18" ht="15.75" customHeight="1">
       <c r="M59" s="111"/>
@@ -16469,11 +16473,11 @@
         <v>62</v>
       </c>
       <c r="N60" s="123"/>
-      <c r="O60" s="662" t="s">
+      <c r="O60" s="671" t="s">
         <v>138</v>
       </c>
-      <c r="P60" s="662"/>
-      <c r="Q60" s="663"/>
+      <c r="P60" s="671"/>
+      <c r="Q60" s="672"/>
       <c r="R60" s="110"/>
     </row>
     <row r="61" spans="11:18" ht="18">
@@ -16531,11 +16535,21 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="H17:H20"/>
-    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="K14:K17"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="O36:Q36"/>
+    <mergeCell ref="O43:Q43"/>
+    <mergeCell ref="O58:Q58"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="O60:Q60"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="P26:Q26"/>
     <mergeCell ref="P8:Q8"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="O5:Q5"/>
@@ -16543,67 +16557,57 @@
     <mergeCell ref="P18:Q18"/>
     <mergeCell ref="O15:Q15"/>
     <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="O60:Q60"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="O36:Q36"/>
-    <mergeCell ref="O43:Q43"/>
-    <mergeCell ref="O58:Q58"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="K24:K26"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="K14:K17"/>
-    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="H22:H24"/>
   </mergeCells>
   <conditionalFormatting sqref="Q50:Q57 O60:O61 Q7 P37 Q45:Q48 Q22:Q25 Q19 Q38:Q41 P42 P44:P57 P21:P35 Q27:Q35 P6:P14 Q9:Q14 O5:O58 N20:N36 M22:M36 M16:M17 P17:P19 Q17 N7:N18 M7:M14">
-    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
       <formula>"w"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="12" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q50:Q57 O60:O61 Q7 P37 Q45:Q48 Q22:Q25 Q19 Q38:Q41 P42 P44:P57 P21:P35 Q27:Q35 P6:P14 Q9:Q14 O5:O58 N20:N36 M22:M36 M16:M17 P17:P19 Q17 N7:N18 M7:M14">
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
       <formula>"_"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T14:T17">
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
       <formula>"w"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T14:T17">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
       <formula>"_"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T19:T24">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>"w"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T19:T24">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"_"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16750,10 +16754,10 @@
         <v>167</v>
       </c>
       <c r="C2" s="241"/>
-      <c r="D2" s="684" t="s">
+      <c r="D2" s="688" t="s">
         <v>166</v>
       </c>
-      <c r="E2" s="685"/>
+      <c r="E2" s="689"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="15.75">
@@ -17732,18 +17736,18 @@
       <c r="F48" s="1"/>
     </row>
     <row r="49" spans="1:146" ht="39.75" thickBot="1">
-      <c r="A49" s="686" t="s">
+      <c r="A49" s="690" t="s">
         <v>197</v>
       </c>
-      <c r="B49" s="687"/>
-      <c r="C49" s="687"/>
-      <c r="D49" s="687"/>
-      <c r="E49" s="687"/>
-      <c r="F49" s="687"/>
-      <c r="G49" s="687"/>
-      <c r="H49" s="687"/>
-      <c r="I49" s="687"/>
-      <c r="J49" s="688"/>
+      <c r="B49" s="691"/>
+      <c r="C49" s="691"/>
+      <c r="D49" s="691"/>
+      <c r="E49" s="691"/>
+      <c r="F49" s="691"/>
+      <c r="G49" s="691"/>
+      <c r="H49" s="691"/>
+      <c r="I49" s="691"/>
+      <c r="J49" s="692"/>
       <c r="K49" s="644" t="s">
         <v>198</v>
       </c>
@@ -17886,16 +17890,16 @@
       <c r="EP49" s="259"/>
     </row>
     <row r="50" spans="1:146" ht="31.5">
-      <c r="A50" s="689" t="s">
+      <c r="A50" s="693" t="s">
         <v>200</v>
       </c>
-      <c r="B50" s="690"/>
-      <c r="C50" s="690"/>
-      <c r="D50" s="690"/>
-      <c r="E50" s="690"/>
-      <c r="F50" s="690"/>
-      <c r="G50" s="690"/>
-      <c r="H50" s="691"/>
+      <c r="B50" s="694"/>
+      <c r="C50" s="694"/>
+      <c r="D50" s="694"/>
+      <c r="E50" s="694"/>
+      <c r="F50" s="694"/>
+      <c r="G50" s="694"/>
+      <c r="H50" s="695"/>
       <c r="I50" s="638" t="s">
         <v>201</v>
       </c>
@@ -18066,8 +18070,8 @@
         <v>214</v>
       </c>
       <c r="B51" s="263"/>
-      <c r="C51" s="692"/>
-      <c r="D51" s="693"/>
+      <c r="C51" s="684"/>
+      <c r="D51" s="685"/>
       <c r="E51" s="263"/>
       <c r="F51" s="263"/>
       <c r="G51" s="263"/>
@@ -18282,10 +18286,10 @@
       <c r="B52" s="268" t="s">
         <v>218</v>
       </c>
-      <c r="C52" s="692" t="s">
+      <c r="C52" s="684" t="s">
         <v>218</v>
       </c>
-      <c r="D52" s="693"/>
+      <c r="D52" s="685"/>
       <c r="E52" s="268" t="s">
         <v>218</v>
       </c>
@@ -18574,10 +18578,10 @@
       <c r="B53" s="285" t="s">
         <v>220</v>
       </c>
-      <c r="C53" s="694" t="s">
+      <c r="C53" s="686" t="s">
         <v>221</v>
       </c>
-      <c r="D53" s="695"/>
+      <c r="D53" s="687"/>
       <c r="E53" s="285" t="s">
         <v>222</v>
       </c>
@@ -19224,11 +19228,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="DR50:DV50"/>
-    <mergeCell ref="DW50:EJ50"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C53:D53"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="A49:J49"/>
     <mergeCell ref="K49:DN49"/>
@@ -19245,33 +19244,38 @@
     <mergeCell ref="DA50:DI50"/>
     <mergeCell ref="DJ50:DN50"/>
     <mergeCell ref="DO50:DQ50"/>
+    <mergeCell ref="DR50:DV50"/>
+    <mergeCell ref="DW50:EJ50"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C53:D53"/>
   </mergeCells>
   <conditionalFormatting sqref="E34:E39 B26:C30 E29:E32 E15:E20 E10:E13">
-    <cfRule type="cellIs" dxfId="6" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="21" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="22" operator="equal">
       <formula>"w"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="23" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34:E39 B26:C30 E29:E32 E15:E20 E10:E13">
-    <cfRule type="cellIs" dxfId="3" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="20" operator="equal">
       <formula>"_"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",B53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C43 A54:EO54 A55:EO57">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId1"/>
@@ -19323,10 +19327,10 @@
       </c>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="598"/>
-      <c r="B2" s="599"/>
-      <c r="C2" s="599"/>
-      <c r="D2" s="599"/>
+      <c r="A2" s="610"/>
+      <c r="B2" s="611"/>
+      <c r="C2" s="611"/>
+      <c r="D2" s="611"/>
       <c r="E2" s="58" t="s">
         <v>51</v>
       </c>
@@ -19351,11 +19355,11 @@
       <c r="M2" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="N2" s="599" t="s">
+      <c r="N2" s="611" t="s">
         <v>57</v>
       </c>
-      <c r="O2" s="599"/>
-      <c r="P2" s="606"/>
+      <c r="O2" s="611"/>
+      <c r="P2" s="612"/>
       <c r="Q2" s="61" t="s">
         <v>59</v>
       </c>
@@ -19367,7 +19371,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A3" s="600" t="s">
+      <c r="A3" s="598" t="s">
         <v>358</v>
       </c>
       <c r="B3" s="157" t="s">
@@ -19391,7 +19395,7 @@
       <c r="S3" s="52"/>
     </row>
     <row r="4" spans="1:19" ht="15">
-      <c r="A4" s="601"/>
+      <c r="A4" s="599"/>
       <c r="B4" s="74"/>
       <c r="C4" s="163" t="s">
         <v>116</v>
@@ -19413,7 +19417,7 @@
       <c r="S4" s="52"/>
     </row>
     <row r="5" spans="1:19" ht="15">
-      <c r="A5" s="601"/>
+      <c r="A5" s="599"/>
       <c r="B5" s="74"/>
       <c r="D5" s="85" t="s">
         <v>81</v>
@@ -19440,17 +19444,17 @@
         <v>91</v>
       </c>
       <c r="M5" s="73"/>
-      <c r="N5" s="603" t="s">
+      <c r="N5" s="601" t="s">
         <v>91</v>
       </c>
-      <c r="O5" s="604"/>
-      <c r="P5" s="605"/>
+      <c r="O5" s="602"/>
+      <c r="P5" s="603"/>
       <c r="Q5" s="73"/>
       <c r="R5" s="73"/>
       <c r="S5" s="52"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="601"/>
+      <c r="A6" s="599"/>
       <c r="B6" s="73"/>
       <c r="C6" s="164" t="s">
         <v>117</v>
@@ -19473,7 +19477,7 @@
       <c r="S6" s="52"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="601"/>
+      <c r="A7" s="599"/>
       <c r="B7" s="73"/>
       <c r="C7" s="164"/>
       <c r="D7" s="85" t="s">
@@ -19502,17 +19506,17 @@
       </c>
       <c r="L7" s="76"/>
       <c r="M7" s="73"/>
-      <c r="N7" s="603" t="s">
+      <c r="N7" s="601" t="s">
         <v>91</v>
       </c>
-      <c r="O7" s="604"/>
-      <c r="P7" s="605"/>
+      <c r="O7" s="602"/>
+      <c r="P7" s="603"/>
       <c r="Q7" s="73"/>
       <c r="R7" s="73"/>
       <c r="S7" s="52"/>
     </row>
     <row r="8" spans="1:19" ht="15.75">
-      <c r="A8" s="600" t="s">
+      <c r="A8" s="598" t="s">
         <v>359</v>
       </c>
       <c r="B8" s="157" t="s">
@@ -19537,7 +19541,7 @@
       <c r="S8" s="172"/>
     </row>
     <row r="9" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A9" s="601"/>
+      <c r="A9" s="599"/>
       <c r="B9" s="73"/>
       <c r="C9" s="166" t="s">
         <v>71</v>
@@ -19566,17 +19570,17 @@
       </c>
       <c r="L9" s="76"/>
       <c r="M9" s="73"/>
-      <c r="N9" s="603" t="s">
+      <c r="N9" s="601" t="s">
         <v>96</v>
       </c>
-      <c r="O9" s="604"/>
-      <c r="P9" s="605"/>
+      <c r="O9" s="602"/>
+      <c r="P9" s="603"/>
       <c r="Q9" s="73"/>
       <c r="R9" s="73"/>
       <c r="S9" s="52"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="601"/>
+      <c r="A10" s="599"/>
       <c r="B10" s="73"/>
       <c r="C10" s="165" t="s">
         <v>3</v>
@@ -19605,17 +19609,17 @@
       </c>
       <c r="L10" s="76"/>
       <c r="M10" s="73"/>
-      <c r="N10" s="603" t="s">
-        <v>63</v>
-      </c>
-      <c r="O10" s="604"/>
-      <c r="P10" s="605"/>
+      <c r="N10" s="601" t="s">
+        <v>63</v>
+      </c>
+      <c r="O10" s="602"/>
+      <c r="P10" s="603"/>
       <c r="Q10" s="73"/>
       <c r="R10" s="73"/>
       <c r="S10" s="52"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="601"/>
+      <c r="A11" s="599"/>
       <c r="B11" s="73"/>
       <c r="C11" s="165" t="s">
         <v>35</v>
@@ -19644,17 +19648,17 @@
       </c>
       <c r="L11" s="76"/>
       <c r="M11" s="73"/>
-      <c r="N11" s="603" t="s">
-        <v>63</v>
-      </c>
-      <c r="O11" s="604"/>
-      <c r="P11" s="605"/>
+      <c r="N11" s="601" t="s">
+        <v>63</v>
+      </c>
+      <c r="O11" s="602"/>
+      <c r="P11" s="603"/>
       <c r="Q11" s="73"/>
       <c r="R11" s="73"/>
       <c r="S11" s="52"/>
     </row>
     <row r="12" spans="1:19" ht="15.75">
-      <c r="A12" s="601"/>
+      <c r="A12" s="599"/>
       <c r="B12" s="158" t="s">
         <v>127</v>
       </c>
@@ -19677,7 +19681,7 @@
       <c r="S12" s="52"/>
     </row>
     <row r="13" spans="1:19" ht="15">
-      <c r="A13" s="601"/>
+      <c r="A13" s="599"/>
       <c r="B13" s="74"/>
       <c r="C13" s="165" t="s">
         <v>88</v>
@@ -19700,7 +19704,7 @@
       <c r="S13" s="52"/>
     </row>
     <row r="14" spans="1:19" ht="15">
-      <c r="A14" s="601"/>
+      <c r="A14" s="599"/>
       <c r="B14" s="74"/>
       <c r="C14" s="165"/>
       <c r="D14" s="53" t="s">
@@ -19729,17 +19733,17 @@
       </c>
       <c r="L14" s="76"/>
       <c r="M14" s="73"/>
-      <c r="N14" s="603" t="s">
-        <v>63</v>
-      </c>
-      <c r="O14" s="604"/>
-      <c r="P14" s="605"/>
+      <c r="N14" s="601" t="s">
+        <v>63</v>
+      </c>
+      <c r="O14" s="602"/>
+      <c r="P14" s="603"/>
       <c r="Q14" s="73"/>
       <c r="R14" s="73"/>
       <c r="S14" s="52"/>
     </row>
     <row r="15" spans="1:19" ht="15">
-      <c r="A15" s="601"/>
+      <c r="A15" s="599"/>
       <c r="B15" s="74"/>
       <c r="C15" s="163"/>
       <c r="D15" s="53" t="s">
@@ -19768,17 +19772,17 @@
       </c>
       <c r="L15" s="76"/>
       <c r="M15" s="73"/>
-      <c r="N15" s="603" t="s">
-        <v>63</v>
-      </c>
-      <c r="O15" s="604"/>
-      <c r="P15" s="605"/>
+      <c r="N15" s="601" t="s">
+        <v>63</v>
+      </c>
+      <c r="O15" s="602"/>
+      <c r="P15" s="603"/>
       <c r="Q15" s="73"/>
       <c r="R15" s="73"/>
       <c r="S15" s="52"/>
     </row>
     <row r="16" spans="1:19" ht="15">
-      <c r="A16" s="601"/>
+      <c r="A16" s="599"/>
       <c r="B16" s="74"/>
       <c r="C16" s="163"/>
       <c r="D16" s="53" t="s">
@@ -19803,17 +19807,17 @@
       </c>
       <c r="L16" s="76"/>
       <c r="M16" s="73"/>
-      <c r="N16" s="603" t="s">
-        <v>63</v>
-      </c>
-      <c r="O16" s="604"/>
-      <c r="P16" s="605"/>
+      <c r="N16" s="601" t="s">
+        <v>63</v>
+      </c>
+      <c r="O16" s="602"/>
+      <c r="P16" s="603"/>
       <c r="Q16" s="73"/>
       <c r="R16" s="73"/>
       <c r="S16" s="52"/>
     </row>
     <row r="17" spans="1:19" ht="15">
-      <c r="A17" s="601"/>
+      <c r="A17" s="599"/>
       <c r="B17" s="74"/>
       <c r="C17" s="163"/>
       <c r="D17" s="53" t="s">
@@ -19838,17 +19842,17 @@
       </c>
       <c r="L17" s="76"/>
       <c r="M17" s="73"/>
-      <c r="N17" s="603" t="s">
-        <v>63</v>
-      </c>
-      <c r="O17" s="604"/>
-      <c r="P17" s="605"/>
+      <c r="N17" s="601" t="s">
+        <v>63</v>
+      </c>
+      <c r="O17" s="602"/>
+      <c r="P17" s="603"/>
       <c r="Q17" s="73"/>
       <c r="R17" s="73"/>
       <c r="S17" s="52"/>
     </row>
     <row r="18" spans="1:19" ht="15">
-      <c r="A18" s="601"/>
+      <c r="A18" s="599"/>
       <c r="B18" s="74"/>
       <c r="C18" s="165" t="s">
         <v>76</v>
@@ -19871,7 +19875,7 @@
       <c r="S18" s="52"/>
     </row>
     <row r="19" spans="1:19" ht="15">
-      <c r="A19" s="601"/>
+      <c r="A19" s="599"/>
       <c r="B19" s="74"/>
       <c r="C19" s="165"/>
       <c r="D19" s="53" t="s">
@@ -19896,17 +19900,17 @@
       <c r="K19" s="70"/>
       <c r="L19" s="76"/>
       <c r="M19" s="73"/>
-      <c r="N19" s="603" t="s">
+      <c r="N19" s="601" t="s">
         <v>91</v>
       </c>
-      <c r="O19" s="604"/>
-      <c r="P19" s="605"/>
+      <c r="O19" s="602"/>
+      <c r="P19" s="603"/>
       <c r="Q19" s="73"/>
       <c r="R19" s="73"/>
       <c r="S19" s="52"/>
     </row>
     <row r="20" spans="1:19" ht="15">
-      <c r="A20" s="601"/>
+      <c r="A20" s="599"/>
       <c r="B20" s="74"/>
       <c r="C20" s="163"/>
       <c r="D20" s="53" t="s">
@@ -19931,17 +19935,17 @@
       <c r="K20" s="70"/>
       <c r="L20" s="76"/>
       <c r="M20" s="73"/>
-      <c r="N20" s="603" t="s">
+      <c r="N20" s="601" t="s">
         <v>91</v>
       </c>
-      <c r="O20" s="604"/>
-      <c r="P20" s="605"/>
+      <c r="O20" s="602"/>
+      <c r="P20" s="603"/>
       <c r="Q20" s="73"/>
       <c r="R20" s="73"/>
       <c r="S20" s="52"/>
     </row>
     <row r="21" spans="1:19" ht="15">
-      <c r="A21" s="601"/>
+      <c r="A21" s="599"/>
       <c r="B21" s="74"/>
       <c r="C21" s="163"/>
       <c r="D21" s="53" t="s">
@@ -19966,17 +19970,17 @@
       <c r="K21" s="70"/>
       <c r="L21" s="76"/>
       <c r="M21" s="73"/>
-      <c r="N21" s="603" t="s">
+      <c r="N21" s="601" t="s">
         <v>91</v>
       </c>
-      <c r="O21" s="604"/>
-      <c r="P21" s="605"/>
+      <c r="O21" s="602"/>
+      <c r="P21" s="603"/>
       <c r="Q21" s="73"/>
       <c r="R21" s="73"/>
       <c r="S21" s="52"/>
     </row>
     <row r="22" spans="1:19" ht="15">
-      <c r="A22" s="601"/>
+      <c r="A22" s="599"/>
       <c r="B22" s="74"/>
       <c r="C22" s="41"/>
       <c r="D22" s="53" t="s">
@@ -20001,17 +20005,17 @@
       <c r="K22" s="70"/>
       <c r="L22" s="76"/>
       <c r="M22" s="73"/>
-      <c r="N22" s="603" t="s">
+      <c r="N22" s="601" t="s">
         <v>91</v>
       </c>
-      <c r="O22" s="604"/>
-      <c r="P22" s="605"/>
+      <c r="O22" s="602"/>
+      <c r="P22" s="603"/>
       <c r="Q22" s="73"/>
       <c r="R22" s="73"/>
       <c r="S22" s="52"/>
     </row>
     <row r="23" spans="1:19" ht="15">
-      <c r="A23" s="601"/>
+      <c r="A23" s="599"/>
       <c r="B23" s="74"/>
       <c r="C23" s="41"/>
       <c r="D23" s="53" t="s">
@@ -20036,17 +20040,17 @@
       <c r="K23" s="70"/>
       <c r="L23" s="76"/>
       <c r="M23" s="73"/>
-      <c r="N23" s="603" t="s">
+      <c r="N23" s="601" t="s">
         <v>91</v>
       </c>
-      <c r="O23" s="604"/>
-      <c r="P23" s="605"/>
+      <c r="O23" s="602"/>
+      <c r="P23" s="603"/>
       <c r="Q23" s="73"/>
       <c r="R23" s="73"/>
       <c r="S23" s="52"/>
     </row>
     <row r="24" spans="1:19" ht="15">
-      <c r="A24" s="602"/>
+      <c r="A24" s="600"/>
       <c r="B24" s="79"/>
       <c r="C24" s="161"/>
       <c r="D24" s="81" t="s">
@@ -20071,17 +20075,17 @@
       <c r="K24" s="81"/>
       <c r="L24" s="76"/>
       <c r="M24" s="81"/>
-      <c r="N24" s="610" t="s">
+      <c r="N24" s="604" t="s">
         <v>91</v>
       </c>
-      <c r="O24" s="611"/>
-      <c r="P24" s="612"/>
+      <c r="O24" s="605"/>
+      <c r="P24" s="606"/>
       <c r="Q24" s="81"/>
       <c r="R24" s="81"/>
       <c r="S24" s="160"/>
     </row>
     <row r="25" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A25" s="600" t="s">
+      <c r="A25" s="598" t="s">
         <v>360</v>
       </c>
       <c r="B25" s="175" t="s">
@@ -20116,7 +20120,7 @@
       <c r="S25" s="172"/>
     </row>
     <row r="26" spans="1:19" ht="15.75">
-      <c r="A26" s="601"/>
+      <c r="A26" s="599"/>
       <c r="B26" s="158" t="s">
         <v>129</v>
       </c>
@@ -20139,7 +20143,7 @@
       <c r="S26" s="52"/>
     </row>
     <row r="27" spans="1:19" ht="15">
-      <c r="A27" s="601"/>
+      <c r="A27" s="599"/>
       <c r="B27" s="73"/>
       <c r="C27" s="124" t="s">
         <v>74</v>
@@ -20162,7 +20166,7 @@
       <c r="S27" s="52"/>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="601"/>
+      <c r="A28" s="599"/>
       <c r="B28" s="73"/>
       <c r="C28" s="124"/>
       <c r="D28" s="73" t="s">
@@ -20181,17 +20185,17 @@
       <c r="K28" s="70"/>
       <c r="L28" s="76"/>
       <c r="M28" s="73"/>
-      <c r="N28" s="603" t="s">
-        <v>63</v>
-      </c>
-      <c r="O28" s="604"/>
-      <c r="P28" s="605"/>
+      <c r="N28" s="601" t="s">
+        <v>63</v>
+      </c>
+      <c r="O28" s="602"/>
+      <c r="P28" s="603"/>
       <c r="Q28" s="73"/>
       <c r="R28" s="73"/>
       <c r="S28" s="52"/>
     </row>
     <row r="29" spans="1:19">
-      <c r="A29" s="601"/>
+      <c r="A29" s="599"/>
       <c r="B29" s="73"/>
       <c r="C29" s="52"/>
       <c r="D29" s="53" t="s">
@@ -20212,17 +20216,17 @@
       <c r="K29" s="70"/>
       <c r="L29" s="76"/>
       <c r="M29" s="73"/>
-      <c r="N29" s="603" t="s">
-        <v>63</v>
-      </c>
-      <c r="O29" s="604"/>
-      <c r="P29" s="605"/>
+      <c r="N29" s="601" t="s">
+        <v>63</v>
+      </c>
+      <c r="O29" s="602"/>
+      <c r="P29" s="603"/>
       <c r="Q29" s="73"/>
       <c r="R29" s="73"/>
       <c r="S29" s="52"/>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" s="601"/>
+      <c r="A30" s="599"/>
       <c r="B30" s="73"/>
       <c r="C30" s="52"/>
       <c r="D30" s="53" t="s">
@@ -20239,15 +20243,15 @@
       <c r="K30" s="70"/>
       <c r="L30" s="76"/>
       <c r="M30" s="73"/>
-      <c r="N30" s="603"/>
-      <c r="O30" s="604"/>
-      <c r="P30" s="605"/>
+      <c r="N30" s="601"/>
+      <c r="O30" s="602"/>
+      <c r="P30" s="603"/>
       <c r="Q30" s="73"/>
       <c r="R30" s="73"/>
       <c r="S30" s="52"/>
     </row>
     <row r="31" spans="1:19">
-      <c r="A31" s="601"/>
+      <c r="A31" s="599"/>
       <c r="B31" s="73"/>
       <c r="C31" s="52"/>
       <c r="D31" s="53" t="s">
@@ -20264,15 +20268,15 @@
       <c r="K31" s="70"/>
       <c r="L31" s="76"/>
       <c r="M31" s="73"/>
-      <c r="N31" s="603"/>
-      <c r="O31" s="604"/>
-      <c r="P31" s="605"/>
+      <c r="N31" s="601"/>
+      <c r="O31" s="602"/>
+      <c r="P31" s="603"/>
       <c r="Q31" s="73"/>
       <c r="R31" s="73"/>
       <c r="S31" s="52"/>
     </row>
     <row r="32" spans="1:19" ht="15">
-      <c r="A32" s="601"/>
+      <c r="A32" s="599"/>
       <c r="B32" s="73"/>
       <c r="C32" s="124" t="s">
         <v>76</v>
@@ -20295,7 +20299,7 @@
       <c r="S32" s="52"/>
     </row>
     <row r="33" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A33" s="601"/>
+      <c r="A33" s="599"/>
       <c r="B33" s="73"/>
       <c r="C33" s="124"/>
       <c r="D33" s="73" t="s">
@@ -20326,7 +20330,7 @@
       <c r="S33" s="52"/>
     </row>
     <row r="34" spans="1:19">
-      <c r="A34" s="601"/>
+      <c r="A34" s="599"/>
       <c r="B34" s="73"/>
       <c r="C34" s="52"/>
       <c r="D34" s="53" t="s">
@@ -20357,7 +20361,7 @@
       <c r="S34" s="52"/>
     </row>
     <row r="35" spans="1:19">
-      <c r="A35" s="601"/>
+      <c r="A35" s="599"/>
       <c r="B35" s="73"/>
       <c r="C35" s="52"/>
       <c r="D35" s="53" t="s">
@@ -20388,7 +20392,7 @@
       <c r="S35" s="52"/>
     </row>
     <row r="36" spans="1:19" ht="15">
-      <c r="A36" s="601"/>
+      <c r="A36" s="599"/>
       <c r="B36" s="73"/>
       <c r="C36" s="46"/>
       <c r="D36" s="53" t="s">
@@ -20419,7 +20423,7 @@
       <c r="S36" s="52"/>
     </row>
     <row r="37" spans="1:19">
-      <c r="A37" s="602"/>
+      <c r="A37" s="600"/>
       <c r="B37" s="73"/>
       <c r="C37" s="52"/>
       <c r="D37" s="53" t="s">
@@ -20679,16 +20683,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A24"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="N28:P28"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A25:A37"/>
     <mergeCell ref="N20:P20"/>
@@ -20705,6 +20699,16 @@
     <mergeCell ref="N17:P17"/>
     <mergeCell ref="N31:P31"/>
     <mergeCell ref="N21:P21"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A24"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="N28:P28"/>
   </mergeCells>
   <conditionalFormatting sqref="E12:E22 E25:K38 E23:K23 F24:H24 E10 F8:K8 F10:K22 E7:K7 E5:K5">
     <cfRule type="cellIs" dxfId="77" priority="17" operator="equal">
@@ -24402,7 +24406,7 @@
       <c r="FA11" s="320"/>
     </row>
     <row r="12" spans="1:157" ht="15.75" customHeight="1">
-      <c r="A12" s="601" t="s">
+      <c r="A12" s="599" t="s">
         <v>358</v>
       </c>
       <c r="B12" s="426" t="s">
@@ -24564,7 +24568,7 @@
       <c r="EZ12" s="160"/>
     </row>
     <row r="13" spans="1:157" ht="15" customHeight="1">
-      <c r="A13" s="601"/>
+      <c r="A13" s="599"/>
       <c r="B13" s="74"/>
       <c r="C13" s="163" t="s">
         <v>116</v>
@@ -24635,7 +24639,7 @@
       <c r="BO13" s="353"/>
     </row>
     <row r="14" spans="1:157" ht="15" customHeight="1">
-      <c r="A14" s="601"/>
+      <c r="A14" s="599"/>
       <c r="B14" s="74"/>
       <c r="D14" s="85" t="s">
         <v>81</v>
@@ -25101,7 +25105,7 @@
       </c>
     </row>
     <row r="15" spans="1:157" ht="15" customHeight="1">
-      <c r="A15" s="601"/>
+      <c r="A15" s="599"/>
       <c r="B15" s="73"/>
       <c r="C15" s="164" t="s">
         <v>117</v>
@@ -25172,7 +25176,7 @@
       <c r="BO15" s="353"/>
     </row>
     <row r="16" spans="1:157">
-      <c r="A16" s="601"/>
+      <c r="A16" s="599"/>
       <c r="B16" s="73"/>
       <c r="C16" s="164"/>
       <c r="D16" s="85" t="s">
@@ -25639,7 +25643,7 @@
       </c>
     </row>
     <row r="17" spans="1:157" ht="15.75">
-      <c r="A17" s="600" t="s">
+      <c r="A17" s="598" t="s">
         <v>359</v>
       </c>
       <c r="B17" s="157" t="s">
@@ -25712,7 +25716,7 @@
       <c r="BO17" s="353"/>
     </row>
     <row r="18" spans="1:157" ht="15.75" customHeight="1">
-      <c r="A18" s="601"/>
+      <c r="A18" s="599"/>
       <c r="B18" s="73"/>
       <c r="C18" s="166" t="s">
         <v>71</v>
@@ -26179,7 +26183,7 @@
       </c>
     </row>
     <row r="19" spans="1:157">
-      <c r="A19" s="601"/>
+      <c r="A19" s="599"/>
       <c r="B19" s="73"/>
       <c r="C19" s="165" t="s">
         <v>3</v>
@@ -26646,7 +26650,7 @@
       </c>
     </row>
     <row r="20" spans="1:157">
-      <c r="A20" s="601"/>
+      <c r="A20" s="599"/>
       <c r="B20" s="73"/>
       <c r="C20" s="165" t="s">
         <v>35</v>
@@ -27113,7 +27117,7 @@
       </c>
     </row>
     <row r="21" spans="1:157" ht="15.75">
-      <c r="A21" s="601"/>
+      <c r="A21" s="599"/>
       <c r="B21" s="158" t="s">
         <v>127</v>
       </c>
@@ -27184,7 +27188,7 @@
       <c r="BO21" s="353"/>
     </row>
     <row r="22" spans="1:157" ht="15">
-      <c r="A22" s="601"/>
+      <c r="A22" s="599"/>
       <c r="B22" s="74"/>
       <c r="C22" s="165" t="s">
         <v>88</v>
@@ -27255,7 +27259,7 @@
       <c r="BO22" s="353"/>
     </row>
     <row r="23" spans="1:157" ht="15">
-      <c r="A23" s="601"/>
+      <c r="A23" s="599"/>
       <c r="B23" s="74"/>
       <c r="C23" s="165"/>
       <c r="D23" s="53" t="s">
@@ -27722,7 +27726,7 @@
       </c>
     </row>
     <row r="24" spans="1:157" ht="15">
-      <c r="A24" s="601"/>
+      <c r="A24" s="599"/>
       <c r="B24" s="74"/>
       <c r="C24" s="163"/>
       <c r="D24" s="53" t="s">
@@ -28189,7 +28193,7 @@
       </c>
     </row>
     <row r="25" spans="1:157" ht="15">
-      <c r="A25" s="601"/>
+      <c r="A25" s="599"/>
       <c r="B25" s="74"/>
       <c r="C25" s="163"/>
       <c r="D25" s="53" t="s">
@@ -28656,7 +28660,7 @@
       </c>
     </row>
     <row r="26" spans="1:157" ht="15">
-      <c r="A26" s="601"/>
+      <c r="A26" s="599"/>
       <c r="B26" s="74"/>
       <c r="C26" s="163"/>
       <c r="D26" s="53" t="s">
@@ -29123,7 +29127,7 @@
       </c>
     </row>
     <row r="27" spans="1:157" ht="15">
-      <c r="A27" s="601"/>
+      <c r="A27" s="599"/>
       <c r="B27" s="74"/>
       <c r="C27" s="165" t="s">
         <v>76</v>
@@ -29194,7 +29198,7 @@
       <c r="BO27" s="353"/>
     </row>
     <row r="28" spans="1:157" ht="15">
-      <c r="A28" s="601"/>
+      <c r="A28" s="599"/>
       <c r="B28" s="74"/>
       <c r="C28" s="165"/>
       <c r="D28" s="53" t="s">
@@ -29661,7 +29665,7 @@
       </c>
     </row>
     <row r="29" spans="1:157" ht="15">
-      <c r="A29" s="601"/>
+      <c r="A29" s="599"/>
       <c r="B29" s="74"/>
       <c r="C29" s="163"/>
       <c r="D29" s="53" t="s">
@@ -29753,7 +29757,7 @@
       <c r="BO29" s="353"/>
     </row>
     <row r="30" spans="1:157" ht="15">
-      <c r="A30" s="601"/>
+      <c r="A30" s="599"/>
       <c r="B30" s="74"/>
       <c r="C30" s="163"/>
       <c r="D30" s="53" t="s">
@@ -29845,7 +29849,7 @@
       <c r="BO30" s="353"/>
     </row>
     <row r="31" spans="1:157" ht="15">
-      <c r="A31" s="601"/>
+      <c r="A31" s="599"/>
       <c r="B31" s="74"/>
       <c r="C31" s="41"/>
       <c r="D31" s="53" t="s">
@@ -29937,7 +29941,7 @@
       <c r="BO31" s="353"/>
     </row>
     <row r="32" spans="1:157" ht="15">
-      <c r="A32" s="601"/>
+      <c r="A32" s="599"/>
       <c r="B32" s="74"/>
       <c r="C32" s="41"/>
       <c r="D32" s="53" t="s">
@@ -30405,7 +30409,7 @@
       <c r="FA32" s="353"/>
     </row>
     <row r="33" spans="1:156" ht="15">
-      <c r="A33" s="602"/>
+      <c r="A33" s="600"/>
       <c r="B33" s="79"/>
       <c r="C33" s="161"/>
       <c r="D33" s="81"/>
@@ -30870,7 +30874,7 @@
       </c>
     </row>
     <row r="34" spans="1:156" ht="15.75" customHeight="1">
-      <c r="A34" s="600" t="s">
+      <c r="A34" s="598" t="s">
         <v>360</v>
       </c>
       <c r="B34" s="175" t="s">
@@ -31341,7 +31345,7 @@
       </c>
     </row>
     <row r="35" spans="1:156" ht="15.75">
-      <c r="A35" s="601"/>
+      <c r="A35" s="599"/>
       <c r="B35" s="158" t="s">
         <v>129</v>
       </c>
@@ -31412,7 +31416,7 @@
       <c r="BO35" s="353"/>
     </row>
     <row r="36" spans="1:156" ht="15">
-      <c r="A36" s="601"/>
+      <c r="A36" s="599"/>
       <c r="B36" s="73"/>
       <c r="C36" s="124" t="s">
         <v>74</v>
@@ -31483,7 +31487,7 @@
       <c r="BO36" s="353"/>
     </row>
     <row r="37" spans="1:156">
-      <c r="A37" s="601"/>
+      <c r="A37" s="599"/>
       <c r="B37" s="73"/>
       <c r="C37" s="124"/>
       <c r="D37" s="73" t="s">
@@ -31950,7 +31954,7 @@
       </c>
     </row>
     <row r="38" spans="1:156">
-      <c r="A38" s="601"/>
+      <c r="A38" s="599"/>
       <c r="B38" s="73"/>
       <c r="C38" s="52"/>
       <c r="D38" s="53" t="s">
@@ -32043,7 +32047,7 @@
       </c>
     </row>
     <row r="39" spans="1:156">
-      <c r="A39" s="601"/>
+      <c r="A39" s="599"/>
       <c r="B39" s="73"/>
       <c r="C39" s="52"/>
       <c r="D39" s="53" t="s">
@@ -32510,7 +32514,7 @@
       </c>
     </row>
     <row r="40" spans="1:156">
-      <c r="A40" s="601"/>
+      <c r="A40" s="599"/>
       <c r="B40" s="73"/>
       <c r="C40" s="52"/>
       <c r="D40" s="53" t="s">
@@ -32977,7 +32981,7 @@
       </c>
     </row>
     <row r="41" spans="1:156" ht="15">
-      <c r="A41" s="601"/>
+      <c r="A41" s="599"/>
       <c r="B41" s="73"/>
       <c r="C41" s="124" t="s">
         <v>76</v>
@@ -33048,7 +33052,7 @@
       <c r="BO41" s="353"/>
     </row>
     <row r="42" spans="1:156" ht="15.75" customHeight="1">
-      <c r="A42" s="601"/>
+      <c r="A42" s="599"/>
       <c r="B42" s="73"/>
       <c r="C42" s="124"/>
       <c r="D42" s="73" t="s">
@@ -33515,7 +33519,7 @@
       </c>
     </row>
     <row r="43" spans="1:156">
-      <c r="A43" s="601"/>
+      <c r="A43" s="599"/>
       <c r="B43" s="73"/>
       <c r="C43" s="52"/>
       <c r="D43" s="53" t="s">
@@ -33982,7 +33986,7 @@
       </c>
     </row>
     <row r="44" spans="1:156">
-      <c r="A44" s="601"/>
+      <c r="A44" s="599"/>
       <c r="B44" s="73"/>
       <c r="C44" s="52"/>
       <c r="D44" s="53" t="s">
@@ -34078,7 +34082,7 @@
       </c>
     </row>
     <row r="45" spans="1:156" ht="15">
-      <c r="A45" s="601"/>
+      <c r="A45" s="599"/>
       <c r="B45" s="73"/>
       <c r="C45" s="46"/>
       <c r="D45" s="53" t="s">
@@ -34174,7 +34178,7 @@
       </c>
     </row>
     <row r="46" spans="1:156">
-      <c r="A46" s="602"/>
+      <c r="A46" s="600"/>
       <c r="B46" s="73"/>
       <c r="C46" s="52"/>
       <c r="D46" s="53" t="s">
@@ -42290,3413 +42294,4204 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:H209"/>
+  <dimension ref="A1:I209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10.42578125" style="34" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" style="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.7109375" style="34" customWidth="1"/>
-    <col min="4" max="4" width="139" style="583" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="34"/>
-    <col min="6" max="6" width="3.28515625" style="34" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" style="34" customWidth="1"/>
-    <col min="8" max="8" width="158.7109375" style="568" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="34"/>
+    <col min="3" max="3" width="8.85546875" style="34" customWidth="1"/>
+    <col min="4" max="4" width="69.7109375" style="34" customWidth="1"/>
+    <col min="5" max="5" width="139" style="583" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="34"/>
+    <col min="7" max="7" width="3.28515625" style="34" customWidth="1"/>
+    <col min="8" max="8" width="25.85546875" style="34" customWidth="1"/>
+    <col min="9" max="9" width="158.7109375" style="568" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="549" t="s">
         <v>701</v>
       </c>
       <c r="B1" s="549" t="s">
         <v>695</v>
       </c>
-      <c r="C1" s="569" t="s">
+      <c r="C1" s="696" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D1" s="569" t="s">
         <v>759</v>
       </c>
-      <c r="D1" s="354" t="s">
+      <c r="E1" s="354" t="s">
         <v>702</v>
       </c>
-      <c r="F1" s="616" t="s">
+      <c r="G1" s="616" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="616"/>
-      <c r="H1" s="561" t="s">
+      <c r="H1" s="616"/>
+      <c r="I1" s="561" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="552" customFormat="1">
+    <row r="2" spans="1:9" s="552" customFormat="1">
       <c r="A2" s="550">
         <v>1</v>
       </c>
       <c r="B2" s="551">
         <v>2</v>
       </c>
-      <c r="C2" s="570" t="s">
+      <c r="C2" s="551">
+        <f ca="1">ROUND(RANDBETWEEN(1,6),1)</f>
+        <v>2</v>
+      </c>
+      <c r="D2" s="570" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="579" t="s">
+      <c r="E2" s="579" t="s">
         <v>564</v>
       </c>
-      <c r="F2" s="589"/>
-      <c r="G2" s="590" t="s">
+      <c r="G2" s="589"/>
+      <c r="H2" s="590" t="s">
         <v>983</v>
       </c>
-      <c r="H2" s="562" t="str">
-        <f>VLOOKUP(C2,sup_hiperlinks!$E$10:$G$39,3,0)</f>
+      <c r="I2" s="562" t="str">
+        <f>VLOOKUP(D2,sup_hiperlinks!$E$10:$G$39,3,0)</f>
         <v>http://minutapiuriobranco.gestaourbana.prefeitura.sp.gov.br/wp-content/uploads/2016/04/PIU_RioBranco_ConsultaPublica_V03.pdf</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="552" customFormat="1">
+    <row r="3" spans="1:9" s="552" customFormat="1">
       <c r="A3" s="553">
         <v>1</v>
       </c>
       <c r="B3" s="553">
         <v>2</v>
       </c>
-      <c r="C3" s="571" t="s">
+      <c r="C3" s="551">
+        <f t="shared" ref="C3:C66" ca="1" si="0">ROUND(RANDBETWEEN(1,6),1)</f>
+        <v>6</v>
+      </c>
+      <c r="D3" s="571" t="s">
         <v>159</v>
       </c>
-      <c r="D3" s="579" t="s">
+      <c r="E3" s="579" t="s">
         <v>565</v>
       </c>
-      <c r="F3" s="590"/>
-      <c r="G3" s="591"/>
-      <c r="H3" s="563" t="str">
-        <f>VLOOKUP(C3,sup_hiperlinks!$E$10:$G$39,3,0)</f>
+      <c r="G3" s="590"/>
+      <c r="H3" s="591"/>
+      <c r="I3" s="563" t="str">
+        <f>VLOOKUP(D3,sup_hiperlinks!$E$10:$G$39,3,0)</f>
         <v>http://minutapiuriobranco.gestaourbana.prefeitura.sp.gov.br/wp-content/uploads/2016/04/PIU_RioBranco_ConsultaPublica_ANEXOI_reduzido.pdf</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="552" customFormat="1">
+    <row r="4" spans="1:9" s="552" customFormat="1">
       <c r="A4" s="553">
         <v>1</v>
       </c>
       <c r="B4" s="553">
         <v>2</v>
       </c>
-      <c r="C4" s="572" t="s">
+      <c r="C4" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D4" s="572" t="s">
         <v>704</v>
       </c>
-      <c r="D4" s="579" t="s">
+      <c r="E4" s="579" t="s">
         <v>580</v>
       </c>
-      <c r="F4" s="615" t="s">
+      <c r="G4" s="615" t="s">
         <v>984</v>
       </c>
-      <c r="G4" s="615"/>
-      <c r="H4" s="563" t="str">
-        <f>VLOOKUP(C4,sup_hiperlinks!$E$10:$G$39,3,0)</f>
+      <c r="H4" s="615"/>
+      <c r="I4" s="563" t="str">
+        <f>VLOOKUP(D4,sup_hiperlinks!$E$10:$G$39,3,0)</f>
         <v>http://gestaourbana.prefeitura.sp.gov.br/noticias/prefeitura-de-sao-paulo-abre-consulta-publica-sobre-o-projeto-de-intervencao-urbana-piu-rio-branco/</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="552" customFormat="1">
+    <row r="5" spans="1:9" s="552" customFormat="1">
       <c r="A5" s="553">
         <v>1</v>
       </c>
       <c r="B5" s="553">
         <v>2</v>
       </c>
-      <c r="C5" s="572" t="s">
+      <c r="C5" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D5" s="572" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="579" t="s">
+      <c r="E5" s="579" t="s">
         <v>563</v>
       </c>
-      <c r="F5" s="617">
+      <c r="G5" s="617">
         <v>43220</v>
       </c>
-      <c r="G5" s="618"/>
-      <c r="H5" s="563" t="str">
-        <f>VLOOKUP(C5,sup_hiperlinks!$E$10:$G$39,3,0)</f>
+      <c r="H5" s="618"/>
+      <c r="I5" s="563" t="str">
+        <f>VLOOKUP(D5,sup_hiperlinks!$E$10:$G$39,3,0)</f>
         <v>http://minutapiuriobranco.gestaourbana.prefeitura.sp.gov.br/</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="552" customFormat="1">
+    <row r="6" spans="1:9" s="552" customFormat="1">
       <c r="A6" s="553">
         <v>1</v>
       </c>
       <c r="B6" s="553">
         <v>2</v>
       </c>
-      <c r="C6" s="572" t="s">
+      <c r="C6" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D6" s="572" t="s">
         <v>705</v>
       </c>
-      <c r="D6" s="579" t="s">
+      <c r="E6" s="579" t="s">
         <v>566</v>
       </c>
-      <c r="G6" s="170"/>
-      <c r="H6" s="563" t="str">
-        <f>VLOOKUP(C6,sup_hiperlinks!$E$10:$G$39,3,0)</f>
+      <c r="H6" s="170"/>
+      <c r="I6" s="563" t="str">
+        <f>VLOOKUP(D6,sup_hiperlinks!$E$10:$G$39,3,0)</f>
         <v>http://gestaourbana.prefeitura.sp.gov.br/wp-content/uploads/2016/03/Contribui%C3%A7%C3%B5es.pdf</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="552" customFormat="1">
+    <row r="7" spans="1:9" s="552" customFormat="1">
       <c r="A7" s="553">
         <v>2</v>
       </c>
       <c r="B7" s="553">
         <v>1</v>
       </c>
-      <c r="C7" s="571" t="s">
+      <c r="C7" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D7" s="571" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="579" t="s">
+      <c r="E7" s="579" t="s">
         <v>575</v>
       </c>
-      <c r="G7" s="170"/>
-      <c r="H7" s="563" t="str">
-        <f>VLOOKUP(C7,sup_hiperlinks!$E$5:$I$39,5,0)</f>
+      <c r="H7" s="170"/>
+      <c r="I7" s="563" t="str">
+        <f>VLOOKUP(D7,sup_hiperlinks!$E$5:$I$39,5,0)</f>
         <v>http://gestaourbana.prefeitura.sp.gov.br/wp-content/uploads/2016/03/01_-MIP_PIU_Vila-Leopoldina-Villa-Lobos_motiva%C3%A7%C3%A3o.pdf</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="552" customFormat="1">
+    <row r="8" spans="1:9" s="552" customFormat="1">
       <c r="A8" s="553">
         <v>2</v>
       </c>
       <c r="B8" s="553">
         <v>2</v>
       </c>
-      <c r="C8" s="573" t="s">
+      <c r="C8" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D8" s="573" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="579" t="s">
+      <c r="E8" s="579" t="s">
         <v>571</v>
       </c>
-      <c r="G8" s="170"/>
-      <c r="H8" s="563" t="str">
-        <f>VLOOKUP(C8,sup_hiperlinks!$E$5:$I$39,5,0)</f>
+      <c r="H8" s="170"/>
+      <c r="I8" s="563" t="str">
+        <f>VLOOKUP(D8,sup_hiperlinks!$E$5:$I$39,5,0)</f>
         <v>http://minuta.gestaourbana.prefeitura.sp.gov.br/piu-leopoldina/wp-content/uploads/2016/08/02_MIP_PIU_Vila_Leopoldina-Villa-Lobos_diagnostico_e_programa.pdf</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="552" customFormat="1">
+    <row r="9" spans="1:9" s="552" customFormat="1">
       <c r="A9" s="553">
         <v>2</v>
       </c>
       <c r="B9" s="553">
         <v>2</v>
       </c>
-      <c r="C9" s="571" t="s">
+      <c r="C9" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D9" s="571" t="s">
         <v>159</v>
       </c>
-      <c r="D9" s="579" t="s">
+      <c r="E9" s="579" t="s">
         <v>572</v>
       </c>
-      <c r="G9" s="170"/>
-      <c r="H9" s="563" t="str">
-        <f>VLOOKUP(C9,sup_hiperlinks!$E$5:$I$39,5,0)</f>
+      <c r="H9" s="170"/>
+      <c r="I9" s="563" t="str">
+        <f>VLOOKUP(D9,sup_hiperlinks!$E$5:$I$39,5,0)</f>
         <v>http://minuta.gestaourbana.prefeitura.sp.gov.br/piu-leopoldina/wp-content/uploads/2016/08/03_MIP_PIU_Vila_Leopoldina-Villa-Lobos_mapas.pdf</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="552" customFormat="1">
+    <row r="10" spans="1:9" s="552" customFormat="1">
       <c r="A10" s="553">
         <v>2</v>
       </c>
       <c r="B10" s="553">
         <v>2</v>
       </c>
-      <c r="C10" s="572" t="s">
+      <c r="C10" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D10" s="572" t="s">
         <v>704</v>
       </c>
-      <c r="D10" s="579" t="s">
+      <c r="E10" s="579" t="s">
         <v>581</v>
       </c>
-      <c r="G10" s="170"/>
-      <c r="H10" s="563" t="str">
-        <f>VLOOKUP(C10,sup_hiperlinks!$E$5:$I$39,5,0)</f>
+      <c r="H10" s="170"/>
+      <c r="I10" s="563" t="str">
+        <f>VLOOKUP(D10,sup_hiperlinks!$E$5:$I$39,5,0)</f>
         <v>http://gestaourbana.prefeitura.sp.gov.br/noticias/prorrogado-o-prazo-da-consulta-publica-sobre-o-piu-vila-leopoldina/</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="552" customFormat="1">
+    <row r="11" spans="1:9" s="552" customFormat="1">
       <c r="A11" s="553">
         <v>2</v>
       </c>
       <c r="B11" s="553">
         <v>2</v>
       </c>
-      <c r="C11" s="572" t="s">
+      <c r="C11" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D11" s="572" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="579" t="s">
+      <c r="E11" s="579" t="s">
         <v>570</v>
       </c>
-      <c r="G11" s="170"/>
-      <c r="H11" s="563" t="str">
-        <f>VLOOKUP(C11,sup_hiperlinks!$E$5:$I$39,5,0)</f>
+      <c r="H11" s="170"/>
+      <c r="I11" s="563" t="str">
+        <f>VLOOKUP(D11,sup_hiperlinks!$E$5:$I$39,5,0)</f>
         <v>http://minuta.gestaourbana.prefeitura.sp.gov.br/piu-leopoldina/</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="552" customFormat="1">
+    <row r="12" spans="1:9" s="552" customFormat="1">
       <c r="A12" s="553">
         <v>2</v>
       </c>
       <c r="B12" s="553">
         <v>2</v>
       </c>
-      <c r="C12" s="572" t="s">
+      <c r="C12" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D12" s="572" t="s">
         <v>705</v>
       </c>
-      <c r="D12" s="579" t="s">
+      <c r="E12" s="579" t="s">
         <v>573</v>
       </c>
-      <c r="G12" s="170"/>
-      <c r="H12" s="563" t="str">
-        <f>VLOOKUP(C12,sup_hiperlinks!$E$5:$I$39,5,0)</f>
+      <c r="H12" s="170"/>
+      <c r="I12" s="563" t="str">
+        <f>VLOOKUP(D12,sup_hiperlinks!$E$5:$I$39,5,0)</f>
         <v>http://gestaourbana.prefeitura.sp.gov.br/wp-content/uploads/2016/03/PIU-Leopoldina.pdf</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="552" customFormat="1">
+    <row r="13" spans="1:9" s="552" customFormat="1">
       <c r="A13" s="553">
         <v>2</v>
       </c>
       <c r="B13" s="553">
         <v>2</v>
       </c>
-      <c r="C13" s="572" t="s">
+      <c r="C13" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D13" s="572" t="s">
         <v>706</v>
       </c>
-      <c r="D13" s="580" t="s">
+      <c r="E13" s="580" t="s">
         <v>582</v>
       </c>
-      <c r="G13" s="170"/>
-      <c r="H13" s="563" t="str">
-        <f>VLOOKUP(C13,sup_hiperlinks!$E$5:$I$39,5,0)</f>
+      <c r="H13" s="170"/>
+      <c r="I13" s="563" t="str">
+        <f>VLOOKUP(D13,sup_hiperlinks!$E$5:$I$39,5,0)</f>
         <v>print DOSP</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="552" customFormat="1">
+    <row r="14" spans="1:9" s="552" customFormat="1">
       <c r="A14" s="553">
         <v>2</v>
       </c>
       <c r="B14" s="553">
         <v>2</v>
       </c>
-      <c r="C14" s="572" t="s">
+      <c r="C14" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D14" s="572" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="579" t="s">
+      <c r="E14" s="579" t="s">
         <v>699</v>
       </c>
-      <c r="G14" s="170"/>
-      <c r="H14" s="563" t="str">
-        <f>VLOOKUP(C14,sup_hiperlinks!$E$5:$I$39,5,0)</f>
+      <c r="H14" s="170"/>
+      <c r="I14" s="563" t="str">
+        <f>VLOOKUP(D14,sup_hiperlinks!$E$5:$I$39,5,0)</f>
         <v>http://gestaourbana.prefeitura.sp.gov.br/wp-content/uploads/2016/03/PIU_VL_AudienciaPublica_01_11_SPURB-2.pdf</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="552" customFormat="1">
+    <row r="15" spans="1:9" s="552" customFormat="1">
       <c r="A15" s="553">
         <v>2</v>
       </c>
       <c r="B15" s="553">
         <v>2</v>
       </c>
-      <c r="C15" s="572" t="s">
+      <c r="C15" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D15" s="572" t="s">
         <v>77</v>
       </c>
-      <c r="D15" s="579" t="s">
+      <c r="E15" s="579" t="s">
         <v>700</v>
       </c>
-      <c r="G15" s="170"/>
-      <c r="H15" s="563" t="str">
+      <c r="H15" s="170"/>
+      <c r="I15" s="563" t="str">
         <f>sup_hiperlinks!J20</f>
         <v>http://gestaourbana.prefeitura.sp.gov.br/wp-content/uploads/2016/03/PIU_VL_AudienciaPublica_01_11_Proponente.pdf</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="552" customFormat="1">
+    <row r="16" spans="1:9" s="552" customFormat="1">
       <c r="A16" s="553">
         <v>2</v>
       </c>
       <c r="B16" s="553">
         <v>2</v>
       </c>
-      <c r="C16" s="572" t="s">
+      <c r="C16" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D16" s="572" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="579" t="s">
+      <c r="E16" s="579" t="s">
         <v>574</v>
       </c>
-      <c r="G16" s="170"/>
-      <c r="H16" s="563" t="str">
-        <f>VLOOKUP(C16,sup_hiperlinks!$E$5:$I$39,5,0)</f>
+      <c r="H16" s="170"/>
+      <c r="I16" s="563" t="str">
+        <f>VLOOKUP(D16,sup_hiperlinks!$E$5:$I$39,5,0)</f>
         <v>http://gestaourbana.prefeitura.sp.gov.br/wp-content/uploads/2016/03/Lista-de-Presen%C3%A7a-Sem-contato.pdf</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="552" customFormat="1">
+    <row r="17" spans="1:9" s="552" customFormat="1">
       <c r="A17" s="553">
         <v>2</v>
       </c>
       <c r="B17" s="553">
         <v>2</v>
       </c>
-      <c r="C17" s="572" t="s">
+      <c r="C17" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D17" s="572" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="579" t="s">
+      <c r="E17" s="579" t="s">
         <v>576</v>
       </c>
-      <c r="G17" s="170"/>
-      <c r="H17" s="563" t="str">
-        <f>VLOOKUP(C17,sup_hiperlinks!$E$5:$I$39,5,0)</f>
+      <c r="H17" s="170"/>
+      <c r="I17" s="563" t="str">
+        <f>VLOOKUP(D17,sup_hiperlinks!$E$5:$I$39,5,0)</f>
         <v>http://gestaourbana.prefeitura.sp.gov.br/wp-content/uploads/2016/03/PIU_VL_ATA_Audiencia01_11_16_rev_GP.pdf</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="552" customFormat="1">
+    <row r="18" spans="1:9" s="552" customFormat="1">
       <c r="A18" s="553">
         <v>2</v>
       </c>
       <c r="B18" s="553">
         <v>5</v>
       </c>
-      <c r="C18" s="572" t="s">
+      <c r="C18" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D18" s="572" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="579" t="s">
+      <c r="E18" s="579" t="s">
         <v>925</v>
       </c>
-      <c r="G18" s="170"/>
-      <c r="H18" s="563"/>
-    </row>
-    <row r="19" spans="1:8" s="552" customFormat="1">
+      <c r="H18" s="170"/>
+      <c r="I18" s="563"/>
+    </row>
+    <row r="19" spans="1:9" s="552" customFormat="1">
       <c r="A19" s="553">
         <v>2</v>
       </c>
       <c r="B19" s="553">
         <v>5</v>
       </c>
-      <c r="C19" s="572" t="s">
+      <c r="C19" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D19" s="572" t="s">
         <v>927</v>
       </c>
-      <c r="D19" s="579" t="s">
+      <c r="E19" s="579" t="s">
         <v>926</v>
       </c>
-      <c r="G19" s="170"/>
-      <c r="H19" s="563"/>
-    </row>
-    <row r="20" spans="1:8" s="552" customFormat="1">
+      <c r="H19" s="170"/>
+      <c r="I19" s="563"/>
+    </row>
+    <row r="20" spans="1:9" s="552" customFormat="1">
       <c r="A20" s="553">
         <v>2</v>
       </c>
       <c r="B20" s="553">
         <v>5</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D20" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="579" t="s">
+      <c r="E20" s="579" t="s">
         <v>934</v>
       </c>
-      <c r="G20" s="170"/>
-      <c r="H20" s="563"/>
-    </row>
-    <row r="21" spans="1:8" s="552" customFormat="1">
+      <c r="H20" s="170"/>
+      <c r="I20" s="563"/>
+    </row>
+    <row r="21" spans="1:9" s="552" customFormat="1">
       <c r="A21" s="553">
         <v>2</v>
       </c>
       <c r="B21" s="553">
         <v>5</v>
       </c>
-      <c r="C21" s="560" t="s">
+      <c r="C21" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D21" s="560" t="s">
         <v>928</v>
       </c>
-      <c r="D21" s="579" t="s">
+      <c r="E21" s="579" t="s">
         <v>933</v>
       </c>
-      <c r="G21" s="170"/>
-      <c r="H21" s="563"/>
-    </row>
-    <row r="22" spans="1:8" s="552" customFormat="1">
+      <c r="H21" s="170"/>
+      <c r="I21" s="563"/>
+    </row>
+    <row r="22" spans="1:9" s="552" customFormat="1">
       <c r="A22" s="553">
         <v>2</v>
       </c>
       <c r="B22" s="553">
         <v>5</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D22" s="34" t="s">
         <v>929</v>
       </c>
-      <c r="D22" s="579" t="s">
+      <c r="E22" s="579" t="s">
         <v>935</v>
       </c>
-      <c r="G22" s="170"/>
-      <c r="H22" s="563"/>
-    </row>
-    <row r="23" spans="1:8" s="552" customFormat="1">
+      <c r="H22" s="170"/>
+      <c r="I22" s="563"/>
+    </row>
+    <row r="23" spans="1:9" s="552" customFormat="1">
       <c r="A23" s="553">
         <v>2</v>
       </c>
       <c r="B23" s="553">
         <v>5</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D23" s="34" t="s">
         <v>930</v>
       </c>
-      <c r="D23" s="579" t="s">
+      <c r="E23" s="579" t="s">
         <v>936</v>
       </c>
-      <c r="G23" s="170"/>
-      <c r="H23" s="563"/>
-    </row>
-    <row r="24" spans="1:8" s="552" customFormat="1">
+      <c r="H23" s="170"/>
+      <c r="I23" s="563"/>
+    </row>
+    <row r="24" spans="1:9" s="552" customFormat="1">
       <c r="A24" s="553">
         <v>2</v>
       </c>
       <c r="B24" s="553">
         <v>5</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D24" s="34" t="s">
         <v>931</v>
       </c>
-      <c r="D24" s="579" t="s">
+      <c r="E24" s="579" t="s">
         <v>937</v>
       </c>
-      <c r="G24" s="170"/>
-      <c r="H24" s="563"/>
-    </row>
-    <row r="25" spans="1:8" s="552" customFormat="1">
+      <c r="H24" s="170"/>
+      <c r="I24" s="563"/>
+    </row>
+    <row r="25" spans="1:9" s="552" customFormat="1">
       <c r="A25" s="553">
         <v>2</v>
       </c>
       <c r="B25" s="553">
         <v>5</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D25" s="34" t="s">
         <v>932</v>
       </c>
-      <c r="D25" s="579" t="s">
+      <c r="E25" s="579" t="s">
         <v>938</v>
       </c>
-      <c r="G25" s="170"/>
-      <c r="H25" s="563"/>
-    </row>
-    <row r="26" spans="1:8" s="552" customFormat="1">
+      <c r="H25" s="170"/>
+      <c r="I25" s="563"/>
+    </row>
+    <row r="26" spans="1:9" s="552" customFormat="1">
       <c r="A26" s="559">
         <v>3</v>
       </c>
       <c r="B26" s="559">
         <v>1</v>
       </c>
-      <c r="C26" s="585" t="s">
+      <c r="C26" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D26" s="585" t="s">
         <v>775</v>
       </c>
-      <c r="D26" s="584" t="s">
+      <c r="E26" s="584" t="s">
         <v>777</v>
       </c>
-      <c r="E26" s="587"/>
-      <c r="G26" s="170"/>
-      <c r="H26" s="564"/>
-    </row>
-    <row r="27" spans="1:8" s="552" customFormat="1">
+      <c r="F26" s="587"/>
+      <c r="H26" s="170"/>
+      <c r="I26" s="564"/>
+    </row>
+    <row r="27" spans="1:9" s="552" customFormat="1">
       <c r="A27" s="559">
         <v>3</v>
       </c>
       <c r="B27" s="559">
         <v>1</v>
       </c>
-      <c r="C27" s="585" t="s">
+      <c r="C27" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D27" s="585" t="s">
         <v>774</v>
       </c>
-      <c r="D27" s="584" t="s">
+      <c r="E27" s="584" t="s">
         <v>778</v>
       </c>
-      <c r="E27" s="587"/>
-      <c r="G27" s="170"/>
-      <c r="H27" s="564"/>
-    </row>
-    <row r="28" spans="1:8" s="552" customFormat="1">
+      <c r="F27" s="587"/>
+      <c r="H27" s="170"/>
+      <c r="I27" s="564"/>
+    </row>
+    <row r="28" spans="1:9" s="552" customFormat="1">
       <c r="A28" s="559">
         <v>3</v>
       </c>
       <c r="B28" s="559">
         <v>1</v>
       </c>
-      <c r="C28" s="585" t="s">
+      <c r="C28" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D28" s="585" t="s">
         <v>773</v>
       </c>
-      <c r="D28" s="584" t="s">
+      <c r="E28" s="584" t="s">
         <v>779</v>
       </c>
-      <c r="E28" s="587"/>
-      <c r="G28" s="170"/>
-      <c r="H28" s="564"/>
-    </row>
-    <row r="29" spans="1:8" s="552" customFormat="1">
+      <c r="F28" s="587"/>
+      <c r="H28" s="170"/>
+      <c r="I28" s="564"/>
+    </row>
+    <row r="29" spans="1:9" s="552" customFormat="1">
       <c r="A29" s="559">
         <v>3</v>
       </c>
       <c r="B29" s="559">
         <v>1</v>
       </c>
-      <c r="C29" s="585" t="s">
+      <c r="C29" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D29" s="585" t="s">
         <v>914</v>
       </c>
-      <c r="D29" s="584" t="s">
+      <c r="E29" s="584" t="s">
         <v>780</v>
       </c>
-      <c r="E29" s="587"/>
-      <c r="G29" s="170"/>
-      <c r="H29" s="564"/>
-    </row>
-    <row r="30" spans="1:8" s="552" customFormat="1">
+      <c r="F29" s="587"/>
+      <c r="H29" s="170"/>
+      <c r="I29" s="564"/>
+    </row>
+    <row r="30" spans="1:9" s="552" customFormat="1">
       <c r="A30" s="559">
         <v>3</v>
       </c>
       <c r="B30" s="559">
         <v>1</v>
       </c>
-      <c r="C30" s="585" t="s">
+      <c r="C30" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D30" s="585" t="s">
         <v>915</v>
       </c>
-      <c r="D30" s="584" t="s">
+      <c r="E30" s="584" t="s">
         <v>781</v>
       </c>
-      <c r="E30" s="587"/>
-      <c r="G30" s="170"/>
-      <c r="H30" s="564"/>
-    </row>
-    <row r="31" spans="1:8" s="552" customFormat="1">
+      <c r="F30" s="587"/>
+      <c r="H30" s="170"/>
+      <c r="I30" s="564"/>
+    </row>
+    <row r="31" spans="1:9" s="552" customFormat="1">
       <c r="A31" s="559">
         <v>3</v>
       </c>
       <c r="B31" s="559">
         <v>1</v>
       </c>
-      <c r="C31" s="585" t="s">
+      <c r="C31" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D31" s="585" t="s">
         <v>916</v>
       </c>
-      <c r="D31" s="584" t="s">
+      <c r="E31" s="584" t="s">
         <v>782</v>
       </c>
-      <c r="E31" s="587"/>
-      <c r="G31" s="170"/>
-      <c r="H31" s="564"/>
-    </row>
-    <row r="32" spans="1:8" s="552" customFormat="1">
+      <c r="F31" s="587"/>
+      <c r="H31" s="170"/>
+      <c r="I31" s="564"/>
+    </row>
+    <row r="32" spans="1:9" s="552" customFormat="1">
       <c r="A32" s="559">
         <v>3</v>
       </c>
       <c r="B32" s="559">
         <v>1</v>
       </c>
-      <c r="C32" s="585" t="s">
+      <c r="C32" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D32" s="585" t="s">
         <v>917</v>
       </c>
-      <c r="D32" s="584" t="s">
+      <c r="E32" s="584" t="s">
         <v>783</v>
       </c>
-      <c r="E32" s="587"/>
-      <c r="G32" s="170"/>
-      <c r="H32" s="564"/>
-    </row>
-    <row r="33" spans="1:8" s="552" customFormat="1">
+      <c r="F32" s="587"/>
+      <c r="H32" s="170"/>
+      <c r="I32" s="564"/>
+    </row>
+    <row r="33" spans="1:9" s="552" customFormat="1">
       <c r="A33" s="559">
         <v>3</v>
       </c>
       <c r="B33" s="559">
         <v>1</v>
       </c>
-      <c r="C33" s="585" t="s">
+      <c r="C33" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D33" s="585" t="s">
         <v>918</v>
       </c>
-      <c r="D33" s="584" t="s">
+      <c r="E33" s="584" t="s">
         <v>784</v>
       </c>
-      <c r="E33" s="587"/>
-      <c r="G33" s="170"/>
-      <c r="H33" s="564"/>
-    </row>
-    <row r="34" spans="1:8" s="552" customFormat="1">
+      <c r="F33" s="587"/>
+      <c r="H33" s="170"/>
+      <c r="I33" s="564"/>
+    </row>
+    <row r="34" spans="1:9" s="552" customFormat="1">
       <c r="A34" s="559">
         <v>3</v>
       </c>
       <c r="B34" s="559">
         <v>1</v>
       </c>
-      <c r="C34" s="585" t="s">
+      <c r="C34" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D34" s="585" t="s">
         <v>785</v>
       </c>
-      <c r="D34" s="584" t="s">
+      <c r="E34" s="584" t="s">
         <v>786</v>
       </c>
-      <c r="E34" s="587"/>
-      <c r="G34" s="170"/>
-      <c r="H34" s="564"/>
-    </row>
-    <row r="35" spans="1:8" s="552" customFormat="1">
+      <c r="F34" s="587"/>
+      <c r="H34" s="170"/>
+      <c r="I34" s="564"/>
+    </row>
+    <row r="35" spans="1:9" s="552" customFormat="1">
       <c r="A35" s="559">
         <v>3</v>
       </c>
       <c r="B35" s="559">
         <v>1</v>
       </c>
-      <c r="C35" s="585" t="s">
+      <c r="C35" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D35" s="585" t="s">
         <v>919</v>
       </c>
-      <c r="D35" s="584" t="s">
+      <c r="E35" s="584" t="s">
         <v>787</v>
       </c>
-      <c r="E35" s="587"/>
-      <c r="G35" s="170"/>
-      <c r="H35" s="564"/>
-    </row>
-    <row r="36" spans="1:8" s="552" customFormat="1">
+      <c r="F35" s="587"/>
+      <c r="H35" s="170"/>
+      <c r="I35" s="564"/>
+    </row>
+    <row r="36" spans="1:9" s="552" customFormat="1">
       <c r="A36" s="559">
         <v>3</v>
       </c>
       <c r="B36" s="559">
         <v>1</v>
       </c>
-      <c r="C36" s="585" t="s">
+      <c r="C36" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D36" s="585" t="s">
         <v>920</v>
       </c>
-      <c r="D36" s="584" t="s">
+      <c r="E36" s="584" t="s">
         <v>788</v>
       </c>
-      <c r="E36" s="587"/>
-      <c r="G36" s="170"/>
-      <c r="H36" s="564"/>
-    </row>
-    <row r="37" spans="1:8" s="552" customFormat="1">
+      <c r="F36" s="587"/>
+      <c r="H36" s="170"/>
+      <c r="I36" s="564"/>
+    </row>
+    <row r="37" spans="1:9" s="552" customFormat="1">
       <c r="A37" s="559">
         <v>3</v>
       </c>
       <c r="B37" s="559">
         <v>1</v>
       </c>
-      <c r="C37" s="585" t="s">
+      <c r="C37" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D37" s="585" t="s">
         <v>921</v>
       </c>
-      <c r="D37" s="584" t="s">
+      <c r="E37" s="584" t="s">
         <v>789</v>
       </c>
-      <c r="E37" s="587"/>
-      <c r="G37" s="170"/>
-      <c r="H37" s="564"/>
-    </row>
-    <row r="38" spans="1:8" s="552" customFormat="1">
+      <c r="F37" s="587"/>
+      <c r="H37" s="170"/>
+      <c r="I37" s="564"/>
+    </row>
+    <row r="38" spans="1:9" s="552" customFormat="1">
       <c r="A38" s="559">
         <v>3</v>
       </c>
       <c r="B38" s="559">
         <v>1</v>
       </c>
-      <c r="C38" s="585" t="s">
+      <c r="C38" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D38" s="585" t="s">
         <v>772</v>
       </c>
-      <c r="D38" s="584" t="s">
+      <c r="E38" s="584" t="s">
         <v>790</v>
       </c>
-      <c r="E38" s="587"/>
-      <c r="G38" s="170"/>
-      <c r="H38" s="564"/>
-    </row>
-    <row r="39" spans="1:8" s="552" customFormat="1">
+      <c r="F38" s="587"/>
+      <c r="H38" s="170"/>
+      <c r="I38" s="564"/>
+    </row>
+    <row r="39" spans="1:9" s="552" customFormat="1">
       <c r="A39" s="559">
         <v>3</v>
       </c>
       <c r="B39" s="559">
         <v>1</v>
       </c>
-      <c r="C39" s="585" t="s">
+      <c r="C39" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D39" s="585" t="s">
         <v>792</v>
       </c>
-      <c r="D39" s="584" t="s">
+      <c r="E39" s="584" t="s">
         <v>791</v>
       </c>
-      <c r="E39" s="587"/>
-      <c r="G39" s="170"/>
-      <c r="H39" s="564"/>
-    </row>
-    <row r="40" spans="1:8" s="552" customFormat="1">
+      <c r="F39" s="587"/>
+      <c r="H39" s="170"/>
+      <c r="I39" s="564"/>
+    </row>
+    <row r="40" spans="1:9" s="552" customFormat="1">
       <c r="A40" s="559">
         <v>3</v>
       </c>
       <c r="B40" s="559">
         <v>1</v>
       </c>
-      <c r="C40" s="585" t="s">
+      <c r="C40" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D40" s="585" t="s">
         <v>771</v>
       </c>
-      <c r="D40" s="584" t="s">
+      <c r="E40" s="584" t="s">
         <v>793</v>
       </c>
-      <c r="E40" s="587"/>
-      <c r="G40" s="170"/>
-      <c r="H40" s="564"/>
-    </row>
-    <row r="41" spans="1:8" s="552" customFormat="1">
+      <c r="F40" s="587"/>
+      <c r="H40" s="170"/>
+      <c r="I40" s="564"/>
+    </row>
+    <row r="41" spans="1:9" s="552" customFormat="1">
       <c r="A41" s="559">
         <v>3</v>
       </c>
       <c r="B41" s="559">
         <v>1</v>
       </c>
-      <c r="C41" s="585" t="s">
+      <c r="C41" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D41" s="585" t="s">
         <v>922</v>
       </c>
-      <c r="D41" s="584" t="s">
+      <c r="E41" s="584" t="s">
         <v>794</v>
       </c>
-      <c r="E41" s="587"/>
-      <c r="G41" s="170"/>
-      <c r="H41" s="564"/>
-    </row>
-    <row r="42" spans="1:8" s="552" customFormat="1" ht="25.5">
+      <c r="F41" s="587"/>
+      <c r="H41" s="170"/>
+      <c r="I41" s="564"/>
+    </row>
+    <row r="42" spans="1:9" s="552" customFormat="1" ht="25.5">
       <c r="A42" s="559">
         <v>3</v>
       </c>
       <c r="B42" s="559">
         <v>1</v>
       </c>
-      <c r="C42" s="585" t="s">
+      <c r="C42" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D42" s="585" t="s">
         <v>770</v>
       </c>
-      <c r="D42" s="584" t="s">
+      <c r="E42" s="584" t="s">
         <v>795</v>
       </c>
-      <c r="E42" s="587"/>
-      <c r="G42" s="170"/>
-      <c r="H42" s="564"/>
-    </row>
-    <row r="43" spans="1:8" s="552" customFormat="1">
+      <c r="F42" s="587"/>
+      <c r="H42" s="170"/>
+      <c r="I42" s="564"/>
+    </row>
+    <row r="43" spans="1:9" s="552" customFormat="1">
       <c r="A43" s="559">
         <v>3</v>
       </c>
       <c r="B43" s="559">
         <v>1</v>
       </c>
-      <c r="C43" s="585" t="s">
+      <c r="C43" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D43" s="585" t="s">
         <v>923</v>
       </c>
-      <c r="D43" s="584" t="s">
+      <c r="E43" s="584" t="s">
         <v>796</v>
       </c>
-      <c r="E43" s="587"/>
-      <c r="G43" s="170"/>
-      <c r="H43" s="564"/>
-    </row>
-    <row r="44" spans="1:8" s="552" customFormat="1">
+      <c r="F43" s="587"/>
+      <c r="H43" s="170"/>
+      <c r="I43" s="564"/>
+    </row>
+    <row r="44" spans="1:9" s="552" customFormat="1">
       <c r="A44" s="559">
         <v>3</v>
       </c>
       <c r="B44" s="559">
         <v>1</v>
       </c>
-      <c r="C44" s="585" t="s">
+      <c r="C44" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D44" s="585" t="s">
         <v>797</v>
       </c>
-      <c r="D44" s="584" t="s">
+      <c r="E44" s="584" t="s">
         <v>800</v>
       </c>
-      <c r="E44" s="587"/>
-      <c r="G44" s="170"/>
-      <c r="H44" s="564"/>
-    </row>
-    <row r="45" spans="1:8" s="552" customFormat="1">
+      <c r="F44" s="587"/>
+      <c r="H44" s="170"/>
+      <c r="I44" s="564"/>
+    </row>
+    <row r="45" spans="1:9" s="552" customFormat="1">
       <c r="A45" s="559">
         <v>3</v>
       </c>
       <c r="B45" s="559">
         <v>1</v>
       </c>
-      <c r="C45" s="586" t="s">
+      <c r="C45" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D45" s="586" t="s">
         <v>798</v>
       </c>
-      <c r="D45" s="584" t="s">
+      <c r="E45" s="584" t="s">
         <v>799</v>
       </c>
-      <c r="E45" s="587"/>
-      <c r="G45" s="170"/>
-      <c r="H45" s="564"/>
-    </row>
-    <row r="46" spans="1:8" s="552" customFormat="1">
+      <c r="F45" s="587"/>
+      <c r="H45" s="170"/>
+      <c r="I45" s="564"/>
+    </row>
+    <row r="46" spans="1:9" s="552" customFormat="1">
       <c r="A46" s="559">
         <v>3</v>
       </c>
       <c r="B46" s="559">
         <v>1</v>
       </c>
-      <c r="C46" s="586" t="s">
+      <c r="C46" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D46" s="586" t="s">
         <v>776</v>
       </c>
-      <c r="D46" s="584" t="s">
+      <c r="E46" s="584" t="s">
         <v>801</v>
       </c>
-      <c r="E46" s="587"/>
-      <c r="G46" s="170"/>
-      <c r="H46" s="564"/>
-    </row>
-    <row r="47" spans="1:8" s="552" customFormat="1">
+      <c r="F46" s="587"/>
+      <c r="H46" s="170"/>
+      <c r="I46" s="564"/>
+    </row>
+    <row r="47" spans="1:9" s="552" customFormat="1">
       <c r="A47" s="559">
         <v>3</v>
       </c>
       <c r="B47" s="559">
         <v>1</v>
       </c>
-      <c r="C47" s="586" t="s">
+      <c r="C47" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D47" s="586" t="s">
         <v>802</v>
       </c>
-      <c r="D47" s="584" t="s">
+      <c r="E47" s="584" t="s">
         <v>844</v>
       </c>
-      <c r="E47" s="587"/>
-      <c r="G47" s="170"/>
-      <c r="H47" s="564"/>
-    </row>
-    <row r="48" spans="1:8" s="552" customFormat="1">
+      <c r="F47" s="587"/>
+      <c r="H47" s="170"/>
+      <c r="I47" s="564"/>
+    </row>
+    <row r="48" spans="1:9" s="552" customFormat="1">
       <c r="A48" s="559">
         <v>3</v>
       </c>
       <c r="B48" s="559">
         <v>1</v>
       </c>
-      <c r="C48" s="586" t="s">
+      <c r="C48" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D48" s="586" t="s">
         <v>803</v>
       </c>
-      <c r="D48" s="584" t="s">
+      <c r="E48" s="584" t="s">
         <v>845</v>
       </c>
-      <c r="E48" s="587"/>
-      <c r="G48" s="170"/>
-      <c r="H48" s="564"/>
-    </row>
-    <row r="49" spans="1:8" s="552" customFormat="1">
+      <c r="F48" s="587"/>
+      <c r="H48" s="170"/>
+      <c r="I48" s="564"/>
+    </row>
+    <row r="49" spans="1:9" s="552" customFormat="1">
       <c r="A49" s="559">
         <v>3</v>
       </c>
       <c r="B49" s="559">
         <v>1</v>
       </c>
-      <c r="C49" s="586" t="s">
+      <c r="C49" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D49" s="586" t="s">
         <v>804</v>
       </c>
-      <c r="D49" s="584" t="s">
+      <c r="E49" s="584" t="s">
         <v>846</v>
       </c>
-      <c r="E49" s="587"/>
-      <c r="G49" s="170"/>
-      <c r="H49" s="564"/>
-    </row>
-    <row r="50" spans="1:8" s="552" customFormat="1">
+      <c r="F49" s="587"/>
+      <c r="H49" s="170"/>
+      <c r="I49" s="564"/>
+    </row>
+    <row r="50" spans="1:9" s="552" customFormat="1">
       <c r="A50" s="559"/>
       <c r="B50" s="559">
         <v>1</v>
       </c>
-      <c r="C50" s="586" t="s">
+      <c r="C50" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D50" s="586" t="s">
         <v>847</v>
       </c>
-      <c r="D50" s="584" t="s">
+      <c r="E50" s="584" t="s">
         <v>848</v>
       </c>
-      <c r="E50" s="587"/>
-      <c r="G50" s="170"/>
-      <c r="H50" s="564"/>
-    </row>
-    <row r="51" spans="1:8" s="552" customFormat="1">
+      <c r="F50" s="587"/>
+      <c r="H50" s="170"/>
+      <c r="I50" s="564"/>
+    </row>
+    <row r="51" spans="1:9" s="552" customFormat="1">
       <c r="A51" s="559">
         <v>3</v>
       </c>
       <c r="B51" s="559">
         <v>1</v>
       </c>
-      <c r="C51" s="586" t="s">
+      <c r="C51" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D51" s="586" t="s">
         <v>805</v>
       </c>
-      <c r="D51" s="584" t="s">
+      <c r="E51" s="584" t="s">
         <v>849</v>
       </c>
-      <c r="E51" s="587"/>
-      <c r="G51" s="170"/>
-      <c r="H51" s="564"/>
-    </row>
-    <row r="52" spans="1:8" s="552" customFormat="1">
+      <c r="F51" s="587"/>
+      <c r="H51" s="170"/>
+      <c r="I51" s="564"/>
+    </row>
+    <row r="52" spans="1:9" s="552" customFormat="1">
       <c r="A52" s="559">
         <v>3</v>
       </c>
       <c r="B52" s="559">
         <v>1</v>
       </c>
-      <c r="C52" s="586" t="s">
+      <c r="C52" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D52" s="586" t="s">
         <v>806</v>
       </c>
-      <c r="D52" s="584" t="s">
+      <c r="E52" s="584" t="s">
         <v>850</v>
       </c>
-      <c r="E52" s="587"/>
-      <c r="G52" s="170"/>
-      <c r="H52" s="564"/>
-    </row>
-    <row r="53" spans="1:8" s="552" customFormat="1">
+      <c r="F52" s="587"/>
+      <c r="H52" s="170"/>
+      <c r="I52" s="564"/>
+    </row>
+    <row r="53" spans="1:9" s="552" customFormat="1">
       <c r="A53" s="559">
         <v>3</v>
       </c>
       <c r="B53" s="559">
         <v>1</v>
       </c>
-      <c r="C53" s="586" t="s">
+      <c r="C53" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D53" s="586" t="s">
         <v>807</v>
       </c>
-      <c r="D53" s="584" t="s">
+      <c r="E53" s="584" t="s">
         <v>851</v>
       </c>
-      <c r="E53" s="587"/>
-      <c r="G53" s="170"/>
-      <c r="H53" s="564"/>
-    </row>
-    <row r="54" spans="1:8" s="552" customFormat="1">
+      <c r="F53" s="587"/>
+      <c r="H53" s="170"/>
+      <c r="I53" s="564"/>
+    </row>
+    <row r="54" spans="1:9" s="552" customFormat="1">
       <c r="A54" s="559">
         <v>3</v>
       </c>
       <c r="B54" s="559">
         <v>1</v>
       </c>
-      <c r="C54" s="586" t="s">
+      <c r="C54" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D54" s="586" t="s">
         <v>808</v>
       </c>
-      <c r="D54" s="584" t="s">
+      <c r="E54" s="584" t="s">
         <v>852</v>
       </c>
-      <c r="E54" s="587"/>
-      <c r="G54" s="170"/>
-      <c r="H54" s="564"/>
-    </row>
-    <row r="55" spans="1:8" s="552" customFormat="1" ht="25.5">
+      <c r="F54" s="587"/>
+      <c r="H54" s="170"/>
+      <c r="I54" s="564"/>
+    </row>
+    <row r="55" spans="1:9" s="552" customFormat="1" ht="25.5">
       <c r="A55" s="559">
         <v>3</v>
       </c>
       <c r="B55" s="559">
         <v>1</v>
       </c>
-      <c r="C55" s="586" t="s">
+      <c r="C55" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D55" s="586" t="s">
         <v>809</v>
       </c>
-      <c r="D55" s="584" t="s">
+      <c r="E55" s="584" t="s">
         <v>853</v>
       </c>
-      <c r="E55" s="587"/>
-      <c r="G55" s="170"/>
-      <c r="H55" s="564"/>
-    </row>
-    <row r="56" spans="1:8" s="552" customFormat="1" ht="25.5">
+      <c r="F55" s="587"/>
+      <c r="H55" s="170"/>
+      <c r="I55" s="564"/>
+    </row>
+    <row r="56" spans="1:9" s="552" customFormat="1" ht="25.5">
       <c r="A56" s="559">
         <v>3</v>
       </c>
       <c r="B56" s="559">
         <v>1</v>
       </c>
-      <c r="C56" s="586" t="s">
+      <c r="C56" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D56" s="586" t="s">
         <v>810</v>
       </c>
-      <c r="D56" s="584" t="s">
+      <c r="E56" s="584" t="s">
         <v>854</v>
       </c>
-      <c r="E56" s="587"/>
-      <c r="G56" s="170"/>
-      <c r="H56" s="564"/>
-    </row>
-    <row r="57" spans="1:8" s="552" customFormat="1">
+      <c r="F56" s="587"/>
+      <c r="H56" s="170"/>
+      <c r="I56" s="564"/>
+    </row>
+    <row r="57" spans="1:9" s="552" customFormat="1">
       <c r="A57" s="559">
         <v>3</v>
       </c>
       <c r="B57" s="559">
         <v>1</v>
       </c>
-      <c r="C57" s="586" t="s">
+      <c r="C57" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D57" s="586" t="s">
         <v>811</v>
       </c>
-      <c r="D57" s="584" t="s">
+      <c r="E57" s="584" t="s">
         <v>855</v>
       </c>
-      <c r="E57" s="587"/>
-      <c r="G57" s="170"/>
-      <c r="H57" s="564"/>
-    </row>
-    <row r="58" spans="1:8" s="552" customFormat="1" ht="25.5">
+      <c r="F57" s="587"/>
+      <c r="H57" s="170"/>
+      <c r="I57" s="564"/>
+    </row>
+    <row r="58" spans="1:9" s="552" customFormat="1" ht="25.5">
       <c r="A58" s="559">
         <v>3</v>
       </c>
       <c r="B58" s="559">
         <v>1</v>
       </c>
-      <c r="C58" s="586" t="s">
+      <c r="C58" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D58" s="586" t="s">
         <v>812</v>
       </c>
-      <c r="D58" s="584" t="s">
+      <c r="E58" s="584" t="s">
         <v>856</v>
       </c>
-      <c r="E58" s="587"/>
-      <c r="G58" s="170"/>
-      <c r="H58" s="564"/>
-    </row>
-    <row r="59" spans="1:8" s="552" customFormat="1">
+      <c r="F58" s="587"/>
+      <c r="H58" s="170"/>
+      <c r="I58" s="564"/>
+    </row>
+    <row r="59" spans="1:9" s="552" customFormat="1">
       <c r="A59" s="559">
         <v>3</v>
       </c>
       <c r="B59" s="559">
         <v>1</v>
       </c>
-      <c r="C59" s="586" t="s">
+      <c r="C59" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D59" s="586" t="s">
         <v>813</v>
       </c>
-      <c r="D59" s="584" t="s">
+      <c r="E59" s="584" t="s">
         <v>856</v>
       </c>
-      <c r="E59" s="587"/>
-      <c r="G59" s="170"/>
-      <c r="H59" s="564"/>
-    </row>
-    <row r="60" spans="1:8" s="552" customFormat="1" ht="25.5">
+      <c r="F59" s="587"/>
+      <c r="H59" s="170"/>
+      <c r="I59" s="564"/>
+    </row>
+    <row r="60" spans="1:9" s="552" customFormat="1" ht="25.5">
       <c r="A60" s="559">
         <v>3</v>
       </c>
       <c r="B60" s="559">
         <v>1</v>
       </c>
-      <c r="C60" s="575" t="s">
+      <c r="C60" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D60" s="575" t="s">
         <v>815</v>
       </c>
-      <c r="D60" s="584" t="s">
+      <c r="E60" s="584" t="s">
         <v>830</v>
       </c>
-      <c r="E60" s="587"/>
-      <c r="G60" s="170"/>
-      <c r="H60" s="564"/>
-    </row>
-    <row r="61" spans="1:8" s="552" customFormat="1" ht="38.25">
+      <c r="F60" s="587"/>
+      <c r="H60" s="170"/>
+      <c r="I60" s="564"/>
+    </row>
+    <row r="61" spans="1:9" s="552" customFormat="1" ht="38.25">
       <c r="A61" s="559">
         <v>3</v>
       </c>
       <c r="B61" s="559">
         <v>1</v>
       </c>
-      <c r="C61" s="575" t="s">
+      <c r="C61" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D61" s="575" t="s">
         <v>814</v>
       </c>
-      <c r="D61" s="584" t="s">
+      <c r="E61" s="584" t="s">
         <v>843</v>
       </c>
-      <c r="E61" s="587"/>
-      <c r="G61" s="170"/>
-      <c r="H61" s="564"/>
-    </row>
-    <row r="62" spans="1:8" s="552" customFormat="1" ht="38.25">
+      <c r="F61" s="587"/>
+      <c r="H61" s="170"/>
+      <c r="I61" s="564"/>
+    </row>
+    <row r="62" spans="1:9" s="552" customFormat="1" ht="38.25">
       <c r="A62" s="559">
         <v>3</v>
       </c>
       <c r="B62" s="559">
         <v>1</v>
       </c>
-      <c r="C62" s="575" t="s">
+      <c r="C62" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D62" s="575" t="s">
         <v>814</v>
       </c>
-      <c r="D62" s="584" t="s">
+      <c r="E62" s="584" t="s">
         <v>831</v>
       </c>
-      <c r="E62" s="587"/>
-      <c r="G62" s="170"/>
-      <c r="H62" s="564"/>
-    </row>
-    <row r="63" spans="1:8" s="552" customFormat="1" ht="25.5">
+      <c r="F62" s="587"/>
+      <c r="H62" s="170"/>
+      <c r="I62" s="564"/>
+    </row>
+    <row r="63" spans="1:9" s="552" customFormat="1" ht="25.5">
       <c r="A63" s="559">
         <v>3</v>
       </c>
       <c r="B63" s="559">
         <v>1</v>
       </c>
-      <c r="C63" s="575" t="s">
+      <c r="C63" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D63" s="575" t="s">
         <v>816</v>
       </c>
-      <c r="D63" s="584" t="s">
+      <c r="E63" s="584" t="s">
         <v>832</v>
       </c>
-      <c r="E63" s="587"/>
-      <c r="G63" s="170"/>
-      <c r="H63" s="564"/>
-    </row>
-    <row r="64" spans="1:8" s="552" customFormat="1" ht="25.5">
+      <c r="F63" s="587"/>
+      <c r="H63" s="170"/>
+      <c r="I63" s="564"/>
+    </row>
+    <row r="64" spans="1:9" s="552" customFormat="1" ht="25.5">
       <c r="A64" s="559">
         <v>3</v>
       </c>
       <c r="B64" s="559">
         <v>1</v>
       </c>
-      <c r="C64" s="575" t="s">
+      <c r="C64" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D64" s="575" t="s">
         <v>817</v>
       </c>
-      <c r="D64" s="584" t="s">
+      <c r="E64" s="584" t="s">
         <v>833</v>
       </c>
-      <c r="E64" s="587"/>
-      <c r="G64" s="170"/>
-      <c r="H64" s="564"/>
-    </row>
-    <row r="65" spans="1:8" s="552" customFormat="1">
+      <c r="F64" s="587"/>
+      <c r="H64" s="170"/>
+      <c r="I64" s="564"/>
+    </row>
+    <row r="65" spans="1:9" s="552" customFormat="1">
       <c r="A65" s="559">
         <v>3</v>
       </c>
       <c r="B65" s="559">
         <v>1</v>
       </c>
-      <c r="C65" s="575" t="s">
+      <c r="C65" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D65" s="575" t="s">
         <v>818</v>
       </c>
-      <c r="D65" s="584" t="s">
+      <c r="E65" s="584" t="s">
         <v>834</v>
       </c>
-      <c r="E65" s="587"/>
-      <c r="G65" s="170"/>
-      <c r="H65" s="564"/>
-    </row>
-    <row r="66" spans="1:8" s="552" customFormat="1">
+      <c r="F65" s="587"/>
+      <c r="H65" s="170"/>
+      <c r="I65" s="564"/>
+    </row>
+    <row r="66" spans="1:9" s="552" customFormat="1">
       <c r="A66" s="559">
         <v>3</v>
       </c>
       <c r="B66" s="559">
         <v>1</v>
       </c>
-      <c r="C66" s="575" t="s">
+      <c r="C66" s="551">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D66" s="575" t="s">
         <v>819</v>
       </c>
-      <c r="D66" s="584" t="s">
+      <c r="E66" s="584" t="s">
         <v>835</v>
       </c>
-      <c r="E66" s="587"/>
-      <c r="G66" s="170"/>
-      <c r="H66" s="564"/>
-    </row>
-    <row r="67" spans="1:8" s="552" customFormat="1">
+      <c r="F66" s="587"/>
+      <c r="H66" s="170"/>
+      <c r="I66" s="564"/>
+    </row>
+    <row r="67" spans="1:9" s="552" customFormat="1">
       <c r="A67" s="559">
         <v>3</v>
       </c>
       <c r="B67" s="559">
         <v>1</v>
       </c>
-      <c r="C67" s="575" t="s">
+      <c r="C67" s="551">
+        <f t="shared" ref="C67:C130" ca="1" si="1">ROUND(RANDBETWEEN(1,6),1)</f>
+        <v>2</v>
+      </c>
+      <c r="D67" s="575" t="s">
         <v>820</v>
       </c>
-      <c r="D67" s="584" t="s">
+      <c r="E67" s="584" t="s">
         <v>836</v>
       </c>
-      <c r="E67" s="587"/>
-      <c r="G67" s="170"/>
-      <c r="H67" s="564"/>
-    </row>
-    <row r="68" spans="1:8" s="552" customFormat="1" ht="25.5">
+      <c r="F67" s="587"/>
+      <c r="H67" s="170"/>
+      <c r="I67" s="564"/>
+    </row>
+    <row r="68" spans="1:9" s="552" customFormat="1" ht="25.5">
       <c r="A68" s="559">
         <v>3</v>
       </c>
       <c r="B68" s="559">
         <v>1</v>
       </c>
-      <c r="C68" s="575" t="s">
+      <c r="C68" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D68" s="575" t="s">
         <v>821</v>
       </c>
-      <c r="D68" s="584" t="s">
+      <c r="E68" s="584" t="s">
         <v>837</v>
       </c>
-      <c r="E68" s="587"/>
-      <c r="G68" s="170"/>
-      <c r="H68" s="564"/>
-    </row>
-    <row r="69" spans="1:8" s="552" customFormat="1" ht="25.5">
+      <c r="F68" s="587"/>
+      <c r="H68" s="170"/>
+      <c r="I68" s="564"/>
+    </row>
+    <row r="69" spans="1:9" s="552" customFormat="1" ht="25.5">
       <c r="A69" s="559">
         <v>3</v>
       </c>
       <c r="B69" s="559">
         <v>1</v>
       </c>
-      <c r="C69" s="575" t="s">
+      <c r="C69" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D69" s="575" t="s">
         <v>822</v>
       </c>
-      <c r="D69" s="584" t="s">
+      <c r="E69" s="584" t="s">
         <v>833</v>
       </c>
-      <c r="E69" s="587"/>
-      <c r="G69" s="170"/>
-      <c r="H69" s="564"/>
-    </row>
-    <row r="70" spans="1:8" s="552" customFormat="1" ht="25.5">
+      <c r="F69" s="587"/>
+      <c r="H69" s="170"/>
+      <c r="I69" s="564"/>
+    </row>
+    <row r="70" spans="1:9" s="552" customFormat="1" ht="25.5">
       <c r="A70" s="559">
         <v>3</v>
       </c>
       <c r="B70" s="559">
         <v>1</v>
       </c>
-      <c r="C70" s="575" t="s">
+      <c r="C70" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D70" s="575" t="s">
         <v>823</v>
       </c>
-      <c r="D70" s="584" t="s">
+      <c r="E70" s="584" t="s">
         <v>838</v>
       </c>
-      <c r="E70" s="587"/>
-      <c r="G70" s="170"/>
-      <c r="H70" s="564"/>
-    </row>
-    <row r="71" spans="1:8" s="552" customFormat="1">
+      <c r="F70" s="587"/>
+      <c r="H70" s="170"/>
+      <c r="I70" s="564"/>
+    </row>
+    <row r="71" spans="1:9" s="552" customFormat="1">
       <c r="A71" s="559">
         <v>3</v>
       </c>
       <c r="B71" s="559">
         <v>1</v>
       </c>
-      <c r="C71" s="575" t="s">
+      <c r="C71" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D71" s="575" t="s">
         <v>824</v>
       </c>
-      <c r="D71" s="584" t="s">
+      <c r="E71" s="584" t="s">
         <v>838</v>
       </c>
-      <c r="E71" s="587"/>
-      <c r="G71" s="170"/>
-      <c r="H71" s="564"/>
-    </row>
-    <row r="72" spans="1:8" s="552" customFormat="1" ht="25.5">
+      <c r="F71" s="587"/>
+      <c r="H71" s="170"/>
+      <c r="I71" s="564"/>
+    </row>
+    <row r="72" spans="1:9" s="552" customFormat="1" ht="25.5">
       <c r="A72" s="559">
         <v>3</v>
       </c>
       <c r="B72" s="559">
         <v>1</v>
       </c>
-      <c r="C72" s="575" t="s">
+      <c r="C72" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D72" s="575" t="s">
         <v>825</v>
       </c>
-      <c r="D72" s="584" t="s">
+      <c r="E72" s="584" t="s">
         <v>839</v>
       </c>
-      <c r="E72" s="587"/>
-      <c r="G72" s="170"/>
-      <c r="H72" s="564"/>
-    </row>
-    <row r="73" spans="1:8" s="552" customFormat="1" ht="25.5">
+      <c r="F72" s="587"/>
+      <c r="H72" s="170"/>
+      <c r="I72" s="564"/>
+    </row>
+    <row r="73" spans="1:9" s="552" customFormat="1" ht="25.5">
       <c r="A73" s="559">
         <v>3</v>
       </c>
       <c r="B73" s="559">
         <v>1</v>
       </c>
-      <c r="C73" s="575" t="s">
+      <c r="C73" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D73" s="575" t="s">
         <v>826</v>
       </c>
-      <c r="D73" s="584" t="s">
+      <c r="E73" s="584" t="s">
         <v>839</v>
       </c>
-      <c r="E73" s="587"/>
-      <c r="G73" s="170"/>
-      <c r="H73" s="564"/>
-    </row>
-    <row r="74" spans="1:8" s="552" customFormat="1" ht="25.5">
+      <c r="F73" s="587"/>
+      <c r="H73" s="170"/>
+      <c r="I73" s="564"/>
+    </row>
+    <row r="74" spans="1:9" s="552" customFormat="1" ht="25.5">
       <c r="A74" s="557">
         <v>3</v>
       </c>
       <c r="B74" s="557">
         <v>0</v>
       </c>
-      <c r="C74" s="574" t="s">
+      <c r="C74" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D74" s="574" t="s">
         <v>827</v>
       </c>
-      <c r="D74" s="579" t="s">
+      <c r="E74" s="579" t="s">
         <v>840</v>
       </c>
-      <c r="G74" s="170"/>
-      <c r="H74" s="564"/>
-    </row>
-    <row r="75" spans="1:8" s="552" customFormat="1">
+      <c r="H74" s="170"/>
+      <c r="I74" s="564"/>
+    </row>
+    <row r="75" spans="1:9" s="552" customFormat="1">
       <c r="A75" s="557">
         <v>3</v>
       </c>
       <c r="B75" s="557">
         <v>0</v>
       </c>
-      <c r="C75" s="574" t="s">
+      <c r="C75" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D75" s="574" t="s">
         <v>828</v>
       </c>
-      <c r="D75" s="581" t="s">
+      <c r="E75" s="581" t="s">
         <v>841</v>
       </c>
-      <c r="G75" s="170"/>
-      <c r="H75" s="564"/>
-    </row>
-    <row r="76" spans="1:8" s="552" customFormat="1">
+      <c r="H75" s="170"/>
+      <c r="I75" s="564"/>
+    </row>
+    <row r="76" spans="1:9" s="552" customFormat="1">
       <c r="A76" s="557">
         <v>3</v>
       </c>
       <c r="B76" s="557">
         <v>0</v>
       </c>
-      <c r="C76" s="574" t="s">
+      <c r="C76" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D76" s="574" t="s">
         <v>829</v>
       </c>
-      <c r="D76" s="581" t="s">
+      <c r="E76" s="581" t="s">
         <v>842</v>
       </c>
-      <c r="G76" s="170"/>
-      <c r="H76" s="564"/>
-    </row>
-    <row r="77" spans="1:8" s="552" customFormat="1">
+      <c r="H76" s="170"/>
+      <c r="I76" s="564"/>
+    </row>
+    <row r="77" spans="1:9" s="552" customFormat="1">
       <c r="A77" s="559">
         <v>3</v>
       </c>
       <c r="B77" s="559">
         <v>5</v>
       </c>
-      <c r="C77" s="575" t="s">
+      <c r="C77" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D77" s="575" t="s">
         <v>98</v>
       </c>
-      <c r="D77" s="584" t="s">
+      <c r="E77" s="584" t="s">
         <v>866</v>
       </c>
-      <c r="G77" s="170"/>
-      <c r="H77" s="564"/>
-    </row>
-    <row r="78" spans="1:8" s="552" customFormat="1">
+      <c r="H77" s="170"/>
+      <c r="I77" s="564"/>
+    </row>
+    <row r="78" spans="1:9" s="552" customFormat="1">
       <c r="A78" s="559">
         <v>3</v>
       </c>
       <c r="B78" s="559">
         <v>5</v>
       </c>
-      <c r="C78" s="575" t="s">
+      <c r="C78" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D78" s="575" t="s">
         <v>867</v>
       </c>
-      <c r="D78" s="584" t="s">
+      <c r="E78" s="584" t="s">
         <v>868</v>
       </c>
-      <c r="G78" s="170"/>
-      <c r="H78" s="564"/>
-    </row>
-    <row r="79" spans="1:8" s="552" customFormat="1">
+      <c r="H78" s="170"/>
+      <c r="I78" s="564"/>
+    </row>
+    <row r="79" spans="1:9" s="552" customFormat="1">
       <c r="A79" s="559">
         <v>3</v>
       </c>
       <c r="B79" s="559">
         <v>5</v>
       </c>
-      <c r="C79" s="575" t="s">
+      <c r="C79" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D79" s="575" t="s">
         <v>77</v>
       </c>
-      <c r="D79" s="584" t="s">
+      <c r="E79" s="584" t="s">
         <v>869</v>
       </c>
-      <c r="G79" s="170"/>
-      <c r="H79" s="564"/>
-    </row>
-    <row r="80" spans="1:8" s="552" customFormat="1">
+      <c r="H79" s="170"/>
+      <c r="I79" s="564"/>
+    </row>
+    <row r="80" spans="1:9" s="552" customFormat="1">
       <c r="A80" s="559">
         <v>3</v>
       </c>
       <c r="B80" s="559">
         <v>5</v>
       </c>
-      <c r="C80" s="575" t="s">
+      <c r="C80" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D80" s="575" t="s">
         <v>705</v>
       </c>
-      <c r="D80" s="584" t="s">
+      <c r="E80" s="584" t="s">
         <v>870</v>
       </c>
-      <c r="G80" s="170"/>
-      <c r="H80" s="564"/>
-    </row>
-    <row r="81" spans="1:8" s="552" customFormat="1">
+      <c r="H80" s="170"/>
+      <c r="I80" s="564"/>
+    </row>
+    <row r="81" spans="1:9" s="552" customFormat="1">
       <c r="A81" s="553">
         <v>3</v>
       </c>
       <c r="B81" s="559">
         <v>6</v>
       </c>
-      <c r="C81" s="575" t="s">
+      <c r="C81" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D81" s="575" t="s">
         <v>872</v>
       </c>
-      <c r="D81" s="584" t="s">
+      <c r="E81" s="584" t="s">
         <v>871</v>
       </c>
-      <c r="G81" s="170"/>
-      <c r="H81" s="563"/>
-    </row>
-    <row r="82" spans="1:8" s="552" customFormat="1">
+      <c r="H81" s="170"/>
+      <c r="I81" s="563"/>
+    </row>
+    <row r="82" spans="1:9" s="552" customFormat="1">
       <c r="A82" s="553">
         <v>3</v>
       </c>
       <c r="B82" s="559">
         <v>6</v>
       </c>
-      <c r="C82" s="575" t="s">
+      <c r="C82" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D82" s="575" t="s">
         <v>873</v>
       </c>
-      <c r="D82" s="579" t="s">
+      <c r="E82" s="579" t="s">
         <v>874</v>
       </c>
-      <c r="G82" s="170"/>
-      <c r="H82" s="563"/>
-    </row>
-    <row r="83" spans="1:8" s="552" customFormat="1">
+      <c r="H82" s="170"/>
+      <c r="I82" s="563"/>
+    </row>
+    <row r="83" spans="1:9" s="552" customFormat="1">
       <c r="A83" s="553">
         <v>3</v>
       </c>
       <c r="B83" s="559">
         <v>6</v>
       </c>
-      <c r="C83" s="575" t="s">
+      <c r="C83" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D83" s="575" t="s">
         <v>876</v>
       </c>
-      <c r="D83" s="579" t="s">
+      <c r="E83" s="579" t="s">
         <v>875</v>
       </c>
-      <c r="G83" s="170"/>
-      <c r="H83" s="563"/>
-    </row>
-    <row r="84" spans="1:8" s="552" customFormat="1">
+      <c r="H83" s="170"/>
+      <c r="I83" s="563"/>
+    </row>
+    <row r="84" spans="1:9" s="552" customFormat="1">
       <c r="A84" s="553">
         <v>3</v>
       </c>
       <c r="B84" s="559">
         <v>6</v>
       </c>
-      <c r="C84" s="575" t="s">
+      <c r="C84" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D84" s="575" t="s">
         <v>877</v>
       </c>
-      <c r="D84" s="579" t="s">
+      <c r="E84" s="579" t="s">
         <v>878</v>
       </c>
-      <c r="G84" s="170"/>
-      <c r="H84" s="563"/>
-    </row>
-    <row r="85" spans="1:8" s="552" customFormat="1">
+      <c r="H84" s="170"/>
+      <c r="I84" s="563"/>
+    </row>
+    <row r="85" spans="1:9" s="552" customFormat="1">
       <c r="A85" s="553">
         <v>3</v>
       </c>
       <c r="B85" s="559">
         <v>6</v>
       </c>
-      <c r="C85" s="575" t="s">
+      <c r="C85" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D85" s="575" t="s">
         <v>879</v>
       </c>
-      <c r="D85" s="579" t="s">
+      <c r="E85" s="579" t="s">
         <v>880</v>
       </c>
-      <c r="G85" s="170"/>
-      <c r="H85" s="563"/>
-    </row>
-    <row r="86" spans="1:8" s="552" customFormat="1">
+      <c r="H85" s="170"/>
+      <c r="I85" s="563"/>
+    </row>
+    <row r="86" spans="1:9" s="552" customFormat="1">
       <c r="A86" s="553">
         <v>3</v>
       </c>
       <c r="B86" s="559">
         <v>6</v>
       </c>
-      <c r="C86" s="575" t="s">
+      <c r="C86" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D86" s="575" t="s">
         <v>881</v>
       </c>
-      <c r="D86" s="579" t="s">
+      <c r="E86" s="579" t="s">
         <v>882</v>
       </c>
-      <c r="G86" s="170"/>
-      <c r="H86" s="563"/>
-    </row>
-    <row r="87" spans="1:8" s="552" customFormat="1">
+      <c r="H86" s="170"/>
+      <c r="I86" s="563"/>
+    </row>
+    <row r="87" spans="1:9" s="552" customFormat="1">
       <c r="A87" s="553">
         <v>3</v>
       </c>
       <c r="B87" s="559">
         <v>6</v>
       </c>
-      <c r="C87" s="575" t="s">
+      <c r="C87" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D87" s="575" t="s">
         <v>883</v>
       </c>
-      <c r="D87" s="579" t="s">
+      <c r="E87" s="579" t="s">
         <v>884</v>
       </c>
-      <c r="G87" s="170"/>
-      <c r="H87" s="563"/>
-    </row>
-    <row r="88" spans="1:8" s="552" customFormat="1">
+      <c r="H87" s="170"/>
+      <c r="I87" s="563"/>
+    </row>
+    <row r="88" spans="1:9" s="552" customFormat="1">
       <c r="A88" s="553">
         <v>3</v>
       </c>
       <c r="B88" s="559">
         <v>6</v>
       </c>
-      <c r="C88" s="575" t="s">
+      <c r="C88" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D88" s="575" t="s">
         <v>885</v>
       </c>
-      <c r="D88" s="579" t="s">
+      <c r="E88" s="579" t="s">
         <v>886</v>
       </c>
-      <c r="G88" s="170"/>
-      <c r="H88" s="563"/>
-    </row>
-    <row r="89" spans="1:8" s="552" customFormat="1">
+      <c r="H88" s="170"/>
+      <c r="I88" s="563"/>
+    </row>
+    <row r="89" spans="1:9" s="552" customFormat="1">
       <c r="A89" s="553">
         <v>3</v>
       </c>
       <c r="B89" s="559">
         <v>6</v>
       </c>
-      <c r="C89" s="575" t="s">
+      <c r="C89" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D89" s="575" t="s">
         <v>887</v>
       </c>
-      <c r="D89" s="579" t="s">
+      <c r="E89" s="579" t="s">
         <v>888</v>
       </c>
-      <c r="G89" s="170"/>
-      <c r="H89" s="563"/>
-    </row>
-    <row r="90" spans="1:8" s="552" customFormat="1">
+      <c r="H89" s="170"/>
+      <c r="I89" s="563"/>
+    </row>
+    <row r="90" spans="1:9" s="552" customFormat="1">
       <c r="A90" s="553">
         <v>3</v>
       </c>
       <c r="B90" s="559">
         <v>6</v>
       </c>
-      <c r="C90" s="560" t="s">
+      <c r="C90" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D90" s="560" t="s">
         <v>890</v>
       </c>
-      <c r="D90" s="579" t="s">
+      <c r="E90" s="579" t="s">
         <v>889</v>
       </c>
-      <c r="G90" s="170"/>
-      <c r="H90" s="563"/>
-    </row>
-    <row r="91" spans="1:8" s="552" customFormat="1">
+      <c r="H90" s="170"/>
+      <c r="I90" s="563"/>
+    </row>
+    <row r="91" spans="1:9" s="552" customFormat="1">
       <c r="A91" s="553">
         <v>3</v>
       </c>
       <c r="B91" s="559">
         <v>6</v>
       </c>
-      <c r="C91" s="560" t="s">
+      <c r="C91" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D91" s="560" t="s">
         <v>891</v>
       </c>
-      <c r="D91" s="579" t="s">
+      <c r="E91" s="579" t="s">
         <v>906</v>
       </c>
-      <c r="G91" s="170"/>
-      <c r="H91" s="563"/>
-    </row>
-    <row r="92" spans="1:8" s="552" customFormat="1">
+      <c r="H91" s="170"/>
+      <c r="I91" s="563"/>
+    </row>
+    <row r="92" spans="1:9" s="552" customFormat="1">
       <c r="A92" s="553">
         <v>3</v>
       </c>
       <c r="B92" s="559">
         <v>6</v>
       </c>
-      <c r="C92" s="560" t="s">
+      <c r="C92" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D92" s="560" t="s">
         <v>892</v>
       </c>
-      <c r="D92" s="579" t="s">
+      <c r="E92" s="579" t="s">
         <v>905</v>
       </c>
-      <c r="G92" s="170"/>
-      <c r="H92" s="563"/>
-    </row>
-    <row r="93" spans="1:8" s="552" customFormat="1">
+      <c r="H92" s="170"/>
+      <c r="I92" s="563"/>
+    </row>
+    <row r="93" spans="1:9" s="552" customFormat="1">
       <c r="A93" s="553">
         <v>3</v>
       </c>
       <c r="B93" s="559">
         <v>6</v>
       </c>
-      <c r="C93" s="560" t="s">
+      <c r="C93" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D93" s="560" t="s">
         <v>893</v>
       </c>
-      <c r="D93" s="579" t="s">
+      <c r="E93" s="579" t="s">
         <v>904</v>
       </c>
-      <c r="G93" s="170"/>
-      <c r="H93" s="563"/>
-    </row>
-    <row r="94" spans="1:8" s="552" customFormat="1">
+      <c r="H93" s="170"/>
+      <c r="I93" s="563"/>
+    </row>
+    <row r="94" spans="1:9" s="552" customFormat="1">
       <c r="A94" s="553">
         <v>3</v>
       </c>
       <c r="B94" s="559">
         <v>6</v>
       </c>
-      <c r="C94" s="560" t="s">
+      <c r="C94" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D94" s="560" t="s">
         <v>894</v>
       </c>
-      <c r="D94" s="579" t="s">
+      <c r="E94" s="579" t="s">
         <v>903</v>
       </c>
-      <c r="G94" s="170"/>
-      <c r="H94" s="563"/>
-    </row>
-    <row r="95" spans="1:8" s="552" customFormat="1">
+      <c r="H94" s="170"/>
+      <c r="I94" s="563"/>
+    </row>
+    <row r="95" spans="1:9" s="552" customFormat="1">
       <c r="A95" s="553">
         <v>3</v>
       </c>
       <c r="B95" s="559">
         <v>6</v>
       </c>
-      <c r="C95" s="560" t="s">
+      <c r="C95" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D95" s="560" t="s">
         <v>895</v>
       </c>
-      <c r="D95" s="579" t="s">
+      <c r="E95" s="579" t="s">
         <v>902</v>
       </c>
-      <c r="G95" s="170"/>
-      <c r="H95" s="563"/>
-    </row>
-    <row r="96" spans="1:8" s="552" customFormat="1">
+      <c r="H95" s="170"/>
+      <c r="I95" s="563"/>
+    </row>
+    <row r="96" spans="1:9" s="552" customFormat="1">
       <c r="A96" s="553">
         <v>3</v>
       </c>
       <c r="B96" s="559">
         <v>6</v>
       </c>
-      <c r="C96" s="560" t="s">
+      <c r="C96" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D96" s="560" t="s">
         <v>896</v>
       </c>
-      <c r="D96" s="579" t="s">
+      <c r="E96" s="579" t="s">
         <v>901</v>
       </c>
-      <c r="G96" s="170"/>
-      <c r="H96" s="563"/>
-    </row>
-    <row r="97" spans="1:8" s="552" customFormat="1">
+      <c r="H96" s="170"/>
+      <c r="I96" s="563"/>
+    </row>
+    <row r="97" spans="1:9" s="552" customFormat="1">
       <c r="A97" s="553">
         <v>3</v>
       </c>
       <c r="B97" s="559">
         <v>6</v>
       </c>
-      <c r="C97" s="560" t="s">
+      <c r="C97" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D97" s="560" t="s">
         <v>897</v>
       </c>
-      <c r="D97" s="579" t="s">
+      <c r="E97" s="579" t="s">
         <v>900</v>
       </c>
-      <c r="G97" s="170"/>
-      <c r="H97" s="563"/>
-    </row>
-    <row r="98" spans="1:8" s="552" customFormat="1">
+      <c r="H97" s="170"/>
+      <c r="I97" s="563"/>
+    </row>
+    <row r="98" spans="1:9" s="552" customFormat="1">
       <c r="A98" s="553">
         <v>3</v>
       </c>
       <c r="B98" s="559">
         <v>6</v>
       </c>
-      <c r="C98" s="560" t="s">
+      <c r="C98" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D98" s="560" t="s">
         <v>898</v>
       </c>
-      <c r="D98" s="579" t="s">
+      <c r="E98" s="579" t="s">
         <v>899</v>
       </c>
-      <c r="G98" s="170"/>
-      <c r="H98" s="563"/>
-    </row>
-    <row r="99" spans="1:8" s="552" customFormat="1">
+      <c r="H98" s="170"/>
+      <c r="I98" s="563"/>
+    </row>
+    <row r="99" spans="1:9" s="552" customFormat="1">
       <c r="A99" s="559">
         <v>3</v>
       </c>
       <c r="B99" s="559">
         <v>5</v>
       </c>
-      <c r="C99" s="560" t="s">
+      <c r="C99" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D99" s="560" t="s">
         <v>908</v>
       </c>
-      <c r="D99" s="579" t="s">
+      <c r="E99" s="579" t="s">
         <v>907</v>
       </c>
-      <c r="G99" s="170"/>
-      <c r="H99" s="564"/>
-    </row>
-    <row r="100" spans="1:8" s="552" customFormat="1">
+      <c r="H99" s="170"/>
+      <c r="I99" s="564"/>
+    </row>
+    <row r="100" spans="1:9" s="552" customFormat="1">
       <c r="A100" s="559">
         <v>3</v>
       </c>
       <c r="B100" s="559">
         <v>5</v>
       </c>
-      <c r="C100" s="560" t="s">
+      <c r="C100" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D100" s="560" t="s">
         <v>910</v>
       </c>
-      <c r="D100" s="579" t="s">
+      <c r="E100" s="579" t="s">
         <v>909</v>
       </c>
-      <c r="G100" s="170"/>
-      <c r="H100" s="564"/>
-    </row>
-    <row r="101" spans="1:8" s="552" customFormat="1">
+      <c r="H100" s="170"/>
+      <c r="I100" s="564"/>
+    </row>
+    <row r="101" spans="1:9" s="552" customFormat="1">
       <c r="A101" s="559">
         <v>3</v>
       </c>
       <c r="B101" s="559">
         <v>5</v>
       </c>
-      <c r="C101" s="560" t="s">
+      <c r="C101" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D101" s="560" t="s">
         <v>912</v>
       </c>
-      <c r="D101" s="579" t="s">
+      <c r="E101" s="579" t="s">
         <v>911</v>
       </c>
-      <c r="G101" s="170"/>
-      <c r="H101" s="564"/>
-    </row>
-    <row r="102" spans="1:8" s="552" customFormat="1">
+      <c r="H101" s="170"/>
+      <c r="I101" s="564"/>
+    </row>
+    <row r="102" spans="1:9" s="552" customFormat="1">
       <c r="A102" s="559">
         <v>3</v>
       </c>
       <c r="B102" s="559">
         <v>5</v>
       </c>
-      <c r="C102" s="560" t="s">
+      <c r="C102" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D102" s="560" t="s">
         <v>924</v>
       </c>
-      <c r="D102" s="579" t="s">
+      <c r="E102" s="579" t="s">
         <v>913</v>
       </c>
-      <c r="G102" s="170"/>
-      <c r="H102" s="564"/>
-    </row>
-    <row r="103" spans="1:8" s="552" customFormat="1">
+      <c r="H102" s="170"/>
+      <c r="I102" s="564"/>
+    </row>
+    <row r="103" spans="1:9" s="552" customFormat="1">
       <c r="A103" s="553">
         <v>4</v>
       </c>
       <c r="B103" s="553">
         <v>1</v>
       </c>
-      <c r="C103" s="576" t="s">
+      <c r="C103" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D103" s="576" t="s">
         <v>72</v>
       </c>
-      <c r="D103" s="579" t="s">
+      <c r="E103" s="579" t="s">
         <v>577</v>
       </c>
-      <c r="G103" s="170"/>
-      <c r="H103" s="563" t="str">
-        <f>VLOOKUP(C103,sup_hiperlinks!$E$5:$L$40,8,0)</f>
+      <c r="H103" s="170"/>
+      <c r="I103" s="563" t="str">
+        <f>VLOOKUP(D103,sup_hiperlinks!$E$5:$L$40,8,0)</f>
         <v>http://gestaourbana.prefeitura.sp.gov.br/wp-content/uploads/2016/03/PIU_NESP_REQUERIMENTO-1.pdf</v>
       </c>
     </row>
-    <row r="104" spans="1:8" s="552" customFormat="1">
+    <row r="104" spans="1:9" s="552" customFormat="1">
       <c r="A104" s="553">
         <v>4</v>
       </c>
       <c r="B104" s="553">
         <v>2</v>
       </c>
-      <c r="C104" s="577" t="s">
+      <c r="C104" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D104" s="577" t="s">
         <v>3</v>
       </c>
-      <c r="D104" s="579" t="s">
+      <c r="E104" s="579" t="s">
         <v>578</v>
       </c>
-      <c r="G104" s="170"/>
-      <c r="H104" s="563" t="str">
-        <f>VLOOKUP(C104,sup_hiperlinks!$E$5:$L$40,8,0)</f>
+      <c r="H104" s="170"/>
+      <c r="I104" s="563" t="str">
+        <f>VLOOKUP(D104,sup_hiperlinks!$E$5:$L$40,8,0)</f>
         <v>http://gestaourbana.prefeitura.sp.gov.br/wp-content/uploads/2016/03/PIU_NESP_DIAGN%C3%93STICO-1.pdf</v>
       </c>
     </row>
-    <row r="105" spans="1:8" s="552" customFormat="1">
+    <row r="105" spans="1:9" s="552" customFormat="1">
       <c r="A105" s="553">
         <v>4</v>
       </c>
       <c r="B105" s="553">
         <v>2</v>
       </c>
-      <c r="C105" s="571" t="s">
+      <c r="C105" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D105" s="571" t="s">
         <v>159</v>
       </c>
-      <c r="D105" s="579" t="s">
+      <c r="E105" s="579" t="s">
         <v>579</v>
       </c>
-      <c r="G105" s="170"/>
-      <c r="H105" s="563" t="str">
-        <f>VLOOKUP(C105,sup_hiperlinks!$E$5:$L$40,8,0)</f>
+      <c r="H105" s="170"/>
+      <c r="I105" s="563" t="str">
+        <f>VLOOKUP(D105,sup_hiperlinks!$E$5:$L$40,8,0)</f>
         <v>http://gestaourbana.prefeitura.sp.gov.br/wp-content/uploads/2016/03/PIU_NESP_PER%C3%8DMETRO-1.pdf</v>
       </c>
     </row>
-    <row r="106" spans="1:8" s="552" customFormat="1">
+    <row r="106" spans="1:9" s="552" customFormat="1">
       <c r="A106" s="553">
         <v>4</v>
       </c>
       <c r="B106" s="553">
         <v>2</v>
       </c>
-      <c r="C106" s="572" t="s">
+      <c r="C106" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D106" s="572" t="s">
         <v>704</v>
       </c>
-      <c r="D106" s="579" t="s">
+      <c r="E106" s="579" t="s">
         <v>583</v>
       </c>
-      <c r="G106" s="170"/>
-      <c r="H106" s="563" t="str">
-        <f>VLOOKUP(C106,sup_hiperlinks!$E$5:$L$40,8,0)</f>
+      <c r="H106" s="170"/>
+      <c r="I106" s="563" t="str">
+        <f>VLOOKUP(D106,sup_hiperlinks!$E$5:$L$40,8,0)</f>
         <v>http://gestaourbana.prefeitura.sp.gov.br/noticias/prefeitura-de-sao-paulo-abre-minuta-participativa-do-decreto-sobre-o-projeto-de-intervencao-urbana-novo-entreposto-de-sao-paulo-piu-nesp/</v>
       </c>
     </row>
-    <row r="107" spans="1:8" s="552" customFormat="1">
+    <row r="107" spans="1:9" s="552" customFormat="1">
       <c r="A107" s="553">
         <v>4</v>
       </c>
       <c r="B107" s="553">
         <v>2</v>
       </c>
-      <c r="C107" s="572" t="s">
+      <c r="C107" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D107" s="572" t="s">
         <v>75</v>
       </c>
-      <c r="D107" s="579" t="s">
+      <c r="E107" s="579" t="s">
         <v>584</v>
       </c>
-      <c r="G107" s="170"/>
-      <c r="H107" s="563" t="str">
-        <f>VLOOKUP(C107,sup_hiperlinks!$E$5:$L$40,8,0)</f>
+      <c r="H107" s="170"/>
+      <c r="I107" s="563" t="str">
+        <f>VLOOKUP(D107,sup_hiperlinks!$E$5:$L$40,8,0)</f>
         <v>http://minuta.gestaourbana.prefeitura.sp.gov.br/piunesp/</v>
       </c>
     </row>
-    <row r="108" spans="1:8" s="552" customFormat="1">
+    <row r="108" spans="1:9" s="552" customFormat="1">
       <c r="A108" s="553">
         <v>4</v>
       </c>
       <c r="B108" s="553">
         <v>2</v>
       </c>
-      <c r="C108" s="572" t="s">
+      <c r="C108" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D108" s="572" t="s">
         <v>706</v>
       </c>
-      <c r="D108" s="580" t="s">
+      <c r="E108" s="580" t="s">
         <v>582</v>
       </c>
-      <c r="G108" s="170"/>
-      <c r="H108" s="563" t="str">
-        <f>VLOOKUP(C108,sup_hiperlinks!$E$5:$L$40,8,0)</f>
+      <c r="H108" s="170"/>
+      <c r="I108" s="563" t="str">
+        <f>VLOOKUP(D108,sup_hiperlinks!$E$5:$L$40,8,0)</f>
         <v>print DOSP</v>
       </c>
     </row>
-    <row r="109" spans="1:8" s="552" customFormat="1">
+    <row r="109" spans="1:9" s="552" customFormat="1">
       <c r="A109" s="553">
         <v>4</v>
       </c>
       <c r="B109" s="553">
         <v>2</v>
       </c>
-      <c r="C109" s="572" t="s">
+      <c r="C109" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D109" s="572" t="s">
         <v>77</v>
       </c>
-      <c r="D109" s="579" t="s">
+      <c r="E109" s="579" t="s">
         <v>587</v>
       </c>
-      <c r="G109" s="170"/>
-      <c r="H109" s="563" t="str">
-        <f>VLOOKUP(C109,sup_hiperlinks!$E$5:$L$40,8,0)</f>
+      <c r="H109" s="170"/>
+      <c r="I109" s="563" t="str">
+        <f>VLOOKUP(D109,sup_hiperlinks!$E$5:$L$40,8,0)</f>
         <v>http://gestaourbana.prefeitura.sp.gov.br/wp-content/uploads/2016/03/NESP_apresentacao_2016_08_27.pdf</v>
       </c>
     </row>
-    <row r="110" spans="1:8" s="552" customFormat="1">
+    <row r="110" spans="1:9" s="552" customFormat="1">
       <c r="A110" s="553">
         <v>4</v>
       </c>
       <c r="B110" s="553">
         <v>2</v>
       </c>
-      <c r="C110" s="572" t="s">
+      <c r="C110" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D110" s="572" t="s">
         <v>78</v>
       </c>
-      <c r="D110" s="579" t="s">
+      <c r="E110" s="579" t="s">
         <v>585</v>
       </c>
-      <c r="G110" s="170"/>
-      <c r="H110" s="563" t="str">
-        <f>VLOOKUP(C110,sup_hiperlinks!$E$5:$L$40,8,0)</f>
+      <c r="H110" s="170"/>
+      <c r="I110" s="563" t="str">
+        <f>VLOOKUP(D110,sup_hiperlinks!$E$5:$L$40,8,0)</f>
         <v>http://gestaourbana.prefeitura.sp.gov.br/wp-content/uploads/2016/03/NESP_lista_presenca_2016_08_27-3.pdf</v>
       </c>
     </row>
-    <row r="111" spans="1:8" s="552" customFormat="1">
+    <row r="111" spans="1:9" s="552" customFormat="1">
       <c r="A111" s="553">
         <v>4</v>
       </c>
       <c r="B111" s="553">
         <v>2</v>
       </c>
-      <c r="C111" s="572" t="s">
+      <c r="C111" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D111" s="572" t="s">
         <v>79</v>
       </c>
-      <c r="D111" s="579" t="s">
+      <c r="E111" s="579" t="s">
         <v>588</v>
       </c>
-      <c r="G111" s="170"/>
-      <c r="H111" s="563" t="str">
-        <f>VLOOKUP(C111,sup_hiperlinks!$E$5:$L$40,8,0)</f>
+      <c r="H111" s="170"/>
+      <c r="I111" s="563" t="str">
+        <f>VLOOKUP(D111,sup_hiperlinks!$E$5:$L$40,8,0)</f>
         <v>http://gestaourbana.prefeitura.sp.gov.br/wp-content/uploads/2016/03/NESP_ata_2016_08_27.pdf</v>
       </c>
     </row>
-    <row r="112" spans="1:8" s="552" customFormat="1">
+    <row r="112" spans="1:9" s="552" customFormat="1">
       <c r="A112" s="553">
         <v>4</v>
       </c>
       <c r="B112" s="553">
         <v>2</v>
       </c>
-      <c r="C112" s="572" t="s">
+      <c r="C112" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D112" s="572" t="s">
         <v>89</v>
       </c>
-      <c r="D112" s="579" t="s">
+      <c r="E112" s="579" t="s">
         <v>586</v>
       </c>
-      <c r="G112" s="170"/>
-      <c r="H112" s="563" t="str">
-        <f>VLOOKUP(C112,sup_hiperlinks!$E$5:$L$40,8,0)</f>
+      <c r="H112" s="170"/>
+      <c r="I112" s="563" t="str">
+        <f>VLOOKUP(D112,sup_hiperlinks!$E$5:$L$40,8,0)</f>
         <v>http://gestaourbana.prefeitura.sp.gov.br/wp-content/uploads/2016/03/NESP_contribuicoes_2016_08_27.pdf</v>
       </c>
     </row>
-    <row r="113" spans="1:8" s="552" customFormat="1">
+    <row r="113" spans="1:9" s="552" customFormat="1">
       <c r="A113" s="553">
         <v>4</v>
       </c>
       <c r="B113" s="553">
         <v>5</v>
       </c>
-      <c r="C113" s="572" t="s">
+      <c r="C113" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D113" s="572" t="s">
         <v>706</v>
       </c>
-      <c r="D113" s="580" t="s">
+      <c r="E113" s="580" t="s">
         <v>582</v>
       </c>
-      <c r="G113" s="170"/>
-      <c r="H113" s="563" t="str">
-        <f>VLOOKUP(C113,sup_hiperlinks!$E$5:$L$40,8,0)</f>
+      <c r="H113" s="170"/>
+      <c r="I113" s="563" t="str">
+        <f>VLOOKUP(D113,sup_hiperlinks!$E$5:$L$40,8,0)</f>
         <v>print DOSP</v>
       </c>
     </row>
-    <row r="114" spans="1:8" s="552" customFormat="1">
+    <row r="114" spans="1:9" s="552" customFormat="1">
       <c r="A114" s="553">
         <v>4</v>
       </c>
       <c r="B114" s="553">
         <v>5</v>
       </c>
-      <c r="C114" s="572" t="s">
+      <c r="C114" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D114" s="572" t="s">
         <v>77</v>
       </c>
-      <c r="D114" s="579" t="s">
+      <c r="E114" s="579" t="s">
         <v>587</v>
       </c>
-      <c r="G114" s="170"/>
-      <c r="H114" s="563" t="str">
-        <f>VLOOKUP(C114,sup_hiperlinks!$E$5:$L$40,8,0)</f>
+      <c r="H114" s="170"/>
+      <c r="I114" s="563" t="str">
+        <f>VLOOKUP(D114,sup_hiperlinks!$E$5:$L$40,8,0)</f>
         <v>http://gestaourbana.prefeitura.sp.gov.br/wp-content/uploads/2016/03/NESP_apresentacao_2016_08_27.pdf</v>
       </c>
     </row>
-    <row r="115" spans="1:8" s="552" customFormat="1">
+    <row r="115" spans="1:9" s="552" customFormat="1">
       <c r="A115" s="553">
         <v>4</v>
       </c>
       <c r="B115" s="553">
         <v>5</v>
       </c>
-      <c r="C115" s="572" t="s">
+      <c r="C115" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D115" s="572" t="s">
         <v>79</v>
       </c>
-      <c r="D115" s="579" t="s">
+      <c r="E115" s="579" t="s">
         <v>588</v>
       </c>
-      <c r="G115" s="170"/>
-      <c r="H115" s="563" t="str">
-        <f>VLOOKUP(C115,sup_hiperlinks!$E$5:$L$40,8,0)</f>
+      <c r="H115" s="170"/>
+      <c r="I115" s="563" t="str">
+        <f>VLOOKUP(D115,sup_hiperlinks!$E$5:$L$40,8,0)</f>
         <v>http://gestaourbana.prefeitura.sp.gov.br/wp-content/uploads/2016/03/NESP_ata_2016_08_27.pdf</v>
       </c>
     </row>
-    <row r="116" spans="1:8" s="552" customFormat="1">
+    <row r="116" spans="1:9" s="552" customFormat="1">
       <c r="A116" s="553">
         <v>4</v>
       </c>
       <c r="B116" s="553">
         <v>6</v>
       </c>
-      <c r="C116" s="572" t="s">
+      <c r="C116" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D116" s="572" t="s">
         <v>708</v>
       </c>
-      <c r="D116" s="579" t="s">
+      <c r="E116" s="579" t="s">
         <v>591</v>
       </c>
-      <c r="G116" s="170"/>
-      <c r="H116" s="563" t="str">
-        <f>VLOOKUP(C116,sup_hiperlinks!$E$5:$L$40,8,0)</f>
+      <c r="H116" s="170"/>
+      <c r="I116" s="563" t="str">
+        <f>VLOOKUP(D116,sup_hiperlinks!$E$5:$L$40,8,0)</f>
         <v>http://gestaourbana.prefeitura.sp.gov.br/wp-content/uploads/2016/03/PIU-NESP-Relat%C3%B3rio-Final_161215_reduzido.pdf</v>
       </c>
     </row>
-    <row r="117" spans="1:8" s="552" customFormat="1">
+    <row r="117" spans="1:9" s="552" customFormat="1">
       <c r="A117" s="553">
         <v>4</v>
       </c>
       <c r="B117" s="553">
         <v>7</v>
       </c>
-      <c r="C117" s="572" t="s">
+      <c r="C117" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D117" s="572" t="s">
         <v>40</v>
       </c>
-      <c r="D117" s="579" t="s">
+      <c r="E117" s="579" t="s">
         <v>593</v>
       </c>
-      <c r="G117" s="170"/>
-      <c r="H117" s="563" t="str">
-        <f>VLOOKUP(C117,sup_hiperlinks!$E$5:$L$40,8,0)</f>
+      <c r="H117" s="170"/>
+      <c r="I117" s="563" t="str">
+        <f>VLOOKUP(D117,sup_hiperlinks!$E$5:$L$40,8,0)</f>
         <v xml:space="preserve">http://gestaourbana.prefeitura.sp.gov.br/wp-content/uploads/2016/12/DECRETO-N%C2%BA-57569.pdf </v>
       </c>
     </row>
-    <row r="118" spans="1:8" s="552" customFormat="1">
+    <row r="118" spans="1:9" s="552" customFormat="1">
       <c r="A118" s="553">
         <v>4</v>
       </c>
       <c r="B118" s="553">
         <v>7</v>
       </c>
-      <c r="C118" s="572" t="s">
+      <c r="C118" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D118" s="572" t="s">
         <v>710</v>
       </c>
-      <c r="D118" s="579" t="s">
+      <c r="E118" s="579" t="s">
         <v>594</v>
       </c>
-      <c r="G118" s="170"/>
-      <c r="H118" s="563" t="str">
-        <f>VLOOKUP(C118,sup_hiperlinks!$E$5:$L$40,8,0)</f>
+      <c r="H118" s="170"/>
+      <c r="I118" s="563" t="str">
+        <f>VLOOKUP(D118,sup_hiperlinks!$E$5:$L$40,8,0)</f>
         <v>http://gestaourbana.prefeitura.sp.gov.br/wp-content/uploads/2016/12/mapa-e-quadros.pdf</v>
       </c>
     </row>
-    <row r="119" spans="1:8" s="552" customFormat="1">
+    <row r="119" spans="1:9" s="552" customFormat="1">
       <c r="A119" s="553">
         <v>5</v>
       </c>
       <c r="B119" s="553">
         <v>1</v>
       </c>
-      <c r="C119" s="572" t="s">
+      <c r="C119" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D119" s="572" t="s">
         <v>714</v>
       </c>
-      <c r="D119" s="579" t="s">
+      <c r="E119" s="579" t="s">
         <v>715</v>
       </c>
-      <c r="G119" s="170"/>
-      <c r="H119" s="565"/>
-    </row>
-    <row r="120" spans="1:8" s="552" customFormat="1">
+      <c r="H119" s="170"/>
+      <c r="I119" s="565"/>
+    </row>
+    <row r="120" spans="1:9" s="552" customFormat="1">
       <c r="A120" s="553">
         <v>5</v>
       </c>
       <c r="B120" s="553">
         <v>1</v>
       </c>
-      <c r="C120" s="572" t="s">
+      <c r="C120" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D120" s="572" t="s">
         <v>716</v>
       </c>
-      <c r="D120" s="579" t="s">
+      <c r="E120" s="579" t="s">
         <v>717</v>
       </c>
-      <c r="G120" s="170"/>
-      <c r="H120" s="565"/>
-    </row>
-    <row r="121" spans="1:8" s="552" customFormat="1">
+      <c r="H120" s="170"/>
+      <c r="I120" s="565"/>
+    </row>
+    <row r="121" spans="1:9" s="552" customFormat="1">
       <c r="A121" s="553">
         <v>5</v>
       </c>
       <c r="B121" s="553">
         <v>2</v>
       </c>
-      <c r="C121" s="578" t="s">
+      <c r="C121" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D121" s="578" t="s">
         <v>3</v>
       </c>
-      <c r="D121" s="579" t="s">
+      <c r="E121" s="579" t="s">
         <v>718</v>
       </c>
-      <c r="G121" s="170"/>
-      <c r="H121" s="566"/>
-    </row>
-    <row r="122" spans="1:8" s="552" customFormat="1">
+      <c r="H121" s="170"/>
+      <c r="I121" s="566"/>
+    </row>
+    <row r="122" spans="1:9" s="552" customFormat="1">
       <c r="A122" s="553">
         <v>5</v>
       </c>
       <c r="B122" s="553">
         <v>2</v>
       </c>
-      <c r="C122" s="578" t="s">
+      <c r="C122" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D122" s="578" t="s">
         <v>719</v>
       </c>
-      <c r="D122" s="579" t="s">
+      <c r="E122" s="579" t="s">
         <v>737</v>
       </c>
-      <c r="G122" s="170"/>
-      <c r="H122" s="566"/>
-    </row>
-    <row r="123" spans="1:8" s="552" customFormat="1">
+      <c r="H122" s="170"/>
+      <c r="I122" s="566"/>
+    </row>
+    <row r="123" spans="1:9" s="552" customFormat="1">
       <c r="A123" s="553">
         <v>5</v>
       </c>
       <c r="B123" s="553">
         <v>2</v>
       </c>
-      <c r="C123" s="578" t="s">
+      <c r="C123" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D123" s="578" t="s">
         <v>720</v>
       </c>
-      <c r="D123" s="579" t="s">
+      <c r="E123" s="579" t="s">
         <v>738</v>
       </c>
-      <c r="G123" s="170"/>
-      <c r="H123" s="566"/>
-    </row>
-    <row r="124" spans="1:8" s="552" customFormat="1">
+      <c r="H123" s="170"/>
+      <c r="I123" s="566"/>
+    </row>
+    <row r="124" spans="1:9" s="552" customFormat="1">
       <c r="A124" s="553">
         <v>5</v>
       </c>
       <c r="B124" s="553">
         <v>2</v>
       </c>
-      <c r="C124" s="578" t="s">
+      <c r="C124" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D124" s="578" t="s">
         <v>721</v>
       </c>
-      <c r="D124" s="579" t="s">
+      <c r="E124" s="579" t="s">
         <v>739</v>
       </c>
-      <c r="G124" s="170"/>
-      <c r="H124" s="566"/>
-    </row>
-    <row r="125" spans="1:8" s="552" customFormat="1">
+      <c r="H124" s="170"/>
+      <c r="I124" s="566"/>
+    </row>
+    <row r="125" spans="1:9" s="552" customFormat="1">
       <c r="A125" s="553">
         <v>5</v>
       </c>
       <c r="B125" s="553">
         <v>2</v>
       </c>
-      <c r="C125" s="578" t="s">
+      <c r="C125" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D125" s="578" t="s">
         <v>722</v>
       </c>
-      <c r="D125" s="579" t="s">
+      <c r="E125" s="579" t="s">
         <v>740</v>
       </c>
-      <c r="G125" s="170"/>
-      <c r="H125" s="566"/>
-    </row>
-    <row r="126" spans="1:8" s="552" customFormat="1">
+      <c r="H125" s="170"/>
+      <c r="I125" s="566"/>
+    </row>
+    <row r="126" spans="1:9" s="552" customFormat="1">
       <c r="A126" s="553">
         <v>5</v>
       </c>
       <c r="B126" s="553">
         <v>2</v>
       </c>
-      <c r="C126" s="578" t="s">
+      <c r="C126" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D126" s="578" t="s">
         <v>723</v>
       </c>
-      <c r="D126" s="579" t="s">
+      <c r="E126" s="579" t="s">
         <v>741</v>
       </c>
-      <c r="G126" s="170"/>
-      <c r="H126" s="566"/>
-    </row>
-    <row r="127" spans="1:8" s="552" customFormat="1">
+      <c r="H126" s="170"/>
+      <c r="I126" s="566"/>
+    </row>
+    <row r="127" spans="1:9" s="552" customFormat="1">
       <c r="A127" s="553">
         <v>5</v>
       </c>
       <c r="B127" s="553">
         <v>2</v>
       </c>
-      <c r="C127" s="578" t="s">
+      <c r="C127" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D127" s="578" t="s">
         <v>724</v>
       </c>
-      <c r="D127" s="579" t="s">
+      <c r="E127" s="579" t="s">
         <v>742</v>
       </c>
-      <c r="G127" s="170"/>
-      <c r="H127" s="566"/>
-    </row>
-    <row r="128" spans="1:8" s="552" customFormat="1">
+      <c r="H127" s="170"/>
+      <c r="I127" s="566"/>
+    </row>
+    <row r="128" spans="1:9" s="552" customFormat="1">
       <c r="A128" s="553">
         <v>5</v>
       </c>
       <c r="B128" s="553">
         <v>2</v>
       </c>
-      <c r="C128" s="578" t="s">
+      <c r="C128" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D128" s="578" t="s">
         <v>725</v>
       </c>
-      <c r="D128" s="579" t="s">
+      <c r="E128" s="579" t="s">
         <v>743</v>
       </c>
-      <c r="G128" s="170"/>
-      <c r="H128" s="566"/>
-    </row>
-    <row r="129" spans="1:8" s="552" customFormat="1">
+      <c r="H128" s="170"/>
+      <c r="I128" s="566"/>
+    </row>
+    <row r="129" spans="1:9" s="552" customFormat="1">
       <c r="A129" s="553">
         <v>5</v>
       </c>
       <c r="B129" s="553">
         <v>2</v>
       </c>
-      <c r="C129" s="578" t="s">
+      <c r="C129" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D129" s="578" t="s">
         <v>726</v>
       </c>
-      <c r="D129" s="579" t="s">
+      <c r="E129" s="579" t="s">
         <v>744</v>
       </c>
-      <c r="G129" s="170"/>
-      <c r="H129" s="566"/>
-    </row>
-    <row r="130" spans="1:8" s="552" customFormat="1">
+      <c r="H129" s="170"/>
+      <c r="I129" s="566"/>
+    </row>
+    <row r="130" spans="1:9" s="552" customFormat="1">
       <c r="A130" s="553">
         <v>5</v>
       </c>
       <c r="B130" s="553">
         <v>2</v>
       </c>
-      <c r="C130" s="578" t="s">
+      <c r="C130" s="551">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D130" s="578" t="s">
         <v>727</v>
       </c>
-      <c r="D130" s="579" t="s">
+      <c r="E130" s="579" t="s">
         <v>745</v>
       </c>
-      <c r="G130" s="170"/>
-      <c r="H130" s="566"/>
-    </row>
-    <row r="131" spans="1:8" s="552" customFormat="1">
+      <c r="H130" s="170"/>
+      <c r="I130" s="566"/>
+    </row>
+    <row r="131" spans="1:9" s="552" customFormat="1">
       <c r="A131" s="553">
         <v>5</v>
       </c>
       <c r="B131" s="553">
         <v>2</v>
       </c>
-      <c r="C131" s="578" t="s">
+      <c r="C131" s="551">
+        <f t="shared" ref="C131:C194" ca="1" si="2">ROUND(RANDBETWEEN(1,6),1)</f>
+        <v>5</v>
+      </c>
+      <c r="D131" s="578" t="s">
         <v>728</v>
       </c>
-      <c r="D131" s="579" t="s">
+      <c r="E131" s="579" t="s">
         <v>746</v>
       </c>
-      <c r="G131" s="170"/>
-      <c r="H131" s="566"/>
-    </row>
-    <row r="132" spans="1:8" s="552" customFormat="1">
+      <c r="H131" s="170"/>
+      <c r="I131" s="566"/>
+    </row>
+    <row r="132" spans="1:9" s="552" customFormat="1">
       <c r="A132" s="553">
         <v>5</v>
       </c>
       <c r="B132" s="553">
         <v>2</v>
       </c>
-      <c r="C132" s="578" t="s">
+      <c r="C132" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D132" s="578" t="s">
         <v>729</v>
       </c>
-      <c r="D132" s="579" t="s">
+      <c r="E132" s="579" t="s">
         <v>747</v>
       </c>
-      <c r="G132" s="170"/>
-      <c r="H132" s="566"/>
-    </row>
-    <row r="133" spans="1:8" s="552" customFormat="1">
+      <c r="H132" s="170"/>
+      <c r="I132" s="566"/>
+    </row>
+    <row r="133" spans="1:9" s="552" customFormat="1">
       <c r="A133" s="553">
         <v>5</v>
       </c>
       <c r="B133" s="553">
         <v>2</v>
       </c>
-      <c r="C133" s="578" t="s">
+      <c r="C133" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D133" s="578" t="s">
         <v>730</v>
       </c>
-      <c r="D133" s="579" t="s">
+      <c r="E133" s="579" t="s">
         <v>748</v>
       </c>
-      <c r="G133" s="170"/>
-      <c r="H133" s="566"/>
-    </row>
-    <row r="134" spans="1:8" s="552" customFormat="1">
+      <c r="H133" s="170"/>
+      <c r="I133" s="566"/>
+    </row>
+    <row r="134" spans="1:9" s="552" customFormat="1">
       <c r="A134" s="553">
         <v>5</v>
       </c>
       <c r="B134" s="553">
         <v>2</v>
       </c>
-      <c r="C134" s="578" t="s">
+      <c r="C134" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D134" s="578" t="s">
         <v>731</v>
       </c>
-      <c r="D134" s="579" t="s">
+      <c r="E134" s="579" t="s">
         <v>749</v>
       </c>
-      <c r="G134" s="170"/>
-      <c r="H134" s="566"/>
-    </row>
-    <row r="135" spans="1:8" s="552" customFormat="1">
+      <c r="H134" s="170"/>
+      <c r="I134" s="566"/>
+    </row>
+    <row r="135" spans="1:9" s="552" customFormat="1">
       <c r="A135" s="553">
         <v>5</v>
       </c>
       <c r="B135" s="553">
         <v>2</v>
       </c>
-      <c r="C135" s="578" t="s">
+      <c r="C135" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D135" s="578" t="s">
         <v>733</v>
       </c>
-      <c r="D135" s="579" t="s">
+      <c r="E135" s="579" t="s">
         <v>750</v>
       </c>
-      <c r="G135" s="170"/>
-      <c r="H135" s="566"/>
-    </row>
-    <row r="136" spans="1:8" s="552" customFormat="1">
+      <c r="H135" s="170"/>
+      <c r="I135" s="566"/>
+    </row>
+    <row r="136" spans="1:9" s="552" customFormat="1">
       <c r="A136" s="553">
         <v>5</v>
       </c>
       <c r="B136" s="553">
         <v>2</v>
       </c>
-      <c r="C136" s="578" t="s">
+      <c r="C136" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D136" s="578" t="s">
         <v>732</v>
       </c>
-      <c r="D136" s="579" t="s">
+      <c r="E136" s="579" t="s">
         <v>751</v>
       </c>
-      <c r="G136" s="170"/>
-      <c r="H136" s="566"/>
-    </row>
-    <row r="137" spans="1:8" s="552" customFormat="1">
+      <c r="H136" s="170"/>
+      <c r="I136" s="566"/>
+    </row>
+    <row r="137" spans="1:9" s="552" customFormat="1">
       <c r="A137" s="553">
         <v>5</v>
       </c>
       <c r="B137" s="553">
         <v>2</v>
       </c>
-      <c r="C137" s="578" t="s">
+      <c r="C137" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D137" s="578" t="s">
         <v>734</v>
       </c>
-      <c r="D137" s="579" t="s">
+      <c r="E137" s="579" t="s">
         <v>752</v>
       </c>
-      <c r="G137" s="170"/>
-      <c r="H137" s="566"/>
-    </row>
-    <row r="138" spans="1:8" s="552" customFormat="1">
+      <c r="H137" s="170"/>
+      <c r="I137" s="566"/>
+    </row>
+    <row r="138" spans="1:9" s="552" customFormat="1">
       <c r="A138" s="553">
         <v>5</v>
       </c>
       <c r="B138" s="553">
         <v>2</v>
       </c>
-      <c r="C138" s="578" t="s">
+      <c r="C138" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D138" s="578" t="s">
         <v>735</v>
       </c>
-      <c r="D138" s="579" t="s">
+      <c r="E138" s="579" t="s">
         <v>753</v>
       </c>
-      <c r="G138" s="170"/>
-      <c r="H138" s="566"/>
-    </row>
-    <row r="139" spans="1:8" s="552" customFormat="1">
+      <c r="H138" s="170"/>
+      <c r="I138" s="566"/>
+    </row>
+    <row r="139" spans="1:9" s="552" customFormat="1">
       <c r="A139" s="553">
         <v>5</v>
       </c>
       <c r="B139" s="553">
         <v>2</v>
       </c>
-      <c r="C139" s="578" t="s">
+      <c r="C139" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D139" s="578" t="s">
         <v>736</v>
       </c>
-      <c r="D139" s="579" t="s">
+      <c r="E139" s="579" t="s">
         <v>754</v>
       </c>
-      <c r="G139" s="170"/>
-      <c r="H139" s="566"/>
-    </row>
-    <row r="140" spans="1:8" s="552" customFormat="1">
+      <c r="H139" s="170"/>
+      <c r="I139" s="566"/>
+    </row>
+    <row r="140" spans="1:9" s="552" customFormat="1">
       <c r="A140" s="553">
         <v>5</v>
       </c>
       <c r="B140" s="553">
         <v>2</v>
       </c>
-      <c r="C140" s="558" t="s">
+      <c r="C140" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D140" s="558" t="s">
         <v>704</v>
       </c>
-      <c r="D140" s="579" t="s">
+      <c r="E140" s="579" t="s">
         <v>713</v>
       </c>
-      <c r="H140" s="567"/>
-    </row>
-    <row r="141" spans="1:8" s="552" customFormat="1">
+      <c r="I140" s="567"/>
+    </row>
+    <row r="141" spans="1:9" s="552" customFormat="1">
       <c r="A141" s="553">
         <v>5</v>
       </c>
       <c r="B141" s="553">
         <v>2</v>
       </c>
-      <c r="C141" s="558" t="s">
+      <c r="C141" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D141" s="558" t="s">
         <v>75</v>
       </c>
-      <c r="D141" s="579" t="s">
+      <c r="E141" s="579" t="s">
         <v>712</v>
       </c>
-      <c r="H141" s="567"/>
-    </row>
-    <row r="142" spans="1:8" s="552" customFormat="1">
+      <c r="I141" s="567"/>
+    </row>
+    <row r="142" spans="1:9" s="552" customFormat="1">
       <c r="A142" s="553">
         <v>5</v>
       </c>
       <c r="B142" s="553">
         <v>2</v>
       </c>
-      <c r="C142" s="558" t="s">
+      <c r="C142" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D142" s="558" t="s">
         <v>705</v>
       </c>
-      <c r="D142" s="579" t="s">
+      <c r="E142" s="579" t="s">
         <v>755</v>
       </c>
-      <c r="H142" s="567"/>
-    </row>
-    <row r="143" spans="1:8" s="552" customFormat="1">
+      <c r="I142" s="567"/>
+    </row>
+    <row r="143" spans="1:9" s="552" customFormat="1">
       <c r="A143" s="553">
         <v>5</v>
       </c>
       <c r="B143" s="553">
         <v>2</v>
       </c>
-      <c r="C143" s="558" t="s">
+      <c r="C143" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D143" s="558" t="s">
         <v>119</v>
       </c>
-      <c r="D143" s="579" t="s">
+      <c r="E143" s="579" t="s">
         <v>756</v>
       </c>
-      <c r="H143" s="567"/>
-    </row>
-    <row r="144" spans="1:8" s="552" customFormat="1">
+      <c r="I143" s="567"/>
+    </row>
+    <row r="144" spans="1:9" s="552" customFormat="1">
       <c r="A144" s="553">
         <v>5</v>
       </c>
       <c r="B144" s="554">
         <v>5</v>
       </c>
-      <c r="C144" s="558" t="s">
+      <c r="C144" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D144" s="558" t="s">
         <v>714</v>
       </c>
-      <c r="D144" s="579" t="s">
+      <c r="E144" s="579" t="s">
         <v>757</v>
       </c>
-      <c r="H144" s="567"/>
-    </row>
-    <row r="145" spans="1:8" s="552" customFormat="1">
+      <c r="I144" s="567"/>
+    </row>
+    <row r="145" spans="1:9" s="552" customFormat="1">
       <c r="A145" s="553">
         <v>5</v>
       </c>
       <c r="B145" s="554">
         <v>5</v>
       </c>
-      <c r="C145" s="558" t="s">
+      <c r="C145" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D145" s="558" t="s">
         <v>704</v>
       </c>
-      <c r="D145" s="579" t="s">
+      <c r="E145" s="579" t="s">
         <v>758</v>
       </c>
-      <c r="H145" s="567"/>
-    </row>
-    <row r="146" spans="1:8" s="552" customFormat="1">
+      <c r="I145" s="567"/>
+    </row>
+    <row r="146" spans="1:9" s="552" customFormat="1">
       <c r="A146" s="553">
         <v>5</v>
       </c>
       <c r="B146" s="554">
         <v>5</v>
       </c>
-      <c r="C146" s="558" t="s">
+      <c r="C146" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D146" s="558" t="s">
         <v>75</v>
       </c>
-      <c r="D146" s="579" t="s">
+      <c r="E146" s="579" t="s">
         <v>760</v>
       </c>
-      <c r="H146" s="567"/>
-    </row>
-    <row r="147" spans="1:8" s="552" customFormat="1">
+      <c r="I146" s="567"/>
+    </row>
+    <row r="147" spans="1:9" s="552" customFormat="1">
       <c r="A147" s="553">
         <v>5</v>
       </c>
       <c r="B147" s="554">
         <v>5</v>
       </c>
-      <c r="C147" s="558" t="s">
+      <c r="C147" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D147" s="558" t="s">
         <v>706</v>
       </c>
-      <c r="D147" s="580" t="s">
+      <c r="E147" s="580" t="s">
         <v>582</v>
       </c>
-      <c r="H147" s="567"/>
-    </row>
-    <row r="148" spans="1:8" s="552" customFormat="1">
+      <c r="I147" s="567"/>
+    </row>
+    <row r="148" spans="1:9" s="552" customFormat="1">
       <c r="A148" s="553">
         <v>5</v>
       </c>
       <c r="B148" s="554">
         <v>5</v>
       </c>
-      <c r="C148" s="558" t="s">
+      <c r="C148" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D148" s="558" t="s">
         <v>78</v>
       </c>
-      <c r="D148" s="579" t="s">
+      <c r="E148" s="579" t="s">
         <v>761</v>
       </c>
-      <c r="H148" s="567"/>
-    </row>
-    <row r="149" spans="1:8" s="552" customFormat="1">
+      <c r="I148" s="567"/>
+    </row>
+    <row r="149" spans="1:9" s="552" customFormat="1">
       <c r="A149" s="553">
         <v>5</v>
       </c>
       <c r="B149" s="554">
         <v>5</v>
       </c>
-      <c r="C149" s="558" t="s">
+      <c r="C149" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D149" s="558" t="s">
         <v>762</v>
       </c>
-      <c r="D149" s="579" t="s">
+      <c r="E149" s="579" t="s">
         <v>763</v>
       </c>
-      <c r="H149" s="567"/>
-    </row>
-    <row r="150" spans="1:8" s="552" customFormat="1">
+      <c r="I149" s="567"/>
+    </row>
+    <row r="150" spans="1:9" s="552" customFormat="1">
       <c r="A150" s="553">
         <v>5</v>
       </c>
       <c r="B150" s="554">
         <v>5</v>
       </c>
-      <c r="C150" s="558" t="s">
+      <c r="C150" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D150" s="558" t="s">
         <v>79</v>
       </c>
-      <c r="D150" s="579" t="s">
+      <c r="E150" s="579" t="s">
         <v>764</v>
       </c>
-      <c r="H150" s="567"/>
-    </row>
-    <row r="151" spans="1:8" s="552" customFormat="1">
+      <c r="I150" s="567"/>
+    </row>
+    <row r="151" spans="1:9" s="552" customFormat="1">
       <c r="A151" s="553">
         <v>5</v>
       </c>
       <c r="B151" s="554">
         <v>5</v>
       </c>
-      <c r="C151" s="558" t="s">
+      <c r="C151" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D151" s="558" t="s">
         <v>690</v>
       </c>
-      <c r="D151" s="579" t="s">
+      <c r="E151" s="579" t="s">
         <v>765</v>
       </c>
-      <c r="H151" s="567"/>
-    </row>
-    <row r="152" spans="1:8" s="552" customFormat="1">
+      <c r="I151" s="567"/>
+    </row>
+    <row r="152" spans="1:9" s="552" customFormat="1">
       <c r="A152" s="553">
         <v>5</v>
       </c>
       <c r="B152" s="554">
         <v>5</v>
       </c>
-      <c r="C152" s="558" t="s">
+      <c r="C152" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D152" s="558" t="s">
         <v>78</v>
       </c>
-      <c r="D152" s="579" t="s">
+      <c r="E152" s="579" t="s">
         <v>766</v>
       </c>
-      <c r="H152" s="567"/>
-    </row>
-    <row r="153" spans="1:8" s="552" customFormat="1">
+      <c r="I152" s="567"/>
+    </row>
+    <row r="153" spans="1:9" s="552" customFormat="1">
       <c r="A153" s="553">
         <v>5</v>
       </c>
       <c r="B153" s="554">
         <v>5</v>
       </c>
-      <c r="C153" s="558" t="s">
+      <c r="C153" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D153" s="558" t="s">
         <v>762</v>
       </c>
-      <c r="D153" s="579" t="s">
+      <c r="E153" s="579" t="s">
         <v>767</v>
       </c>
-      <c r="H153" s="567"/>
-    </row>
-    <row r="154" spans="1:8" s="552" customFormat="1">
+      <c r="I153" s="567"/>
+    </row>
+    <row r="154" spans="1:9" s="552" customFormat="1">
       <c r="A154" s="553">
         <v>5</v>
       </c>
       <c r="B154" s="554">
         <v>5</v>
       </c>
-      <c r="C154" s="558" t="s">
+      <c r="C154" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D154" s="558" t="s">
         <v>78</v>
       </c>
-      <c r="D154" s="579" t="s">
+      <c r="E154" s="579" t="s">
         <v>768</v>
       </c>
-      <c r="H154" s="567"/>
-    </row>
-    <row r="155" spans="1:8" s="552" customFormat="1">
+      <c r="I154" s="567"/>
+    </row>
+    <row r="155" spans="1:9" s="552" customFormat="1">
       <c r="A155" s="553">
         <v>5</v>
       </c>
       <c r="B155" s="554">
         <v>5</v>
       </c>
-      <c r="C155" s="558" t="s">
+      <c r="C155" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D155" s="558" t="s">
         <v>762</v>
       </c>
-      <c r="D155" s="579" t="s">
+      <c r="E155" s="579" t="s">
         <v>769</v>
       </c>
-      <c r="H155" s="567"/>
-    </row>
-    <row r="156" spans="1:8" s="552" customFormat="1">
+      <c r="I155" s="567"/>
+    </row>
+    <row r="156" spans="1:9" s="552" customFormat="1">
       <c r="A156" s="553">
         <v>6</v>
       </c>
       <c r="B156" s="554">
         <v>2</v>
       </c>
-      <c r="C156" s="558" t="s">
+      <c r="C156" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D156" s="558" t="s">
         <v>975</v>
       </c>
-      <c r="D156" s="579" t="s">
+      <c r="E156" s="579" t="s">
         <v>978</v>
       </c>
-      <c r="H156" s="567"/>
-    </row>
-    <row r="157" spans="1:8" s="552" customFormat="1">
+      <c r="I156" s="567"/>
+    </row>
+    <row r="157" spans="1:9" s="552" customFormat="1">
       <c r="A157" s="553">
         <v>6</v>
       </c>
       <c r="B157" s="554">
         <v>2</v>
       </c>
-      <c r="C157" s="558" t="s">
+      <c r="C157" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D157" s="558" t="s">
         <v>976</v>
       </c>
-      <c r="D157" s="579" t="s">
+      <c r="E157" s="579" t="s">
         <v>979</v>
       </c>
-      <c r="H157" s="567"/>
-    </row>
-    <row r="158" spans="1:8" s="552" customFormat="1">
+      <c r="I157" s="567"/>
+    </row>
+    <row r="158" spans="1:9" s="552" customFormat="1">
       <c r="A158" s="553">
         <v>6</v>
       </c>
       <c r="B158" s="554">
         <v>2</v>
       </c>
-      <c r="C158" s="558" t="s">
+      <c r="C158" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D158" s="558" t="s">
         <v>977</v>
       </c>
-      <c r="D158" s="579" t="s">
+      <c r="E158" s="579" t="s">
         <v>980</v>
       </c>
-      <c r="H158" s="567"/>
-    </row>
-    <row r="159" spans="1:8" s="552" customFormat="1">
+      <c r="I158" s="567"/>
+    </row>
+    <row r="159" spans="1:9" s="552" customFormat="1">
       <c r="A159" s="553">
         <v>6</v>
       </c>
       <c r="B159" s="554">
         <v>2</v>
       </c>
-      <c r="C159" s="558" t="s">
+      <c r="C159" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D159" s="558" t="s">
         <v>705</v>
       </c>
-      <c r="D159" s="579" t="s">
+      <c r="E159" s="579" t="s">
         <v>981</v>
       </c>
-      <c r="H159" s="567"/>
-    </row>
-    <row r="160" spans="1:8" s="552" customFormat="1">
+      <c r="I159" s="567"/>
+    </row>
+    <row r="160" spans="1:9" s="552" customFormat="1">
       <c r="A160" s="553">
         <v>6</v>
       </c>
       <c r="B160" s="554">
         <v>2</v>
       </c>
-      <c r="C160" s="558" t="s">
+      <c r="C160" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D160" s="558" t="s">
         <v>119</v>
       </c>
-      <c r="D160" s="579" t="s">
+      <c r="E160" s="579" t="s">
         <v>982</v>
       </c>
-      <c r="H160" s="567"/>
-    </row>
-    <row r="161" spans="1:8" s="552" customFormat="1">
+      <c r="I160" s="567"/>
+    </row>
+    <row r="161" spans="1:9" s="552" customFormat="1">
       <c r="A161" s="553">
         <v>6</v>
       </c>
       <c r="B161" s="554">
         <v>5</v>
       </c>
-      <c r="C161" s="558" t="s">
+      <c r="C161" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D161" s="558" t="s">
         <v>940</v>
       </c>
-      <c r="D161" s="579" t="s">
+      <c r="E161" s="579" t="s">
         <v>939</v>
       </c>
-      <c r="H161" s="567"/>
-    </row>
-    <row r="162" spans="1:8" s="552" customFormat="1">
+      <c r="I161" s="567"/>
+    </row>
+    <row r="162" spans="1:9" s="552" customFormat="1">
       <c r="A162" s="553">
         <v>6</v>
       </c>
       <c r="B162" s="554">
         <v>5</v>
       </c>
-      <c r="C162" s="558" t="s">
+      <c r="C162" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D162" s="558" t="s">
         <v>941</v>
       </c>
-      <c r="D162" s="579" t="s">
+      <c r="E162" s="579" t="s">
         <v>942</v>
       </c>
-      <c r="H162" s="567"/>
-    </row>
-    <row r="163" spans="1:8" s="552" customFormat="1">
+      <c r="I162" s="567"/>
+    </row>
+    <row r="163" spans="1:9" s="552" customFormat="1">
       <c r="A163" s="553">
         <v>6</v>
       </c>
       <c r="B163" s="554">
         <v>5</v>
       </c>
-      <c r="C163" s="558" t="s">
+      <c r="C163" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D163" s="558" t="s">
         <v>943</v>
       </c>
-      <c r="D163" s="579" t="s">
+      <c r="E163" s="579" t="s">
         <v>945</v>
       </c>
-      <c r="H163" s="567"/>
-    </row>
-    <row r="164" spans="1:8" s="552" customFormat="1">
+      <c r="I163" s="567"/>
+    </row>
+    <row r="164" spans="1:9" s="552" customFormat="1">
       <c r="A164" s="553">
         <v>6</v>
       </c>
       <c r="B164" s="554">
         <v>5</v>
       </c>
-      <c r="C164" s="558" t="s">
+      <c r="C164" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D164" s="558" t="s">
         <v>944</v>
       </c>
-      <c r="D164" s="579" t="s">
+      <c r="E164" s="579" t="s">
         <v>946</v>
       </c>
-      <c r="H164" s="567"/>
-    </row>
-    <row r="165" spans="1:8" s="552" customFormat="1">
+      <c r="I164" s="567"/>
+    </row>
+    <row r="165" spans="1:9" s="552" customFormat="1">
       <c r="A165" s="553">
         <v>6</v>
       </c>
       <c r="B165" s="554">
         <v>5</v>
       </c>
-      <c r="C165" s="558" t="s">
+      <c r="C165" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D165" s="558" t="s">
         <v>948</v>
       </c>
-      <c r="D165" s="579" t="s">
+      <c r="E165" s="579" t="s">
         <v>947</v>
       </c>
-      <c r="H165" s="567"/>
-    </row>
-    <row r="166" spans="1:8" s="552" customFormat="1">
+      <c r="I165" s="567"/>
+    </row>
+    <row r="166" spans="1:9" s="552" customFormat="1">
       <c r="A166" s="553">
         <v>6</v>
       </c>
       <c r="B166" s="554">
         <v>5</v>
       </c>
-      <c r="C166" s="558" t="s">
+      <c r="C166" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D166" s="558" t="s">
         <v>949</v>
       </c>
-      <c r="D166" s="579" t="s">
+      <c r="E166" s="579" t="s">
         <v>951</v>
       </c>
-      <c r="H166" s="567"/>
-    </row>
-    <row r="167" spans="1:8" s="552" customFormat="1">
+      <c r="I166" s="567"/>
+    </row>
+    <row r="167" spans="1:9" s="552" customFormat="1">
       <c r="A167" s="553">
         <v>6</v>
       </c>
       <c r="B167" s="554">
         <v>5</v>
       </c>
-      <c r="C167" s="558" t="s">
+      <c r="C167" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D167" s="558" t="s">
         <v>950</v>
       </c>
-      <c r="D167" s="579" t="s">
+      <c r="E167" s="579" t="s">
         <v>952</v>
       </c>
-      <c r="H167" s="567"/>
-    </row>
-    <row r="168" spans="1:8" s="552" customFormat="1">
+      <c r="I167" s="567"/>
+    </row>
+    <row r="168" spans="1:9" s="552" customFormat="1">
       <c r="A168" s="553">
         <v>6</v>
       </c>
       <c r="B168" s="554">
         <v>5</v>
       </c>
-      <c r="C168" s="558" t="s">
+      <c r="C168" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D168" s="558" t="s">
         <v>953</v>
       </c>
-      <c r="D168" s="579" t="s">
+      <c r="E168" s="579" t="s">
         <v>956</v>
       </c>
-      <c r="H168" s="567"/>
-    </row>
-    <row r="169" spans="1:8" s="552" customFormat="1">
+      <c r="I168" s="567"/>
+    </row>
+    <row r="169" spans="1:9" s="552" customFormat="1">
       <c r="A169" s="553">
         <v>6</v>
       </c>
       <c r="B169" s="554">
         <v>5</v>
       </c>
-      <c r="C169" s="558" t="s">
+      <c r="C169" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D169" s="558" t="s">
         <v>954</v>
       </c>
-      <c r="D169" s="579" t="s">
+      <c r="E169" s="579" t="s">
         <v>957</v>
       </c>
-      <c r="H169" s="567"/>
-    </row>
-    <row r="170" spans="1:8" s="552" customFormat="1">
+      <c r="I169" s="567"/>
+    </row>
+    <row r="170" spans="1:9" s="552" customFormat="1">
       <c r="A170" s="553">
         <v>6</v>
       </c>
       <c r="B170" s="554">
         <v>5</v>
       </c>
-      <c r="C170" s="558" t="s">
+      <c r="C170" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D170" s="558" t="s">
         <v>955</v>
       </c>
-      <c r="D170" s="579" t="s">
+      <c r="E170" s="579" t="s">
         <v>958</v>
       </c>
-      <c r="H170" s="567"/>
-    </row>
-    <row r="171" spans="1:8" s="552" customFormat="1">
+      <c r="I170" s="567"/>
+    </row>
+    <row r="171" spans="1:9" s="552" customFormat="1">
       <c r="A171" s="553">
         <v>6</v>
       </c>
       <c r="B171" s="554">
         <v>5</v>
       </c>
-      <c r="C171" s="558" t="s">
+      <c r="C171" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D171" s="558" t="s">
         <v>959</v>
       </c>
-      <c r="D171" s="579" t="s">
+      <c r="E171" s="579" t="s">
         <v>968</v>
       </c>
-      <c r="H171" s="567"/>
-    </row>
-    <row r="172" spans="1:8" s="552" customFormat="1">
+      <c r="I171" s="567"/>
+    </row>
+    <row r="172" spans="1:9" s="552" customFormat="1">
       <c r="A172" s="553">
         <v>6</v>
       </c>
       <c r="B172" s="554">
         <v>5</v>
       </c>
-      <c r="C172" s="558" t="s">
+      <c r="C172" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D172" s="558" t="s">
         <v>960</v>
       </c>
-      <c r="D172" s="579" t="s">
+      <c r="E172" s="579" t="s">
         <v>957</v>
       </c>
-      <c r="H172" s="567"/>
-    </row>
-    <row r="173" spans="1:8" s="552" customFormat="1">
+      <c r="I172" s="567"/>
+    </row>
+    <row r="173" spans="1:9" s="552" customFormat="1">
       <c r="A173" s="553">
         <v>6</v>
       </c>
       <c r="B173" s="554">
         <v>5</v>
       </c>
-      <c r="C173" s="558" t="s">
+      <c r="C173" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D173" s="558" t="s">
         <v>961</v>
       </c>
-      <c r="D173" s="579" t="s">
+      <c r="E173" s="579" t="s">
         <v>969</v>
       </c>
-      <c r="H173" s="567"/>
-    </row>
-    <row r="174" spans="1:8" s="552" customFormat="1">
+      <c r="I173" s="567"/>
+    </row>
+    <row r="174" spans="1:9" s="552" customFormat="1">
       <c r="A174" s="553">
         <v>6</v>
       </c>
       <c r="B174" s="554">
         <v>5</v>
       </c>
-      <c r="C174" s="558" t="s">
+      <c r="C174" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D174" s="558" t="s">
         <v>962</v>
       </c>
-      <c r="D174" s="579" t="s">
+      <c r="E174" s="579" t="s">
         <v>970</v>
       </c>
-      <c r="H174" s="567"/>
-    </row>
-    <row r="175" spans="1:8" s="552" customFormat="1">
+      <c r="I174" s="567"/>
+    </row>
+    <row r="175" spans="1:9" s="552" customFormat="1">
       <c r="A175" s="553">
         <v>6</v>
       </c>
       <c r="B175" s="554">
         <v>5</v>
       </c>
-      <c r="C175" s="558" t="s">
+      <c r="C175" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D175" s="558" t="s">
         <v>963</v>
       </c>
-      <c r="D175" s="579" t="s">
+      <c r="E175" s="579" t="s">
         <v>971</v>
       </c>
-      <c r="H175" s="567"/>
-    </row>
-    <row r="176" spans="1:8" s="552" customFormat="1">
+      <c r="I175" s="567"/>
+    </row>
+    <row r="176" spans="1:9" s="552" customFormat="1">
       <c r="A176" s="553">
         <v>6</v>
       </c>
       <c r="B176" s="554">
         <v>5</v>
       </c>
-      <c r="C176" s="558" t="s">
+      <c r="C176" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D176" s="558" t="s">
         <v>964</v>
       </c>
-      <c r="D176" s="579" t="s">
+      <c r="E176" s="579" t="s">
         <v>972</v>
       </c>
-      <c r="H176" s="567"/>
-    </row>
-    <row r="177" spans="1:8" s="552" customFormat="1">
+      <c r="I176" s="567"/>
+    </row>
+    <row r="177" spans="1:9" s="552" customFormat="1">
       <c r="A177" s="557">
         <v>6</v>
       </c>
       <c r="B177" s="588">
         <v>5</v>
       </c>
-      <c r="C177" s="574" t="s">
+      <c r="C177" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D177" s="574" t="s">
         <v>965</v>
       </c>
-      <c r="D177" s="581" t="s">
+      <c r="E177" s="581" t="s">
         <v>973</v>
       </c>
-      <c r="H177" s="567"/>
-    </row>
-    <row r="178" spans="1:8" s="552" customFormat="1">
+      <c r="I177" s="567"/>
+    </row>
+    <row r="178" spans="1:9" s="552" customFormat="1">
       <c r="A178" s="553">
         <v>6</v>
       </c>
       <c r="B178" s="554">
         <v>5</v>
       </c>
-      <c r="C178" s="558" t="s">
+      <c r="C178" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D178" s="558" t="s">
         <v>966</v>
       </c>
-      <c r="D178" s="579" t="s">
+      <c r="E178" s="579" t="s">
         <v>973</v>
       </c>
-      <c r="H178" s="567"/>
-    </row>
-    <row r="179" spans="1:8" s="552" customFormat="1">
+      <c r="I178" s="567"/>
+    </row>
+    <row r="179" spans="1:9" s="552" customFormat="1">
       <c r="A179" s="553">
         <v>6</v>
       </c>
       <c r="B179" s="554">
         <v>5</v>
       </c>
-      <c r="C179" s="558" t="s">
+      <c r="C179" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D179" s="558" t="s">
         <v>967</v>
       </c>
-      <c r="D179" s="579" t="s">
+      <c r="E179" s="579" t="s">
         <v>974</v>
       </c>
-      <c r="H179" s="567"/>
-    </row>
-    <row r="180" spans="1:8" s="552" customFormat="1">
+      <c r="I179" s="567"/>
+    </row>
+    <row r="180" spans="1:9" s="552" customFormat="1">
       <c r="A180" s="553">
         <v>7</v>
       </c>
       <c r="B180" s="554">
         <v>2</v>
       </c>
-      <c r="C180" s="558" t="s">
+      <c r="C180" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D180" s="558" t="s">
         <v>704</v>
       </c>
-      <c r="D180" s="579" t="s">
+      <c r="E180" s="579" t="s">
         <v>597</v>
       </c>
-      <c r="H180" s="567" t="str">
-        <f>VLOOKUP(C180,sup_hiperlinks!$E$5:$N$40,10,0)</f>
+      <c r="I180" s="567" t="str">
+        <f>VLOOKUP(D180,sup_hiperlinks!$E$5:$N$40,10,0)</f>
         <v>http://gestaourbana.prefeitura.sp.gov.br/noticias/prefeitura-abre-consulta-publica-do-projeto-de-lei-para-o-piu-anhembi/</v>
       </c>
     </row>
-    <row r="181" spans="1:8" s="552" customFormat="1">
+    <row r="181" spans="1:9" s="552" customFormat="1">
       <c r="A181" s="553">
         <v>7</v>
       </c>
       <c r="B181" s="554">
         <v>2</v>
       </c>
-      <c r="C181" s="558" t="s">
+      <c r="C181" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D181" s="558" t="s">
         <v>75</v>
       </c>
-      <c r="D181" s="579" t="s">
+      <c r="E181" s="579" t="s">
         <v>596</v>
       </c>
-      <c r="H181" s="567" t="str">
-        <f>VLOOKUP(C181,sup_hiperlinks!$E$5:$N$40,10,0)</f>
+      <c r="I181" s="567" t="str">
+        <f>VLOOKUP(D181,sup_hiperlinks!$E$5:$N$40,10,0)</f>
         <v>http://minuta.gestaourbana.prefeitura.sp.gov.br/piu-anhembi/</v>
       </c>
     </row>
-    <row r="182" spans="1:8" s="552" customFormat="1">
+    <row r="182" spans="1:9" s="552" customFormat="1">
       <c r="A182" s="553">
         <v>7</v>
       </c>
       <c r="B182" s="554">
         <v>2</v>
       </c>
-      <c r="C182" s="558" t="s">
+      <c r="C182" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D182" s="558" t="s">
         <v>79</v>
       </c>
-      <c r="D182" s="579" t="s">
+      <c r="E182" s="579" t="s">
         <v>598</v>
       </c>
-      <c r="H182" s="567" t="str">
-        <f>VLOOKUP(C182,sup_hiperlinks!$E$5:$N$40,10,0)</f>
+      <c r="I182" s="567" t="str">
+        <f>VLOOKUP(D182,sup_hiperlinks!$E$5:$N$40,10,0)</f>
         <v>http://gestaourbana.prefeitura.sp.gov.br/wp-content/uploads/2018/01/Minuta_ATA_PIU-ANHEMBI_10_01_2018.pdf</v>
       </c>
     </row>
-    <row r="183" spans="1:8" s="552" customFormat="1">
+    <row r="183" spans="1:9" s="552" customFormat="1">
       <c r="A183" s="553">
         <v>8</v>
       </c>
       <c r="B183" s="555">
         <v>2</v>
       </c>
-      <c r="C183" s="558" t="s">
+      <c r="C183" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D183" s="558" t="s">
         <v>75</v>
       </c>
-      <c r="D183" s="579" t="s">
+      <c r="E183" s="579" t="s">
         <v>622</v>
       </c>
-      <c r="H183" s="567" t="str">
-        <f>VLOOKUP(C183,sup_hiperlinks!$E$5:$P$40,12,0)</f>
+      <c r="I183" s="567" t="str">
+        <f>VLOOKUP(D183,sup_hiperlinks!$E$5:$P$40,12,0)</f>
         <v>http://gestaourbana.prefeitura.sp.gov.br/estruturacao-territorial/piu/piu-pacaembu/</v>
       </c>
     </row>
-    <row r="184" spans="1:8" s="552" customFormat="1">
+    <row r="184" spans="1:9" s="552" customFormat="1">
       <c r="A184" s="553">
         <v>8</v>
       </c>
       <c r="B184" s="555">
         <v>2</v>
       </c>
-      <c r="C184" s="558" t="s">
+      <c r="C184" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D184" s="558" t="s">
         <v>705</v>
       </c>
-      <c r="D184" s="579" t="s">
+      <c r="E184" s="579" t="s">
         <v>623</v>
       </c>
-      <c r="H184" s="567" t="str">
-        <f>VLOOKUP(C184,sup_hiperlinks!$E$5:$P$40,12,0)</f>
+      <c r="I184" s="567" t="str">
+        <f>VLOOKUP(D184,sup_hiperlinks!$E$5:$P$40,12,0)</f>
         <v>http://minuta.gestaourbana.prefeitura.sp.gov.br/piu-pacaembu/static/xls/piu-pacaembu_consulta_respostas_2018-02-08.zip</v>
       </c>
     </row>
-    <row r="185" spans="1:8" s="552" customFormat="1">
+    <row r="185" spans="1:9" s="552" customFormat="1">
       <c r="A185" s="553">
         <v>8</v>
       </c>
       <c r="B185" s="555">
         <v>4</v>
       </c>
-      <c r="C185" s="558" t="s">
+      <c r="C185" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D185" s="558" t="s">
         <v>704</v>
       </c>
-      <c r="D185" s="579" t="s">
+      <c r="E185" s="579" t="s">
         <v>625</v>
       </c>
-      <c r="H185" s="567">
-        <f>VLOOKUP(C185,sup_hiperlinks!$E$5:$P$40,12,0)</f>
+      <c r="I185" s="567">
+        <f>VLOOKUP(D185,sup_hiperlinks!$E$5:$P$40,12,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:8" s="552" customFormat="1">
+    <row r="186" spans="1:9" s="552" customFormat="1">
       <c r="A186" s="553">
         <v>8</v>
       </c>
       <c r="B186" s="555">
         <v>4</v>
       </c>
-      <c r="C186" s="558" t="s">
+      <c r="C186" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D186" s="558" t="s">
         <v>75</v>
       </c>
-      <c r="D186" s="579" t="s">
+      <c r="E186" s="579" t="s">
         <v>622</v>
       </c>
-      <c r="H186" s="567" t="str">
-        <f>VLOOKUP(C186,sup_hiperlinks!$E$5:$P$40,12,0)</f>
+      <c r="I186" s="567" t="str">
+        <f>VLOOKUP(D186,sup_hiperlinks!$E$5:$P$40,12,0)</f>
         <v>http://gestaourbana.prefeitura.sp.gov.br/estruturacao-territorial/piu/piu-pacaembu/</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:9">
       <c r="A187" s="556">
         <v>9</v>
       </c>
       <c r="B187" s="35">
         <v>1</v>
       </c>
-      <c r="C187" s="164" t="s">
+      <c r="C187" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D187" s="164" t="s">
         <v>72</v>
       </c>
-      <c r="D187" s="582" t="s">
+      <c r="E187" s="582" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:9">
       <c r="A188" s="556">
         <v>9</v>
       </c>
       <c r="B188" s="35">
         <v>2</v>
       </c>
-      <c r="C188" s="165" t="s">
+      <c r="C188" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D188" s="165" t="s">
         <v>3</v>
       </c>
-      <c r="D188" s="582" t="s">
+      <c r="E188" s="582" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:9">
       <c r="A189" s="556">
         <v>9</v>
       </c>
       <c r="B189" s="35">
         <v>2</v>
       </c>
-      <c r="C189" s="165" t="s">
+      <c r="C189" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D189" s="165" t="s">
         <v>159</v>
       </c>
-      <c r="D189" s="582" t="s">
+      <c r="E189" s="582" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:9">
       <c r="A190" s="556">
         <v>9</v>
       </c>
       <c r="B190" s="547">
         <v>2</v>
       </c>
-      <c r="C190" s="56" t="s">
+      <c r="C190" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D190" s="56" t="s">
         <v>704</v>
       </c>
-      <c r="D190" s="582" t="s">
+      <c r="E190" s="582" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:9">
       <c r="A191" s="556">
         <v>9</v>
       </c>
       <c r="B191" s="547">
         <v>2</v>
       </c>
-      <c r="C191" s="56" t="s">
+      <c r="C191" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D191" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="D191" s="582" t="s">
+      <c r="E191" s="582" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:9">
       <c r="A192" s="547">
         <v>10</v>
       </c>
       <c r="B192" s="547">
         <v>2</v>
       </c>
-      <c r="C192" s="166" t="s">
+      <c r="C192" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D192" s="166" t="s">
         <v>71</v>
       </c>
-      <c r="D192" s="582" t="s">
+      <c r="E192" s="582" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:5">
       <c r="A193" s="547">
         <v>10</v>
       </c>
       <c r="B193" s="547">
         <v>2</v>
       </c>
-      <c r="C193" s="165" t="s">
+      <c r="C193" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D193" s="165" t="s">
         <v>3</v>
       </c>
-      <c r="D193" s="582" t="s">
+      <c r="E193" s="582" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:5">
       <c r="A194" s="547">
         <v>10</v>
       </c>
       <c r="B194" s="547">
         <v>2</v>
       </c>
-      <c r="C194" s="166" t="s">
+      <c r="C194" s="551">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D194" s="166" t="s">
         <v>704</v>
       </c>
-      <c r="D194" s="582" t="s">
+      <c r="E194" s="582" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:5">
       <c r="A195" s="547">
         <v>10</v>
       </c>
       <c r="B195" s="547">
         <v>2</v>
       </c>
-      <c r="C195" s="166" t="s">
+      <c r="C195" s="551">
+        <f t="shared" ref="C195" ca="1" si="3">ROUND(RANDBETWEEN(1,6),1)</f>
+        <v>5</v>
+      </c>
+      <c r="D195" s="166" t="s">
         <v>75</v>
       </c>
-      <c r="D195" s="582" t="s">
+      <c r="E195" s="582" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:5">
       <c r="A196" s="547"/>
       <c r="B196" s="47"/>
-      <c r="C196" s="166"/>
-    </row>
-    <row r="197" spans="1:4">
+      <c r="C196" s="56"/>
+      <c r="D196" s="166"/>
+    </row>
+    <row r="197" spans="1:5">
       <c r="A197" s="547"/>
       <c r="B197" s="47"/>
       <c r="C197" s="56"/>
-    </row>
-    <row r="198" spans="1:4">
+      <c r="D197" s="56"/>
+    </row>
+    <row r="198" spans="1:5">
       <c r="A198" s="547"/>
       <c r="B198" s="47"/>
       <c r="C198" s="56"/>
-    </row>
-    <row r="199" spans="1:4">
+      <c r="D198" s="56"/>
+    </row>
+    <row r="199" spans="1:5">
       <c r="A199" s="547"/>
       <c r="B199" s="47"/>
       <c r="C199" s="56"/>
-    </row>
-    <row r="200" spans="1:4">
+      <c r="D199" s="56"/>
+    </row>
+    <row r="200" spans="1:5">
       <c r="A200" s="547"/>
       <c r="B200" s="47"/>
       <c r="C200" s="56"/>
-    </row>
-    <row r="201" spans="1:4">
+      <c r="D200" s="56"/>
+    </row>
+    <row r="201" spans="1:5">
       <c r="A201" s="547"/>
       <c r="B201" s="47"/>
       <c r="C201" s="56"/>
-    </row>
-    <row r="202" spans="1:4">
+      <c r="D201" s="56"/>
+    </row>
+    <row r="202" spans="1:5">
       <c r="A202" s="547"/>
       <c r="B202" s="47"/>
       <c r="C202" s="56"/>
-    </row>
-    <row r="203" spans="1:4">
+      <c r="D202" s="56"/>
+    </row>
+    <row r="203" spans="1:5">
       <c r="A203" s="47"/>
       <c r="B203" s="47"/>
       <c r="C203" s="56"/>
-    </row>
-    <row r="204" spans="1:4">
+      <c r="D203" s="56"/>
+    </row>
+    <row r="204" spans="1:5">
       <c r="B204" s="47"/>
       <c r="C204" s="56"/>
-    </row>
-    <row r="205" spans="1:4">
+      <c r="D204" s="56"/>
+    </row>
+    <row r="205" spans="1:5">
       <c r="B205" s="47"/>
       <c r="C205" s="56"/>
-    </row>
-    <row r="206" spans="1:4">
-      <c r="C206" s="56"/>
-    </row>
-    <row r="207" spans="1:4">
-      <c r="C207" s="56"/>
-    </row>
-    <row r="208" spans="1:4">
-      <c r="C208" s="56"/>
-    </row>
-    <row r="209" spans="3:3">
-      <c r="C209" s="56"/>
+      <c r="D205" s="56"/>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="D206" s="56"/>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="D207" s="56"/>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="D208" s="56"/>
+    </row>
+    <row r="209" spans="4:4">
+      <c r="D209" s="56"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D195">
+  <autoFilter ref="A1:E195">
     <filterColumn colId="2"/>
+    <filterColumn colId="3"/>
   </autoFilter>
   <mergeCells count="3">
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
-  <conditionalFormatting sqref="C183:C195 C2:C19 C26:C59 C103:C181">
-    <cfRule type="cellIs" dxfId="49" priority="93" operator="equal">
+  <conditionalFormatting sqref="D183:D195 D2:D19 D26:D59 D103:D181">
+    <cfRule type="cellIs" dxfId="3" priority="93" operator="equal">
       <formula>"_"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="94" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="95" operator="equal">
       <formula>"w"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="96" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="D7" r:id="rId6"/>
-    <hyperlink ref="D8" r:id="rId7"/>
-    <hyperlink ref="D9" r:id="rId8"/>
-    <hyperlink ref="D10" r:id="rId9"/>
-    <hyperlink ref="D11" r:id="rId10"/>
-    <hyperlink ref="D12" r:id="rId11"/>
-    <hyperlink ref="D14" r:id="rId12"/>
-    <hyperlink ref="D15" r:id="rId13"/>
-    <hyperlink ref="D16" r:id="rId14"/>
-    <hyperlink ref="D17" r:id="rId15"/>
-    <hyperlink ref="D103" r:id="rId16"/>
-    <hyperlink ref="D105" r:id="rId17"/>
-    <hyperlink ref="D106" r:id="rId18"/>
-    <hyperlink ref="D109" r:id="rId19"/>
-    <hyperlink ref="D110" r:id="rId20"/>
-    <hyperlink ref="D111" r:id="rId21"/>
-    <hyperlink ref="D115" r:id="rId22"/>
-    <hyperlink ref="D117" r:id="rId23"/>
-    <hyperlink ref="D118" r:id="rId24"/>
-    <hyperlink ref="D116" r:id="rId25"/>
-    <hyperlink ref="D114" r:id="rId26"/>
-    <hyperlink ref="D112" r:id="rId27"/>
-    <hyperlink ref="D107" r:id="rId28"/>
-    <hyperlink ref="D104" r:id="rId29"/>
-    <hyperlink ref="D121" r:id="rId30"/>
-    <hyperlink ref="D122" r:id="rId31"/>
-    <hyperlink ref="D140" r:id="rId32"/>
-    <hyperlink ref="D141" r:id="rId33"/>
-    <hyperlink ref="D142" r:id="rId34"/>
-    <hyperlink ref="D143" r:id="rId35"/>
-    <hyperlink ref="D144" r:id="rId36"/>
-    <hyperlink ref="D145" r:id="rId37"/>
-    <hyperlink ref="D146" r:id="rId38" location="/consulta"/>
-    <hyperlink ref="D148" r:id="rId39"/>
-    <hyperlink ref="D149" r:id="rId40"/>
-    <hyperlink ref="D150" r:id="rId41"/>
-    <hyperlink ref="D151" r:id="rId42"/>
-    <hyperlink ref="D152" r:id="rId43"/>
-    <hyperlink ref="D153" r:id="rId44"/>
-    <hyperlink ref="D154" r:id="rId45"/>
-    <hyperlink ref="D155" r:id="rId46"/>
-    <hyperlink ref="D180" r:id="rId47"/>
-    <hyperlink ref="D181" r:id="rId48"/>
-    <hyperlink ref="D182" r:id="rId49"/>
-    <hyperlink ref="D183" r:id="rId50"/>
-    <hyperlink ref="D184" r:id="rId51"/>
-    <hyperlink ref="D185" r:id="rId52"/>
-    <hyperlink ref="D186" r:id="rId53"/>
-    <hyperlink ref="D41" r:id="rId54"/>
-    <hyperlink ref="D45" r:id="rId55"/>
-    <hyperlink ref="D54" r:id="rId56"/>
-    <hyperlink ref="D188" r:id="rId57"/>
-    <hyperlink ref="D187" r:id="rId58"/>
-    <hyperlink ref="D191" r:id="rId59"/>
-    <hyperlink ref="D189" r:id="rId60"/>
-    <hyperlink ref="D190" r:id="rId61"/>
-    <hyperlink ref="D195" r:id="rId62" location="/consulta"/>
-    <hyperlink ref="D193" r:id="rId63"/>
-    <hyperlink ref="D192" r:id="rId64"/>
-    <hyperlink ref="D194" r:id="rId65"/>
-    <hyperlink ref="D95" r:id="rId66"/>
-    <hyperlink ref="D74" r:id="rId67"/>
-    <hyperlink ref="D99" r:id="rId68"/>
-    <hyperlink ref="D100" r:id="rId69"/>
-    <hyperlink ref="D101" r:id="rId70"/>
-    <hyperlink ref="D102" r:id="rId71"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
+    <hyperlink ref="E8" r:id="rId7"/>
+    <hyperlink ref="E9" r:id="rId8"/>
+    <hyperlink ref="E10" r:id="rId9"/>
+    <hyperlink ref="E11" r:id="rId10"/>
+    <hyperlink ref="E12" r:id="rId11"/>
+    <hyperlink ref="E14" r:id="rId12"/>
+    <hyperlink ref="E15" r:id="rId13"/>
+    <hyperlink ref="E16" r:id="rId14"/>
+    <hyperlink ref="E17" r:id="rId15"/>
+    <hyperlink ref="E103" r:id="rId16"/>
+    <hyperlink ref="E105" r:id="rId17"/>
+    <hyperlink ref="E106" r:id="rId18"/>
+    <hyperlink ref="E109" r:id="rId19"/>
+    <hyperlink ref="E110" r:id="rId20"/>
+    <hyperlink ref="E111" r:id="rId21"/>
+    <hyperlink ref="E115" r:id="rId22"/>
+    <hyperlink ref="E117" r:id="rId23"/>
+    <hyperlink ref="E118" r:id="rId24"/>
+    <hyperlink ref="E116" r:id="rId25"/>
+    <hyperlink ref="E114" r:id="rId26"/>
+    <hyperlink ref="E112" r:id="rId27"/>
+    <hyperlink ref="E107" r:id="rId28"/>
+    <hyperlink ref="E104" r:id="rId29"/>
+    <hyperlink ref="E121" r:id="rId30"/>
+    <hyperlink ref="E122" r:id="rId31"/>
+    <hyperlink ref="E140" r:id="rId32"/>
+    <hyperlink ref="E141" r:id="rId33"/>
+    <hyperlink ref="E142" r:id="rId34"/>
+    <hyperlink ref="E143" r:id="rId35"/>
+    <hyperlink ref="E144" r:id="rId36"/>
+    <hyperlink ref="E145" r:id="rId37"/>
+    <hyperlink ref="E146" r:id="rId38" location="/consulta"/>
+    <hyperlink ref="E148" r:id="rId39"/>
+    <hyperlink ref="E149" r:id="rId40"/>
+    <hyperlink ref="E150" r:id="rId41"/>
+    <hyperlink ref="E151" r:id="rId42"/>
+    <hyperlink ref="E152" r:id="rId43"/>
+    <hyperlink ref="E153" r:id="rId44"/>
+    <hyperlink ref="E154" r:id="rId45"/>
+    <hyperlink ref="E155" r:id="rId46"/>
+    <hyperlink ref="E180" r:id="rId47"/>
+    <hyperlink ref="E181" r:id="rId48"/>
+    <hyperlink ref="E182" r:id="rId49"/>
+    <hyperlink ref="E183" r:id="rId50"/>
+    <hyperlink ref="E184" r:id="rId51"/>
+    <hyperlink ref="E185" r:id="rId52"/>
+    <hyperlink ref="E186" r:id="rId53"/>
+    <hyperlink ref="E41" r:id="rId54"/>
+    <hyperlink ref="E45" r:id="rId55"/>
+    <hyperlink ref="E54" r:id="rId56"/>
+    <hyperlink ref="E188" r:id="rId57"/>
+    <hyperlink ref="E187" r:id="rId58"/>
+    <hyperlink ref="E191" r:id="rId59"/>
+    <hyperlink ref="E189" r:id="rId60"/>
+    <hyperlink ref="E190" r:id="rId61"/>
+    <hyperlink ref="E195" r:id="rId62" location="/consulta"/>
+    <hyperlink ref="E193" r:id="rId63"/>
+    <hyperlink ref="E192" r:id="rId64"/>
+    <hyperlink ref="E194" r:id="rId65"/>
+    <hyperlink ref="E95" r:id="rId66"/>
+    <hyperlink ref="E74" r:id="rId67"/>
+    <hyperlink ref="E99" r:id="rId68"/>
+    <hyperlink ref="E100" r:id="rId69"/>
+    <hyperlink ref="E101" r:id="rId70"/>
+    <hyperlink ref="E102" r:id="rId71"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId72"/>
@@ -45752,10 +46547,10 @@
       <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="598"/>
-      <c r="B2" s="599"/>
-      <c r="C2" s="599"/>
-      <c r="D2" s="599"/>
+      <c r="A2" s="610"/>
+      <c r="B2" s="611"/>
+      <c r="C2" s="611"/>
+      <c r="D2" s="611"/>
       <c r="E2" s="58" t="s">
         <v>51</v>
       </c>
@@ -46629,23 +47424,23 @@
     <mergeCell ref="A20:A32"/>
   </mergeCells>
   <conditionalFormatting sqref="E7 E9:E32 F7:K32 E5:K6">
-    <cfRule type="cellIs" dxfId="45" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="9" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:K42 B2:B42 A1:A42">
-    <cfRule type="cellIs" dxfId="44" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="2" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="3" operator="equal">
       <formula>"w"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="4" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:K47 B2:B47 A1:A47">
-    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="1" operator="equal">
       <formula>"_"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46681,18 +47476,18 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="598"/>
-      <c r="B3" s="599"/>
-      <c r="C3" s="599"/>
-      <c r="D3" s="599"/>
+      <c r="A3" s="610"/>
+      <c r="B3" s="611"/>
+      <c r="C3" s="611"/>
+      <c r="D3" s="611"/>
       <c r="E3" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="598" t="s">
+      <c r="F3" s="610" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="599"/>
-      <c r="H3" s="606"/>
+      <c r="G3" s="611"/>
+      <c r="H3" s="612"/>
       <c r="I3" s="61" t="s">
         <v>59</v>
       </c>
@@ -46728,11 +47523,11 @@
       </c>
       <c r="D5" s="74"/>
       <c r="E5" s="91"/>
-      <c r="F5" s="622" t="s">
+      <c r="F5" s="631" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="623"/>
-      <c r="H5" s="624"/>
+      <c r="G5" s="632"/>
+      <c r="H5" s="633"/>
       <c r="I5" s="91"/>
       <c r="J5" s="65"/>
       <c r="K5" s="65"/>
@@ -46745,11 +47540,11 @@
       </c>
       <c r="D6" s="92"/>
       <c r="E6" s="91"/>
-      <c r="F6" s="622" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="623"/>
-      <c r="H6" s="624"/>
+      <c r="F6" s="631" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="632"/>
+      <c r="H6" s="633"/>
       <c r="I6" s="91"/>
       <c r="J6" s="65"/>
       <c r="K6" s="65"/>
@@ -46762,11 +47557,11 @@
       </c>
       <c r="D7" s="75"/>
       <c r="E7" s="91"/>
-      <c r="F7" s="622" t="s">
+      <c r="F7" s="631" t="s">
         <v>96</v>
       </c>
-      <c r="G7" s="623"/>
-      <c r="H7" s="624"/>
+      <c r="G7" s="632"/>
+      <c r="H7" s="633"/>
       <c r="I7" s="91"/>
       <c r="J7" s="65"/>
       <c r="K7" s="65"/>
@@ -46779,11 +47574,11 @@
       </c>
       <c r="D8" s="75"/>
       <c r="E8" s="91"/>
-      <c r="F8" s="622" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" s="623"/>
-      <c r="H8" s="624"/>
+      <c r="F8" s="631" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="632"/>
+      <c r="H8" s="633"/>
       <c r="I8" s="91"/>
       <c r="J8" s="65"/>
       <c r="K8" s="65"/>
@@ -46796,11 +47591,11 @@
         <v>103</v>
       </c>
       <c r="E9" s="91"/>
-      <c r="F9" s="622" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" s="623"/>
-      <c r="H9" s="624"/>
+      <c r="F9" s="631" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="632"/>
+      <c r="H9" s="633"/>
       <c r="I9" s="91"/>
       <c r="J9" s="65"/>
       <c r="K9" s="65"/>
@@ -46843,11 +47638,11 @@
         <v>100</v>
       </c>
       <c r="E12" s="91"/>
-      <c r="F12" s="622" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="623"/>
-      <c r="H12" s="624"/>
+      <c r="F12" s="631" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="632"/>
+      <c r="H12" s="633"/>
       <c r="I12" s="91"/>
       <c r="J12" s="65"/>
       <c r="K12" s="65"/>
@@ -46860,11 +47655,11 @@
         <v>75</v>
       </c>
       <c r="E13" s="91"/>
-      <c r="F13" s="622" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="623"/>
-      <c r="H13" s="624"/>
+      <c r="F13" s="631" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="632"/>
+      <c r="H13" s="633"/>
       <c r="I13" s="91"/>
       <c r="J13" s="65"/>
       <c r="K13" s="65"/>
@@ -46877,11 +47672,11 @@
         <v>73</v>
       </c>
       <c r="E14" s="91"/>
-      <c r="F14" s="622" t="s">
-        <v>63</v>
-      </c>
-      <c r="G14" s="623"/>
-      <c r="H14" s="624"/>
+      <c r="F14" s="631" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="632"/>
+      <c r="H14" s="633"/>
       <c r="I14" s="91"/>
       <c r="J14" s="65"/>
       <c r="K14" s="65"/>
@@ -46894,11 +47689,11 @@
         <v>101</v>
       </c>
       <c r="E15" s="91"/>
-      <c r="F15" s="622" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="623"/>
-      <c r="H15" s="624"/>
+      <c r="F15" s="631" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="632"/>
+      <c r="H15" s="633"/>
       <c r="I15" s="91"/>
       <c r="J15" s="65"/>
       <c r="K15" s="65"/>
@@ -46926,11 +47721,11 @@
         <v>100</v>
       </c>
       <c r="E17" s="91"/>
-      <c r="F17" s="622" t="s">
+      <c r="F17" s="631" t="s">
         <v>91</v>
       </c>
-      <c r="G17" s="623"/>
-      <c r="H17" s="624"/>
+      <c r="G17" s="632"/>
+      <c r="H17" s="633"/>
       <c r="I17" s="91"/>
       <c r="J17" s="65"/>
       <c r="K17" s="65"/>
@@ -46943,11 +47738,11 @@
         <v>77</v>
       </c>
       <c r="E18" s="91"/>
-      <c r="F18" s="622" t="s">
+      <c r="F18" s="631" t="s">
         <v>91</v>
       </c>
-      <c r="G18" s="623"/>
-      <c r="H18" s="624"/>
+      <c r="G18" s="632"/>
+      <c r="H18" s="633"/>
       <c r="I18" s="91"/>
       <c r="J18" s="65"/>
       <c r="K18" s="65"/>
@@ -46960,11 +47755,11 @@
         <v>78</v>
       </c>
       <c r="E19" s="65"/>
-      <c r="F19" s="625" t="s">
+      <c r="F19" s="628" t="s">
         <v>91</v>
       </c>
-      <c r="G19" s="626"/>
-      <c r="H19" s="627"/>
+      <c r="G19" s="629"/>
+      <c r="H19" s="630"/>
       <c r="I19" s="65"/>
       <c r="J19" s="65"/>
       <c r="K19" s="65"/>
@@ -46977,11 +47772,11 @@
         <v>79</v>
       </c>
       <c r="E20" s="65"/>
-      <c r="F20" s="625" t="s">
+      <c r="F20" s="628" t="s">
         <v>91</v>
       </c>
-      <c r="G20" s="626"/>
-      <c r="H20" s="627"/>
+      <c r="G20" s="629"/>
+      <c r="H20" s="630"/>
       <c r="I20" s="65"/>
       <c r="J20" s="65"/>
       <c r="K20" s="65"/>
@@ -46994,11 +47789,11 @@
         <v>89</v>
       </c>
       <c r="E21" s="66"/>
-      <c r="F21" s="631" t="s">
+      <c r="F21" s="625" t="s">
         <v>91</v>
       </c>
-      <c r="G21" s="632"/>
-      <c r="H21" s="633"/>
+      <c r="G21" s="626"/>
+      <c r="H21" s="627"/>
       <c r="I21" s="66"/>
       <c r="J21" s="66"/>
       <c r="K21" s="66"/>
@@ -47028,11 +47823,11 @@
       </c>
       <c r="D23" s="53"/>
       <c r="E23" s="65"/>
-      <c r="F23" s="625" t="s">
-        <v>63</v>
-      </c>
-      <c r="G23" s="626"/>
-      <c r="H23" s="627"/>
+      <c r="F23" s="628" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="629"/>
+      <c r="H23" s="630"/>
       <c r="I23" s="65"/>
       <c r="J23" s="65"/>
       <c r="K23" s="65"/>
@@ -47045,11 +47840,11 @@
       </c>
       <c r="D24" s="53"/>
       <c r="E24" s="65"/>
-      <c r="F24" s="625" t="s">
+      <c r="F24" s="628" t="s">
         <v>96</v>
       </c>
-      <c r="G24" s="626"/>
-      <c r="H24" s="627"/>
+      <c r="G24" s="629"/>
+      <c r="H24" s="630"/>
       <c r="I24" s="65"/>
       <c r="J24" s="65"/>
       <c r="K24" s="65"/>
@@ -47062,11 +47857,11 @@
         <v>103</v>
       </c>
       <c r="E25" s="65"/>
-      <c r="F25" s="625" t="s">
-        <v>63</v>
-      </c>
-      <c r="G25" s="626"/>
-      <c r="H25" s="627"/>
+      <c r="F25" s="628" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="629"/>
+      <c r="H25" s="630"/>
       <c r="I25" s="65"/>
       <c r="J25" s="65"/>
       <c r="K25" s="65"/>
@@ -47079,11 +47874,11 @@
       </c>
       <c r="D26" s="53"/>
       <c r="E26" s="65"/>
-      <c r="F26" s="625" t="s">
+      <c r="F26" s="628" t="s">
         <v>96</v>
       </c>
-      <c r="G26" s="626"/>
-      <c r="H26" s="627"/>
+      <c r="G26" s="629"/>
+      <c r="H26" s="630"/>
       <c r="I26" s="65"/>
       <c r="J26" s="65"/>
       <c r="K26" s="65"/>
@@ -47096,11 +47891,11 @@
         <v>105</v>
       </c>
       <c r="E27" s="65"/>
-      <c r="F27" s="625" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="626"/>
-      <c r="H27" s="627"/>
+      <c r="F27" s="628" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="629"/>
+      <c r="H27" s="630"/>
       <c r="I27" s="65"/>
       <c r="J27" s="65"/>
       <c r="K27" s="65"/>
@@ -47113,11 +47908,11 @@
       </c>
       <c r="D28" s="100"/>
       <c r="E28" s="65"/>
-      <c r="F28" s="625" t="s">
+      <c r="F28" s="628" t="s">
         <v>64</v>
       </c>
-      <c r="G28" s="626"/>
-      <c r="H28" s="627"/>
+      <c r="G28" s="629"/>
+      <c r="H28" s="630"/>
       <c r="I28" s="65"/>
       <c r="J28" s="65"/>
       <c r="K28" s="65"/>
@@ -47160,11 +47955,11 @@
         <v>100</v>
       </c>
       <c r="E31" s="65"/>
-      <c r="F31" s="625" t="s">
-        <v>63</v>
-      </c>
-      <c r="G31" s="626"/>
-      <c r="H31" s="627"/>
+      <c r="F31" s="628" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31" s="629"/>
+      <c r="H31" s="630"/>
       <c r="I31" s="65"/>
       <c r="J31" s="65"/>
       <c r="K31" s="65"/>
@@ -47177,11 +47972,11 @@
         <v>75</v>
       </c>
       <c r="E32" s="65"/>
-      <c r="F32" s="625" t="s">
-        <v>63</v>
-      </c>
-      <c r="G32" s="626"/>
-      <c r="H32" s="627"/>
+      <c r="F32" s="628" t="s">
+        <v>63</v>
+      </c>
+      <c r="G32" s="629"/>
+      <c r="H32" s="630"/>
       <c r="I32" s="65"/>
       <c r="J32" s="65"/>
       <c r="K32" s="65"/>
@@ -47194,11 +47989,11 @@
         <v>73</v>
       </c>
       <c r="E33" s="65"/>
-      <c r="F33" s="625" t="s">
+      <c r="F33" s="628" t="s">
         <v>64</v>
       </c>
-      <c r="G33" s="626"/>
-      <c r="H33" s="627"/>
+      <c r="G33" s="629"/>
+      <c r="H33" s="630"/>
       <c r="I33" s="65"/>
       <c r="J33" s="65"/>
       <c r="K33" s="65"/>
@@ -47344,9 +48139,9 @@
       <c r="C41" s="73"/>
       <c r="D41" s="53"/>
       <c r="E41" s="66"/>
-      <c r="F41" s="631"/>
-      <c r="G41" s="632"/>
-      <c r="H41" s="633"/>
+      <c r="F41" s="625"/>
+      <c r="G41" s="626"/>
+      <c r="H41" s="627"/>
       <c r="I41" s="66"/>
       <c r="J41" s="66"/>
       <c r="K41" s="66"/>
@@ -47361,9 +48156,9 @@
       <c r="C42" s="83"/>
       <c r="D42" s="55"/>
       <c r="E42" s="66"/>
-      <c r="F42" s="628"/>
-      <c r="G42" s="629"/>
-      <c r="H42" s="630"/>
+      <c r="F42" s="622"/>
+      <c r="G42" s="623"/>
+      <c r="H42" s="624"/>
       <c r="I42" s="66"/>
       <c r="J42" s="66"/>
       <c r="K42" s="66"/>
@@ -47424,19 +48219,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F23:H23"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A22:A41"/>
     <mergeCell ref="A4:A21"/>
@@ -47453,33 +48235,46 @@
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F23:H23"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:D42">
-    <cfRule type="cellIs" dxfId="40" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="5" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="6" operator="equal">
       <formula>"w"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="7" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F52 I1:L52 G1:H2 G4:H4 G10:H11 G16:H16 G22:H22 G34:H40 G43:H52 G29:H30">
-    <cfRule type="cellIs" dxfId="37" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="5" operator="equal">
       <formula>"_"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F50 I1:L50 G1:H2 G4:H4 G10:H11 G16:H16 G22:H22 G34:H40 G43:H50 G29:H30">
-    <cfRule type="cellIs" dxfId="36" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F49 I1:L49 G1:H2 G4:H4 G10:H11 G16:H16 G22:H22 G34:H40 G43:H49 G29:H30">
-    <cfRule type="cellIs" dxfId="35" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
       <formula>"w"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="4" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/PIUS_Doc_ParticipacaoPublica.xlsx
+++ b/PIUS_Doc_ParticipacaoPublica.xlsx
@@ -668,7 +668,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6170" uniqueCount="1000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6170" uniqueCount="1001">
   <si>
     <t>DOCUMENTAÇÃO PIUS</t>
   </si>
@@ -3670,6 +3670,9 @@
   </si>
   <si>
     <t>resolver os que estão de vermelho</t>
+  </si>
+  <si>
+    <t>Diagnóstico olar</t>
   </si>
 </sst>
 </file>
@@ -6673,49 +6676,49 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6743,6 +6746,33 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6752,33 +6782,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -6836,15 +6839,81 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6863,71 +6932,17 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6952,18 +6967,6 @@
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -8553,10 +8556,10 @@
       </c>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="598"/>
-      <c r="B2" s="599"/>
-      <c r="C2" s="599"/>
-      <c r="D2" s="599"/>
+      <c r="A2" s="610"/>
+      <c r="B2" s="611"/>
+      <c r="C2" s="611"/>
+      <c r="D2" s="611"/>
       <c r="E2" s="548"/>
       <c r="F2" s="58" t="s">
         <v>51</v>
@@ -8598,11 +8601,11 @@
       <c r="T2" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="U2" s="599" t="s">
+      <c r="U2" s="611" t="s">
         <v>57</v>
       </c>
-      <c r="V2" s="599"/>
-      <c r="W2" s="606"/>
+      <c r="V2" s="611"/>
+      <c r="W2" s="612"/>
       <c r="X2" s="61" t="s">
         <v>59</v>
       </c>
@@ -8614,7 +8617,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A3" s="600" t="s">
+      <c r="A3" s="598" t="s">
         <v>358</v>
       </c>
       <c r="B3" s="157" t="s">
@@ -8645,7 +8648,7 @@
       <c r="Z3" s="52"/>
     </row>
     <row r="4" spans="1:26" ht="15">
-      <c r="A4" s="601"/>
+      <c r="A4" s="599"/>
       <c r="B4" s="74"/>
       <c r="C4" s="163" t="s">
         <v>116</v>
@@ -8674,7 +8677,7 @@
       <c r="Z4" s="52"/>
     </row>
     <row r="5" spans="1:26" ht="15">
-      <c r="A5" s="601"/>
+      <c r="A5" s="599"/>
       <c r="B5" s="74"/>
       <c r="D5" s="85" t="s">
         <v>81</v>
@@ -8714,17 +8717,17 @@
         <v>91</v>
       </c>
       <c r="T5" s="73"/>
-      <c r="U5" s="603" t="s">
+      <c r="U5" s="601" t="s">
         <v>91</v>
       </c>
-      <c r="V5" s="604"/>
-      <c r="W5" s="605"/>
+      <c r="V5" s="602"/>
+      <c r="W5" s="603"/>
       <c r="X5" s="73"/>
       <c r="Y5" s="73"/>
       <c r="Z5" s="52"/>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="601"/>
+      <c r="A6" s="599"/>
       <c r="B6" s="73"/>
       <c r="C6" s="164" t="s">
         <v>117</v>
@@ -8754,7 +8757,7 @@
       <c r="Z6" s="52"/>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="601"/>
+      <c r="A7" s="599"/>
       <c r="B7" s="73"/>
       <c r="C7" s="164"/>
       <c r="D7" s="85" t="s">
@@ -8794,17 +8797,17 @@
       </c>
       <c r="S7" s="76"/>
       <c r="T7" s="73"/>
-      <c r="U7" s="603" t="s">
+      <c r="U7" s="601" t="s">
         <v>91</v>
       </c>
-      <c r="V7" s="604"/>
-      <c r="W7" s="605"/>
+      <c r="V7" s="602"/>
+      <c r="W7" s="603"/>
       <c r="X7" s="73"/>
       <c r="Y7" s="73"/>
       <c r="Z7" s="52"/>
     </row>
     <row r="8" spans="1:26" ht="15.75">
-      <c r="A8" s="600" t="s">
+      <c r="A8" s="598" t="s">
         <v>359</v>
       </c>
       <c r="B8" s="157" t="s">
@@ -8836,7 +8839,7 @@
       <c r="Z8" s="172"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A9" s="601"/>
+      <c r="A9" s="599"/>
       <c r="B9" s="73"/>
       <c r="C9" s="166" t="s">
         <v>71</v>
@@ -8874,17 +8877,17 @@
       </c>
       <c r="S9" s="76"/>
       <c r="T9" s="73"/>
-      <c r="U9" s="603" t="s">
+      <c r="U9" s="601" t="s">
         <v>96</v>
       </c>
-      <c r="V9" s="604"/>
-      <c r="W9" s="605"/>
+      <c r="V9" s="602"/>
+      <c r="W9" s="603"/>
       <c r="X9" s="73"/>
       <c r="Y9" s="73"/>
       <c r="Z9" s="52"/>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="601"/>
+      <c r="A10" s="599"/>
       <c r="B10" s="73"/>
       <c r="C10" s="165" t="s">
         <v>3</v>
@@ -8928,17 +8931,17 @@
       </c>
       <c r="S10" s="76"/>
       <c r="T10" s="73"/>
-      <c r="U10" s="603" t="s">
-        <v>63</v>
-      </c>
-      <c r="V10" s="604"/>
-      <c r="W10" s="605"/>
+      <c r="U10" s="601" t="s">
+        <v>63</v>
+      </c>
+      <c r="V10" s="602"/>
+      <c r="W10" s="603"/>
       <c r="X10" s="73"/>
       <c r="Y10" s="73"/>
       <c r="Z10" s="52"/>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="601"/>
+      <c r="A11" s="599"/>
       <c r="B11" s="73"/>
       <c r="C11" s="165" t="s">
         <v>35</v>
@@ -8982,17 +8985,17 @@
       </c>
       <c r="S11" s="76"/>
       <c r="T11" s="73"/>
-      <c r="U11" s="603" t="s">
-        <v>63</v>
-      </c>
-      <c r="V11" s="604"/>
-      <c r="W11" s="605"/>
+      <c r="U11" s="601" t="s">
+        <v>63</v>
+      </c>
+      <c r="V11" s="602"/>
+      <c r="W11" s="603"/>
       <c r="X11" s="73"/>
       <c r="Y11" s="73"/>
       <c r="Z11" s="52"/>
     </row>
     <row r="12" spans="1:26" ht="15.75">
-      <c r="A12" s="601"/>
+      <c r="A12" s="599"/>
       <c r="B12" s="158" t="s">
         <v>127</v>
       </c>
@@ -9022,7 +9025,7 @@
       <c r="Z12" s="52"/>
     </row>
     <row r="13" spans="1:26" ht="15">
-      <c r="A13" s="601"/>
+      <c r="A13" s="599"/>
       <c r="B13" s="74"/>
       <c r="C13" s="165" t="s">
         <v>88</v>
@@ -9052,7 +9055,7 @@
       <c r="Z13" s="52"/>
     </row>
     <row r="14" spans="1:26" ht="15">
-      <c r="A14" s="601"/>
+      <c r="A14" s="599"/>
       <c r="B14" s="74"/>
       <c r="C14" s="165"/>
       <c r="D14" s="53" t="s">
@@ -9098,17 +9101,17 @@
       </c>
       <c r="S14" s="76"/>
       <c r="T14" s="73"/>
-      <c r="U14" s="603" t="s">
-        <v>63</v>
-      </c>
-      <c r="V14" s="604"/>
-      <c r="W14" s="605"/>
+      <c r="U14" s="601" t="s">
+        <v>63</v>
+      </c>
+      <c r="V14" s="602"/>
+      <c r="W14" s="603"/>
       <c r="X14" s="73"/>
       <c r="Y14" s="73"/>
       <c r="Z14" s="52"/>
     </row>
     <row r="15" spans="1:26" ht="15">
-      <c r="A15" s="601"/>
+      <c r="A15" s="599"/>
       <c r="B15" s="74"/>
       <c r="C15" s="163"/>
       <c r="D15" s="53" t="s">
@@ -9156,17 +9159,17 @@
       </c>
       <c r="S15" s="76"/>
       <c r="T15" s="73"/>
-      <c r="U15" s="603" t="s">
-        <v>63</v>
-      </c>
-      <c r="V15" s="604"/>
-      <c r="W15" s="605"/>
+      <c r="U15" s="601" t="s">
+        <v>63</v>
+      </c>
+      <c r="V15" s="602"/>
+      <c r="W15" s="603"/>
       <c r="X15" s="73"/>
       <c r="Y15" s="73"/>
       <c r="Z15" s="52"/>
     </row>
     <row r="16" spans="1:26" ht="15">
-      <c r="A16" s="601"/>
+      <c r="A16" s="599"/>
       <c r="B16" s="74"/>
       <c r="C16" s="163"/>
       <c r="D16" s="53" t="s">
@@ -9206,17 +9209,17 @@
       </c>
       <c r="S16" s="76"/>
       <c r="T16" s="73"/>
-      <c r="U16" s="603" t="s">
-        <v>63</v>
-      </c>
-      <c r="V16" s="604"/>
-      <c r="W16" s="605"/>
+      <c r="U16" s="601" t="s">
+        <v>63</v>
+      </c>
+      <c r="V16" s="602"/>
+      <c r="W16" s="603"/>
       <c r="X16" s="73"/>
       <c r="Y16" s="73"/>
       <c r="Z16" s="52"/>
     </row>
     <row r="17" spans="1:26" ht="15">
-      <c r="A17" s="601"/>
+      <c r="A17" s="599"/>
       <c r="B17" s="74"/>
       <c r="C17" s="163"/>
       <c r="D17" s="53" t="s">
@@ -9250,17 +9253,17 @@
       </c>
       <c r="S17" s="76"/>
       <c r="T17" s="73"/>
-      <c r="U17" s="603" t="s">
-        <v>63</v>
-      </c>
-      <c r="V17" s="604"/>
-      <c r="W17" s="605"/>
+      <c r="U17" s="601" t="s">
+        <v>63</v>
+      </c>
+      <c r="V17" s="602"/>
+      <c r="W17" s="603"/>
       <c r="X17" s="73"/>
       <c r="Y17" s="73"/>
       <c r="Z17" s="52"/>
     </row>
     <row r="18" spans="1:26" ht="15">
-      <c r="A18" s="601"/>
+      <c r="A18" s="599"/>
       <c r="B18" s="74"/>
       <c r="C18" s="165" t="s">
         <v>76</v>
@@ -9290,7 +9293,7 @@
       <c r="Z18" s="52"/>
     </row>
     <row r="19" spans="1:26" ht="15">
-      <c r="A19" s="601"/>
+      <c r="A19" s="599"/>
       <c r="B19" s="74"/>
       <c r="C19" s="165"/>
       <c r="D19" s="53" t="s">
@@ -9330,17 +9333,17 @@
       <c r="R19" s="70"/>
       <c r="S19" s="76"/>
       <c r="T19" s="73"/>
-      <c r="U19" s="603" t="s">
+      <c r="U19" s="601" t="s">
         <v>91</v>
       </c>
-      <c r="V19" s="604"/>
-      <c r="W19" s="605"/>
+      <c r="V19" s="602"/>
+      <c r="W19" s="603"/>
       <c r="X19" s="73"/>
       <c r="Y19" s="73"/>
       <c r="Z19" s="52"/>
     </row>
     <row r="20" spans="1:26" ht="15">
-      <c r="A20" s="601"/>
+      <c r="A20" s="599"/>
       <c r="B20" s="74"/>
       <c r="C20" s="163"/>
       <c r="D20" s="53" t="s">
@@ -9380,17 +9383,17 @@
       <c r="R20" s="70"/>
       <c r="S20" s="76"/>
       <c r="T20" s="73"/>
-      <c r="U20" s="603" t="s">
+      <c r="U20" s="601" t="s">
         <v>91</v>
       </c>
-      <c r="V20" s="604"/>
-      <c r="W20" s="605"/>
+      <c r="V20" s="602"/>
+      <c r="W20" s="603"/>
       <c r="X20" s="73"/>
       <c r="Y20" s="73"/>
       <c r="Z20" s="52"/>
     </row>
     <row r="21" spans="1:26" ht="15">
-      <c r="A21" s="601"/>
+      <c r="A21" s="599"/>
       <c r="B21" s="74"/>
       <c r="C21" s="163"/>
       <c r="D21" s="53" t="s">
@@ -9428,17 +9431,17 @@
       <c r="R21" s="70"/>
       <c r="S21" s="76"/>
       <c r="T21" s="73"/>
-      <c r="U21" s="603" t="s">
+      <c r="U21" s="601" t="s">
         <v>91</v>
       </c>
-      <c r="V21" s="604"/>
-      <c r="W21" s="605"/>
+      <c r="V21" s="602"/>
+      <c r="W21" s="603"/>
       <c r="X21" s="73"/>
       <c r="Y21" s="73"/>
       <c r="Z21" s="52"/>
     </row>
     <row r="22" spans="1:26" ht="15">
-      <c r="A22" s="601"/>
+      <c r="A22" s="599"/>
       <c r="B22" s="74"/>
       <c r="C22" s="41"/>
       <c r="D22" s="53" t="s">
@@ -9478,17 +9481,17 @@
       <c r="R22" s="70"/>
       <c r="S22" s="76"/>
       <c r="T22" s="73"/>
-      <c r="U22" s="603" t="s">
+      <c r="U22" s="601" t="s">
         <v>91</v>
       </c>
-      <c r="V22" s="604"/>
-      <c r="W22" s="605"/>
+      <c r="V22" s="602"/>
+      <c r="W22" s="603"/>
       <c r="X22" s="73"/>
       <c r="Y22" s="73"/>
       <c r="Z22" s="52"/>
     </row>
     <row r="23" spans="1:26" ht="15">
-      <c r="A23" s="601"/>
+      <c r="A23" s="599"/>
       <c r="B23" s="74"/>
       <c r="C23" s="41"/>
       <c r="D23" s="53" t="s">
@@ -9524,17 +9527,17 @@
       <c r="R23" s="70"/>
       <c r="S23" s="76"/>
       <c r="T23" s="73"/>
-      <c r="U23" s="603" t="s">
+      <c r="U23" s="601" t="s">
         <v>91</v>
       </c>
-      <c r="V23" s="604"/>
-      <c r="W23" s="605"/>
+      <c r="V23" s="602"/>
+      <c r="W23" s="603"/>
       <c r="X23" s="73"/>
       <c r="Y23" s="73"/>
       <c r="Z23" s="52"/>
     </row>
     <row r="24" spans="1:26" ht="15">
-      <c r="A24" s="602"/>
+      <c r="A24" s="600"/>
       <c r="B24" s="79"/>
       <c r="C24" s="161"/>
       <c r="D24" s="81"/>
@@ -9554,15 +9557,15 @@
       <c r="R24" s="81"/>
       <c r="S24" s="76"/>
       <c r="T24" s="81"/>
-      <c r="U24" s="610"/>
-      <c r="V24" s="611"/>
-      <c r="W24" s="612"/>
+      <c r="U24" s="604"/>
+      <c r="V24" s="605"/>
+      <c r="W24" s="606"/>
       <c r="X24" s="81"/>
       <c r="Y24" s="81"/>
       <c r="Z24" s="160"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A25" s="600" t="s">
+      <c r="A25" s="598" t="s">
         <v>360</v>
       </c>
       <c r="B25" s="175" t="s">
@@ -9604,7 +9607,7 @@
       <c r="Z25" s="172"/>
     </row>
     <row r="26" spans="1:26" ht="15.75">
-      <c r="A26" s="601"/>
+      <c r="A26" s="599"/>
       <c r="B26" s="158" t="s">
         <v>129</v>
       </c>
@@ -9634,7 +9637,7 @@
       <c r="Z26" s="52"/>
     </row>
     <row r="27" spans="1:26" ht="15">
-      <c r="A27" s="601"/>
+      <c r="A27" s="599"/>
       <c r="B27" s="73"/>
       <c r="C27" s="124" t="s">
         <v>74</v>
@@ -9664,7 +9667,7 @@
       <c r="Z27" s="52"/>
     </row>
     <row r="28" spans="1:26">
-      <c r="A28" s="601"/>
+      <c r="A28" s="599"/>
       <c r="B28" s="73"/>
       <c r="C28" s="124"/>
       <c r="D28" s="73" t="s">
@@ -9694,17 +9697,17 @@
       <c r="R28" s="70"/>
       <c r="S28" s="76"/>
       <c r="T28" s="73"/>
-      <c r="U28" s="603" t="s">
-        <v>63</v>
-      </c>
-      <c r="V28" s="604"/>
-      <c r="W28" s="605"/>
+      <c r="U28" s="601" t="s">
+        <v>63</v>
+      </c>
+      <c r="V28" s="602"/>
+      <c r="W28" s="603"/>
       <c r="X28" s="73"/>
       <c r="Y28" s="73"/>
       <c r="Z28" s="52"/>
     </row>
     <row r="29" spans="1:26">
-      <c r="A29" s="601"/>
+      <c r="A29" s="599"/>
       <c r="B29" s="73"/>
       <c r="C29" s="52"/>
       <c r="D29" s="53" t="s">
@@ -9734,17 +9737,17 @@
       <c r="R29" s="70"/>
       <c r="S29" s="76"/>
       <c r="T29" s="73"/>
-      <c r="U29" s="603" t="s">
-        <v>63</v>
-      </c>
-      <c r="V29" s="604"/>
-      <c r="W29" s="605"/>
+      <c r="U29" s="601" t="s">
+        <v>63</v>
+      </c>
+      <c r="V29" s="602"/>
+      <c r="W29" s="603"/>
       <c r="X29" s="73"/>
       <c r="Y29" s="73"/>
       <c r="Z29" s="52"/>
     </row>
     <row r="30" spans="1:26">
-      <c r="A30" s="601"/>
+      <c r="A30" s="599"/>
       <c r="B30" s="73"/>
       <c r="C30" s="52"/>
       <c r="D30" s="53" t="s">
@@ -9770,15 +9773,15 @@
       <c r="R30" s="70"/>
       <c r="S30" s="76"/>
       <c r="T30" s="73"/>
-      <c r="U30" s="603"/>
-      <c r="V30" s="604"/>
-      <c r="W30" s="605"/>
+      <c r="U30" s="601"/>
+      <c r="V30" s="602"/>
+      <c r="W30" s="603"/>
       <c r="X30" s="73"/>
       <c r="Y30" s="73"/>
       <c r="Z30" s="52"/>
     </row>
     <row r="31" spans="1:26">
-      <c r="A31" s="601"/>
+      <c r="A31" s="599"/>
       <c r="B31" s="73"/>
       <c r="C31" s="52"/>
       <c r="D31" s="53" t="s">
@@ -9804,15 +9807,15 @@
       <c r="R31" s="70"/>
       <c r="S31" s="76"/>
       <c r="T31" s="73"/>
-      <c r="U31" s="603"/>
-      <c r="V31" s="604"/>
-      <c r="W31" s="605"/>
+      <c r="U31" s="601"/>
+      <c r="V31" s="602"/>
+      <c r="W31" s="603"/>
       <c r="X31" s="73"/>
       <c r="Y31" s="73"/>
       <c r="Z31" s="52"/>
     </row>
     <row r="32" spans="1:26" ht="15">
-      <c r="A32" s="601"/>
+      <c r="A32" s="599"/>
       <c r="B32" s="73"/>
       <c r="C32" s="124" t="s">
         <v>76</v>
@@ -9842,7 +9845,7 @@
       <c r="Z32" s="52"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A33" s="601"/>
+      <c r="A33" s="599"/>
       <c r="B33" s="73"/>
       <c r="C33" s="124"/>
       <c r="D33" s="73" t="s">
@@ -9884,7 +9887,7 @@
       <c r="Z33" s="52"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A34" s="601"/>
+      <c r="A34" s="599"/>
       <c r="B34" s="73"/>
       <c r="C34" s="52"/>
       <c r="D34" s="53" t="s">
@@ -9926,7 +9929,7 @@
       <c r="Z34" s="52"/>
     </row>
     <row r="35" spans="1:26">
-      <c r="A35" s="601"/>
+      <c r="A35" s="599"/>
       <c r="B35" s="73"/>
       <c r="C35" s="52"/>
       <c r="D35" s="53" t="s">
@@ -9966,7 +9969,7 @@
       <c r="Z35" s="52"/>
     </row>
     <row r="36" spans="1:26" ht="15">
-      <c r="A36" s="601"/>
+      <c r="A36" s="599"/>
       <c r="B36" s="73"/>
       <c r="C36" s="46"/>
       <c r="D36" s="53" t="s">
@@ -10008,7 +10011,7 @@
       <c r="Z36" s="52"/>
     </row>
     <row r="37" spans="1:26">
-      <c r="A37" s="602"/>
+      <c r="A37" s="600"/>
       <c r="B37" s="73"/>
       <c r="C37" s="52"/>
       <c r="D37" s="53" t="s">
@@ -10554,6 +10557,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="U17:W17"/>
+    <mergeCell ref="U19:W19"/>
+    <mergeCell ref="U20:W20"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="U7:W7"/>
     <mergeCell ref="U21:W21"/>
     <mergeCell ref="U22:W22"/>
     <mergeCell ref="U23:W23"/>
@@ -10570,16 +10583,6 @@
     <mergeCell ref="U11:W11"/>
     <mergeCell ref="U14:W14"/>
     <mergeCell ref="U15:W15"/>
-    <mergeCell ref="U16:W16"/>
-    <mergeCell ref="U17:W17"/>
-    <mergeCell ref="U19:W19"/>
-    <mergeCell ref="U20:W20"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="U5:W5"/>
-    <mergeCell ref="U7:W7"/>
   </mergeCells>
   <conditionalFormatting sqref="F12:G22 F25:R38 F23:R23 H24:N24 F10:G10 H8:R8 H10:R22 F7:R7 F5:R5">
     <cfRule type="cellIs" dxfId="33" priority="13" operator="equal">
@@ -15379,11 +15382,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="CO4:CY4"/>
-    <mergeCell ref="CZ4:DH4"/>
-    <mergeCell ref="DI4:DM4"/>
-    <mergeCell ref="DN4:DP4"/>
-    <mergeCell ref="DQ4:DU4"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="J3:DM3"/>
     <mergeCell ref="DN3:EI3"/>
@@ -15396,6 +15394,11 @@
     <mergeCell ref="BC4:BL4"/>
     <mergeCell ref="DV4:EI4"/>
     <mergeCell ref="BM4:CN4"/>
+    <mergeCell ref="CO4:CY4"/>
+    <mergeCell ref="CZ4:DH4"/>
+    <mergeCell ref="DI4:DM4"/>
+    <mergeCell ref="DN4:DP4"/>
+    <mergeCell ref="DQ4:DU4"/>
   </mergeCells>
   <conditionalFormatting sqref="B11:C13">
     <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="Projeto">
@@ -15471,14 +15474,14 @@
     </row>
     <row r="3" spans="5:20" ht="15.75" thickBot="1">
       <c r="F3" s="33"/>
-      <c r="G3" s="654" t="s">
+      <c r="G3" s="653" t="s">
         <v>115</v>
       </c>
-      <c r="H3" s="655"/>
-      <c r="J3" s="654" t="s">
+      <c r="H3" s="654"/>
+      <c r="J3" s="653" t="s">
         <v>115</v>
       </c>
-      <c r="K3" s="655"/>
+      <c r="K3" s="654"/>
       <c r="S3" t="s">
         <v>154</v>
       </c>
@@ -15520,11 +15523,11 @@
       </c>
       <c r="M5" s="106"/>
       <c r="N5" s="118"/>
-      <c r="O5" s="662" t="s">
+      <c r="O5" s="671" t="s">
         <v>132</v>
       </c>
-      <c r="P5" s="662"/>
-      <c r="Q5" s="663"/>
+      <c r="P5" s="671"/>
+      <c r="Q5" s="672"/>
     </row>
     <row r="6" spans="5:20" ht="15.75" customHeight="1">
       <c r="E6" s="179"/>
@@ -15534,7 +15537,7 @@
       <c r="G6" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="672" t="s">
+      <c r="H6" s="655" t="s">
         <v>141</v>
       </c>
       <c r="I6">
@@ -15543,16 +15546,16 @@
       <c r="J6" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="656" t="s">
+      <c r="K6" s="678" t="s">
         <v>14</v>
       </c>
       <c r="M6" s="106"/>
       <c r="N6" s="118"/>
       <c r="O6" s="57"/>
-      <c r="P6" s="666" t="s">
+      <c r="P6" s="669" t="s">
         <v>116</v>
       </c>
-      <c r="Q6" s="667"/>
+      <c r="Q6" s="670"/>
       <c r="S6" s="195">
         <v>1</v>
       </c>
@@ -15568,14 +15571,14 @@
       <c r="G7" s="182" t="s">
         <v>142</v>
       </c>
-      <c r="H7" s="673"/>
+      <c r="H7" s="656"/>
       <c r="I7">
         <v>2</v>
       </c>
       <c r="J7" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="657"/>
+      <c r="K7" s="679"/>
       <c r="M7" s="113"/>
       <c r="N7" s="119"/>
       <c r="O7" s="57"/>
@@ -15596,18 +15599,18 @@
       <c r="G8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="674"/>
+      <c r="H8" s="657"/>
       <c r="J8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="658"/>
+      <c r="K8" s="680"/>
       <c r="M8" s="113"/>
       <c r="N8" s="119"/>
       <c r="O8" s="76"/>
-      <c r="P8" s="668" t="s">
+      <c r="P8" s="667" t="s">
         <v>117</v>
       </c>
-      <c r="Q8" s="669"/>
+      <c r="Q8" s="668"/>
       <c r="S8" s="206" t="s">
         <v>148</v>
       </c>
@@ -15735,7 +15738,7 @@
       <c r="G14" s="185" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="675" t="s">
+      <c r="H14" s="658" t="s">
         <v>145</v>
       </c>
       <c r="I14">
@@ -15744,7 +15747,7 @@
       <c r="J14" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="659" t="s">
+      <c r="K14" s="681" t="s">
         <v>19</v>
       </c>
       <c r="M14" s="114"/>
@@ -15765,21 +15768,21 @@
       <c r="G15" s="186" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="676"/>
+      <c r="H15" s="659"/>
       <c r="I15">
         <v>5</v>
       </c>
       <c r="J15" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="660"/>
+      <c r="K15" s="682"/>
       <c r="M15" s="106"/>
       <c r="N15" s="119"/>
-      <c r="O15" s="662" t="s">
+      <c r="O15" s="671" t="s">
         <v>133</v>
       </c>
-      <c r="P15" s="662"/>
-      <c r="Q15" s="663"/>
+      <c r="P15" s="671"/>
+      <c r="Q15" s="672"/>
       <c r="S15" s="206"/>
       <c r="T15" s="208" t="s">
         <v>75</v>
@@ -15793,23 +15796,23 @@
       <c r="G16" s="186" t="s">
         <v>146</v>
       </c>
-      <c r="H16" s="677"/>
+      <c r="H16" s="660"/>
       <c r="I16">
         <v>6</v>
       </c>
       <c r="J16" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="K16" s="660"/>
+      <c r="K16" s="682"/>
       <c r="M16" s="114" t="s">
         <v>122</v>
       </c>
       <c r="N16" s="119"/>
       <c r="O16" s="76"/>
-      <c r="P16" s="670" t="s">
+      <c r="P16" s="673" t="s">
         <v>71</v>
       </c>
-      <c r="Q16" s="671"/>
+      <c r="Q16" s="674"/>
       <c r="S16" s="206"/>
       <c r="T16" s="208" t="s">
         <v>73</v>
@@ -15823,7 +15826,7 @@
       <c r="G17" s="187" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="678" t="s">
+      <c r="H17" s="661" t="s">
         <v>24</v>
       </c>
       <c r="I17">
@@ -15832,16 +15835,16 @@
       <c r="J17" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="661"/>
+      <c r="K17" s="683"/>
       <c r="M17" s="114" t="s">
         <v>121</v>
       </c>
       <c r="N17" s="120"/>
       <c r="O17" s="76"/>
-      <c r="P17" s="670" t="s">
+      <c r="P17" s="673" t="s">
         <v>3</v>
       </c>
-      <c r="Q17" s="671"/>
+      <c r="Q17" s="674"/>
       <c r="S17" s="206"/>
       <c r="T17" s="208" t="s">
         <v>119</v>
@@ -15853,20 +15856,20 @@
       <c r="G18" s="188" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="679"/>
+      <c r="H18" s="662"/>
       <c r="J18" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="K18" s="656" t="s">
+      <c r="K18" s="678" t="s">
         <v>24</v>
       </c>
       <c r="M18" s="106"/>
       <c r="N18" s="120"/>
       <c r="O18" s="76"/>
-      <c r="P18" s="670" t="s">
+      <c r="P18" s="673" t="s">
         <v>35</v>
       </c>
-      <c r="Q18" s="671"/>
+      <c r="Q18" s="674"/>
       <c r="S18" s="206" t="s">
         <v>162</v>
       </c>
@@ -15880,11 +15883,11 @@
       <c r="G19" s="188" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="679"/>
+      <c r="H19" s="662"/>
       <c r="J19" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="K19" s="657"/>
+      <c r="K19" s="679"/>
       <c r="M19" s="106"/>
       <c r="N19" s="118"/>
       <c r="O19" s="76"/>
@@ -15901,18 +15904,18 @@
       <c r="G20" s="189" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="680"/>
+      <c r="H20" s="663"/>
       <c r="J20" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="K20" s="658"/>
+      <c r="K20" s="680"/>
       <c r="M20" s="106"/>
       <c r="N20" s="120"/>
-      <c r="O20" s="662" t="s">
+      <c r="O20" s="671" t="s">
         <v>134</v>
       </c>
-      <c r="P20" s="662"/>
-      <c r="Q20" s="663"/>
+      <c r="P20" s="671"/>
+      <c r="Q20" s="672"/>
       <c r="S20" s="206"/>
       <c r="T20" s="208" t="s">
         <v>77</v>
@@ -15941,10 +15944,10 @@
       <c r="M21" s="106"/>
       <c r="N21" s="119"/>
       <c r="O21" s="57"/>
-      <c r="P21" s="666" t="s">
+      <c r="P21" s="669" t="s">
         <v>88</v>
       </c>
-      <c r="Q21" s="667"/>
+      <c r="Q21" s="670"/>
       <c r="S21" s="206"/>
       <c r="T21" s="208" t="s">
         <v>78</v>
@@ -15956,7 +15959,7 @@
       <c r="G22" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="681" t="s">
+      <c r="H22" s="664" t="s">
         <v>30</v>
       </c>
       <c r="J22" s="145"/>
@@ -15981,7 +15984,7 @@
       <c r="G23" s="193" t="s">
         <v>149</v>
       </c>
-      <c r="H23" s="682"/>
+      <c r="H23" s="665"/>
       <c r="J23" s="145"/>
       <c r="K23" s="149"/>
       <c r="M23" s="113"/>
@@ -16002,9 +16005,9 @@
       <c r="G24" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="H24" s="683"/>
+      <c r="H24" s="666"/>
       <c r="J24" s="146"/>
-      <c r="K24" s="653"/>
+      <c r="K24" s="677"/>
       <c r="M24" s="113"/>
       <c r="N24" s="119"/>
       <c r="O24" s="57"/>
@@ -16029,7 +16032,7 @@
         <v>152</v>
       </c>
       <c r="J25" s="147"/>
-      <c r="K25" s="653"/>
+      <c r="K25" s="677"/>
       <c r="M25" s="113"/>
       <c r="N25" s="119"/>
       <c r="O25" s="57"/>
@@ -16047,14 +16050,14 @@
         <v>12</v>
       </c>
       <c r="J26" s="147"/>
-      <c r="K26" s="653"/>
+      <c r="K26" s="677"/>
       <c r="M26" s="113"/>
       <c r="N26" s="119"/>
       <c r="O26" s="57"/>
-      <c r="P26" s="666" t="s">
+      <c r="P26" s="669" t="s">
         <v>76</v>
       </c>
-      <c r="Q26" s="667"/>
+      <c r="Q26" s="670"/>
       <c r="S26" s="196">
         <v>3</v>
       </c>
@@ -16226,11 +16229,11 @@
       <c r="K36" s="148"/>
       <c r="M36" s="113"/>
       <c r="N36" s="119"/>
-      <c r="O36" s="664" t="s">
+      <c r="O36" s="675" t="s">
         <v>135</v>
       </c>
-      <c r="P36" s="664"/>
-      <c r="Q36" s="665"/>
+      <c r="P36" s="675"/>
+      <c r="Q36" s="676"/>
       <c r="S36" s="196">
         <v>7</v>
       </c>
@@ -16244,10 +16247,10 @@
       <c r="M37" s="113"/>
       <c r="N37" s="119"/>
       <c r="O37" s="109"/>
-      <c r="P37" s="666" t="s">
+      <c r="P37" s="669" t="s">
         <v>98</v>
       </c>
-      <c r="Q37" s="667"/>
+      <c r="Q37" s="670"/>
       <c r="T37" s="205" t="s">
         <v>23</v>
       </c>
@@ -16315,20 +16318,20 @@
         <v>19</v>
       </c>
       <c r="N43" s="120"/>
-      <c r="O43" s="662" t="s">
+      <c r="O43" s="671" t="s">
         <v>136</v>
       </c>
-      <c r="P43" s="662"/>
-      <c r="Q43" s="663"/>
+      <c r="P43" s="671"/>
+      <c r="Q43" s="672"/>
     </row>
     <row r="44" spans="6:20" ht="15.75" customHeight="1">
       <c r="M44" s="113"/>
       <c r="N44" s="119"/>
       <c r="O44" s="76"/>
-      <c r="P44" s="666" t="s">
+      <c r="P44" s="669" t="s">
         <v>74</v>
       </c>
-      <c r="Q44" s="667"/>
+      <c r="Q44" s="670"/>
     </row>
     <row r="45" spans="6:20" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="M45" s="106"/>
@@ -16370,10 +16373,10 @@
       <c r="M49" s="113"/>
       <c r="N49" s="119"/>
       <c r="O49" s="76"/>
-      <c r="P49" s="666" t="s">
+      <c r="P49" s="669" t="s">
         <v>76</v>
       </c>
-      <c r="Q49" s="667"/>
+      <c r="Q49" s="670"/>
     </row>
     <row r="50" spans="11:18" ht="15.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="M50" s="113"/>
@@ -16451,11 +16454,11 @@
         <v>3</v>
       </c>
       <c r="N58" s="126"/>
-      <c r="O58" s="662" t="s">
+      <c r="O58" s="671" t="s">
         <v>137</v>
       </c>
-      <c r="P58" s="662"/>
-      <c r="Q58" s="663"/>
+      <c r="P58" s="671"/>
+      <c r="Q58" s="672"/>
     </row>
     <row r="59" spans="11:18" ht="15.75" customHeight="1">
       <c r="M59" s="111"/>
@@ -16469,11 +16472,11 @@
         <v>62</v>
       </c>
       <c r="N60" s="123"/>
-      <c r="O60" s="662" t="s">
+      <c r="O60" s="671" t="s">
         <v>138</v>
       </c>
-      <c r="P60" s="662"/>
-      <c r="Q60" s="663"/>
+      <c r="P60" s="671"/>
+      <c r="Q60" s="672"/>
       <c r="R60" s="110"/>
     </row>
     <row r="61" spans="11:18" ht="18">
@@ -16531,11 +16534,21 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="H17:H20"/>
-    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="K14:K17"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="O36:Q36"/>
+    <mergeCell ref="O43:Q43"/>
+    <mergeCell ref="O58:Q58"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="O60:Q60"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="P26:Q26"/>
     <mergeCell ref="P8:Q8"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="O5:Q5"/>
@@ -16543,21 +16556,11 @@
     <mergeCell ref="P18:Q18"/>
     <mergeCell ref="O15:Q15"/>
     <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="O60:Q60"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="O36:Q36"/>
-    <mergeCell ref="O43:Q43"/>
-    <mergeCell ref="O58:Q58"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="K24:K26"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="K14:K17"/>
-    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="H22:H24"/>
   </mergeCells>
   <conditionalFormatting sqref="Q50:Q57 O60:O61 Q7 P37 Q45:Q48 Q22:Q25 Q19 Q38:Q41 P42 P44:P57 P21:P35 Q27:Q35 P6:P14 Q9:Q14 O5:O58 N20:N36 M22:M36 M16:M17 P17:P19 Q17 N7:N18 M7:M14">
     <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
@@ -16750,10 +16753,10 @@
         <v>167</v>
       </c>
       <c r="C2" s="241"/>
-      <c r="D2" s="684" t="s">
+      <c r="D2" s="688" t="s">
         <v>166</v>
       </c>
-      <c r="E2" s="685"/>
+      <c r="E2" s="689"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="15.75">
@@ -17732,18 +17735,18 @@
       <c r="F48" s="1"/>
     </row>
     <row r="49" spans="1:146" ht="39.75" thickBot="1">
-      <c r="A49" s="686" t="s">
+      <c r="A49" s="690" t="s">
         <v>197</v>
       </c>
-      <c r="B49" s="687"/>
-      <c r="C49" s="687"/>
-      <c r="D49" s="687"/>
-      <c r="E49" s="687"/>
-      <c r="F49" s="687"/>
-      <c r="G49" s="687"/>
-      <c r="H49" s="687"/>
-      <c r="I49" s="687"/>
-      <c r="J49" s="688"/>
+      <c r="B49" s="691"/>
+      <c r="C49" s="691"/>
+      <c r="D49" s="691"/>
+      <c r="E49" s="691"/>
+      <c r="F49" s="691"/>
+      <c r="G49" s="691"/>
+      <c r="H49" s="691"/>
+      <c r="I49" s="691"/>
+      <c r="J49" s="692"/>
       <c r="K49" s="644" t="s">
         <v>198</v>
       </c>
@@ -17886,16 +17889,16 @@
       <c r="EP49" s="259"/>
     </row>
     <row r="50" spans="1:146" ht="31.5">
-      <c r="A50" s="689" t="s">
+      <c r="A50" s="693" t="s">
         <v>200</v>
       </c>
-      <c r="B50" s="690"/>
-      <c r="C50" s="690"/>
-      <c r="D50" s="690"/>
-      <c r="E50" s="690"/>
-      <c r="F50" s="690"/>
-      <c r="G50" s="690"/>
-      <c r="H50" s="691"/>
+      <c r="B50" s="694"/>
+      <c r="C50" s="694"/>
+      <c r="D50" s="694"/>
+      <c r="E50" s="694"/>
+      <c r="F50" s="694"/>
+      <c r="G50" s="694"/>
+      <c r="H50" s="695"/>
       <c r="I50" s="638" t="s">
         <v>201</v>
       </c>
@@ -18066,8 +18069,8 @@
         <v>214</v>
       </c>
       <c r="B51" s="263"/>
-      <c r="C51" s="692"/>
-      <c r="D51" s="693"/>
+      <c r="C51" s="684"/>
+      <c r="D51" s="685"/>
       <c r="E51" s="263"/>
       <c r="F51" s="263"/>
       <c r="G51" s="263"/>
@@ -18282,10 +18285,10 @@
       <c r="B52" s="268" t="s">
         <v>218</v>
       </c>
-      <c r="C52" s="692" t="s">
+      <c r="C52" s="684" t="s">
         <v>218</v>
       </c>
-      <c r="D52" s="693"/>
+      <c r="D52" s="685"/>
       <c r="E52" s="268" t="s">
         <v>218</v>
       </c>
@@ -18574,10 +18577,10 @@
       <c r="B53" s="285" t="s">
         <v>220</v>
       </c>
-      <c r="C53" s="694" t="s">
+      <c r="C53" s="686" t="s">
         <v>221</v>
       </c>
-      <c r="D53" s="695"/>
+      <c r="D53" s="687"/>
       <c r="E53" s="285" t="s">
         <v>222</v>
       </c>
@@ -19224,11 +19227,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="DR50:DV50"/>
-    <mergeCell ref="DW50:EJ50"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C53:D53"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="A49:J49"/>
     <mergeCell ref="K49:DN49"/>
@@ -19245,6 +19243,11 @@
     <mergeCell ref="DA50:DI50"/>
     <mergeCell ref="DJ50:DN50"/>
     <mergeCell ref="DO50:DQ50"/>
+    <mergeCell ref="DR50:DV50"/>
+    <mergeCell ref="DW50:EJ50"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C53:D53"/>
   </mergeCells>
   <conditionalFormatting sqref="E34:E39 B26:C30 E29:E32 E15:E20 E10:E13">
     <cfRule type="cellIs" dxfId="6" priority="21" operator="equal">
@@ -19323,10 +19326,10 @@
       </c>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="598"/>
-      <c r="B2" s="599"/>
-      <c r="C2" s="599"/>
-      <c r="D2" s="599"/>
+      <c r="A2" s="610"/>
+      <c r="B2" s="611"/>
+      <c r="C2" s="611"/>
+      <c r="D2" s="611"/>
       <c r="E2" s="58" t="s">
         <v>51</v>
       </c>
@@ -19351,11 +19354,11 @@
       <c r="M2" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="N2" s="599" t="s">
+      <c r="N2" s="611" t="s">
         <v>57</v>
       </c>
-      <c r="O2" s="599"/>
-      <c r="P2" s="606"/>
+      <c r="O2" s="611"/>
+      <c r="P2" s="612"/>
       <c r="Q2" s="61" t="s">
         <v>59</v>
       </c>
@@ -19367,7 +19370,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A3" s="600" t="s">
+      <c r="A3" s="598" t="s">
         <v>358</v>
       </c>
       <c r="B3" s="157" t="s">
@@ -19391,7 +19394,7 @@
       <c r="S3" s="52"/>
     </row>
     <row r="4" spans="1:19" ht="15">
-      <c r="A4" s="601"/>
+      <c r="A4" s="599"/>
       <c r="B4" s="74"/>
       <c r="C4" s="163" t="s">
         <v>116</v>
@@ -19413,7 +19416,7 @@
       <c r="S4" s="52"/>
     </row>
     <row r="5" spans="1:19" ht="15">
-      <c r="A5" s="601"/>
+      <c r="A5" s="599"/>
       <c r="B5" s="74"/>
       <c r="D5" s="85" t="s">
         <v>81</v>
@@ -19440,17 +19443,17 @@
         <v>91</v>
       </c>
       <c r="M5" s="73"/>
-      <c r="N5" s="603" t="s">
+      <c r="N5" s="601" t="s">
         <v>91</v>
       </c>
-      <c r="O5" s="604"/>
-      <c r="P5" s="605"/>
+      <c r="O5" s="602"/>
+      <c r="P5" s="603"/>
       <c r="Q5" s="73"/>
       <c r="R5" s="73"/>
       <c r="S5" s="52"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="601"/>
+      <c r="A6" s="599"/>
       <c r="B6" s="73"/>
       <c r="C6" s="164" t="s">
         <v>117</v>
@@ -19473,7 +19476,7 @@
       <c r="S6" s="52"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="601"/>
+      <c r="A7" s="599"/>
       <c r="B7" s="73"/>
       <c r="C7" s="164"/>
       <c r="D7" s="85" t="s">
@@ -19502,17 +19505,17 @@
       </c>
       <c r="L7" s="76"/>
       <c r="M7" s="73"/>
-      <c r="N7" s="603" t="s">
+      <c r="N7" s="601" t="s">
         <v>91</v>
       </c>
-      <c r="O7" s="604"/>
-      <c r="P7" s="605"/>
+      <c r="O7" s="602"/>
+      <c r="P7" s="603"/>
       <c r="Q7" s="73"/>
       <c r="R7" s="73"/>
       <c r="S7" s="52"/>
     </row>
     <row r="8" spans="1:19" ht="15.75">
-      <c r="A8" s="600" t="s">
+      <c r="A8" s="598" t="s">
         <v>359</v>
       </c>
       <c r="B8" s="157" t="s">
@@ -19537,7 +19540,7 @@
       <c r="S8" s="172"/>
     </row>
     <row r="9" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A9" s="601"/>
+      <c r="A9" s="599"/>
       <c r="B9" s="73"/>
       <c r="C9" s="166" t="s">
         <v>71</v>
@@ -19566,17 +19569,17 @@
       </c>
       <c r="L9" s="76"/>
       <c r="M9" s="73"/>
-      <c r="N9" s="603" t="s">
+      <c r="N9" s="601" t="s">
         <v>96</v>
       </c>
-      <c r="O9" s="604"/>
-      <c r="P9" s="605"/>
+      <c r="O9" s="602"/>
+      <c r="P9" s="603"/>
       <c r="Q9" s="73"/>
       <c r="R9" s="73"/>
       <c r="S9" s="52"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="601"/>
+      <c r="A10" s="599"/>
       <c r="B10" s="73"/>
       <c r="C10" s="165" t="s">
         <v>3</v>
@@ -19605,17 +19608,17 @@
       </c>
       <c r="L10" s="76"/>
       <c r="M10" s="73"/>
-      <c r="N10" s="603" t="s">
-        <v>63</v>
-      </c>
-      <c r="O10" s="604"/>
-      <c r="P10" s="605"/>
+      <c r="N10" s="601" t="s">
+        <v>63</v>
+      </c>
+      <c r="O10" s="602"/>
+      <c r="P10" s="603"/>
       <c r="Q10" s="73"/>
       <c r="R10" s="73"/>
       <c r="S10" s="52"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="601"/>
+      <c r="A11" s="599"/>
       <c r="B11" s="73"/>
       <c r="C11" s="165" t="s">
         <v>35</v>
@@ -19644,17 +19647,17 @@
       </c>
       <c r="L11" s="76"/>
       <c r="M11" s="73"/>
-      <c r="N11" s="603" t="s">
-        <v>63</v>
-      </c>
-      <c r="O11" s="604"/>
-      <c r="P11" s="605"/>
+      <c r="N11" s="601" t="s">
+        <v>63</v>
+      </c>
+      <c r="O11" s="602"/>
+      <c r="P11" s="603"/>
       <c r="Q11" s="73"/>
       <c r="R11" s="73"/>
       <c r="S11" s="52"/>
     </row>
     <row r="12" spans="1:19" ht="15.75">
-      <c r="A12" s="601"/>
+      <c r="A12" s="599"/>
       <c r="B12" s="158" t="s">
         <v>127</v>
       </c>
@@ -19677,7 +19680,7 @@
       <c r="S12" s="52"/>
     </row>
     <row r="13" spans="1:19" ht="15">
-      <c r="A13" s="601"/>
+      <c r="A13" s="599"/>
       <c r="B13" s="74"/>
       <c r="C13" s="165" t="s">
         <v>88</v>
@@ -19700,7 +19703,7 @@
       <c r="S13" s="52"/>
     </row>
     <row r="14" spans="1:19" ht="15">
-      <c r="A14" s="601"/>
+      <c r="A14" s="599"/>
       <c r="B14" s="74"/>
       <c r="C14" s="165"/>
       <c r="D14" s="53" t="s">
@@ -19729,17 +19732,17 @@
       </c>
       <c r="L14" s="76"/>
       <c r="M14" s="73"/>
-      <c r="N14" s="603" t="s">
-        <v>63</v>
-      </c>
-      <c r="O14" s="604"/>
-      <c r="P14" s="605"/>
+      <c r="N14" s="601" t="s">
+        <v>63</v>
+      </c>
+      <c r="O14" s="602"/>
+      <c r="P14" s="603"/>
       <c r="Q14" s="73"/>
       <c r="R14" s="73"/>
       <c r="S14" s="52"/>
     </row>
     <row r="15" spans="1:19" ht="15">
-      <c r="A15" s="601"/>
+      <c r="A15" s="599"/>
       <c r="B15" s="74"/>
       <c r="C15" s="163"/>
       <c r="D15" s="53" t="s">
@@ -19768,17 +19771,17 @@
       </c>
       <c r="L15" s="76"/>
       <c r="M15" s="73"/>
-      <c r="N15" s="603" t="s">
-        <v>63</v>
-      </c>
-      <c r="O15" s="604"/>
-      <c r="P15" s="605"/>
+      <c r="N15" s="601" t="s">
+        <v>63</v>
+      </c>
+      <c r="O15" s="602"/>
+      <c r="P15" s="603"/>
       <c r="Q15" s="73"/>
       <c r="R15" s="73"/>
       <c r="S15" s="52"/>
     </row>
     <row r="16" spans="1:19" ht="15">
-      <c r="A16" s="601"/>
+      <c r="A16" s="599"/>
       <c r="B16" s="74"/>
       <c r="C16" s="163"/>
       <c r="D16" s="53" t="s">
@@ -19803,17 +19806,17 @@
       </c>
       <c r="L16" s="76"/>
       <c r="M16" s="73"/>
-      <c r="N16" s="603" t="s">
-        <v>63</v>
-      </c>
-      <c r="O16" s="604"/>
-      <c r="P16" s="605"/>
+      <c r="N16" s="601" t="s">
+        <v>63</v>
+      </c>
+      <c r="O16" s="602"/>
+      <c r="P16" s="603"/>
       <c r="Q16" s="73"/>
       <c r="R16" s="73"/>
       <c r="S16" s="52"/>
     </row>
     <row r="17" spans="1:19" ht="15">
-      <c r="A17" s="601"/>
+      <c r="A17" s="599"/>
       <c r="B17" s="74"/>
       <c r="C17" s="163"/>
       <c r="D17" s="53" t="s">
@@ -19838,17 +19841,17 @@
       </c>
       <c r="L17" s="76"/>
       <c r="M17" s="73"/>
-      <c r="N17" s="603" t="s">
-        <v>63</v>
-      </c>
-      <c r="O17" s="604"/>
-      <c r="P17" s="605"/>
+      <c r="N17" s="601" t="s">
+        <v>63</v>
+      </c>
+      <c r="O17" s="602"/>
+      <c r="P17" s="603"/>
       <c r="Q17" s="73"/>
       <c r="R17" s="73"/>
       <c r="S17" s="52"/>
     </row>
     <row r="18" spans="1:19" ht="15">
-      <c r="A18" s="601"/>
+      <c r="A18" s="599"/>
       <c r="B18" s="74"/>
       <c r="C18" s="165" t="s">
         <v>76</v>
@@ -19871,7 +19874,7 @@
       <c r="S18" s="52"/>
     </row>
     <row r="19" spans="1:19" ht="15">
-      <c r="A19" s="601"/>
+      <c r="A19" s="599"/>
       <c r="B19" s="74"/>
       <c r="C19" s="165"/>
       <c r="D19" s="53" t="s">
@@ -19896,17 +19899,17 @@
       <c r="K19" s="70"/>
       <c r="L19" s="76"/>
       <c r="M19" s="73"/>
-      <c r="N19" s="603" t="s">
+      <c r="N19" s="601" t="s">
         <v>91</v>
       </c>
-      <c r="O19" s="604"/>
-      <c r="P19" s="605"/>
+      <c r="O19" s="602"/>
+      <c r="P19" s="603"/>
       <c r="Q19" s="73"/>
       <c r="R19" s="73"/>
       <c r="S19" s="52"/>
     </row>
     <row r="20" spans="1:19" ht="15">
-      <c r="A20" s="601"/>
+      <c r="A20" s="599"/>
       <c r="B20" s="74"/>
       <c r="C20" s="163"/>
       <c r="D20" s="53" t="s">
@@ -19931,17 +19934,17 @@
       <c r="K20" s="70"/>
       <c r="L20" s="76"/>
       <c r="M20" s="73"/>
-      <c r="N20" s="603" t="s">
+      <c r="N20" s="601" t="s">
         <v>91</v>
       </c>
-      <c r="O20" s="604"/>
-      <c r="P20" s="605"/>
+      <c r="O20" s="602"/>
+      <c r="P20" s="603"/>
       <c r="Q20" s="73"/>
       <c r="R20" s="73"/>
       <c r="S20" s="52"/>
     </row>
     <row r="21" spans="1:19" ht="15">
-      <c r="A21" s="601"/>
+      <c r="A21" s="599"/>
       <c r="B21" s="74"/>
       <c r="C21" s="163"/>
       <c r="D21" s="53" t="s">
@@ -19966,17 +19969,17 @@
       <c r="K21" s="70"/>
       <c r="L21" s="76"/>
       <c r="M21" s="73"/>
-      <c r="N21" s="603" t="s">
+      <c r="N21" s="601" t="s">
         <v>91</v>
       </c>
-      <c r="O21" s="604"/>
-      <c r="P21" s="605"/>
+      <c r="O21" s="602"/>
+      <c r="P21" s="603"/>
       <c r="Q21" s="73"/>
       <c r="R21" s="73"/>
       <c r="S21" s="52"/>
     </row>
     <row r="22" spans="1:19" ht="15">
-      <c r="A22" s="601"/>
+      <c r="A22" s="599"/>
       <c r="B22" s="74"/>
       <c r="C22" s="41"/>
       <c r="D22" s="53" t="s">
@@ -20001,17 +20004,17 @@
       <c r="K22" s="70"/>
       <c r="L22" s="76"/>
       <c r="M22" s="73"/>
-      <c r="N22" s="603" t="s">
+      <c r="N22" s="601" t="s">
         <v>91</v>
       </c>
-      <c r="O22" s="604"/>
-      <c r="P22" s="605"/>
+      <c r="O22" s="602"/>
+      <c r="P22" s="603"/>
       <c r="Q22" s="73"/>
       <c r="R22" s="73"/>
       <c r="S22" s="52"/>
     </row>
     <row r="23" spans="1:19" ht="15">
-      <c r="A23" s="601"/>
+      <c r="A23" s="599"/>
       <c r="B23" s="74"/>
       <c r="C23" s="41"/>
       <c r="D23" s="53" t="s">
@@ -20036,17 +20039,17 @@
       <c r="K23" s="70"/>
       <c r="L23" s="76"/>
       <c r="M23" s="73"/>
-      <c r="N23" s="603" t="s">
+      <c r="N23" s="601" t="s">
         <v>91</v>
       </c>
-      <c r="O23" s="604"/>
-      <c r="P23" s="605"/>
+      <c r="O23" s="602"/>
+      <c r="P23" s="603"/>
       <c r="Q23" s="73"/>
       <c r="R23" s="73"/>
       <c r="S23" s="52"/>
     </row>
     <row r="24" spans="1:19" ht="15">
-      <c r="A24" s="602"/>
+      <c r="A24" s="600"/>
       <c r="B24" s="79"/>
       <c r="C24" s="161"/>
       <c r="D24" s="81" t="s">
@@ -20071,17 +20074,17 @@
       <c r="K24" s="81"/>
       <c r="L24" s="76"/>
       <c r="M24" s="81"/>
-      <c r="N24" s="610" t="s">
+      <c r="N24" s="604" t="s">
         <v>91</v>
       </c>
-      <c r="O24" s="611"/>
-      <c r="P24" s="612"/>
+      <c r="O24" s="605"/>
+      <c r="P24" s="606"/>
       <c r="Q24" s="81"/>
       <c r="R24" s="81"/>
       <c r="S24" s="160"/>
     </row>
     <row r="25" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A25" s="600" t="s">
+      <c r="A25" s="598" t="s">
         <v>360</v>
       </c>
       <c r="B25" s="175" t="s">
@@ -20116,7 +20119,7 @@
       <c r="S25" s="172"/>
     </row>
     <row r="26" spans="1:19" ht="15.75">
-      <c r="A26" s="601"/>
+      <c r="A26" s="599"/>
       <c r="B26" s="158" t="s">
         <v>129</v>
       </c>
@@ -20139,7 +20142,7 @@
       <c r="S26" s="52"/>
     </row>
     <row r="27" spans="1:19" ht="15">
-      <c r="A27" s="601"/>
+      <c r="A27" s="599"/>
       <c r="B27" s="73"/>
       <c r="C27" s="124" t="s">
         <v>74</v>
@@ -20162,7 +20165,7 @@
       <c r="S27" s="52"/>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="601"/>
+      <c r="A28" s="599"/>
       <c r="B28" s="73"/>
       <c r="C28" s="124"/>
       <c r="D28" s="73" t="s">
@@ -20181,17 +20184,17 @@
       <c r="K28" s="70"/>
       <c r="L28" s="76"/>
       <c r="M28" s="73"/>
-      <c r="N28" s="603" t="s">
-        <v>63</v>
-      </c>
-      <c r="O28" s="604"/>
-      <c r="P28" s="605"/>
+      <c r="N28" s="601" t="s">
+        <v>63</v>
+      </c>
+      <c r="O28" s="602"/>
+      <c r="P28" s="603"/>
       <c r="Q28" s="73"/>
       <c r="R28" s="73"/>
       <c r="S28" s="52"/>
     </row>
     <row r="29" spans="1:19">
-      <c r="A29" s="601"/>
+      <c r="A29" s="599"/>
       <c r="B29" s="73"/>
       <c r="C29" s="52"/>
       <c r="D29" s="53" t="s">
@@ -20212,17 +20215,17 @@
       <c r="K29" s="70"/>
       <c r="L29" s="76"/>
       <c r="M29" s="73"/>
-      <c r="N29" s="603" t="s">
-        <v>63</v>
-      </c>
-      <c r="O29" s="604"/>
-      <c r="P29" s="605"/>
+      <c r="N29" s="601" t="s">
+        <v>63</v>
+      </c>
+      <c r="O29" s="602"/>
+      <c r="P29" s="603"/>
       <c r="Q29" s="73"/>
       <c r="R29" s="73"/>
       <c r="S29" s="52"/>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" s="601"/>
+      <c r="A30" s="599"/>
       <c r="B30" s="73"/>
       <c r="C30" s="52"/>
       <c r="D30" s="53" t="s">
@@ -20239,15 +20242,15 @@
       <c r="K30" s="70"/>
       <c r="L30" s="76"/>
       <c r="M30" s="73"/>
-      <c r="N30" s="603"/>
-      <c r="O30" s="604"/>
-      <c r="P30" s="605"/>
+      <c r="N30" s="601"/>
+      <c r="O30" s="602"/>
+      <c r="P30" s="603"/>
       <c r="Q30" s="73"/>
       <c r="R30" s="73"/>
       <c r="S30" s="52"/>
     </row>
     <row r="31" spans="1:19">
-      <c r="A31" s="601"/>
+      <c r="A31" s="599"/>
       <c r="B31" s="73"/>
       <c r="C31" s="52"/>
       <c r="D31" s="53" t="s">
@@ -20264,15 +20267,15 @@
       <c r="K31" s="70"/>
       <c r="L31" s="76"/>
       <c r="M31" s="73"/>
-      <c r="N31" s="603"/>
-      <c r="O31" s="604"/>
-      <c r="P31" s="605"/>
+      <c r="N31" s="601"/>
+      <c r="O31" s="602"/>
+      <c r="P31" s="603"/>
       <c r="Q31" s="73"/>
       <c r="R31" s="73"/>
       <c r="S31" s="52"/>
     </row>
     <row r="32" spans="1:19" ht="15">
-      <c r="A32" s="601"/>
+      <c r="A32" s="599"/>
       <c r="B32" s="73"/>
       <c r="C32" s="124" t="s">
         <v>76</v>
@@ -20295,7 +20298,7 @@
       <c r="S32" s="52"/>
     </row>
     <row r="33" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A33" s="601"/>
+      <c r="A33" s="599"/>
       <c r="B33" s="73"/>
       <c r="C33" s="124"/>
       <c r="D33" s="73" t="s">
@@ -20326,7 +20329,7 @@
       <c r="S33" s="52"/>
     </row>
     <row r="34" spans="1:19">
-      <c r="A34" s="601"/>
+      <c r="A34" s="599"/>
       <c r="B34" s="73"/>
       <c r="C34" s="52"/>
       <c r="D34" s="53" t="s">
@@ -20357,7 +20360,7 @@
       <c r="S34" s="52"/>
     </row>
     <row r="35" spans="1:19">
-      <c r="A35" s="601"/>
+      <c r="A35" s="599"/>
       <c r="B35" s="73"/>
       <c r="C35" s="52"/>
       <c r="D35" s="53" t="s">
@@ -20388,7 +20391,7 @@
       <c r="S35" s="52"/>
     </row>
     <row r="36" spans="1:19" ht="15">
-      <c r="A36" s="601"/>
+      <c r="A36" s="599"/>
       <c r="B36" s="73"/>
       <c r="C36" s="46"/>
       <c r="D36" s="53" t="s">
@@ -20419,7 +20422,7 @@
       <c r="S36" s="52"/>
     </row>
     <row r="37" spans="1:19">
-      <c r="A37" s="602"/>
+      <c r="A37" s="600"/>
       <c r="B37" s="73"/>
       <c r="C37" s="52"/>
       <c r="D37" s="53" t="s">
@@ -20679,16 +20682,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A24"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="N28:P28"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A25:A37"/>
     <mergeCell ref="N20:P20"/>
@@ -20705,6 +20698,16 @@
     <mergeCell ref="N17:P17"/>
     <mergeCell ref="N31:P31"/>
     <mergeCell ref="N21:P21"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A24"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="N28:P28"/>
   </mergeCells>
   <conditionalFormatting sqref="E12:E22 E25:K38 E23:K23 F24:H24 E10 F8:K8 F10:K22 E7:K7 E5:K5">
     <cfRule type="cellIs" dxfId="77" priority="17" operator="equal">
@@ -24402,7 +24405,7 @@
       <c r="FA11" s="320"/>
     </row>
     <row r="12" spans="1:157" ht="15.75" customHeight="1">
-      <c r="A12" s="601" t="s">
+      <c r="A12" s="599" t="s">
         <v>358</v>
       </c>
       <c r="B12" s="426" t="s">
@@ -24564,7 +24567,7 @@
       <c r="EZ12" s="160"/>
     </row>
     <row r="13" spans="1:157" ht="15" customHeight="1">
-      <c r="A13" s="601"/>
+      <c r="A13" s="599"/>
       <c r="B13" s="74"/>
       <c r="C13" s="163" t="s">
         <v>116</v>
@@ -24635,7 +24638,7 @@
       <c r="BO13" s="353"/>
     </row>
     <row r="14" spans="1:157" ht="15" customHeight="1">
-      <c r="A14" s="601"/>
+      <c r="A14" s="599"/>
       <c r="B14" s="74"/>
       <c r="D14" s="85" t="s">
         <v>81</v>
@@ -25101,7 +25104,7 @@
       </c>
     </row>
     <row r="15" spans="1:157" ht="15" customHeight="1">
-      <c r="A15" s="601"/>
+      <c r="A15" s="599"/>
       <c r="B15" s="73"/>
       <c r="C15" s="164" t="s">
         <v>117</v>
@@ -25172,7 +25175,7 @@
       <c r="BO15" s="353"/>
     </row>
     <row r="16" spans="1:157">
-      <c r="A16" s="601"/>
+      <c r="A16" s="599"/>
       <c r="B16" s="73"/>
       <c r="C16" s="164"/>
       <c r="D16" s="85" t="s">
@@ -25639,7 +25642,7 @@
       </c>
     </row>
     <row r="17" spans="1:157" ht="15.75">
-      <c r="A17" s="600" t="s">
+      <c r="A17" s="598" t="s">
         <v>359</v>
       </c>
       <c r="B17" s="157" t="s">
@@ -25712,7 +25715,7 @@
       <c r="BO17" s="353"/>
     </row>
     <row r="18" spans="1:157" ht="15.75" customHeight="1">
-      <c r="A18" s="601"/>
+      <c r="A18" s="599"/>
       <c r="B18" s="73"/>
       <c r="C18" s="166" t="s">
         <v>71</v>
@@ -26179,7 +26182,7 @@
       </c>
     </row>
     <row r="19" spans="1:157">
-      <c r="A19" s="601"/>
+      <c r="A19" s="599"/>
       <c r="B19" s="73"/>
       <c r="C19" s="165" t="s">
         <v>3</v>
@@ -26646,7 +26649,7 @@
       </c>
     </row>
     <row r="20" spans="1:157">
-      <c r="A20" s="601"/>
+      <c r="A20" s="599"/>
       <c r="B20" s="73"/>
       <c r="C20" s="165" t="s">
         <v>35</v>
@@ -27113,7 +27116,7 @@
       </c>
     </row>
     <row r="21" spans="1:157" ht="15.75">
-      <c r="A21" s="601"/>
+      <c r="A21" s="599"/>
       <c r="B21" s="158" t="s">
         <v>127</v>
       </c>
@@ -27184,7 +27187,7 @@
       <c r="BO21" s="353"/>
     </row>
     <row r="22" spans="1:157" ht="15">
-      <c r="A22" s="601"/>
+      <c r="A22" s="599"/>
       <c r="B22" s="74"/>
       <c r="C22" s="165" t="s">
         <v>88</v>
@@ -27255,7 +27258,7 @@
       <c r="BO22" s="353"/>
     </row>
     <row r="23" spans="1:157" ht="15">
-      <c r="A23" s="601"/>
+      <c r="A23" s="599"/>
       <c r="B23" s="74"/>
       <c r="C23" s="165"/>
       <c r="D23" s="53" t="s">
@@ -27722,7 +27725,7 @@
       </c>
     </row>
     <row r="24" spans="1:157" ht="15">
-      <c r="A24" s="601"/>
+      <c r="A24" s="599"/>
       <c r="B24" s="74"/>
       <c r="C24" s="163"/>
       <c r="D24" s="53" t="s">
@@ -28189,7 +28192,7 @@
       </c>
     </row>
     <row r="25" spans="1:157" ht="15">
-      <c r="A25" s="601"/>
+      <c r="A25" s="599"/>
       <c r="B25" s="74"/>
       <c r="C25" s="163"/>
       <c r="D25" s="53" t="s">
@@ -28656,7 +28659,7 @@
       </c>
     </row>
     <row r="26" spans="1:157" ht="15">
-      <c r="A26" s="601"/>
+      <c r="A26" s="599"/>
       <c r="B26" s="74"/>
       <c r="C26" s="163"/>
       <c r="D26" s="53" t="s">
@@ -29123,7 +29126,7 @@
       </c>
     </row>
     <row r="27" spans="1:157" ht="15">
-      <c r="A27" s="601"/>
+      <c r="A27" s="599"/>
       <c r="B27" s="74"/>
       <c r="C27" s="165" t="s">
         <v>76</v>
@@ -29194,7 +29197,7 @@
       <c r="BO27" s="353"/>
     </row>
     <row r="28" spans="1:157" ht="15">
-      <c r="A28" s="601"/>
+      <c r="A28" s="599"/>
       <c r="B28" s="74"/>
       <c r="C28" s="165"/>
       <c r="D28" s="53" t="s">
@@ -29661,7 +29664,7 @@
       </c>
     </row>
     <row r="29" spans="1:157" ht="15">
-      <c r="A29" s="601"/>
+      <c r="A29" s="599"/>
       <c r="B29" s="74"/>
       <c r="C29" s="163"/>
       <c r="D29" s="53" t="s">
@@ -29753,7 +29756,7 @@
       <c r="BO29" s="353"/>
     </row>
     <row r="30" spans="1:157" ht="15">
-      <c r="A30" s="601"/>
+      <c r="A30" s="599"/>
       <c r="B30" s="74"/>
       <c r="C30" s="163"/>
       <c r="D30" s="53" t="s">
@@ -29845,7 +29848,7 @@
       <c r="BO30" s="353"/>
     </row>
     <row r="31" spans="1:157" ht="15">
-      <c r="A31" s="601"/>
+      <c r="A31" s="599"/>
       <c r="B31" s="74"/>
       <c r="C31" s="41"/>
       <c r="D31" s="53" t="s">
@@ -29937,7 +29940,7 @@
       <c r="BO31" s="353"/>
     </row>
     <row r="32" spans="1:157" ht="15">
-      <c r="A32" s="601"/>
+      <c r="A32" s="599"/>
       <c r="B32" s="74"/>
       <c r="C32" s="41"/>
       <c r="D32" s="53" t="s">
@@ -30405,7 +30408,7 @@
       <c r="FA32" s="353"/>
     </row>
     <row r="33" spans="1:156" ht="15">
-      <c r="A33" s="602"/>
+      <c r="A33" s="600"/>
       <c r="B33" s="79"/>
       <c r="C33" s="161"/>
       <c r="D33" s="81"/>
@@ -30870,7 +30873,7 @@
       </c>
     </row>
     <row r="34" spans="1:156" ht="15.75" customHeight="1">
-      <c r="A34" s="600" t="s">
+      <c r="A34" s="598" t="s">
         <v>360</v>
       </c>
       <c r="B34" s="175" t="s">
@@ -31341,7 +31344,7 @@
       </c>
     </row>
     <row r="35" spans="1:156" ht="15.75">
-      <c r="A35" s="601"/>
+      <c r="A35" s="599"/>
       <c r="B35" s="158" t="s">
         <v>129</v>
       </c>
@@ -31412,7 +31415,7 @@
       <c r="BO35" s="353"/>
     </row>
     <row r="36" spans="1:156" ht="15">
-      <c r="A36" s="601"/>
+      <c r="A36" s="599"/>
       <c r="B36" s="73"/>
       <c r="C36" s="124" t="s">
         <v>74</v>
@@ -31483,7 +31486,7 @@
       <c r="BO36" s="353"/>
     </row>
     <row r="37" spans="1:156">
-      <c r="A37" s="601"/>
+      <c r="A37" s="599"/>
       <c r="B37" s="73"/>
       <c r="C37" s="124"/>
       <c r="D37" s="73" t="s">
@@ -31950,7 +31953,7 @@
       </c>
     </row>
     <row r="38" spans="1:156">
-      <c r="A38" s="601"/>
+      <c r="A38" s="599"/>
       <c r="B38" s="73"/>
       <c r="C38" s="52"/>
       <c r="D38" s="53" t="s">
@@ -32043,7 +32046,7 @@
       </c>
     </row>
     <row r="39" spans="1:156">
-      <c r="A39" s="601"/>
+      <c r="A39" s="599"/>
       <c r="B39" s="73"/>
       <c r="C39" s="52"/>
       <c r="D39" s="53" t="s">
@@ -32510,7 +32513,7 @@
       </c>
     </row>
     <row r="40" spans="1:156">
-      <c r="A40" s="601"/>
+      <c r="A40" s="599"/>
       <c r="B40" s="73"/>
       <c r="C40" s="52"/>
       <c r="D40" s="53" t="s">
@@ -32977,7 +32980,7 @@
       </c>
     </row>
     <row r="41" spans="1:156" ht="15">
-      <c r="A41" s="601"/>
+      <c r="A41" s="599"/>
       <c r="B41" s="73"/>
       <c r="C41" s="124" t="s">
         <v>76</v>
@@ -33048,7 +33051,7 @@
       <c r="BO41" s="353"/>
     </row>
     <row r="42" spans="1:156" ht="15.75" customHeight="1">
-      <c r="A42" s="601"/>
+      <c r="A42" s="599"/>
       <c r="B42" s="73"/>
       <c r="C42" s="124"/>
       <c r="D42" s="73" t="s">
@@ -33515,7 +33518,7 @@
       </c>
     </row>
     <row r="43" spans="1:156">
-      <c r="A43" s="601"/>
+      <c r="A43" s="599"/>
       <c r="B43" s="73"/>
       <c r="C43" s="52"/>
       <c r="D43" s="53" t="s">
@@ -33982,7 +33985,7 @@
       </c>
     </row>
     <row r="44" spans="1:156">
-      <c r="A44" s="601"/>
+      <c r="A44" s="599"/>
       <c r="B44" s="73"/>
       <c r="C44" s="52"/>
       <c r="D44" s="53" t="s">
@@ -34078,7 +34081,7 @@
       </c>
     </row>
     <row r="45" spans="1:156" ht="15">
-      <c r="A45" s="601"/>
+      <c r="A45" s="599"/>
       <c r="B45" s="73"/>
       <c r="C45" s="46"/>
       <c r="D45" s="53" t="s">
@@ -34174,7 +34177,7 @@
       </c>
     </row>
     <row r="46" spans="1:156">
-      <c r="A46" s="602"/>
+      <c r="A46" s="600"/>
       <c r="B46" s="73"/>
       <c r="C46" s="52"/>
       <c r="D46" s="53" t="s">
@@ -42292,8 +42295,8 @@
   </sheetPr>
   <dimension ref="A1:H209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -42338,7 +42341,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="570" t="s">
-        <v>3</v>
+        <v>1000</v>
       </c>
       <c r="D2" s="579" t="s">
         <v>564</v>
@@ -42347,9 +42350,9 @@
       <c r="G2" s="590" t="s">
         <v>983</v>
       </c>
-      <c r="H2" s="562" t="str">
+      <c r="H2" s="562" t="e">
         <f>VLOOKUP(C2,sup_hiperlinks!$E$10:$G$39,3,0)</f>
-        <v>http://minutapiuriobranco.gestaourbana.prefeitura.sp.gov.br/wp-content/uploads/2016/04/PIU_RioBranco_ConsultaPublica_V03.pdf</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="552" customFormat="1">
@@ -45752,10 +45755,10 @@
       <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="598"/>
-      <c r="B2" s="599"/>
-      <c r="C2" s="599"/>
-      <c r="D2" s="599"/>
+      <c r="A2" s="610"/>
+      <c r="B2" s="611"/>
+      <c r="C2" s="611"/>
+      <c r="D2" s="611"/>
       <c r="E2" s="58" t="s">
         <v>51</v>
       </c>
@@ -46681,18 +46684,18 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="598"/>
-      <c r="B3" s="599"/>
-      <c r="C3" s="599"/>
-      <c r="D3" s="599"/>
+      <c r="A3" s="610"/>
+      <c r="B3" s="611"/>
+      <c r="C3" s="611"/>
+      <c r="D3" s="611"/>
       <c r="E3" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="598" t="s">
+      <c r="F3" s="610" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="599"/>
-      <c r="H3" s="606"/>
+      <c r="G3" s="611"/>
+      <c r="H3" s="612"/>
       <c r="I3" s="61" t="s">
         <v>59</v>
       </c>
@@ -46728,11 +46731,11 @@
       </c>
       <c r="D5" s="74"/>
       <c r="E5" s="91"/>
-      <c r="F5" s="622" t="s">
+      <c r="F5" s="631" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="623"/>
-      <c r="H5" s="624"/>
+      <c r="G5" s="632"/>
+      <c r="H5" s="633"/>
       <c r="I5" s="91"/>
       <c r="J5" s="65"/>
       <c r="K5" s="65"/>
@@ -46745,11 +46748,11 @@
       </c>
       <c r="D6" s="92"/>
       <c r="E6" s="91"/>
-      <c r="F6" s="622" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="623"/>
-      <c r="H6" s="624"/>
+      <c r="F6" s="631" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="632"/>
+      <c r="H6" s="633"/>
       <c r="I6" s="91"/>
       <c r="J6" s="65"/>
       <c r="K6" s="65"/>
@@ -46762,11 +46765,11 @@
       </c>
       <c r="D7" s="75"/>
       <c r="E7" s="91"/>
-      <c r="F7" s="622" t="s">
+      <c r="F7" s="631" t="s">
         <v>96</v>
       </c>
-      <c r="G7" s="623"/>
-      <c r="H7" s="624"/>
+      <c r="G7" s="632"/>
+      <c r="H7" s="633"/>
       <c r="I7" s="91"/>
       <c r="J7" s="65"/>
       <c r="K7" s="65"/>
@@ -46779,11 +46782,11 @@
       </c>
       <c r="D8" s="75"/>
       <c r="E8" s="91"/>
-      <c r="F8" s="622" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" s="623"/>
-      <c r="H8" s="624"/>
+      <c r="F8" s="631" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="632"/>
+      <c r="H8" s="633"/>
       <c r="I8" s="91"/>
       <c r="J8" s="65"/>
       <c r="K8" s="65"/>
@@ -46796,11 +46799,11 @@
         <v>103</v>
       </c>
       <c r="E9" s="91"/>
-      <c r="F9" s="622" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" s="623"/>
-      <c r="H9" s="624"/>
+      <c r="F9" s="631" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="632"/>
+      <c r="H9" s="633"/>
       <c r="I9" s="91"/>
       <c r="J9" s="65"/>
       <c r="K9" s="65"/>
@@ -46843,11 +46846,11 @@
         <v>100</v>
       </c>
       <c r="E12" s="91"/>
-      <c r="F12" s="622" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="623"/>
-      <c r="H12" s="624"/>
+      <c r="F12" s="631" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="632"/>
+      <c r="H12" s="633"/>
       <c r="I12" s="91"/>
       <c r="J12" s="65"/>
       <c r="K12" s="65"/>
@@ -46860,11 +46863,11 @@
         <v>75</v>
       </c>
       <c r="E13" s="91"/>
-      <c r="F13" s="622" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="623"/>
-      <c r="H13" s="624"/>
+      <c r="F13" s="631" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="632"/>
+      <c r="H13" s="633"/>
       <c r="I13" s="91"/>
       <c r="J13" s="65"/>
       <c r="K13" s="65"/>
@@ -46877,11 +46880,11 @@
         <v>73</v>
       </c>
       <c r="E14" s="91"/>
-      <c r="F14" s="622" t="s">
-        <v>63</v>
-      </c>
-      <c r="G14" s="623"/>
-      <c r="H14" s="624"/>
+      <c r="F14" s="631" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="632"/>
+      <c r="H14" s="633"/>
       <c r="I14" s="91"/>
       <c r="J14" s="65"/>
       <c r="K14" s="65"/>
@@ -46894,11 +46897,11 @@
         <v>101</v>
       </c>
       <c r="E15" s="91"/>
-      <c r="F15" s="622" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="623"/>
-      <c r="H15" s="624"/>
+      <c r="F15" s="631" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="632"/>
+      <c r="H15" s="633"/>
       <c r="I15" s="91"/>
       <c r="J15" s="65"/>
       <c r="K15" s="65"/>
@@ -46926,11 +46929,11 @@
         <v>100</v>
       </c>
       <c r="E17" s="91"/>
-      <c r="F17" s="622" t="s">
+      <c r="F17" s="631" t="s">
         <v>91</v>
       </c>
-      <c r="G17" s="623"/>
-      <c r="H17" s="624"/>
+      <c r="G17" s="632"/>
+      <c r="H17" s="633"/>
       <c r="I17" s="91"/>
       <c r="J17" s="65"/>
       <c r="K17" s="65"/>
@@ -46943,11 +46946,11 @@
         <v>77</v>
       </c>
       <c r="E18" s="91"/>
-      <c r="F18" s="622" t="s">
+      <c r="F18" s="631" t="s">
         <v>91</v>
       </c>
-      <c r="G18" s="623"/>
-      <c r="H18" s="624"/>
+      <c r="G18" s="632"/>
+      <c r="H18" s="633"/>
       <c r="I18" s="91"/>
       <c r="J18" s="65"/>
       <c r="K18" s="65"/>
@@ -46960,11 +46963,11 @@
         <v>78</v>
       </c>
       <c r="E19" s="65"/>
-      <c r="F19" s="625" t="s">
+      <c r="F19" s="628" t="s">
         <v>91</v>
       </c>
-      <c r="G19" s="626"/>
-      <c r="H19" s="627"/>
+      <c r="G19" s="629"/>
+      <c r="H19" s="630"/>
       <c r="I19" s="65"/>
       <c r="J19" s="65"/>
       <c r="K19" s="65"/>
@@ -46977,11 +46980,11 @@
         <v>79</v>
       </c>
       <c r="E20" s="65"/>
-      <c r="F20" s="625" t="s">
+      <c r="F20" s="628" t="s">
         <v>91</v>
       </c>
-      <c r="G20" s="626"/>
-      <c r="H20" s="627"/>
+      <c r="G20" s="629"/>
+      <c r="H20" s="630"/>
       <c r="I20" s="65"/>
       <c r="J20" s="65"/>
       <c r="K20" s="65"/>
@@ -46994,11 +46997,11 @@
         <v>89</v>
       </c>
       <c r="E21" s="66"/>
-      <c r="F21" s="631" t="s">
+      <c r="F21" s="625" t="s">
         <v>91</v>
       </c>
-      <c r="G21" s="632"/>
-      <c r="H21" s="633"/>
+      <c r="G21" s="626"/>
+      <c r="H21" s="627"/>
       <c r="I21" s="66"/>
       <c r="J21" s="66"/>
       <c r="K21" s="66"/>
@@ -47028,11 +47031,11 @@
       </c>
       <c r="D23" s="53"/>
       <c r="E23" s="65"/>
-      <c r="F23" s="625" t="s">
-        <v>63</v>
-      </c>
-      <c r="G23" s="626"/>
-      <c r="H23" s="627"/>
+      <c r="F23" s="628" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="629"/>
+      <c r="H23" s="630"/>
       <c r="I23" s="65"/>
       <c r="J23" s="65"/>
       <c r="K23" s="65"/>
@@ -47045,11 +47048,11 @@
       </c>
       <c r="D24" s="53"/>
       <c r="E24" s="65"/>
-      <c r="F24" s="625" t="s">
+      <c r="F24" s="628" t="s">
         <v>96</v>
       </c>
-      <c r="G24" s="626"/>
-      <c r="H24" s="627"/>
+      <c r="G24" s="629"/>
+      <c r="H24" s="630"/>
       <c r="I24" s="65"/>
       <c r="J24" s="65"/>
       <c r="K24" s="65"/>
@@ -47062,11 +47065,11 @@
         <v>103</v>
       </c>
       <c r="E25" s="65"/>
-      <c r="F25" s="625" t="s">
-        <v>63</v>
-      </c>
-      <c r="G25" s="626"/>
-      <c r="H25" s="627"/>
+      <c r="F25" s="628" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="629"/>
+      <c r="H25" s="630"/>
       <c r="I25" s="65"/>
       <c r="J25" s="65"/>
       <c r="K25" s="65"/>
@@ -47079,11 +47082,11 @@
       </c>
       <c r="D26" s="53"/>
       <c r="E26" s="65"/>
-      <c r="F26" s="625" t="s">
+      <c r="F26" s="628" t="s">
         <v>96</v>
       </c>
-      <c r="G26" s="626"/>
-      <c r="H26" s="627"/>
+      <c r="G26" s="629"/>
+      <c r="H26" s="630"/>
       <c r="I26" s="65"/>
       <c r="J26" s="65"/>
       <c r="K26" s="65"/>
@@ -47096,11 +47099,11 @@
         <v>105</v>
       </c>
       <c r="E27" s="65"/>
-      <c r="F27" s="625" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="626"/>
-      <c r="H27" s="627"/>
+      <c r="F27" s="628" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="629"/>
+      <c r="H27" s="630"/>
       <c r="I27" s="65"/>
       <c r="J27" s="65"/>
       <c r="K27" s="65"/>
@@ -47113,11 +47116,11 @@
       </c>
       <c r="D28" s="100"/>
       <c r="E28" s="65"/>
-      <c r="F28" s="625" t="s">
+      <c r="F28" s="628" t="s">
         <v>64</v>
       </c>
-      <c r="G28" s="626"/>
-      <c r="H28" s="627"/>
+      <c r="G28" s="629"/>
+      <c r="H28" s="630"/>
       <c r="I28" s="65"/>
       <c r="J28" s="65"/>
       <c r="K28" s="65"/>
@@ -47160,11 +47163,11 @@
         <v>100</v>
       </c>
       <c r="E31" s="65"/>
-      <c r="F31" s="625" t="s">
-        <v>63</v>
-      </c>
-      <c r="G31" s="626"/>
-      <c r="H31" s="627"/>
+      <c r="F31" s="628" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31" s="629"/>
+      <c r="H31" s="630"/>
       <c r="I31" s="65"/>
       <c r="J31" s="65"/>
       <c r="K31" s="65"/>
@@ -47177,11 +47180,11 @@
         <v>75</v>
       </c>
       <c r="E32" s="65"/>
-      <c r="F32" s="625" t="s">
-        <v>63</v>
-      </c>
-      <c r="G32" s="626"/>
-      <c r="H32" s="627"/>
+      <c r="F32" s="628" t="s">
+        <v>63</v>
+      </c>
+      <c r="G32" s="629"/>
+      <c r="H32" s="630"/>
       <c r="I32" s="65"/>
       <c r="J32" s="65"/>
       <c r="K32" s="65"/>
@@ -47194,11 +47197,11 @@
         <v>73</v>
       </c>
       <c r="E33" s="65"/>
-      <c r="F33" s="625" t="s">
+      <c r="F33" s="628" t="s">
         <v>64</v>
       </c>
-      <c r="G33" s="626"/>
-      <c r="H33" s="627"/>
+      <c r="G33" s="629"/>
+      <c r="H33" s="630"/>
       <c r="I33" s="65"/>
       <c r="J33" s="65"/>
       <c r="K33" s="65"/>
@@ -47344,9 +47347,9 @@
       <c r="C41" s="73"/>
       <c r="D41" s="53"/>
       <c r="E41" s="66"/>
-      <c r="F41" s="631"/>
-      <c r="G41" s="632"/>
-      <c r="H41" s="633"/>
+      <c r="F41" s="625"/>
+      <c r="G41" s="626"/>
+      <c r="H41" s="627"/>
       <c r="I41" s="66"/>
       <c r="J41" s="66"/>
       <c r="K41" s="66"/>
@@ -47361,9 +47364,9 @@
       <c r="C42" s="83"/>
       <c r="D42" s="55"/>
       <c r="E42" s="66"/>
-      <c r="F42" s="628"/>
-      <c r="G42" s="629"/>
-      <c r="H42" s="630"/>
+      <c r="F42" s="622"/>
+      <c r="G42" s="623"/>
+      <c r="H42" s="624"/>
       <c r="I42" s="66"/>
       <c r="J42" s="66"/>
       <c r="K42" s="66"/>
@@ -47424,19 +47427,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F23:H23"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A22:A41"/>
     <mergeCell ref="A4:A21"/>
@@ -47453,6 +47443,19 @@
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F23:H23"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:D42">
     <cfRule type="cellIs" dxfId="40" priority="5" operator="equal">
